--- a/my_data.xlsx
+++ b/my_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,13 +471,43 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>concat_update_judul</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>concat_update_tipe_kewajiban</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>concat_update_sanksi</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>concat_update_checklist</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>concat_update_peraturan_kewajiban</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>concat_update_peraturan_sanksi</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>hash</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -486,83 +516,70 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mengajukan surat permohonan mendapatkan Hak Akses kepada gubernur dari pimpinan Pengguna bagi Pengguna Daerah Provinsi untuk diteruskan kepada Direktur Jenderal Kependudukan dan Pencatatan Sipil</t>
+          <t>Dilarang memungut biaya terkait dengan pemanfaatan Data Kependudukan kepada masyarakat</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Continuous</t>
+          <t>Prohibition Shamir</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Administratif</t>
+          <t>Tidak Ada Sanksi Shamir</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1. Melampirkan dokumen pendukung sebagai persyaratan tambahan meliputi: a. akta pendirian/anggaran dasar/anggaran rumah tangga beserta perubahannya; b. keterangan domisili usaha; c. surat keterangan izin usaha; d. surat keputusan dari kementerian yang membidangi urusan hukum mengenai pengesahan badan hukum Indonesia; dan e. rekomendasi tertulis dari otoritas pembinaan dan pengawasan kegiatan usaha bagi badan hukum Indonesia.
-2. Menindaklanjuti dengan perjanjian kerja sama mengenai pemanfaatan Data Kependudukan antara Disdukcapil Provinsi dengan badan hukum Indonesia di tingkat provinsi dan tidak memiliki hubungan vertikal dengan badan hukum Indonesia di tingkat pusat, apabila permohonan disetujui.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>Peraturan Menteri Dalam Negeri Nomor 102 Tahun 2019@lt5e0ef88885892
 Kewajiban
-Pasal 10 &gt;&gt;&gt; @lt5e0ef88885892
-Persyaratan pemberian Hak Akses bagi Pengguna daerah provinsi dan daerah kabupaten/kota dengan mengajukan surat permohonan dari pimpinan Pengguna kepada Direktur Jenderal Kependudukan dan Pencatatan Sipil melalui Disdukcapil Provinsi dan Disdukcapil Kabupaten/Kota. 
-Pasal 11 &gt;&gt;&gt; @lt5e0ef88885892
-Tata cara pengajuan pemberian Hak Akses bagi Pengguna daerah provinsi dengan tahapan:
-a. pimpinan Pengguna mengajukan surat permohonan pemanfaatan Data Kependudukan secara tertulis kepada gubernur melalui Disdukcapil Provinsi;
-b. gubernur melalui Disdukcapil Provinsi meneruskan surat permohonan pemanfaatan Data Kependudukan sebagaimana dimaksud dalam huruf a, kepada Direktur Jenderal Kependudukan dan Pencatatan Sipil disertai dengan penjelasan yang paling sedikit memuat:
-1. nama Pengguna;
-2. tujuan pemanfaatan Data Kependudukan;
-3. elemen Data Kependudukan yang akan diakses;
-4. metode akses Data Kependudukan;
-5. data balikan yang akan diberikan; dan
-6. jangka waktu perjanjian kerja sama.
-c. Direktur Jenderal Kependudukan dan Pencatatan Sipil atas nama Menteri memberikan persetujuan atau penolakan atas permohonan pemanfaatan Data Kependudukan sebagaimana dimaksud dalam huruf b, dituangkan dalam bentuk surat;
-d. persetujuan Direktur Jenderal Kependudukan dan Pencatatan Sipil sebagaimana dimaksud dalam huruf c, ditindaklanjuti dengan perjanjian kerja sama antara:
-1. Disdukcapil Provinsi dengan perangkat daerah; atau
-2. Disdukcapil Provinsi dengan badan hukum Indonesia di tingkat provinsi dan tidak memiliki hubungan vertikal dengan badan hukum Indonesia di tingkat pusat.
-e. perjanjian kerja sama sebagaimana dimaksud dalam huruf d, disampaikan kepada Direktur Jenderal Kependudukan dan Pencatatan Sipil untuk dibukakan akses terhadap Data Warehouse;
-f. penolakan sebagaimana dimaksud dalam huruf c, dituangkan dalam bentuk surat;
-g. perjanjian kerja sama sebagaimana dimaksud dalam huruf e, paling sedikit memuat:
-1. pengaturan maksud, tujuan, hak, dan kewajiban, evaluasi dan pelaporan, jangka waktu, dan pembiayaan;
-2. para pihak dalam perjanjian kerja sama sebagaimana dimaksud dalam huruf d, dilarang memberikan Data Kependudukan kepada pihak ketiga; dan
-3. larangan menggunakan Data Kependudukan tidak sesuai dengan perjanjian kerja sama.
-h. penandatanganan terhadap:
-1. perjanjian kerja sama dilakukan oleh kepala Disdukcapil Provinsi dengan kepala perangkat daerah; dan
-2. perjanjian kerja sama yang telah disepakati oleh kedua belah pihak ditandatangani oleh kepala Disdukcapil Provinsi dengan pimpinan badan hukum Indonesia yang memberikan pelayanan publik di tingkat provinsi dan tidak memiliki hubungan vertikal dengan badan hukum Indonesia di tingkat pusat.
-Pasal 15 &gt;&gt;&gt; @lt5e0ef88885892
-(1) Pengguna yang merupakan badan hukum Indonesia dalam mengajukan permohonan tertulis sebagaimana dimaksud dalam Pasal 7, Pasal 11, dan Pasal 12 melampirkan dokumen pendukung sebagai persyaratan tambahan.
-(2) Dokumen pendukung sebagai persyaratan tambahan sebagaimana dimaksud pada ayat (1), meliputi:
-a. akta pendirian/anggaran dasar/anggaran rumah tangga beserta perubahannya;
-b. keterangan domisili usaha;
-c. surat keterangan izin usaha;
-d. surat keputusan dari kementerian yang membidangi urusan hukum mengenai pengesahan badan hukum Indonesia; dan
-e. rekomendasi tertulis dari otoritas pembinaan dan pengawasan kegiatan usaha bagi badan hukum Indonesia.
-(3) Penerbitan dokumen pendukung sebagaimana dimaksud pada ayat (2), sesuai dengan ketentuan peraturan perundang-undangan.</t>
+Pasal 38A &gt;&gt;&gt; @lt658cda2d1e883
+Setiap Pengguna yang mengakses Data Kependudukan dilarang memungut biaya kepada masyarakat.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Peraturan Menteri Dalam Negeri Nomor 102 Tahun 2019@lt5e0ef88885892
-Sanksi
-Pasal 45 &gt;&gt;&gt; @lt658cda2d1e883
-Pengguna yang melanggar ketentuan [...], Pasal 11 huruf g angka 2 dan angka 3, [...] dikenakan sanksi administratif dalam bentuk:
-a. teguran;
-b. pengurangan kuota Hak Akses;
-c. penonaktifan user identity;
-d. pemutusan jaringan;
-e. penonaktifan card reader;
-f. pencabutan surat persetujuan penggunaan card reader; atau
-g. pengakhiran kerja sama.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>803a80356bd6bb3fd205c01afadf838b459264298ad6bcf60cebd7a6f7133e0b</t>
+          <t>dilarangmemungutbiayaterkaitdenganpemanfaatandatakependudukankepadamasyarakat</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>prohibitionshamir</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>tidakadasanksishamir</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>peraturanmenteridalamnegerinomor102tahun2019@lt5e0ef88885892kewajibanpasal38a&gt;&gt;&gt;@lt658cda2d1e883setiappenggunayangmengaksesdatakependudukandilarangmemungutbiayakepadamasyarakat.</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>380cc0f57fe429ecb2632c00cb6f74540e377859247060593812e9d0d7fe4a12</t>
         </is>
       </c>
     </row>

--- a/my_data.xlsx
+++ b/my_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,79 +507,605 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Administrasi Kependudukan&gt;Pemanfaatan Data Kependudukan</t>
+          <t>Limbah Bahan Berbahaya dan Beracun&gt;Penanganan Sampah yang Mengandung B3 dan/atau Limbah B3 yang Timbul Akibat Bencana</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Dilarang memungut biaya terkait dengan pemanfaatan Data Kependudukan kepada masyarakat</t>
+          <t>Melakukan pemilahan Sampah yang Mengandung B3 dan/atau Sampah yang Mengandung Limbah B3 di lokasi terjadinya Bencana</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Prohibition Shamir</t>
+          <t>Continuous</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Tidak Ada Sanksi Shamir</t>
+          <t>Tidak Ada Sanksi</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>1. Memastikan pemilahan dilakukan di sarana pengelolaan Sampah yang Timbul Akibat Bencana yang disediakan oleh pemerintah pusat, pemerintah daerah provinsi, dan pemerintah daerah kabupaten/kota.
+2. Memastikan sarana pengelolaan Sampah yang Timbul Akibat Bencana berupa wadah memenuhi ketentuan: a. dibedakan sesuai dengan jenis Sampah; b. kedap air; c. tertutup; d. mudah dipindahkan; e. mudah dikosongkan dan dibersihkan; dan f. memiliki volume wadah yang disesuaikan dengan jumlah timbulan Sampah.
+3. Memastikan sarana pengelolaan Sampah yang Timbul Akibat Bencana berupa area pemilahan Sampah yang Timbul Akibat Bencana memenuhi ketentuan: a. luas area disesuaikan dengan jumlah dan jenis timbulan Sampah yang Timbul Akibat Bencana; b. berada sedekat mungkin dengan daerah pelayanan dalam radius tidak lebih dari radius 1 (satu) kilometer; c. lokasi mudah diakses; dan d. terlindungi dari hujan.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Peraturan Menteri Lingkungan Hidup dan Kehutanan Nomor 1 Tahun 2024@lt65bb45bd5609b
+Kewajiban
+Pasal 5
+(1) Penanganan Sampah yang Timbul Akibat Bencana dilakukan melalui tahapan:
+a. pemilahan;
+[...]
+Pasal 6
+(1) Pemilahan dilakukan di sumber Sampah meliputi:
+a. lokasi terjadinya Bencana; dan
+[...]
+(2) Pemilahan di lokasi terjadinya Bencana dikelompokkan berdasarkan jenis Sampah yang meliputi:
+a. Sampah yang Mengandung B3 dan/atau Sampah yang Mengandung Limbah B3.
+[...]
+(4) Sampah yang Mengandung B3 dan/atau Sampah yang Mengandung Limbah B3 sebagaimana dimaksud pada ayat (2) huruf a dan ayat (3) huruf a terdiri atas:
+a. produk rumah tangga yang mengandung B3 dan/atau Limbah B3;
+b. Sampah bekas kemasan produk yang mengandung B3 dan /atau Limbah B3 dan tidak digunakan lagi;
+c. Sampah barang elektronik yang telah rusak dan/atau tidak digunakan lagi; dan/atau
+d. B3 kedaluwarsa dan B3 tumpah.
+Pasal 8
+(1) Pemilahan sebagaimana dimaksud dalam Pasal 6 dilakukan di sarana pengelolaan Sampah yang Timbul Akibat Bencana yang disediakan oleh pemerintah pusat, pemerintah daerah provinsi, dan pemerintah daerah kabupaten/kota.
+(2) Sarana pengelolaan Sampah yang Timbul Akibat Bencana sebagaimana dimaksud pada ayat (1) berupa:
+a. wadah; dan/atau
+b. area pemilahan Sampah yang Timbul Akibat Bencana.
+(3) Wadah sebagaimana dimaksud pada ayat (2) huruf a harus memenuhi ketentuan:
+a. dibedakan sesuai dengan jenis Sampah sebagaimana dimaksud dalam Pasal 6 ayat (2) dan ayat (3);
+b. kedap air;
+c. tertutup;
+d. mudah dipindahkan;
+e. mudah dikosongkan dan dibersihkan; dan
+f. memiliki volume wadah yang disesuaikan dengan jumlah timbulan Sampah.
+(4) Area pemilahan sebagaimana dimaksud pada ayat (2) huruf b harus memenuhi ketentuan:
+a. luas area disesuaikan dengan jumlah dan jenis timbulan Sampah yang Timbul Akibat Bencana;
+b. berada sedekat mungkin dengan daerah pelayanan dalam radius tidak lebih dari radius 1 (satu) kilometer;
+c. lokasi mudah diakses; dan
+d. terlindungi dari hujan.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Peraturan Menteri Dalam Negeri Nomor 102 Tahun 2019@lt5e0ef88885892
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>melakukanpemilahansampahyangmengandungb3dan/atausampahyangmengandunglimbahb3dilokasiterjadinyabencana</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>tidakadasanksi</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1.memastikanpemilahandilakukandisaranapengelolaansampahyangtimbulakibatbencanayangdisediakanolehpemerintahpusat,pemerintahdaerahprovinsi,danpemerintahdaerahkabupaten/kota.2.memastikansaranapengelolaansampahyangtimbulakibatbencanaberupawadahmemenuhiketentuan:a.dibedakansesuaidenganjenissampah;b.kedapair;c.tertutup;d.mudahdipindahkan;e.mudahdikosongkandandibersihkan;danf.memilikivolumewadahyangdisesuaikandenganjumlahtimbulansampah.3.memastikansaranapengelolaansampahyangtimbulakibatbencanaberupaareapemilahansampahyangtimbulakibatbencanamemenuhiketentuan:a.luasareadisesuaikandenganjumlahdanjenistimbulansampahyangtimbulakibatbencana;b.beradasedekatmungkindengandaerahpelayanandalamradiustidaklebihdariradius1(satu)kilometer;c.lokasimudahdiakses;dand.terlindungidarihujan.</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>peraturanmenterilingkunganhidupdankehutanannomor1tahun2024kewajibanpasal5(1)penanganansampahyangtimbulakibatbencanadilakukanmelaluitahapan:a.pemilahan;[...]pasal6(1)pemilahandilakukandisumbersampahmeliputi:a.lokasiterjadinyabencana;dan[...](2)pemilahandilokasiterjadinyabencanadikelompokkanberdasarkanjenissampahyangmeliputi:a.sampahyangmengandungb3dan/atausampahyangmengandunglimbahb3.[...](4)sampahyangmengandungb3dan/atausampahyangmengandunglimbahb3sebagaimanadimaksudpadaayat(2)hurufadanayat(3)hurufaterdiriatas:a.produkrumahtanggayangmengandungb3dan/ataulimbahb3;b.sampahbekaskemasanprodukyangmengandungb3dan/ataulimbahb3dantidakdigunakanlagi;c.sampahbarangelektronikyangtelahrusakdan/atautidakdigunakanlagi;dan/ataud.b3kedaluwarsadanb3tumpah.pasal8(1)pemilahansebagaimanadimaksuddalampasal6dilakukandisaranapengelolaansampahyangtimbulakibatbencanayangdisediakanolehpemerintahpusat,pemerintahdaerahprovinsi,danpemerintahdaerahkabupaten/kota.(2)saranapengelolaansampahyangtimbulakibatbencanasebagaimanadimaksudpadaayat(1)berupa:a.wadah;dan/ataub.areapemilahansampahyangtimbulakibatbencana.(3)wadahsebagaimanadimaksudpadaayat(2)hurufaharusmemenuhiketentuan:a.dibedakansesuaidenganjenissampahsebagaimanadimaksuddalampasal6ayat(2)danayat(3);b.kedapair;c.tertutup;d.mudahdipindahkan;e.mudahdikosongkandandibersihkan;danf.memilikivolumewadahyangdisesuaikandenganjumlahtimbulansampah.(4)areapemilahansebagaimanadimaksudpadaayat(2)hurufbharusmemenuhiketentuan:a.luasareadisesuaikandenganjumlahdanjenistimbulansampahyangtimbulakibatbencana;b.beradasedekatmungkindengandaerahpelayanandalamradiustidaklebihdariradius1(satu)kilometer;c.lokasimudahdiakses;dand.terlindungidarihujan.</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>8712d91b6b66d61c3f015f96b86365a332deb6ac0ee89b845cd8980050dde4f2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Limbah Bahan Berbahaya dan Beracun&gt;Penanganan Sampah yang Mengandung B3 dan/atau Limbah B3 yang Timbul Akibat Bencana</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Melakukan pemilahan Sampah yang Mengandung B3 dan/atau Sampah yang Mengandung Limbah B3 di area pengungsian</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Tidak Ada Sanksi</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1. Memastikan pemilahan dilakukan di sarana pengelolaan Sampah yang Timbul Akibat Bencana yang disediakan oleh pemerintah pusat, pemerintah daerah provinsi, dan pemerintah daerah kabupaten/kota.
+2. Memastikan sarana pengelolaan Sampah yang Timbul Akibat Bencana berupa wadah memenuhi ketentuan: a. dibedakan sesuai dengan jenis Sampah; b. kedap air; c. tertutup; d. mudah dipindahkan; e. mudah dikosongkan dan dibersihkan; dan f. memiliki volume wadah yang disesuaikan dengan jumlah timbulan Sampah.
+3. Memastikan sarana pengelolaan Sampah yang Timbul Akibat Bencana berupa area pemilahan Sampah yang Timbul Akibat Bencana memenuhi ketentuan: a. luas area disesuaikan dengan jumlah dan jenis timbulan Sampah yang Timbul Akibat Bencana; b. berada sedekat mungkin dengan daerah pelayanan dalam radius tidak lebih dari radius 1 (satu) kilometer; c. lokasi mudah diakses; dan d. terlindungi dari hujan.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Peraturan Menteri Lingkungan Hidup dan Kehutanan Nomor 1 Tahun 2024@lt65bb45bd5609b
 Kewajiban
-Pasal 38A &gt;&gt;&gt; @lt658cda2d1e883
-Setiap Pengguna yang mengakses Data Kependudukan dilarang memungut biaya kepada masyarakat.</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+Pasal 5
+(1) Penanganan Sampah yang Timbul Akibat Bencana dilakukan melalui tahapan:
+a. pemilahan;
+[...]
+Pasal 6
+(1) Pemilahan dilakukan di sumber Sampah meliputi:
+[...]
+b. area pengungsian.
+[...]
+(3) Pemilahan Sampah yang Timbul Akibat Bencana di area pengungsian dikelompokkan berdasarkan jenis Sampah yang meliputi:
+a. Sampah yang Mengandung B3 dan/atau Sampah yang Mengandung Limbah B3;
+[...]
+(4) Sampah yang Mengandung B3 dan/atau Sampah yang Mengandung Limbah B3 sebagaimana dimaksud pada ayat (2) huruf a dan ayat (3) huruf a terdiri atas:
+a. produk rumah tangga yang mengandung B3 dan/atau Limbah B3;
+b. Sampah bekas kemasan produk yang mengandung B3 dan /atau Limbah B3 dan tidak digunakan lagi;
+c. Sampah barang elektronik yang telah rusak dan/atau tidak digunakan lagi; dan/atau
+d. B3 kedaluwarsa dan B3 tumpah.
+[...]
+Pasal 8
+(1) Pemilahan sebagaimana dimaksud dalam Pasal 6 dilakukan di sarana pengelolaan Sampah yang Timbul Akibat Bencana yang disediakan oleh pemerintah pusat, pemerintah daerah provinsi, dan pemerintah daerah kabupaten/kota.
+(2) Sarana pengelolaan Sampah yang Timbul Akibat Bencana sebagaimana dimaksud pada ayat (1) berupa:
+a. wadah; dan/atau
+b. area pemilahan Sampah yang Timbul Akibat Bencana.
+(3) Wadah sebagaimana dimaksud pada ayat (2) huruf a harus memenuhi ketentuan:
+a. dibedakan sesuai dengan jenis Sampah sebagaimana dimaksud dalam Pasal 6 ayat (2) dan ayat (3);
+b. kedap air;
+c. tertutup;
+d. mudah dipindahkan;
+e. mudah dikosongkan dan dibersihkan; dan
+f. memiliki volume wadah yang disesuaikan dengan jumlah timbulan Sampah.
+(4) Area pemilahan sebagaimana dimaksud pada ayat (2) huruf b harus memenuhi ketentuan:
+a. luas area disesuaikan dengan jumlah dan jenis timbulan Sampah yang Timbul Akibat Bencana;
+b. berada sedekat mungkin dengan daerah pelayanan dalam radius tidak lebih dari radius 1 (satu) kilometer;
+c. lokasi mudah diakses; dan
+d. terlindungi dari hujan.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>dilarangmemungutbiayaterkaitdenganpemanfaatandatakependudukankepadamasyarakat</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>prohibitionshamir</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>tidakadasanksishamir</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>melakukanpemilahansampahyangmengandungb3dan/atausampahyangmengandunglimbahb3diareapengungsian</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>tidakadasanksi</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1.memastikanpemilahandilakukandisaranapengelolaansampahyangtimbulakibatbencanayangdisediakanolehpemerintahpusat,pemerintahdaerahprovinsi,danpemerintahdaerahkabupaten/kota.2.memastikansaranapengelolaansampahyangtimbulakibatbencanaberupawadahmemenuhiketentuan:a.dibedakansesuaidenganjenissampah;b.kedapair;c.tertutup;d.mudahdipindahkan;e.mudahdikosongkandandibersihkan;danf.memilikivolumewadahyangdisesuaikandenganjumlahtimbulansampah.3.memastikansaranapengelolaansampahyangtimbulakibatbencanaberupaareapemilahansampahyangtimbulakibatbencanamemenuhiketentuan:a.luasareadisesuaikandenganjumlahdanjenistimbulansampahyangtimbulakibatbencana;b.beradasedekatmungkindengandaerahpelayanandalamradiustidaklebihdariradius1(satu)kilometer;c.lokasimudahdiakses;dand.terlindungidarihujan.</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>peraturanmenterilingkunganhidupdankehutanannomor1tahun2024kewajibanpasal5(1)penanganansampahyangtimbulakibatbencanadilakukanmelaluitahapan:a.pemilahan;[...]pasal6(1)pemilahandilakukandisumbersampahmeliputi:[...]b.areapengungsian.[...](3)pemilahansampahyangtimbulakibatbencanadiareapengungsiandikelompokkanberdasarkanjenissampahyangmeliputi:a.sampahyangmengandungb3dan/atausampahyangmengandunglimbahb3;[...](4)sampahyangmengandungb3dan/atausampahyangmengandunglimbahb3sebagaimanadimaksudpadaayat(2)hurufadanayat(3)hurufaterdiriatas:a.produkrumahtanggayangmengandungb3dan/ataulimbahb3;b.sampahbekaskemasanprodukyangmengandungb3dan/ataulimbahb3dantidakdigunakanlagi;c.sampahbarangelektronikyangtelahrusakdan/atautidakdigunakanlagi;dan/ataud.b3kedaluwarsadanb3tumpah.[...]pasal8(1)pemilahansebagaimanadimaksuddalampasal6dilakukandisaranapengelolaansampahyangtimbulakibatbencanayangdisediakanolehpemerintahpusat,pemerintahdaerahprovinsi,danpemerintahdaerahkabupaten/kota.(2)saranapengelolaansampahyangtimbulakibatbencanasebagaimanadimaksudpadaayat(1)berupa:a.wadah;dan/ataub.areapemilahansampahyangtimbulakibatbencana.(3)wadahsebagaimanadimaksudpadaayat(2)hurufaharusmemenuhiketentuan:a.dibedakansesuaidenganjenissampahsebagaimanadimaksuddalampasal6ayat(2)danayat(3);b.kedapair;c.tertutup;d.mudahdipindahkan;e.mudahdikosongkandandibersihkan;danf.memilikivolumewadahyangdisesuaikandenganjumlahtimbulansampah.(4)areapemilahansebagaimanadimaksudpadaayat(2)hurufbharusmemenuhiketentuan:a.luasareadisesuaikandenganjumlahdanjenistimbulansampahyangtimbulakibatbencana;b.beradasedekatmungkindengandaerahpelayanandalamradiustidaklebihdariradius1(satu)kilometer;c.lokasimudahdiakses;dand.terlindungidarihujan.</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>peraturanmenteridalamnegerinomor102tahun2019@lt5e0ef88885892kewajibanpasal38a&gt;&gt;&gt;@lt658cda2d1e883setiappenggunayangmengaksesdatakependudukandilarangmemungutbiayakepadamasyarakat.</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>6143699a9b20052a5f4771cfdee6e03a8b00b22e5cab44270b5f202863ed8fbd</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Limbah Bahan Berbahaya dan Beracun&gt;Penanganan Sampah yang Mengandung B3 dan/atau Limbah B3 yang Timbul Akibat Bencana</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Melakukan pengangkutan terhadap Sampah terpilah dengan menggunakan alat angkut yang disesuaikan dengan kondisi Sampah yang Mengandung B3 dan/atau Sampah yang Mengandung Limbah B3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Tidak Ada Sanksi</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Memastikan pengangkutan terhadap Sampah yang Mengandung B3 dan/atau Limbah B3 dilaksanakan sesuai dengan ketentuan peraturan perundang-undangan.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Peraturan Menteri Lingkungan Hidup dan Kehutanan Nomor 1 Tahun 2024@lt65bb45bd5609b
+Kewajiban
+Pasal 12
+(1) Pengangkutan Sampah dilakukan dengan ketentuan:
+a. dilakukan terhadap Sampah terpilah berdasarkan kelompok Sampah; dan
+b. menggunakan alat angkut yang disesuaikan dengan kondisi dan/atau kelompok Sampah.
+(2) Kondisi sampah sebagaimana dimaksud pada ayat (1) huruf b meliputi:
+a. Sampah basah; dan
+b. Sampah kering.
+(3) Ketentuan pengangkutan sebagaimana dimaksud pada ayat (1) huruf b dapat dikecualikan dalam hal:
+a. lokasi timbulan Sampah sulit untuk dicapai dengan alat angkut; dan/atau
+b. alat angkut yang tersedia tidak memadai.
+Pasal 13
+(1) Pengangkutan Sampah dilakukan dari:
+a. sumber Sampah sebagaimana dimaksud dalam Pasal 6 ayat (1) ke:
+1. area pemilahan Sampah yang Timbul Akibat Bencana; atau
+2. tempat pemrosesan akhir untuk Sampah yang tidak dapat dilakukan pemanfaatan kembali dan/atau pengolahan;
+b. area Pemilahan Sampah yang Timbul Akibat Bencana ke:
+1. pemanfaat;
+2. fasilitas pengolahan; atau
+3. tempat pemrosesan akhir untuk Sampah yang tidak dapat dilakukan pemanfaatan kembali dan/atau pengolahan; dan
+c. fasilitas pengolahan ke tempat pemrosesan akhir untuk residu hasil pengolahan.
+(2) Dalam hal pengangkutan dilakukan terhadap sampah yang Mengandung B3 dan/atau Limbah B3, pengangkutan dilaksanakan sesuai dengan ketentuan peraturan perundang-undangan.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>380cc0f57fe429ecb2632c00cb6f74540e377859247060593812e9d0d7fe4a12</t>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>melakukanpengangkutanterhadapsampahterpilahdenganmenggunakanalatangkutyangdisesuaikandengankondisisampahyangmengandungb3dan/atausampahyangmengandunglimbahb3</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>tidakadasanksi</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>memastikanpengangkutanterhadapsampahyangmengandungb3dan/ataulimbahb3dilaksanakansesuaidenganketentuanperaturanperundang-undangan.</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>peraturanmenterilingkunganhidupdankehutanannomor1tahun2024kewajibanpasal12(1)pengangkutansampahdilakukandenganketentuan:a.dilakukanterhadapsampahterpilahberdasarkankelompoksampah;danb.menggunakanalatangkutyangdisesuaikandengankondisidan/ataukelompoksampah.(2)kondisisampahsebagaimanadimaksudpadaayat(1)hurufbmeliputi:a.sampahbasah;danb.sampahkering.(3)ketentuanpengangkutansebagaimanadimaksudpadaayat(1)hurufbdapatdikecualikandalamhal:a.lokasitimbulansampahsulituntukdicapaidenganalatangkut;dan/ataub.alatangkutyangtersediatidakmemadai.pasal13(1)pengangkutansampahdilakukandari:a.sumbersampahsebagaimanadimaksuddalampasal6ayat(1)ke:1.areapemilahansampahyangtimbulakibatbencana;atau2.tempatpemrosesanakhiruntuksampahyangtidakdapatdilakukanpemanfaatankembalidan/ataupengolahan;b.areapemilahansampahyangtimbulakibatbencanake:1.pemanfaat;2.fasilitaspengolahan;atau3.tempatpemrosesanakhiruntuksampahyangtidakdapatdilakukanpemanfaatankembalidan/ataupengolahan;danc.fasilitaspengolahanketempatpemrosesanakhiruntukresiduhasilpengolahan.(2)dalamhalpengangkutandilakukanterhadapsampahyangmengandungb3dan/ataulimbahb3,pengangkutandilaksanakansesuaidenganketentuanperaturanperundang-undangan.</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>319b50e166a40122ed2ace8c38997ecd2e04502f426141be31fff925e97767f2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Limbah Bahan Berbahaya dan Beracun&gt;Penanganan Sampah yang Mengandung B3 dan/atau Limbah B3 yang Timbul Akibat Bencana</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Melakukan pengangkutan terhadap Sampah terpilah dengan menggunakan alat angkut yang disesuaikan dengan jenis Sampah yang Mengandung B3 dan/atau Sampah yang Mengandung Limbah B3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Tidak Ada Sanksi</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Memastikan pengangkutan terhadap Sampah yang Mengandung B3 dan/atau Limbah B3 dilaksanakan sesuai dengan ketentuan peraturan perundang-undangan.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Peraturan Menteri Lingkungan Hidup dan Kehutanan Nomor 1 Tahun 2024@lt65bb45bd5609b
+Kewajiban
+Pasal 6
+(1) Pemilahan dilakukan di sumber Sampah meliputi:
+a. lokasi terjadinya Bencana; dan
+b. area pengungsian.
+(2) Pemilahan di lokasi terjadinya Bencana dikelompokkan berdasarkan jenis Sampah yang meliputi:
+a. Sampah yang Mengandung B3 dan/atau Sampah yang Mengandung Limbah B3;
+[...]
+(3) Pemilahan Sampah yang Timbul Akibat Bencana di area pengungsian dikelompokkan berdasarkan jenis Sampah yang meliputi:
+a. Sampah yang Mengandung B3 dan/atau Sampah yang Mengandung Limbah B3;
+[...]
+Pasal 12
+(1) Pengangkutan Sampah dilakukan dengan ketentuan:
+a. dilakukan terhadap Sampah terpilah berdasarkan kelompok Sampah; dan
+b. menggunakan alat angkut yang disesuaikan dengan kondisi dan/atau kelompok Sampah.
+[...]
+(3) Ketentuan pengangkutan sebagaimana dimaksud pada ayat (1) huruf b dapat dikecualikan dalam hal:
+a. lokasi timbulan Sampah sulit untuk dicapai dengan alat angkut; dan/atau
+b. alat angkut yang tersedia tidak memadai.
+Pasal 13
+(1) Pengangkutan Sampah dilakukan dari:
+a. sumber Sampah sebagaimana dimaksud dalam Pasal 6 ayat (1) ke:
+1. area pemilahan Sampah yang Timbul Akibat Bencana; atau
+2. tempat pemrosesan akhir untuk Sampah yang tidak dapat dilakukan pemanfaatan kembali dan/atau pengolahan;
+b. area Pemilahan Sampah yang Timbul Akibat Bencana ke:
+1. pemanfaat;
+2. fasilitas pengolahan; atau
+3. tempat pemrosesan akhir untuk Sampah yang tidak dapat dilakukan pemanfaatan kembali dan/atau pengolahan; dan
+c. fasilitas pengolahan ke tempat pemrosesan akhir untuk residu hasil pengolahan.
+(2) Dalam hal pengangkutan dilakukan terhadap sampah yang Mengandung B3 dan/atau Limbah B3, pengangkutan dilaksanakan sesuai dengan ketentuan peraturan perundang-undangan.</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>melakukanpengangkutanterhadapsampahterpilahdenganmenggunakanalatangkutyangdisesuaikandenganjenissampahyangmengandungb3dan/atausampahyangmengandunglimbahb3</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>tidakadasanksi</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>memastikanpengangkutanterhadapsampahyangmengandungb3dan/ataulimbahb3dilaksanakansesuaidenganketentuanperaturanperundang-undangan.</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>peraturanmenterilingkunganhidupdankehutanannomor1tahun2024kewajibanpasal6(1)pemilahandilakukandisumbersampahmeliputi:a.lokasiterjadinyabencana;danb.areapengungsian.(2)pemilahandilokasiterjadinyabencanadikelompokkanberdasarkanjenissampahyangmeliputi:a.sampahyangmengandungb3dan/atausampahyangmengandunglimbahb3;[...](3)pemilahansampahyangtimbulakibatbencanadiareapengungsiandikelompokkanberdasarkanjenissampahyangmeliputi:a.sampahyangmengandungb3dan/atausampahyangmengandunglimbahb3;[...]pasal12(1)pengangkutansampahdilakukandenganketentuan:a.dilakukanterhadapsampahterpilahberdasarkankelompoksampah;danb.menggunakanalatangkutyangdisesuaikandengankondisidan/ataukelompoksampah.[...](3)ketentuanpengangkutansebagaimanadimaksudpadaayat(1)hurufbdapatdikecualikandalamhal:a.lokasitimbulansampahsulituntukdicapaidenganalatangkut;dan/ataub.alatangkutyangtersediatidakmemadai.pasal13(1)pengangkutansampahdilakukandari:a.sumbersampahsebagaimanadimaksuddalampasal6ayat(1)ke:1.areapemilahansampahyangtimbulakibatbencana;atau2.tempatpemrosesanakhiruntuksampahyangtidakdapatdilakukanpemanfaatankembalidan/ataupengolahan;b.areapemilahansampahyangtimbulakibatbencanake:1.pemanfaat;2.fasilitaspengolahan;atau3.tempatpemrosesanakhiruntuksampahyangtidakdapatdilakukanpemanfaatankembalidan/ataupengolahan;danc.fasilitaspengolahanketempatpemrosesanakhiruntukresiduhasilpengolahan.(2)dalamhalpengangkutandilakukanterhadapsampahyangmengandungb3dan/ataulimbahb3,pengangkutandilaksanakansesuaidenganketentuanperaturanperundang-undangan.</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>a01fd35e2c48f6f3b8f2891a53c74727f7d4b04b67c18b0025ff035316ea5dd8</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Limbah Bahan Berbahaya dan Beracun&gt;Penanganan Sampah yang Mengandung B3 dan/atau Limbah B3 yang Timbul Akibat Bencana</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Melakukan pemanfaatan kembali dengan cara mengguna ulang Sampah yang masih bermanfaat tanpa melalui suatu proses pengolahan terlebih dahulu untuk Sampah yang Mengandung B3 dan/atau Limbah B3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Tidak Ada Sanksi</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Memastikan pemanfaatan kembali Sampah yang mengandung B3 dan/atau Sampah yang Mengandung Limbah B3 dilaksanakan sesuai dengan ketentuan peraturan perundang-undangan di bidang pengelolaan Limbah B3.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Peraturan Menteri Lingkungan Hidup dan Kehutanan Nomor 1 Tahun 2024@lt65bb45bd5609b
+Kewajiban
+Pasal 14
+(1) Pemanfaatan kembali Sampah yang Timbul Akibat Bencana dilakukan terhadap Sampah yang dapat langsung digunakan.
+(2) Pemanfaatan kembali sebagaimana dimaksud pada ayat (1) dilakukan dengan cara:
+[...]
+b. mengguna ulang Sampah yang masih bermanfaat tanpa melalui suatu proses pengolahan terlebih dahulu, untuk Sampah yang Mengandung B3 dan/atau Sampah yang Mengandung Limbah B3.
+(3) Pemanfaatan kembali Sampah yang mengandung B3 dan/atau Sampah yang Mengandung Limbah B3 sebagaimana dimaksud pada ayat (2) huruf b dilaksanakan sesuai dengan ketentuan peraturan perundang-undangan di bidang pengelolaan Limbah B3.
+[...]
+Pasal 15
+(1) Pemanfaatan kembali Sampah sebagaimana dimaksud dalam Pasal 14 dilakukan oleh:
+[...]
+b. badan usaha.
+[...]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>melakukanpemanfaatankembalidengancaramenggunaulangsampahyangmasihbermanfaattanpamelaluisuatuprosespengolahanterlebihdahuluuntuksampahyangmengandungb3dan/ataulimbahb3</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>tidakadasanksi</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>memastikanpemanfaatankembalisampahyangmengandungb3dan/atausampahyangmengandunglimbahb3dilaksanakansesuaidenganketentuanperaturanperundang-undangandibidangpengelolaanlimbahb3.</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>peraturanmenterilingkunganhidupdankehutanannomor1tahun2024kewajibanpasal14(1)pemanfaatankembalisampahyangtimbulakibatbencanadilakukanterhadapsampahyangdapatlangsungdigunakan.(2)pemanfaatankembalisebagaimanadimaksudpadaayat(1)dilakukandengancara:[...]b.menggunaulangsampahyangmasihbermanfaattanpamelaluisuatuprosespengolahanterlebihdahulu,untuksampahyangmengandungb3dan/atausampahyangmengandunglimbahb3.(3)pemanfaatankembalisampahyangmengandungb3dan/atausampahyangmengandunglimbahb3sebagaimanadimaksudpadaayat(2)hurufbdilaksanakansesuaidenganketentuanperaturanperundang-undangandibidangpengelolaanlimbahb3.[...]pasal15(1)pemanfaatankembalisampahsebagaimanadimaksuddalampasal14dilakukanoleh:[...]b.badanusaha.[...]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>fd1ad79b3205d919fa83eec3bfa338f5de11a6fdddae016299ae8441566263a7</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Limbah Bahan Berbahaya dan Beracun&gt;Penanganan Sampah yang Mengandung B3 dan/atau Limbah B3 yang Timbul Akibat Bencana</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Melakukan pengolahan Sampah yang Mengandung B3 dan/atau Sampah yang Mengandung Limbah B3 sesuai dengan ketentuan peraturan perundang-undangan di bidang pengelolaan limbah B3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Tidak Ada Sanksi</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Memastikan pengolahan Sampah yang Mengandung B3 dan/atau Sampah yang Mengandung Limbah B3 dilaksanakan sesuai dengan ketentuan peraturan perundang-undangan di bidang pengelolaan Limbah B3.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Peraturan Menteri Lingkungan Hidup dan Kehutanan Nomor 1 Tahun 2024@lt65bb45bd5609b
+Kewajiban
+Pasal 16
+(1) Pengolahan Sampah yang Timbul Akibat Bencana dilakukan terhadap jenis Sampah yang tidak dapat dimanfaatkan kembali.
+(2) Pengolahan Sampah yang Timbul Akibat Bencana dilakukan dengan cara:
+a. biodigester;
+b. termal;
+c. stabilisasi dan solidifikasi; dan/atau
+d. cara lain sesuai dengan perkembangan ilmu pengetahuan dan/atau teknologi.
+(3) Cara pengolahan sebagaimana dimaksud pada ayat (2) dipilih dengan mempertimbangkan hasil pengolahan yang mempunyai nilai ekonomi dan dapat dimanfaatkan.
+(4) Pengolahan Sampah yang Mengandung B3 dan/atau Sampah yang Mengandung Limbah B3 dilaksanakan sesuai dengan ketentuan peraturan perundang-undangan di bidang pengelolaan Limbah B3.
+Pasal 17
+(1) Pengolahan Sampah sebagaimana dimaksud dalam Pasal 16 dilakukan oleh:
+[...]
+b. badan usaha.
+[...]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>melakukanpengolahansampahyangmengandungb3dan/atausampahyangmengandunglimbahb3sesuaidenganketentuanperaturanperundang-undangandibidangpengelolaanlimbahb3</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>tidakadasanksi</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>memastikanpengolahansampahyangmengandungb3dan/atausampahyangmengandunglimbahb3dilaksanakansesuaidenganketentuanperaturanperundang-undangandibidangpengelolaanlimbahb3.</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>peraturanmenterilingkunganhidupdankehutanannomor1tahun2024kewajibanpasal16(1)pengolahansampahyangtimbulakibatbencanadilakukanterhadapjenissampahyangtidakdapatdimanfaatkankembali.(2)pengolahansampahyangtimbulakibatbencanadilakukandengancara:a.biodigester;b.termal;c.stabilisasidansolidifikasi;dan/ataud.caralainsesuaidenganperkembanganilmupengetahuandan/atauteknologi.(3)carapengolahansebagaimanadimaksudpadaayat(2)dipilihdenganmempertimbangkanhasilpengolahanyangmempunyainilaiekonomidandapatdimanfaatkan.(4)pengolahansampahyangmengandungb3dan/atausampahyangmengandunglimbahb3dilaksanakansesuaidenganketentuanperaturanperundang-undangandibidangpengelolaanlimbahb3.pasal17(1)pengolahansampahsebagaimanadimaksuddalampasal16dilakukanoleh:[...]b.badanusaha.[...]</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>f201823a649a3ffa43d557e211a00e606374c0b7c48e7c8ed97248fb4355daef</t>
         </is>
       </c>
     </row>

--- a/my_data.xlsx
+++ b/my_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,35 +471,45 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 19</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 20</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>concat_update_judul</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>concat_update_tipe_kewajiban</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>concat_update_sanksi</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>concat_update_checklist</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>concat_update_peraturan_kewajiban</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>concat_update_peraturan_sanksi</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hash</t>
         </is>
@@ -511,108 +521,266 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Limbah Bahan Berbahaya dan Beracun&gt;Penanganan Sampah yang Mengandung B3 dan/atau Limbah B3 yang Timbul Akibat Bencana</t>
+          <t>Pertambangan Batubara&gt;Pelaksanaan Kegiatan Usaha Pertambangan Batubara</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Melakukan pemilahan Sampah yang Mengandung B3 dan/atau Sampah yang Mengandung Limbah B3 di lokasi terjadinya Bencana</t>
+          <t>Memperoleh penetapan tanda batas melalui pengukuran dan pemasangan tanda batas WIUP Operasi Produksi atau WIUPK Operasi Produksi, bagi Pemegang IUP atau IUPK dengan WIUP Operasi Produksi atau WIUPK Operasi Produksi tertentu, atau lokasi kegiatan penambangan dan penimbunan tertentu</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Continuous</t>
+          <t>Licensing</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Tidak Ada Sanksi</t>
+          <t>Administratif</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1. Memastikan pemilahan dilakukan di sarana pengelolaan Sampah yang Timbul Akibat Bencana yang disediakan oleh pemerintah pusat, pemerintah daerah provinsi, dan pemerintah daerah kabupaten/kota.
-2. Memastikan sarana pengelolaan Sampah yang Timbul Akibat Bencana berupa wadah memenuhi ketentuan: a. dibedakan sesuai dengan jenis Sampah; b. kedap air; c. tertutup; d. mudah dipindahkan; e. mudah dikosongkan dan dibersihkan; dan f. memiliki volume wadah yang disesuaikan dengan jumlah timbulan Sampah.
-3. Memastikan sarana pengelolaan Sampah yang Timbul Akibat Bencana berupa area pemilahan Sampah yang Timbul Akibat Bencana memenuhi ketentuan: a. luas area disesuaikan dengan jumlah dan jenis timbulan Sampah yang Timbul Akibat Bencana; b. berada sedekat mungkin dengan daerah pelayanan dalam radius tidak lebih dari radius 1 (satu) kilometer; c. lokasi mudah diakses; dan d. terlindungi dari hujan.</t>
+          <t>1. Menyiapkan peralatan pengukuran Titik Batas, meliputi: a. 3 (tiga) unit GPS atau GNSS Geodetik; b. GPS Navigasi; c. Theodolite dan alat ukur jarak atau ETS; dan d. perangkat lunak pengolah data.
+2. Memastikan agar pengukuran Titik Batas dilaksanakan oleh juru ukur tambang pemegang IUP atau IUPK.
+3. Memastikan agar pelaksanaan kegiatan pengukuran Tanda Batas terintegrasi ke dalam Sistem Referensi Geospasial yang ditetapkan oleh instansi pemerintah yang menyelenggarakan urusan pemerintahan di bidang survey dan pemetaan.
+4. Melaksanakan pengukuran pengikatan BM ke JKHN, pengikatan Titik Bantu ke BM, pengolahan data hasil pengukuran, dan Stake Out Titik Batas, sesuai dengan Lampiran IV Keputusan Menteri Energi Dan Sumber Daya Mineral Nomor 1825 K/30/MEM/2018.
+5. Memastikan agar pemasangan tanda batas dilakukan melalui 3 (tiga) tahapan, yaitu: a. pembuatan dan pemberian nama; b. penyaksian pemasangan; dan c. dokumentasi dan dekripsi pemasangan.
+6. Memastikan agar pelaksanaan kegiatan pemasangan Tanda Batas terintegrasi ke dalam Sistem Referensi Geospasial yang ditetapkan oleh instansi pemerintah yang menyelenggarakan urusan pemerintahan di bidang survey dan pemetaan.
+7. Melaksanakan pembuatan nama dengan: a. memastikan agar tanda batas dirancang dan dibuat untuk dapat bertahan selama mungkin, dan harus stabil ke arah horizontal dan vertikal; b. Memastikan agar material penyusun Tanda Batas merupakan beton dengan perbandingan campuran semen, pasir, koral 1:2:3; c. Memastikan agar rangka besi menggunakan tulangan utama 4 x 12 mm dan bekel 8 mm dengan jarak 150 mm; 8. Memastikan agar penanda (marker) dari setiap Tanda Batas harus dibuat dari logam yang tahan karat; e. Memastikan agar bagian Tanda Batas yang muncul di permukaan, dicat dengan cat beton berwarna merah.
+9. Melaksanakan pemberian nama dengan: a. Memberikan nomor sesuai dengan nomor Titik Batas pada SK IUP Operasi Produksi atau SK IUPK Operasi Produksi; b. Memastikan agar penomoran ditambah huruf dengan mengikuti abjad apabila Tanda Batas dipasang pada garis batas; c. Memastikan agar nama memuat informasi tertentu secara jelas (nama pemegang IUP Operasi Produksi atau IUPK Operasi Produksi dalam singkatan, logo Kementerian ESDM, dan kode wilayah sesuai peraturan perundang-undangan); d. Memastikan agar ketiga informasi ini berada di atas digrafir pada lempeng perunggu (bronze cap) berukuran 20 x 20 cm menggunakan huruf kapital jenis Arial; e. Menambahkan informasi arah (azimuth) dan jarak apabila Pemegang IUP atau IUPK Operasi Produksi melakukan pemasangan Tanda Batas Referensi; f. Memastikan agar lempeng perunggu dipasang membujur pada sisi dinding Tanda Batas yang menghadap ke sebelah dalam WIUP Operasi Produksi atau WIUPK Operasi Produksi; dan g. Memastikan agar pada bagian penanda (marker) diberikan informasi arah (dalam bentuk Tanda panah) ke Tanda Batas sebelumnya dan Tanda Batas selanjutnya.
+10. Memenuhi ketentuan peraturan perundang-undangan mengenai pemasangan tanda batas, yaitu: a. membuat Tanda Batas Referensi yang dilengkapi dengan deskripsi posisi Tanda Batas sebenarnya yang ditunjukkan dengan arah (azimuth) dan jarak apabila lokasi Titik Batas tidak memungkinkan untuk dipasang Tanda Batas; dan b. Melaksanakan pemasangan Tanda Batas sesuai dengan teknologi yang memungkinkan bagi Pemegang IUP atau IUPK apabila WIUP atau WIUPK berada di wilayah perairan.
+11. Melaksanakan penyaksian pemasangan dengan memastikan agar pemasangan Tanda Batas disaksikan oleh pihak-pihak tertentu, yaitu: a. Petugas kantor kecamatan dan/atau desa/Kelurahan/Distrik/Nagari setempat; b. perwakilan dari pemegang IUP atau IUPK yang WIUP atau WIUPK-nya berbatasan langsung dengan WIUP atau WIUPK yang akan dipasang Tanda Batas; c. perwakilan dari pemegang IUP atau IUPK beda komoditas yang memanfaatkan WIUP atau WIUPK secara bersama; d. pemegang izin sektor lain di luar kegiatan usaha pertambangan yang berbatasan langsung dengan WIUP atau WIUPK atau memanfaatkan lahan secara bersama dalam WIUP atau WIUPK yang akan dipasang tanda batas; dan/atau e. pemegang hak atas tanah yang akan dipasang Tanda Batas.
+12. Melaksanakan penyaksian pemasangan dengan memastikan agar pemasangan Tanda Batas disaksikan oleh petugas instansi yang membidangi kehutanan apabila wilayah yang akan dipasang Tanda Batas berada di kawasan hutan.
+13. Melaksanakan dokumentasi pemasangan Tanda Batas sesuai dengan Lampiran VI Keputusan Menteri Energi Dan Sumber Daya Mineral Nomor 1825 K/30/MEM/2018, yaitu: a. Memastikan agar setiap Tanda Batas yang telah terpasang dengan benar, telah didokumentasikan; b. Memastikan agar peralatan/kamera yang dipergunakan untuk pendokumentasian harus representatif, baik digital maupun analog; dan c. Memastikan agar sisi Tanda Batas yang didokumentasikan adalah sisi Tanda Batas yang memuat informasi identitas Tanda Batas.
+14. Melaksanakan Deskripsi pemasangan Tanda Batas sesuai dengan Lampiran VI Keputusan Menteri Energi Dan Sumber Daya Mineral Nomor 1825 K/30/MEM/2018.
+15. Membuat berita acara pengukuran Titik Batas dan pemasangan Tanda Batas setelah seluruh Tanda Batas selesai dipasang dengan menggunakan Format Berita Acara Pengukuran Titik Batas dan Pemasangan Tanda Batas yang tercantum dalam Lampiran VII Keputusan Menteri Energi Dan Sumber Daya Mineral Nomor 1825 K/30/MEM/2018.
+16. Memastikan agar berita acara ditandatangani oleh juru ukur tambang yang melaksanakan pengukuran Titik Batas dan pemasangan Tanda Batas, pemegang IUP Operasi Produksi atau IUPK Operasi Produksi serta saksi-saksi.
+17. Menyusun Laporan Pelaksanaan Pemasangan Tanda Batas setelah seluruh kegiatan selesai dilaksanakan dengan menggunakan Format Laporan Pelaksanaan Pemasangan Tanda Batas tercantum dalam Keputusan Menteri ESDM Nomor Tahun 2018 tentang Pedoman Penyusunan, Evaluasi, Persetujuan Rencana Kerja Dan Anggaran Biaya Serta Laporan Pada Kegiatan Usaha Pertambangan Mineral Dan Batubara.
+18. Mengajukan permohonan penetapan Tanda Batas kepada Menteri melalui Direktur Jenderal atau Gubernur sesuai dengan kewenangannya setelah ditandatanganinya berita acara.
+19. Memastikan agar permohonan dilengkapi dengan Laporan Pelaksanaan Pemasangan Tanda Batas sebagai lampiran.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Peraturan Menteri Lingkungan Hidup dan Kehutanan Nomor 1 Tahun 2024@lt65bb45bd5609b
-Kewajiban
-Pasal 5
-(1) Penanganan Sampah yang Timbul Akibat Bencana dilakukan melalui tahapan:
-a. pemilahan;
-[...]
-Pasal 6
-(1) Pemilahan dilakukan di sumber Sampah meliputi:
-a. lokasi terjadinya Bencana; dan
-[...]
-(2) Pemilahan di lokasi terjadinya Bencana dikelompokkan berdasarkan jenis Sampah yang meliputi:
-a. Sampah yang Mengandung B3 dan/atau Sampah yang Mengandung Limbah B3.
-[...]
-(4) Sampah yang Mengandung B3 dan/atau Sampah yang Mengandung Limbah B3 sebagaimana dimaksud pada ayat (2) huruf a dan ayat (3) huruf a terdiri atas:
-a. produk rumah tangga yang mengandung B3 dan/atau Limbah B3;
-b. Sampah bekas kemasan produk yang mengandung B3 dan /atau Limbah B3 dan tidak digunakan lagi;
-c. Sampah barang elektronik yang telah rusak dan/atau tidak digunakan lagi; dan/atau
-d. B3 kedaluwarsa dan B3 tumpah.
-Pasal 8
-(1) Pemilahan sebagaimana dimaksud dalam Pasal 6 dilakukan di sarana pengelolaan Sampah yang Timbul Akibat Bencana yang disediakan oleh pemerintah pusat, pemerintah daerah provinsi, dan pemerintah daerah kabupaten/kota.
-(2) Sarana pengelolaan Sampah yang Timbul Akibat Bencana sebagaimana dimaksud pada ayat (1) berupa:
-a. wadah; dan/atau
-b. area pemilahan Sampah yang Timbul Akibat Bencana.
-(3) Wadah sebagaimana dimaksud pada ayat (2) huruf a harus memenuhi ketentuan:
-a. dibedakan sesuai dengan jenis Sampah sebagaimana dimaksud dalam Pasal 6 ayat (2) dan ayat (3);
-b. kedap air;
-c. tertutup;
-d. mudah dipindahkan;
-e. mudah dikosongkan dan dibersihkan; dan
-f. memiliki volume wadah yang disesuaikan dengan jumlah timbulan Sampah.
-(4) Area pemilahan sebagaimana dimaksud pada ayat (2) huruf b harus memenuhi ketentuan:
-a. luas area disesuaikan dengan jumlah dan jenis timbulan Sampah yang Timbul Akibat Bencana;
-b. berada sedekat mungkin dengan daerah pelayanan dalam radius tidak lebih dari radius 1 (satu) kilometer;
-c. lokasi mudah diakses; dan
-d. terlindungi dari hujan.</t>
+          <t>Peraturan Pemerintah Nomor 96 Tahun 2021@lt614815d4f1925
+Kewajiban
+Pasal 49 &gt;&gt;&gt; @lt614815d4f1925
+(1) Pemegang IUP tahap kegiatan Operasi Produksi wajib melaksanakan pemasangan tanda batas WIUP tahap kegiatan Operasi Produksi.
+(2) Kewajiban pemasangan tanda batas sebagaimana dimaksud pada ayat (1) hanya berlaku bagi IUP tahap kegiatan Operasi Produksi yang:
+a. WIUP tahap kegiatan Operasi Produksinya berhimpit/berbatasan langsung dengan WIUP, WIUPK, wilayah KK, atau wilayah PKP2B lainnya; atau
+b. lokasi kegiatan Penambangan dan penimbunannya berdekatan dengan batas WIUP tahap kegiatan Operasi Produksi.
+[...]
+(4) Ketentuan lebih lanjut mengenai tata cara pemasangan tanda batas WIUP tahap kegiatan Operasi Produksi diatur dalam Peraturan Menteri.
+Pasal 105 &gt;&gt;&gt; @lt614815d4f1925
+(1) Pemegang IUPK tahap kegiatan Operasi Produksi wajib melaksanakan pemasangan tanda batas WIUPK tahap kegiatan Operasi Produksi.
+(2) Kewajiban pemasangan tanda batas sebagaimana dimaksud pada ayat (1) hanya berlaku bagi IUPK tahap kegiatan Operasi Produksi yang:
+a. WIUPK tahap kegiatan Operasi Produksinya berhimpit/berbatasan langsung dengan WIUP, WIUPK, wilayah KK, atau wilayah PKP2B lainnya; atau
+b. lokasi kegiatan Penambangan dan penimbunannya berdekatan dengan batas W1UPK tahap kegiatan Operasi Produksi.
+[...]
+(4) Ketentuan lebih lanjut mengenai tata cara pemasangan tanda batas WIUPK tahap kegiatan Operasi Produksi diatur dalam Peraturan Menteri.
+Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Kewajiban
+Pasal 62  &gt;&gt;&gt; @lt5e6f51a775ad4
+(1) Pemegang IUP atau IUPK wajib:
+[…]
+q. memasang tanda batas pada WIUP operasi produksi atau WIUPK operasi produksi; 
+[…]
+Peraturan Menteri Energi Dan Sumber Daya Mineral Nomor 25 Tahun 2018@lt5af950ccbfc3d
+Kewajiban
+Pasal 14 &gt;&gt;&gt; @lt5af950ccbfc3d
+(1) Pemegang IUP Operasi Produksi dan IUPK Operasi Produksi wajib melaksanakan pemasangan Tanda Batas WIUP Operasi Produksi atau WIUPK Operasi Produksi, paling lambat 6 (enam) bulan sejak ditetapkannya IUP Operasi Produksi atau IUPK Operasi Produksi.
+(2) Kewajiban pemasangan Tanda Batas sebagaimana dimaksud pada ayat (1) hanya berlaku bagi IUP Operasi Produksi atau IUPK Operasi Produksi dengan luas WIUP Operasi Produksi atau WIUPK Operasi Produksi lebih dari 10 (sepuluh) hektar yang:
+a. WIUP Operasi Produksi atau WIUPK Operasi Produksinya berhimpit/berbatasan langsung dengan WIUP, WIUPK, wilayah KK, atau wilayah PKP2B lainnya; atau
+b. lokasi kegiatan Penambangan dan penimbunannya berdekatan dengan batas WIUP Operasi Produksi atau WIUPK Operasi Produksinya.
+(3) Pelaksanaan kegiatan pengukuran dan pemasangan Tanda Batas wajib terintegrasi ke dalam Sistem Referensi Geospasial yang ditetapkan oleh instansi pemerintah yang menyelenggarakan urusan pemerintahan di bidang survey dan pemetaan.
+(4) Menteri menetapkan pedoman pelaksanaan pemasangan Tanda Batas WIUP Operasi Produksi atau WIUPK Operasi Produksi.
+Keputusan Menteri Energi Dan Sumber Daya Mineral Nomor 1825 K/30/MEM/2018 Tahun 2018@lt5b0294fb096fa
+Kewajiban
+###KESATU:
+Menetapkan Pedoman Pemasangan Tanda Batas Wilayah Izin Usaha Pertambangan (WIUP) atau Wilayah Izin Usaha Pertambangan Khusus (WIUPK) Operasi Produksi yang terdiri atas:
+a. Pedoman Pemasangan Tanda Batas WIUP atau WIUPK Operasi Produksi, tercantum dalam Lampiran I;
+b. Bagan Alur Pemasangan Tanda Batas WIUP atau WIUPK Operasi Produksi, tercantum dalam Lampiran II;
+[...]
+d. Pedoman Pengukuran Titik Batas, tercantum dalam Lampiran IV;
+e. Pedoman Pembuatan dan Pemberian Nama Tanda Batas, tercantum dalam Lampiran V;
+f. Pedoman Dokumentasi dan Deskripsi Pemasangan Tanda Batas, tercantum dalam Lampiran VI;
+g. Format Berita Acara Pengukuran Titik Batas dan Pemasangan Tanda Batas, tercantum dalam Lampiran VII;
+[...]
+LAMPIRAN I  PEDOMAN PEMASANGAN TANDA BATAS WIUP ATAU WIUPK OPERASI PRODUKSI &gt;&gt;&gt; @lt5b0294fb096fa
+A. RUANG LINGKUP
+1. Kewajiban pemasangan tanda batas Batas WIUP Operasi Produksi atau WIUPK Operasi Produksi hanya berlaku bagi IUP Operasi Produksi atau IUPK Operasi Produksi yang:
+a. WIUP Operasi Produksi atau WIUPK Operasi Produksi-nya berhimpit/berbatasan langsung dengan WIUP, WIUPK, wilayah Kontrak Karya, atau wilayah Perjanjian Karya Pengusahaan Pertambangan Batubara lain; atau
+b. lokasi kegiatan penambangan dan penimbunannya berdekatan dengan batas WIUP Operasi Produksi atau WIUPK Operasi Produksinya.
+2. Tahapan Kegiatan pemasangan Tanda Batas tersebut meliputi:
+a. pengumuman dan sosialisasi;
+b. koordinasi;
+c. kompilasi data wilayah dan persiapan teknis;
+d. pengukuran Titik Batas;
+e. pemasangan Tanda Batas;
+f. pembuatan berita acara;
+g. pelaporan pelaksanaan pemasangan Tanda Batas; dan
+h. penetapan Tanda Batas.
+[...]
+D. PEDOMAN
+1. Pemasangan Tanda Batas
+a. IUP Operasi Produksi atau IUPK Operasi Produksi yang WIUP Operasi Produksi atau WIUPK Operasi Produksinya berhimpit/berbatasan langsung dengan WIUP, WIUPK, wilayah Kontrak Karya, atau wilayah Perjanjian Karya Pengusahaan Pertambangan Batubara lain, pemasangan Tanda Batas dilakukan pada garis batas yang saling berhimpit/berbatasan langsung dengan jarak antar Tanda Batas paling jauh 500 meter.
+b. IUP Operasi Produksi atau IUPK Operasi Produksi yang lokasi kegiatan penambangan dan penimbunannya berdekatan dengan batas WIUP Operasi Produksi atau WIUPK Operasi Produksinya, pemasangan Tanda Batas dilakukan setiap 100 meter pada garis batas yang memiliki jarak ke lokasi tersebut sebesar-besarnya sejauh 3 (tiga) kali tinggi timbunan atau kedalaman tambang.
+[...]
+2. Tahapan Kegiatan Pemasangan Tanda Batas
+[...]
+d. Pengukuran Titik Batas
+1) Pelaksanaan pengukuran Titik Batas meliputi:
+a) pengukuran pengikatan BM ke JKHN;
+b) pengukuran pengikatan Titik Bantu ke BM;
+c) pengolahan data hasil pengukuran; dan
+d) Stake Out Titik Batas.
+2) Tata cara pengukuran Titik Batas tercantum dalam Lampiran IV Keputusan Menteri ini.
+3) Peralatan pengukuran Titik Batas paling sedikit meliputi
+a) 3 (tiga) unit GPS atau GNSS Geodetik;
+b) GPS Navigasi;
+c) Theodolite dan alat ukur jarak atau ETS; dan
+d) perangkat lunak pengolah data.
+4) Pengukuran Titik Batas dilaksanakan oleh juru ukur tambang pemegang IUP atau IUPK.
+e. Pemasangan Tanda Batas
+1) Umum
+a) Pemasangan Tanda Batas meliputi:
+(1) pembuatan dan pemberian nama;
+(2) penyaksian pemasangan; dan
+(3) dokumentasi dan deskripsi pemasangan.
+b) Tata cara pembuatan dan pemberian nama Tanda Batas tercantum dalam Lampiran V Keputusan Menteri ini.
+c) Dalam hal lokasi Titik Batas tidak memungkinkan untuk dipasang Tanda Batas, pemegang IUP Operasi Produksi dan IUPK Operasi Produksi dapat membuat Tanda Batas Referensi yang dilengkapi dengan deskripsi posisi Tanda Batas sebenarnya yang ditunjukkan dengan arah (azimuth) dan jarak.
+d) Apabila WIUP atau WIUPK berada di wilayah perairan maka pemasangan Tanda Batas dilakukan sesuai dengan teknologi yang memungkinkan bagi pemegang IUP atau IUPK.
+2) Penyaksian Pemasangan Tanda Batas
+a) Penyaksian pemasangan Tanda Batas dilakukan oleh petugas kantor Kecamatan dan/atau desa/Kelurahan/Distrik/Nagari setempat dan perwakilan dari masing-masing:
+(1) pemegang IUP atau IUPK yang WIUP atau WIUPK-nya berbatasan langsung dengan WIUP atau WIUPK yang akan dipasang Tanda Batas;
+(2) pemegang IUP atau IUPK beda komoditas yang memanfaatkan WIUP atau WIUPK secara bersama;
+(3) pemegang izin sektor lain di luar kegiatan usaha pertambangan yang berbatasan langsung dengan WIUP atau WIUPK atau memanfaatkan lahan secara bersama dalam WIUP atau WIUPK yang akan dipasang tanda batas; dan/atau
+(4) pemegang hak atas tanah yang akan dipasang Tanda Batas.
+b) Dalam hal wilayah yang akan dipasang Tanda Batas berada di kawasan hutan maka harus disaksikan petugas instansi yang membidangi kehutanan.
+3) Dokumentasi dan Deskripsi Pemasangan Tanda Batas
+a) Pemegang IUP Operasi Produksi dan IUPK Operasi Produksi wajib melakukan dokumentasi dan deskripsi pemasangan Tanda Batas terhadap setiap Tanda Batas yang telah dipasang.
+b) Pedoman dokumentasi dan deskripsi pemasangan Tanda Batas tercantum dalam Lampiran VI Keputusan Menteri ini.
+f. Pembuatan Berita Acara
+1) Pemegang IUP Operasi Produksi dan IUPK Operasi Produksi membuat berita acara pengukuran Titik Batas dan pemasangan Tanda Batas setelah seluruh Tanda Batas selesai dipasang.
+2) Berita acara harus ditandatangani oleh juru ukur tambang yang melaksanakan pengukuran Titik Batas dan pemasangan Tanda Batas, pemegang IUP Operasi Produksi atau IUPK Operasi Produksi serta saksi-saksi.
+3) Format berita acara pengkuruan titik batas dan pemasangan tanda batas tercantum dalam Lampiran VII Keputusan Menteri ini.
+g. Pelaporan Pelaksanaan Pemasangan Tanda Batas
+1) Pemegang IUP Operasi Produksi dan IUPK Operasi Produksi menyusun laporan pelaksanaan pemasangan Tanda Batas setelah seluruh kegiatan selesai dilaksanakan.
+2) Format laporan pelaksanaan pemasangan Tanda Batas tercantum dalam Keputusan Menteri ESDM Nomor Tahun 2018 tentang Pedoman Penyusunan, Evaluasi, Persetujuan Rencana Kerja Dan Anggaran Biaya Serta Laporan Pada Kegiatan Usaha Pertambangan Mineral Dan Batubara.
+h. Penetapan Tanda Batas
+1) Proses Penetapan
+a) Pemegang IUP Operasi Produksi dan IUPK Operasi Produksi mengajukan permohonan penetapan Tanda Batas kepada Menteri melalui Direktur Jenderal atau Gubernur sesuai dengan kewenangannya setelah ditandatanganinya berita acara untuk mendapatkan penetapan Tanda Batas.
+b) Permohonan tersebut melampirkan laporan pelaksanaan pemasangan Tanda Batas.
+c) Direktur Jenderal atau Gubernur, melakukan evaluasi atas permohonan penetapan Tanda Batas termasuk lampirannya.
+d) Format evaluasi tercantum dalam Lampiran VIII Keputusan Menteri ini.
+[...]
+LAMPIRAN II
+BAGAN ALUR PEMASANGAN TANDA BATAS WIUP ATAU WIUPK OPERASI PRODUKSI
+[...]
+[Catatan: Detail mengenai Bagan Alur Pemasangan Tanda Batas WIUP atau WIUPK Operasi Produksi dapat dilihat selengkapnya pada Lampiran IV Keputusan Menteri Energi Dan Sumber Daya Mineral Nomor 1825 K/30/MEM/2018 halaman 19-20]
+LAMPIRAN IV
+PEDOMAN PENGUKURAN TITIK BATAS
+[...]
+[Catatan: Detail mengenai Pedoman Pengukuran Titik Batas dapat dilihat selengkapnya pada Lampiran IV Keputusan Menteri Energi Dan Sumber Daya Mineral Nomor 1825 K/30/MEM/2018 halaman 22-25]
+LAMPIRAN V
+PEDOMAN PEMBUATAN DAN PEMBERIAN NAMA TANDA BATAS
+A. Pembuatan
+Spesifikasi (Gambar 3.1):
+a. Tanda Batas harus dirancang dan dibuat agar dapat bertahan selama mungkin, dan harus stabil ke arah horizontal dan vertikal;
+b. material penyusun Tanda Batas merupakan beton dengan perbandingan campuran semen, pasir, koral 1:2:3;
+c. rangka besi menggunakan tulangan utama 4 x 12 mm dan bekel 8 mm dengan jarak 150 mm;
+d. penanda (marker) dari setiap Tanda Batas harus dibuat dari logam yang tahan karat; dan
+e. bagian Tanda Batas yang muncul di permukaan, dicat dengan cat beton berwarna merah.
+[...]
+[Catatan: Detail mengenai Gambar 3.1 Dimensi Tanda Batas dapat dilihat selengkapnya pada Lampiran V Keputusan Menteri Energi Dan Sumber Daya Mineral Nomor 1825 K/30/MEM/2018 halaman 26]
+B. Pemberian Nama
+1. diberikan nomor sesuai dengan nomor Titik Batas pada SK IUP Operasi Produksi atau SK IUPK Operasi Produksi;
+2. dalam hal Tanda Batas dipasang pada garis batas, maka penomoran ditambah huruf dengan mengikuti abjad (misal: 1A, 1B, …);
+3. mencantumkan secara jelas: 
+a. nama pemegang IUP Operasi Produksi atau IUPK Operasi Produksi dalam singkatan;
+b. logo Kementerian ESDM; dan
+c. kode wilayah sesuai peraturan perundang-undangan.
+4. ketiga informasi tersebut di atas digrafir pada lempeng perunggu (bronze cap) berukuran 20 x 20 cm menggunakan huruf kapital jenis Arial;
+5. dalam hal pemegang IUP atau IUPK Operasi Produksi melakukan pemasangan Tanda Batas Referensi, maka pada lempeng perunggu (bronze cap) tersebut ditambahkan informasi arah (azimuth) dan jarak;
+6. lempeng perunggu tersebut di atas harus dipasang membujur pada sisi dinding Tanda Batas yang menghadap ke sebelah dalam WIUP Operasi Produksi atau WIUPK Operasi Produksi; dan
+7. bagian penanda (marker) diberikan informasi arah (dalam bentuk Tanda panah) ke Tanda Batas sebelumnya dan Tanda Batas selanjutnya.
+[...]
+[Catatan: Detail mengenai Gambar 3.2 Bronze cap Tanda Batas, Gambar 3.3 Bronze cap Tanda Batas Referensi, dan Gambar 3.4 Penanda (Marker) Tanda Batas dapat dilihat selengkapnya pada Lampiran V Keputusan Menteri Energi Dan Sumber Daya Mineral Nomor 1825 K/30/MEM/2018 halaman 27-28]
+LAMPIRAN VI
+PEDOMAN DOKUMENTASI DAN DESKRIPSI PEMASANGAN TANDA BATAS
+A. Dokumentasi
+1. Setiap Tanda Batas yang telah terpasang dengan benar, wajib didokumentasikan;
+2. Tujuan pendokumentasian adalah:
+a. sebagai bukti autentik bahwa Tanda Batas telah terpasang di lapangan;
+b. sebagai bahan untuk pendeskripsian kondisi Tanda Batas dan lapangan/situasi sekitar; dan
+c. sebagai bahan untuk memudahkan pencarian Tanda Batas di lapangan atau rekonstruksi lokasi Tanda Batas apabila Tanda Batas rusak/hilang.
+3. Peralatan/kamera yang dipergunakan untuk pendokumentasian harus representatif (baik digital maupun analog); dan
+4. Sisi Tanda Batas yang harus didokumentasikan adalah sisi Tanda Batas yang memuat informasi identitas Tanda Batas.
+B. Deskripsi
+[...]
+[Catatan: Detail mengenai Contoh Deskripsi Tanda Batas dapat dilihat selengkapnya pada Lampiran VI Keputusan Menteri Energi Dan Sumber Daya Mineral Nomor 1825 K/30/MEM/2018 halaman 29-30]
+LAMPIRAN VII
+FORMAT BERITA ACARA PENGUKURAN TITIK BATAS DAN PEMASANGAN TANDA BATAS
+[...]
+[Catatan: Detail mengenai Format Berita Acara Pengukuran Titik Batas dan Pemasangan Tanda Batas dapat dilihat selengkapnya pada Lampiran VI Keputusan Menteri Energi Dan Sumber Daya Mineral Nomor 1825 K/30/MEM/2018 halaman 31-33]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>melakukanpemilahansampahyangmengandungb3dan/atausampahyangmengandunglimbahb3dilokasiterjadinyabencana</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>continuous</t>
-        </is>
+          <t>Peraturan Pemerintah Nomor 96 Tahun 2021@lt614815d4f1925
+Sanksi
+Pasal 185 &gt;&gt;&gt; @lt614815d4f1925
+(1) Pemegang IUP, IUPK, IPR, SIPB, atau IUP untuk Penjualan yang melakukan pelanggaran terhadap ketentuan sebagaimana dimaksud dalam […] Pasal 49ayat (1) […] dikenai sanksi administratif.
+(2) sanksi administratif sebagaimana dimaksud pada ayat (1) benrpa:
+a. peringatan tertulis;
+b. penghentian sernentara sebagian atau seluruh kegiatan Eksplorasi atau Operasi produksi; dan/atau
+c. pencabutan IUP, IUPK, IPR, SIPB, atau IUP untuk Penjualan.
+(3) selain sanksi administratif sebagaimana dimaksud pada ayat (2), pemegang IUP, IUPK, IPR, atau SIPB, yang melakukan pelanggaran terhadap ketentuan sebagaimana dimaksud dalam pasal 51 ayat (2) huruf b dan Pasal 107 ayat (2) huruf b dikenai denda.
+(4) Pengenaan denda sebagaimana dimaksud pada ayat (3) dilaksanakan sesuai dengan ketentuan peraturan perundang-undangan di bidang pajak daerah dan retribusi daerah.
+Pasal 186 &gt;&gt;&gt; @lt614815d4f1925
+Peringatan tertulis sebagaimana dimaksud dalam pasal 185 ayat (2) huruf a diberikan paling banyak 3 (tiga) kali dengan jangka waktu peringatan masing-masing 30 (tiga puluh) hari kalender.</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>13632</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1174</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>tidakadasanksi</t>
+          <t>memperolehpenetapantandabatasmelaluipengukurandanpemasangantandabataswiupoperasiproduksiatauwiupkoperasiproduksi,bagipemegangiupatauiupkdenganwiupoperasiproduksiatauwiupkoperasiproduksitertentu,ataulokasikegiatanpenambangandanpenimbunantertentu</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.memastikanpemilahandilakukandisaranapengelolaansampahyangtimbulakibatbencanayangdisediakanolehpemerintahpusat,pemerintahdaerahprovinsi,danpemerintahdaerahkabupaten/kota.2.memastikansaranapengelolaansampahyangtimbulakibatbencanaberupawadahmemenuhiketentuan:a.dibedakansesuaidenganjenissampah;b.kedapair;c.tertutup;d.mudahdipindahkan;e.mudahdikosongkandandibersihkan;danf.memilikivolumewadahyangdisesuaikandenganjumlahtimbulansampah.3.memastikansaranapengelolaansampahyangtimbulakibatbencanaberupaareapemilahansampahyangtimbulakibatbencanamemenuhiketentuan:a.luasareadisesuaikandenganjumlahdanjenistimbulansampahyangtimbulakibatbencana;b.beradasedekatmungkindengandaerahpelayanandalamradiustidaklebihdariradius1(satu)kilometer;c.lokasimudahdiakses;dand.terlindungidarihujan.</t>
+          <t>licensing</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>peraturanmenterilingkunganhidupdankehutanannomor1tahun2024kewajibanpasal5(1)penanganansampahyangtimbulakibatbencanadilakukanmelaluitahapan:a.pemilahan;[...]pasal6(1)pemilahandilakukandisumbersampahmeliputi:a.lokasiterjadinyabencana;dan[...](2)pemilahandilokasiterjadinyabencanadikelompokkanberdasarkanjenissampahyangmeliputi:a.sampahyangmengandungb3dan/atausampahyangmengandunglimbahb3.[...](4)sampahyangmengandungb3dan/atausampahyangmengandunglimbahb3sebagaimanadimaksudpadaayat(2)hurufadanayat(3)hurufaterdiriatas:a.produkrumahtanggayangmengandungb3dan/ataulimbahb3;b.sampahbekaskemasanprodukyangmengandungb3dan/ataulimbahb3dantidakdigunakanlagi;c.sampahbarangelektronikyangtelahrusakdan/atautidakdigunakanlagi;dan/ataud.b3kedaluwarsadanb3tumpah.pasal8(1)pemilahansebagaimanadimaksuddalampasal6dilakukandisaranapengelolaansampahyangtimbulakibatbencanayangdisediakanolehpemerintahpusat,pemerintahdaerahprovinsi,danpemerintahdaerahkabupaten/kota.(2)saranapengelolaansampahyangtimbulakibatbencanasebagaimanadimaksudpadaayat(1)berupa:a.wadah;dan/ataub.areapemilahansampahyangtimbulakibatbencana.(3)wadahsebagaimanadimaksudpadaayat(2)hurufaharusmemenuhiketentuan:a.dibedakansesuaidenganjenissampahsebagaimanadimaksuddalampasal6ayat(2)danayat(3);b.kedapair;c.tertutup;d.mudahdipindahkan;e.mudahdikosongkandandibersihkan;danf.memilikivolumewadahyangdisesuaikandenganjumlahtimbulansampah.(4)areapemilahansebagaimanadimaksudpadaayat(2)hurufbharusmemenuhiketentuan:a.luasareadisesuaikandenganjumlahdanjenistimbulansampahyangtimbulakibatbencana;b.beradasedekatmungkindengandaerahpelayanandalamradiustidaklebihdariradius1(satu)kilometer;c.lokasimudahdiakses;dand.terlindungidarihujan.</t>
+          <t>administratif</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.menyiapkanperalatanpengukurantitikbatas,meliputi:a.3(tiga)unitgpsataugnssgeodetik;b.gpsnavigasi;c.theodolitedanalatukurjarakatauets;dand.perangkatlunakpengolahdata.2.memastikanagarpengukurantitikbatasdilaksanakanolehjuruukurtambangpemegangiupatauiupk.3.memastikanagarpelaksanaankegiatanpengukurantandabatasterintegrasikedalamsistemreferensigeospasialyangditetapkanolehinstansipemerintahyangmenyelenggarakanurusanpemerintahandibidangsurveydanpemetaan.4.melaksanakanpengukuranpengikatanbmkejkhn,pengikatantitikbantukebm,pengolahandatahasilpengukuran,danstakeouttitikbatas,sesuaidenganlampiranivkeputusanmenterienergidansumberdayamineralnomor1825k/30/mem/2018.5.memastikanagarpemasangantandabatasdilakukanmelalui3(tiga)tahapan,yaitu:a.pembuatandanpemberiannama;b.penyaksianpemasangan;danc.dokumentasidandekripsipemasangan.6.memastikanagarpelaksanaankegiatanpemasangantandabatasterintegrasikedalamsistemreferensigeospasialyangditetapkanolehinstansipemerintahyangmenyelenggarakanurusanpemerintahandibidangsurveydanpemetaan.7.melaksanakanpembuatannamadengan:a.memastikanagartandabatasdirancangdandibuatuntukdapatbertahanselamamungkin,danharusstabilkearahhorizontaldanvertikal;b.memastikanagarmaterialpenyusuntandabatasmerupakanbetondenganperbandingancampuransemen,pasir,koral1:2:3;c.memastikanagarrangkabesimenggunakantulanganutama4x12mmdanbekel8mmdenganjarak150mm;8.memastikanagarpenanda(marker)darisetiaptandabatasharusdibuatdarilogamyangtahankarat;e.memastikanagarbagiantandabatasyangmunculdipermukaan,dicatdengancatbetonberwarnamerah.9.melaksanakanpemberiannamadengan:a.memberikannomorsesuaidengannomortitikbataspadaskiupoperasiproduksiatauskiupkoperasiproduksi;b.memastikanagarpenomoranditambahhurufdenganmengikutiabjadapabilatandabatasdipasangpadagarisbatas;c.memastikanagarnamamemuatinformasitertentusecarajelas(namapemegangiupoperasiproduksiatauiupkoperasiproduksidalamsingkatan,logokementerianesdm,dankodewilayahsesuaiperaturanperundang-undangan);d.memastikanagarketigainformasiiniberadadiatasdigrafirpadalempengperunggu(bronzecap)berukuran20x20cmmenggunakanhurufkapitaljenisarial;e.menambahkaninformasiarah(azimuth)danjarakapabilapemegangiupatauiupkoperasiproduksimelakukanpemasangantandabatasreferensi;f.memastikanagarlempengperunggudipasangmembujurpadasisidindingtandabatasyangmenghadapkesebelahdalamwiupoperasiproduksiatauwiupkoperasiproduksi;dang.memastikanagarpadabagianpenanda(marker)diberikaninformasiarah(dalambentuktandapanah)ketandabatassebelumnyadantandabatasselanjutnya.10.memenuhiketentuanperaturanperundang-undanganmengenaipemasangantandabatas,yaitu:a.membuattandabatasreferensiyangdilengkapidengandeskripsiposisitandabatassebenarnyayangditunjukkandenganarah(azimuth)danjarakapabilalokasititikbatastidakmemungkinkanuntukdipasangtandabatas;danb.melaksanakanpemasangantandabatassesuaidenganteknologiyangmemungkinkanbagipemegangiupatauiupkapabilawiupatauwiupkberadadiwilayahperairan.11.melaksanakanpenyaksianpemasangandenganmemastikanagarpemasangantandabatasdisaksikanolehpihak-pihaktertentu,yaitu:a.petugaskantorkecamatandan/ataudesa/kelurahan/distrik/nagarisetempat;b.perwakilandaripemegangiupatauiupkyangwiupatauwiupk-nyaberbatasanlangsungdenganwiupatauwiupkyangakandipasangtandabatas;c.perwakilandaripemegangiupatauiupkbedakomoditasyangmemanfaatkanwiupatauwiupksecarabersama;d.pemegangizinsektorlaindiluarkegiatanusahapertambanganyangberbatasanlangsungdenganwiupatauwiupkataumemanfaatkanlahansecarabersamadalamwiupatauwiupkyangakandipasangtandabatas;dan/ataue.pemeganghakatastanahyangakandipasangtandabatas.12.melaksanakanpenyaksianpemasangandenganmemastikanagarpemasangantandabatasdisaksikanolehpetugasinstansiyangmembidangikehutananapabilawilayahyangakandipasangtandabatasberadadikawasanhutan.13.melaksanakandokumentasipemasangantandabatassesuaidenganlampiranvikeputusanmenterienergidansumberdayamineralnomor1825k/30/mem/2018,yaitu:a.memastikanagarsetiaptandabatasyangtelahterpasangdenganbenar,telahdidokumentasikan;b.memastikanagarperalatan/kamerayangdipergunakanuntukpendokumentasianharusrepresentatif,baikdigitalmaupunanalog;danc.memastikanagarsisitandabatasyangdidokumentasikanadalahsisitandabatasyangmemuatinformasiidentitastandabatas.14.melaksanakandeskripsipemasangantandabatassesuaidenganlampiranvikeputusanmenterienergidansumberdayamineralnomor1825k/30/mem/2018.15.membuatberitaacarapengukurantitikbatasdanpemasangantandabatassetelahseluruhtandabatasselesaidipasangdenganmenggunakanformatberitaacarapengukurantitikbatasdanpemasangantandabatasyangtercantumdalamlampiranviikeputusanmenterienergidansumberdayamineralnomor1825k/30/mem/2018.16.memastikanagarberitaacaraditandatanganiolehjuruukurtambangyangmelaksanakanpengukurantitikbatasdanpemasangantandabatas,pemegangiupoperasiproduksiatauiupkoperasiproduksisertasaksi-saksi.17.menyusunlaporanpelaksanaanpemasangantandabatassetelahseluruhkegiatanselesaidilaksanakandenganmenggunakanformatlaporanpelaksanaanpemasangantandabatastercantumdalamkeputusanmenteriesdmnomortahun2018tentangpedomanpenyusunan,evaluasi,persetujuanrencanakerjadananggaranbiayasertalaporanpadakegiatanusahapertambanganmineraldanbatubara.18.mengajukanpermohonanpenetapantandabataskepadamenterimelaluidirekturjenderalataugubernursesuaidengankewenangannyasetelahditandatanganinyaberitaacara.19.memastikanagarpermohonandilengkapidenganlaporanpelaksanaanpemasangantandabatassebagailampiran.</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>8712d91b6b66d61c3f015f96b86365a332deb6ac0ee89b845cd8980050dde4f2</t>
+          <t>peraturanpemerintahnomor96tahun2021kewajibanpasal49&gt;&gt;&gt;(1)pemegangiuptahapkegiatanoperasiproduksiwajibmelaksanakanpemasangantandabataswiuptahapkegiatanoperasiproduksi.(2)kewajibanpemasangantandabatassebagaimanadimaksudpadaayat(1)hanyaberlakubagiiuptahapkegiatanoperasiproduksiyang:a.wiuptahapkegiatanoperasiproduksinyaberhimpit/berbatasanlangsungdenganwiup,wiupk,wilayahkk,atauwilayahpkp2blainnya;ataub.lokasikegiatanpenambangandanpenimbunannyaberdekatandenganbataswiuptahapkegiatanoperasiproduksi.[...](4)ketentuanlebihlanjutmengenaitatacarapemasangantandabataswiuptahapkegiatanoperasiproduksidiaturdalamperaturanmenteri.pasal105&gt;&gt;&gt;(1)pemegangiupktahapkegiatanoperasiproduksiwajibmelaksanakanpemasangantandabataswiupktahapkegiatanoperasiproduksi.(2)kewajibanpemasangantandabatassebagaimanadimaksudpadaayat(1)hanyaberlakubagiiupktahapkegiatanoperasiproduksiyang:a.wiupktahapkegiatanoperasiproduksinyaberhimpit/berbatasanlangsungdenganwiup,wiupk,wilayahkk,atauwilayahpkp2blainnya;ataub.lokasikegiatanpenambangandanpenimbunannyaberdekatandenganbatasw1upktahapkegiatanoperasiproduksi.[...](4)ketentuanlebihlanjutmengenaitatacarapemasangantandabataswiupktahapkegiatanoperasiproduksidiaturdalamperaturanmenteri.peraturanmenterienergidansumberdayamineralnomor7tahun2020kewajibanpasal62&gt;&gt;&gt;(1)pemegangiupatauiupkwajib:[…]q.memasangtandabataspadawiupoperasiproduksiatauwiupkoperasiproduksi;[…]peraturanmenterienergidansumberdayamineralnomor25tahun2018kewajibanpasal14&gt;&gt;&gt;(1)pemegangiupoperasiproduksidaniupkoperasiproduksiwajibmelaksanakanpemasangantandabataswiupoperasiproduksiatauwiupkoperasiproduksi,palinglambat6(enam)bulansejakditetapkannyaiupoperasiproduksiatauiupkoperasiproduksi.(2)kewajibanpemasangantandabatassebagaimanadimaksudpadaayat(1)hanyaberlakubagiiupoperasiproduksiatauiupkoperasiproduksidenganluaswiupoperasiproduksiatauwiupkoperasiproduksilebihdari10(sepuluh)hektaryang:a.wiupoperasiproduksiatauwiupkoperasiproduksinyaberhimpit/berbatasanlangsungdenganwiup,wiupk,wilayahkk,atauwilayahpkp2blainnya;ataub.lokasikegiatanpenambangandanpenimbunannyaberdekatandenganbataswiupoperasiproduksiatauwiupkoperasiproduksinya.(3)pelaksanaankegiatanpengukurandanpemasangantandabataswajibterintegrasikedalamsistemreferensigeospasialyangditetapkanolehinstansipemerintahyangmenyelenggarakanurusanpemerintahandibidangsurveydanpemetaan.(4)menterimenetapkanpedomanpelaksanaanpemasangantandabataswiupoperasiproduksiatauwiupkoperasiproduksi.keputusanmenterienergidansumberdayamineralnomor1825k/30/mem/2018tahun2018kewajiban###kesatu:menetapkanpedomanpemasangantandabataswilayahizinusahapertambangan(wiup)atauwilayahizinusahapertambangankhusus(wiupk)operasiproduksiyangterdiriatas:a.pedomanpemasangantandabataswiupatauwiupkoperasiproduksi,tercantumdalamlampirani;b.baganalurpemasangantandabataswiupatauwiupkoperasiproduksi,tercantumdalamlampiranii;[...]d.pedomanpengukurantitikbatas,tercantumdalamlampiraniv;e.pedomanpembuatandanpemberiannamatandabatas,tercantumdalamlampiranv;f.pedomandokumentasidandeskripsipemasangantandabatas,tercantumdalamlampiranvi;g.formatberitaacarapengukurantitikbatasdanpemasangantandabatas,tercantumdalamlampiranvii;[...]lampiranipedomanpemasangantandabataswiupatauwiupkoperasiproduksi&gt;&gt;&gt;a.ruanglingkup1.kewajibanpemasangantandabatasbataswiupoperasiproduksiatauwiupkoperasiproduksihanyaberlakubagiiupoperasiproduksiatauiupkoperasiproduksiyang:a.wiupoperasiproduksiatauwiupkoperasiproduksi-nyaberhimpit/berbatasanlangsungdenganwiup,wiupk,wilayahkontrakkarya,atauwilayahperjanjiankaryapengusahaanpertambanganbatubaralain;ataub.lokasikegiatanpenambangandanpenimbunannyaberdekatandenganbataswiupoperasiproduksiatauwiupkoperasiproduksinya.2.tahapankegiatanpemasangantandabatastersebutmeliputi:a.pengumumandansosialisasi;b.koordinasi;c.kompilasidatawilayahdanpersiapanteknis;d.pengukurantitikbatas;e.pemasangantandabatas;f.pembuatanberitaacara;g.pelaporanpelaksanaanpemasangantandabatas;danh.penetapantandabatas.[...]d.pedoman1.pemasangantandabatasa.iupoperasiproduksiatauiupkoperasiproduksiyangwiupoperasiproduksiatauwiupkoperasiproduksinyaberhimpit/berbatasanlangsungdenganwiup,wiupk,wilayahkontrakkarya,atauwilayahperjanjiankaryapengusahaanpertambanganbatubaralain,pemasangantandabatasdilakukanpadagarisbatasyangsalingberhimpit/berbatasanlangsungdenganjarakantartandabataspalingjauh500meter.b.iupoperasiproduksiatauiupkoperasiproduksiyanglokasikegiatanpenambangandanpenimbunannyaberdekatandenganbataswiupoperasiproduksiatauwiupkoperasiproduksinya,pemasangantandabatasdilakukansetiap100meterpadagarisbatasyangmemilikijarakkelokasitersebutsebesar-besarnyasejauh3(tiga)kalitinggitimbunanataukedalamantambang.[...]2.tahapankegiatanpemasangantandabatas[...]d.pengukurantitikbatas1)pelaksanaanpengukurantitikbatasmeliputi:a)pengukuranpengikatanbmkejkhn;b)pengukuranpengikatantitikbantukebm;c)pengolahandatahasilpengukuran;dand)stakeouttitikbatas.2)tatacarapengukurantitikbatastercantumdalamlampiranivkeputusanmenteriini.3)peralatanpengukurantitikbataspalingsedikitmeliputia)3(tiga)unitgpsataugnssgeodetik;b)gpsnavigasi;c)theodolitedanalatukurjarakatauets;dand)perangkatlunakpengolahdata.4)pengukurantitikbatasdilaksanakanolehjuruukurtambangpemegangiupatauiupk.e.pemasangantandabatas1)umuma)pemasangantandabatasmeliputi:(1)pembuatandanpemberiannama;(2)penyaksianpemasangan;dan(3)dokumentasidandeskripsipemasangan.b)tatacarapembuatandanpemberiannamatandabatastercantumdalamlampiranvkeputusanmenteriini.c)dalamhallokasititikbatastidakmemungkinkanuntukdipasangtandabatas,pemegangiupoperasiproduksidaniupkoperasiproduksidapatmembuattandabatasreferensiyangdilengkapidengandeskripsiposisitandabatassebenarnyayangditunjukkandenganarah(azimuth)danjarak.d)apabilawiupatauwiupkberadadiwilayahperairanmakapemasangantandabatasdilakukansesuaidenganteknologiyangmemungkinkanbagipemegangiupatauiupk.2)penyaksianpemasangantandabatasa)penyaksianpemasangantandabatasdilakukanolehpetugaskantorkecamatandan/ataudesa/kelurahan/distrik/nagarisetempatdanperwakilandarimasing-masing:(1)pemegangiupatauiupkyangwiupatauwiupk-nyaberbatasanlangsungdenganwiupatauwiupkyangakandipasangtandabatas;(2)pemegangiupatauiupkbedakomoditasyangmemanfaatkanwiupatauwiupksecarabersama;(3)pemegangizinsektorlaindiluarkegiatanusahapertambanganyangberbatasanlangsungdenganwiupatauwiupkataumemanfaatkanlahansecarabersamadalamwiupatauwiupkyangakandipasangtandabatas;dan/atau(4)pemeganghakatastanahyangakandipasangtandabatas.b)dalamhalwilayahyangakandipasangtandabatasberadadikawasanhutanmakaharusdisaksikanpetugasinstansiyangmembidangikehutanan.3)dokumentasidandeskripsipemasangantandabatasa)pemegangiupoperasiproduksidaniupkoperasiproduksiwajibmelakukandokumentasidandeskripsipemasangantandabatasterhadapsetiaptandabatasyangtelahdipasang.b)pedomandokumentasidandeskripsipemasangantandabatastercantumdalamlampiranvikeputusanmenteriini.f.pembuatanberitaacara1)pemegangiupoperasiproduksidaniupkoperasiproduksimembuatberitaacarapengukurantitikbatasdanpemasangantandabatassetelahseluruhtandabatasselesaidipasang.2)beritaacaraharusditandatanganiolehjuruukurtambangyangmelaksanakanpengukurantitikbatasdanpemasangantandabatas,pemegangiupoperasiproduksiatauiupkoperasiproduksisertasaksi-saksi.3)formatberitaacarapengkuruantitikbatasdanpemasangantandabatastercantumdalamlampiranviikeputusanmenteriini.g.pelaporanpelaksanaanpemasangantandabatas1)pemegangiupoperasiproduksidaniupkoperasiproduksimenyusunlaporanpelaksanaanpemasangantandabatassetelahseluruhkegiatanselesaidilaksanakan.2)formatlaporanpelaksanaanpemasangantandabatastercantumdalamkeputusanmenteriesdmnomortahun2018tentangpedomanpenyusunan,evaluasi,persetujuanrencanakerjadananggaranbiayasertalaporanpadakegiatanusahapertambanganmineraldanbatubara.h.penetapantandabatas1)prosespenetapana)pemegangiupoperasiproduksidaniupkoperasiproduksimengajukanpermohonanpenetapantandabataskepadamenterimelaluidirekturjenderalataugubernursesuaidengankewenangannyasetelahditandatanganinyaberitaacarauntukmendapatkanpenetapantandabatas.b)permohonantersebutmelampirkanlaporanpelaksanaanpemasangantandabatas.c)direkturjenderalataugubernur,melakukanevaluasiataspermohonanpenetapantandabatastermasuklampirannya.d)formatevaluasitercantumdalamlampiranviiikeputusanmenteriini.[...]lampiraniibaganalurpemasangantandabataswiupatauwiupkoperasiproduksi[...][catatan:detailmengenaibaganalurpemasangantandabataswiupatauwiupkoperasiproduksidapatdilihatselengkapnyapadalampiranivkeputusanmenterienergidansumberdayamineralnomor1825k/30/mem/2018halaman19-20]lampiranivpedomanpengukurantitikbatas[...][catatan:detailmengenaipedomanpengukurantitikbatasdapatdilihatselengkapnyapadalampiranivkeputusanmenterienergidansumberdayamineralnomor1825k/30/mem/2018halaman22-25]lampiranvpedomanpembuatandanpemberiannamatandabatasa.pembuatanspesifikasi(gambar3.1):a.tandabatasharusdirancangdandibuatagardapatbertahanselamamungkin,danharusstabilkearahhorizontaldanvertikal;b.materialpenyusuntandabatasmerupakanbetondenganperbandingancampuransemen,pasir,koral1:2:3;c.rangkabesimenggunakantulanganutama4x12mmdanbekel8mmdenganjarak150mm;d.penanda(marker)darisetiaptandabatasharusdibuatdarilogamyangtahankarat;dane.bagiantandabatasyangmunculdipermukaan,dicatdengancatbetonberwarnamerah.[...][catatan:detailmengenaigambar3.1dimensitandabatasdapatdilihatselengkapnyapadalampiranvkeputusanmenterienergidansumberdayamineralnomor1825k/30/mem/2018halaman26]b.pemberiannama1.diberikannomorsesuaidengannomortitikbataspadaskiupoperasiproduksiatauskiupkoperasiproduksi;2.dalamhaltandabatasdipasangpadagarisbatas,makapenomoranditambahhurufdenganmengikutiabjad(misal:1a,1b,…);3.mencantumkansecarajelas:a.namapemegangiupoperasiproduksiatauiupkoperasiproduksidalamsingkatan;b.logokementerianesdm;danc.kodewilayahsesuaiperaturanperundang-undangan.4.ketigainformasitersebutdiatasdigrafirpadalempengperunggu(bronzecap)berukuran20x20cmmenggunakanhurufkapitaljenisarial;5.dalamhalpemegangiupatauiupkoperasiproduksimelakukanpemasangantandabatasreferensi,makapadalempengperunggu(bronzecap)tersebutditambahkaninformasiarah(azimuth)danjarak;6.lempengperunggutersebutdiatasharusdipasangmembujurpadasisidindingtandabatasyangmenghadapkesebelahdalamwiupoperasiproduksiatauwiupkoperasiproduksi;dan7.bagianpenanda(marker)diberikaninformasiarah(dalambentuktandapanah)ketandabatassebelumnyadantandabatasselanjutnya.[...][catatan:detailmengenaigambar3.2bronzecaptandabatas,gambar3.3bronzecaptandabatasreferensi,dangambar3.4penanda(marker)tandabatasdapatdilihatselengkapnyapadalampiranvkeputusanmenterienergidansumberdayamineralnomor1825k/30/mem/2018halaman27-28]lampiranvipedomandokumentasidandeskripsipemasangantandabatasa.dokumentasi1.setiaptandabatasyangtelahterpasangdenganbenar,wajibdidokumentasikan;2.tujuanpendokumentasianadalah:a.sebagaibuktiautentikbahwatandabatastelahterpasangdilapangan;b.sebagaibahanuntukpendeskripsiankondisitandabatasdanlapangan/situasisekitar;danc.sebagaibahanuntukmemudahkanpencariantandabatasdilapanganataurekonstruksilokasitandabatasapabilatandabatasrusak/hilang.3.peralatan/kamerayangdipergunakanuntukpendokumentasianharusrepresentatif(baikdigitalmaupunanalog);dan4.sisitandabatasyangharusdidokumentasikanadalahsisitandabatasyangmemuatinformasiidentitastandabatas.b.deskripsi[...][catatan:detailmengenaicontohdeskripsitandabatasdapatdilihatselengkapnyapadalampiranvikeputusanmenterienergidansumberdayamineralnomor1825k/30/mem/2018halaman29-30]lampiranviiformatberitaacarapengukurantitikbatasdanpemasangantandabatas[...][catatan:detailmengenaiformatberitaacarapengukurantitikbatasdanpemasangantandabatasdapatdilihatselengkapnyapadalampiranvikeputusanmenterienergidansumberdayamineralnomor1825k/30/mem/2018halaman31-33]</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>peraturanpemerintahnomor96tahun2021sanksipasal185&gt;&gt;&gt;(1)pemegangiup,iupk,ipr,sipb,atauiupuntukpenjualanyangmelakukanpelanggaranterhadapketentuansebagaimanadimaksuddalam[…]pasal49ayat(1)[…]dikenaisanksiadministratif.(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)benrpa:a.peringatantertulis;b.penghentiansernentarasebagianatauseluruhkegiataneksplorasiatauoperasiproduksi;dan/atauc.pencabutaniup,iupk,ipr,sipb,atauiupuntukpenjualan.(3)selainsanksiadministratifsebagaimanadimaksudpadaayat(2),pemegangiup,iupk,ipr,atausipb,yangmelakukanpelanggaranterhadapketentuansebagaimanadimaksuddalampasal51ayat(2)hurufbdanpasal107ayat(2)hurufbdikenaidenda.(4)pengenaandendasebagaimanadimaksudpadaayat(3)dilaksanakansesuaidenganketentuanperaturanperundang-undangandibidangpajakdaerahdanretribusidaerah.pasal186&gt;&gt;&gt;peringatantertulissebagaimanadimaksuddalampasal185ayat(2)hurufadiberikanpalingbanyak3(tiga)kalidenganjangkawaktuperingatanmasing-masing30(tigapuluh)harikalender.</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>4bb8f8ac787962375faa2fd9f640a9214f77a00b2edd5aaea6f2040f98cd06a7</t>
         </is>
       </c>
     </row>
@@ -622,12 +790,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Limbah Bahan Berbahaya dan Beracun&gt;Penanganan Sampah yang Mengandung B3 dan/atau Limbah B3 yang Timbul Akibat Bencana</t>
+          <t>Pertambangan Batubara&gt;Pelaksanaan Kegiatan Usaha Pertambangan Batubara</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Melakukan pemilahan Sampah yang Mengandung B3 dan/atau Sampah yang Mengandung Limbah B3 di area pengungsian</t>
+          <t>Melaksanakan tahapan pengumuman dan sosialisasi sesuai dengan ketentuan peraturan perundang-undangan, bagi Pemegang IUP atau IUPK yang akan melakukan pemasangan tanda batas WIUP Operasi Produksi atau WIUPK Operasi Produksi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -642,50 +810,64 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1. Memastikan pemilahan dilakukan di sarana pengelolaan Sampah yang Timbul Akibat Bencana yang disediakan oleh pemerintah pusat, pemerintah daerah provinsi, dan pemerintah daerah kabupaten/kota.
-2. Memastikan sarana pengelolaan Sampah yang Timbul Akibat Bencana berupa wadah memenuhi ketentuan: a. dibedakan sesuai dengan jenis Sampah; b. kedap air; c. tertutup; d. mudah dipindahkan; e. mudah dikosongkan dan dibersihkan; dan f. memiliki volume wadah yang disesuaikan dengan jumlah timbulan Sampah.
-3. Memastikan sarana pengelolaan Sampah yang Timbul Akibat Bencana berupa area pemilahan Sampah yang Timbul Akibat Bencana memenuhi ketentuan: a. luas area disesuaikan dengan jumlah dan jenis timbulan Sampah yang Timbul Akibat Bencana; b. berada sedekat mungkin dengan daerah pelayanan dalam radius tidak lebih dari radius 1 (satu) kilometer; c. lokasi mudah diakses; dan d. terlindungi dari hujan.</t>
+          <t>1. Memastikan agar Direkrur Jenderal atau Gubernur sesuai kewenangannya secara serentak selama 7 (tujuh) hari kalender, mengeluarkan pengumuman secara terbuka di: a. kantor Gubernur setempat; b. kantor Bupati/Walikota setempat; dan c. media cetak dan/atau dalam jaringan. 
+2. Melaksanakan sosialisasi rencana kerja kegiatan pemasangan Tanda Batas kepada masyarakat dan pemegang hak atas tanah dalam WIUP Operasi Produksi atau WIUPK Operasi Produksi.
+3. Mengikutsertakan petugas Dinas Teknis Provinsi dan perwakilan dari aparat Kabupaten/Kota, aparat Kecamatan, dan/atau aparat Desa/Kelurahan/Nagari/Distrik setempat dalam melaksanakan sosialisasi rencana kerja.
+4. Memenuhi tanggung jawab atas biaya pelaksanaan sosialisasi.
+5. Menyampaikan hasil sosialisasi kepada Direktur Jenderal Mineral dan Batubara serta Gubernur.
+6. Menyelesaikan hak atas tanah pada lokasi yang akan dilakukan pemasangan tanda batas.
+7. Menyampaikan rencana kerja kegiatan pemasangan tanda batas kepada Direktur Jenderal Mineral dan Batubara serta Gubernur yang memuat: a. letak dan jumlah Tanda Batas yang akan dipasang; b. kesampaian lokasi Tanda Batas; c. pihak lain yang memanfaatkan wilayah secara bersama serta yang berbatasan langsung dengan WIUP Operasi Produksi dan WIUPK Operasi Produksi; d. peta tematik yang memuat informasi hak pengusahaan lahan; e. peralatan yang akan digunakan; f. pelaksana kegiatan; g. rencana biaya; dan h. jadwal pelaksanaan.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Peraturan Menteri Lingkungan Hidup dan Kehutanan Nomor 1 Tahun 2024@lt65bb45bd5609b
-Kewajiban
-Pasal 5
-(1) Penanganan Sampah yang Timbul Akibat Bencana dilakukan melalui tahapan:
-a. pemilahan;
-[...]
-Pasal 6
-(1) Pemilahan dilakukan di sumber Sampah meliputi:
-[...]
-b. area pengungsian.
-[...]
-(3) Pemilahan Sampah yang Timbul Akibat Bencana di area pengungsian dikelompokkan berdasarkan jenis Sampah yang meliputi:
-a. Sampah yang Mengandung B3 dan/atau Sampah yang Mengandung Limbah B3;
-[...]
-(4) Sampah yang Mengandung B3 dan/atau Sampah yang Mengandung Limbah B3 sebagaimana dimaksud pada ayat (2) huruf a dan ayat (3) huruf a terdiri atas:
-a. produk rumah tangga yang mengandung B3 dan/atau Limbah B3;
-b. Sampah bekas kemasan produk yang mengandung B3 dan /atau Limbah B3 dan tidak digunakan lagi;
-c. Sampah barang elektronik yang telah rusak dan/atau tidak digunakan lagi; dan/atau
-d. B3 kedaluwarsa dan B3 tumpah.
-[...]
-Pasal 8
-(1) Pemilahan sebagaimana dimaksud dalam Pasal 6 dilakukan di sarana pengelolaan Sampah yang Timbul Akibat Bencana yang disediakan oleh pemerintah pusat, pemerintah daerah provinsi, dan pemerintah daerah kabupaten/kota.
-(2) Sarana pengelolaan Sampah yang Timbul Akibat Bencana sebagaimana dimaksud pada ayat (1) berupa:
-a. wadah; dan/atau
-b. area pemilahan Sampah yang Timbul Akibat Bencana.
-(3) Wadah sebagaimana dimaksud pada ayat (2) huruf a harus memenuhi ketentuan:
-a. dibedakan sesuai dengan jenis Sampah sebagaimana dimaksud dalam Pasal 6 ayat (2) dan ayat (3);
-b. kedap air;
-c. tertutup;
-d. mudah dipindahkan;
-e. mudah dikosongkan dan dibersihkan; dan
-f. memiliki volume wadah yang disesuaikan dengan jumlah timbulan Sampah.
-(4) Area pemilahan sebagaimana dimaksud pada ayat (2) huruf b harus memenuhi ketentuan:
-a. luas area disesuaikan dengan jumlah dan jenis timbulan Sampah yang Timbul Akibat Bencana;
-b. berada sedekat mungkin dengan daerah pelayanan dalam radius tidak lebih dari radius 1 (satu) kilometer;
-c. lokasi mudah diakses; dan
-d. terlindungi dari hujan.</t>
+          <t>Keputusan Menteri Energi Dan Sumber Daya Mineral Nomor 1825 K/30/MEM/2018 Tahun 2018@lt5b0294fb096fa
+Kewajiban
+###KESATU:
+Menetapkan Pedoman Pemasangan Tanda Batas Wilayah Izin Usaha Pertambangan (WIUP) atau Wilayah Izin Usaha Pertambangan Khusus (WIUPK) Operasi Produksi yang terdiri atas:
+a. Pedoman Pemasangan Tanda Batas WIUP atau WIUPK Operasi Produksi, tercantum dalam Lampiran I;
+[...]
+LAMPIRAN I  PEDOMAN PEMASANGAN TANDA BATAS WIUP ATAU WIUPK OPERASI PRODUKSI &gt;&gt;&gt; @lt5b0294fb096fa
+A. RUANG LINGKUP
+1. Kewajiban pemasangan tanda batas Batas WIUP Operasi Produksi atau WIUPK Operasi Produksi hanya berlaku bagi IUP Operasi Produksi atau IUPK Operasi Produksi yang:
+a. WIUP Operasi Produksi atau WIUPK Operasi Produksi-nya berhimpit/berbatasan langsung dengan WIUP, WIUPK, wilayah Kontrak Karya, atau wilayah Perjanjian Karya Pengusahaan Pertambangan Batubara lain; atau
+b. lokasi kegiatan penambangan dan penimbunannya berdekatan dengan batas WIUP Operasi Produksi atau WIUPK Operasi Produksinya.
+2. Tahapan Kegiatan pemasangan Tanda Batas tersebut meliputi:
+a. pengumuman dan sosialisasi;
+b. koordinasi;
+c. kompilasi data wilayah dan persiapan teknis;
+d. pengukuran Titik Batas;
+e. pemasangan Tanda Batas;
+f. pembuatan berita acara;
+g. pelaporan pelaksanaan pemasangan Tanda Batas; dan
+h. penetapan Tanda Batas.
+[...]
+D. PEDOMAN
+2. Tahapan Kegiatan Pemasangan Tanda Batas
+a. Pengumuman dan Sosialisasi
+1) Pengumuman
+a) Pengumuman secara terbuka dilakukan oleh Direktur Jenderal atau Gubernur sesuai kewenangannya secara serentak selama 7 (tujuh) hari kalender di:
+(1) kantor Gubernur setempat;
+(2) kantor Bupati/Walikota setempat; dan
+(3) media cetak dan/ atau dalam jaringan.
+b) Format lembar pengumuman tercantum dalam Lampiran III Keputusan Menteri ini.
+2) Sosialisasi 
+a) Pemegang IUP Operasi Produksi atau IUPK Operasi Produksi melakukan sosialisasi rencana kerja kegiatan pemasangan Tanda Batas kepada masyarakat dan pemegang hak atas tanah dalam WIUP Operasi Produksi dan WIUPK Operasi Produksi. 
+b) Pemegang IUP Operasi Produksi atau IUPK Operasi Produksi dalam melakukan sosialisasi mengikutsertakan petugas Dinas Teknis Provinsi dan perwakilan dari aparat Kabupaten/Kota, aparat Kecamatan, dan/atau aparat Desa/Kelurahan/Nagari/Distrik setempat.
+c) Biaya pelaksanaan sosialisasi menjadi tanggung jawab pemegang IUP Operasi Produksi atau IUPK Operasi Produksi.
+d) Pemegang IUP Operasi Produksi atau IUPK Operasi Produksi menyampaikan hasil sosialisasi kepada Direktur Jenderal dan Gubernur.
+e) Pemegang IUP Operasi Produksi atau IUPK Operasi Produksi yang akan melakukan kegiatan pemasangan Tanda Batas wajib menyelesaikan hak atas tanah pada lokasi yang akan dilakukan pemasangan Tanda Batas.
+f) Pemegang IUP Operasi Produksi dan IUPK Operasi Produksi menyampaikan rencana kerja kegiatan pemasangan Tanda Batas kepada Direktur Jenderal atau Gubernur sesuai dengan kewenangannya.
+g) Rencana kerja tersebut memuat: 
+(1) letak dan jumlah Tanda Batas yang akan dipasang;
+(2) kesampaian lokasi Tanda Batas; 
+(3) pihak lain yang memanfaatkan wilayah secara bersama serta yang berbatasan langsung dengan WIUP Operasi Produksi dan WIUPK Operasi Produksi;
+(4) peta tematik yang memuat informasi hak pengusahaan lahan; 
+(5) peralatan yang akan digunakan; 
+(6) pelaksana kegiatan; 
+(7) rencana biaya; dan 
+(8) jadwal pelaksanaan.
+[...]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -693,39 +875,45 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>melakukanpemilahansampahyangmengandungb3dan/atausampahyangmengandunglimbahb3diareapengungsian</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="I3" t="n">
+        <v>3344</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>melaksanakantahapanpengumumandansosialisasisesuaidenganketentuanperaturanperundang-undangan,bagipemegangiupatauiupkyangakanmelakukanpemasangantandabataswiupoperasiproduksiatauwiupkoperasiproduksi</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>continuous</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>tidakadasanksi</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>1.memastikanpemilahandilakukandisaranapengelolaansampahyangtimbulakibatbencanayangdisediakanolehpemerintahpusat,pemerintahdaerahprovinsi,danpemerintahdaerahkabupaten/kota.2.memastikansaranapengelolaansampahyangtimbulakibatbencanaberupawadahmemenuhiketentuan:a.dibedakansesuaidenganjenissampah;b.kedapair;c.tertutup;d.mudahdipindahkan;e.mudahdikosongkandandibersihkan;danf.memilikivolumewadahyangdisesuaikandenganjumlahtimbulansampah.3.memastikansaranapengelolaansampahyangtimbulakibatbencanaberupaareapemilahansampahyangtimbulakibatbencanamemenuhiketentuan:a.luasareadisesuaikandenganjumlahdanjenistimbulansampahyangtimbulakibatbencana;b.beradasedekatmungkindengandaerahpelayanandalamradiustidaklebihdariradius1(satu)kilometer;c.lokasimudahdiakses;dand.terlindungidarihujan.</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>peraturanmenterilingkunganhidupdankehutanannomor1tahun2024kewajibanpasal5(1)penanganansampahyangtimbulakibatbencanadilakukanmelaluitahapan:a.pemilahan;[...]pasal6(1)pemilahandilakukandisumbersampahmeliputi:[...]b.areapengungsian.[...](3)pemilahansampahyangtimbulakibatbencanadiareapengungsiandikelompokkanberdasarkanjenissampahyangmeliputi:a.sampahyangmengandungb3dan/atausampahyangmengandunglimbahb3;[...](4)sampahyangmengandungb3dan/atausampahyangmengandunglimbahb3sebagaimanadimaksudpadaayat(2)hurufadanayat(3)hurufaterdiriatas:a.produkrumahtanggayangmengandungb3dan/ataulimbahb3;b.sampahbekaskemasanprodukyangmengandungb3dan/ataulimbahb3dantidakdigunakanlagi;c.sampahbarangelektronikyangtelahrusakdan/atautidakdigunakanlagi;dan/ataud.b3kedaluwarsadanb3tumpah.[...]pasal8(1)pemilahansebagaimanadimaksuddalampasal6dilakukandisaranapengelolaansampahyangtimbulakibatbencanayangdisediakanolehpemerintahpusat,pemerintahdaerahprovinsi,danpemerintahdaerahkabupaten/kota.(2)saranapengelolaansampahyangtimbulakibatbencanasebagaimanadimaksudpadaayat(1)berupa:a.wadah;dan/ataub.areapemilahansampahyangtimbulakibatbencana.(3)wadahsebagaimanadimaksudpadaayat(2)hurufaharusmemenuhiketentuan:a.dibedakansesuaidenganjenissampahsebagaimanadimaksuddalampasal6ayat(2)danayat(3);b.kedapair;c.tertutup;d.mudahdipindahkan;e.mudahdikosongkandandibersihkan;danf.memilikivolumewadahyangdisesuaikandenganjumlahtimbulansampah.(4)areapemilahansebagaimanadimaksudpadaayat(2)hurufbharusmemenuhiketentuan:a.luasareadisesuaikandenganjumlahdanjenistimbulansampahyangtimbulakibatbencana;b.beradasedekatmungkindengandaerahpelayanandalamradiustidaklebihdariradius1(satu)kilometer;c.lokasimudahdiakses;dand.terlindungidarihujan.</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>1.memastikanagardirekrurjenderalataugubernursesuaikewenangannyasecaraserentakselama7(tujuh)harikalender,mengeluarkanpengumumansecaraterbukadi:a.kantorgubernursetempat;b.kantorbupati/walikotasetempat;danc.mediacetakdan/ataudalamjaringan.2.melaksanakansosialisasirencanakerjakegiatanpemasangantandabataskepadamasyarakatdanpemeganghakatastanahdalamwiupoperasiproduksiatauwiupkoperasiproduksi.3.mengikutsertakanpetugasdinasteknisprovinsidanperwakilandariaparatkabupaten/kota,aparatkecamatan,dan/atauaparatdesa/kelurahan/nagari/distriksetempatdalammelaksanakansosialisasirencanakerja.4.memenuhitanggungjawabatasbiayapelaksanaansosialisasi.5.menyampaikanhasilsosialisasikepadadirekturjenderalmineraldanbatubarasertagubernur.6.menyelesaikanhakatastanahpadalokasiyangakandilakukanpemasangantandabatas.7.menyampaikanrencanakerjakegiatanpemasangantandabataskepadadirekturjenderalmineraldanbatubarasertagubernuryangmemuat:a.letakdanjumlahtandabatasyangakandipasang;b.kesampaianlokasitandabatas;c.pihaklainyangmemanfaatkanwilayahsecarabersamasertayangberbatasanlangsungdenganwiupoperasiproduksidanwiupkoperasiproduksi;d.petatematikyangmemuatinformasihakpengusahaanlahan;e.peralatanyangakandigunakan;f.pelaksanakegiatan;g.rencanabiaya;danh.jadwalpelaksanaan.</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>keputusanmenterienergidansumberdayamineralnomor1825k/30/mem/2018tahun2018kewajiban###kesatu:menetapkanpedomanpemasangantandabataswilayahizinusahapertambangan(wiup)atauwilayahizinusahapertambangankhusus(wiupk)operasiproduksiyangterdiriatas:a.pedomanpemasangantandabataswiupatauwiupkoperasiproduksi,tercantumdalamlampirani;[...]lampiranipedomanpemasangantandabataswiupatauwiupkoperasiproduksi&gt;&gt;&gt;a.ruanglingkup1.kewajibanpemasangantandabatasbataswiupoperasiproduksiatauwiupkoperasiproduksihanyaberlakubagiiupoperasiproduksiatauiupkoperasiproduksiyang:a.wiupoperasiproduksiatauwiupkoperasiproduksi-nyaberhimpit/berbatasanlangsungdenganwiup,wiupk,wilayahkontrakkarya,atauwilayahperjanjiankaryapengusahaanpertambanganbatubaralain;ataub.lokasikegiatanpenambangandanpenimbunannyaberdekatandenganbataswiupoperasiproduksiatauwiupkoperasiproduksinya.2.tahapankegiatanpemasangantandabatastersebutmeliputi:a.pengumumandansosialisasi;b.koordinasi;c.kompilasidatawilayahdanpersiapanteknis;d.pengukurantitikbatas;e.pemasangantandabatas;f.pembuatanberitaacara;g.pelaporanpelaksanaanpemasangantandabatas;danh.penetapantandabatas.[...]d.pedoman2.tahapankegiatanpemasangantandabatasa.pengumumandansosialisasi1)pengumumana)pengumumansecaraterbukadilakukanolehdirekturjenderalataugubernursesuaikewenangannyasecaraserentakselama7(tujuh)harikalenderdi:(1)kantorgubernursetempat;(2)kantorbupati/walikotasetempat;dan(3)mediacetakdan/ataudalamjaringan.b)formatlembarpengumumantercantumdalamlampiraniiikeputusanmenteriini.2)sosialisasia)pemegangiupoperasiproduksiatauiupkoperasiproduksimelakukansosialisasirencanakerjakegiatanpemasangantandabataskepadamasyarakatdanpemeganghakatastanahdalamwiupoperasiproduksidanwiupkoperasiproduksi.b)pemegangiupoperasiproduksiatauiupkoperasiproduksidalammelakukansosialisasimengikutsertakanpetugasdinasteknisprovinsidanperwakilandariaparatkabupaten/kota,aparatkecamatan,dan/atauaparatdesa/kelurahan/nagari/distriksetempat.c)biayapelaksanaansosialisasimenjaditanggungjawabpemegangiupoperasiproduksiatauiupkoperasiproduksi.d)pemegangiupoperasiproduksiatauiupkoperasiproduksimenyampaikanhasilsosialisasikepadadirekturjenderaldangubernur.e)pemegangiupoperasiproduksiatauiupkoperasiproduksiyangakanmelakukankegiatanpemasangantandabataswajibmenyelesaikanhakatastanahpadalokasiyangakandilakukanpemasangantandabatas.f)pemegangiupoperasiproduksidaniupkoperasiproduksimenyampaikanrencanakerjakegiatanpemasangantandabataskepadadirekturjenderalataugubernursesuaidengankewenangannya.g)rencanakerjatersebutmemuat:(1)letakdanjumlahtandabatasyangakandipasang;(2)kesampaianlokasitandabatas;(3)pihaklainyangmemanfaatkanwilayahsecarabersamasertayangberbatasanlangsungdenganwiupoperasiproduksidanwiupkoperasiproduksi;(4)petatematikyangmemuatinformasihakpengusahaanlahan;(5)peralatanyangakandigunakan;(6)pelaksanakegiatan;(7)rencanabiaya;dan(8)jadwalpelaksanaan.[...]</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>6143699a9b20052a5f4771cfdee6e03a8b00b22e5cab44270b5f202863ed8fbd</t>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>161981bf59f728c9ced0f2fc631555fc7160730be7947b6fce49c680c4a77403</t>
         </is>
       </c>
     </row>
@@ -735,12 +923,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Limbah Bahan Berbahaya dan Beracun&gt;Penanganan Sampah yang Mengandung B3 dan/atau Limbah B3 yang Timbul Akibat Bencana</t>
+          <t>Pertambangan Batubara&gt;Pelaksanaan Kegiatan Usaha Pertambangan Batubara</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Melakukan pengangkutan terhadap Sampah terpilah dengan menggunakan alat angkut yang disesuaikan dengan kondisi Sampah yang Mengandung B3 dan/atau Sampah yang Mengandung Limbah B3</t>
+          <t>Melaksanakan tahapan koordinasi sesuai dengan ketentuan peraturan perundang-undangan, bagi Pemegang IUP atau IUPK yang akan melakukan pemasangan tanda batas WIUP Operasi Produksi atau WIUPK Operasi Produksi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -755,34 +943,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Memastikan pengangkutan terhadap Sampah yang Mengandung B3 dan/atau Limbah B3 dilaksanakan sesuai dengan ketentuan peraturan perundang-undangan.</t>
+          <t>1. Memastikan agar koodinasi yang dilakukan terkait dengan: a. pengukuran Titik Batas; b. penyaksian pemasangan Tanda Batas; dan c. pembuatan dan penandatanganan berita acara pemasangan Tanda Batas.
+2. Melakukan koordinasi kepada pemegang IUP atau IUPK yang WIUP atau WIUPK-nya berbatasan langsung dengan WIUP Operasi Produksi atau WIUPK Operasi Produksi yang akan dipasang Tanda Batas.
+3. Melakukan koordinasi kepada pemegang IUP atau IUPK beda komoditas yang memanfaatkan WIUP atau WIUPK secara bersama.
+4. Melakukan koordinasi kepada pemegang izin sektor lain di luar kegiatan usaha pertambangan yang berbatasan langsung dengan WIUP atau WIUPK atau memanfaatkan lahan secara bersama dalam WIUP atau WIUPK.
+5. Melakukan koordinasi kepada pemegang hak atas tanah dalam WIUP atau WIUPK.
+6. Melakukan koordinasi kepada petugas Direktorat Jenderal dan/atau Dinas Teknis Provinsi.
+7. Melakukan koordinasi kepada petugas instansi sektor lain di luar kegiatan usaha pertambangan yang berbatasan langsung dengan WIUP atau WIUPK atau memanfaatkan lahan secara bersama dalam WIUP atau WIUPK sesuai kewenangannya.
+8. Melakukan koordinasi kepada petugas kantor Kecamatan dan/atau Desa/Kelurahan/Nagari/Distrik setempat.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Peraturan Menteri Lingkungan Hidup dan Kehutanan Nomor 1 Tahun 2024@lt65bb45bd5609b
-Kewajiban
-Pasal 12
-(1) Pengangkutan Sampah dilakukan dengan ketentuan:
-a. dilakukan terhadap Sampah terpilah berdasarkan kelompok Sampah; dan
-b. menggunakan alat angkut yang disesuaikan dengan kondisi dan/atau kelompok Sampah.
-(2) Kondisi sampah sebagaimana dimaksud pada ayat (1) huruf b meliputi:
-a. Sampah basah; dan
-b. Sampah kering.
-(3) Ketentuan pengangkutan sebagaimana dimaksud pada ayat (1) huruf b dapat dikecualikan dalam hal:
-a. lokasi timbulan Sampah sulit untuk dicapai dengan alat angkut; dan/atau
-b. alat angkut yang tersedia tidak memadai.
-Pasal 13
-(1) Pengangkutan Sampah dilakukan dari:
-a. sumber Sampah sebagaimana dimaksud dalam Pasal 6 ayat (1) ke:
-1. area pemilahan Sampah yang Timbul Akibat Bencana; atau
-2. tempat pemrosesan akhir untuk Sampah yang tidak dapat dilakukan pemanfaatan kembali dan/atau pengolahan;
-b. area Pemilahan Sampah yang Timbul Akibat Bencana ke:
-1. pemanfaat;
-2. fasilitas pengolahan; atau
-3. tempat pemrosesan akhir untuk Sampah yang tidak dapat dilakukan pemanfaatan kembali dan/atau pengolahan; dan
-c. fasilitas pengolahan ke tempat pemrosesan akhir untuk residu hasil pengolahan.
-(2) Dalam hal pengangkutan dilakukan terhadap sampah yang Mengandung B3 dan/atau Limbah B3, pengangkutan dilaksanakan sesuai dengan ketentuan peraturan perundang-undangan.</t>
+          <t>Keputusan Menteri Energi Dan Sumber Daya Mineral Nomor 1825 K/30/MEM/2018 Tahun 2018@lt5b0294fb096fa
+Kewajiban
+###KESATU:
+Menetapkan Pedoman Pemasangan Tanda Batas Wilayah Izin Usaha Pertambangan (WIUP) atau Wilayah Izin Usaha Pertambangan Khusus (WIUPK) Operasi Produksi yang terdiri atas:
+a. Pedoman Pemasangan Tanda Batas WIUP atau WIUPK Operasi Produksi, tercantum dalam Lampiran I;
+[...]
+LAMPIRAN I  PEDOMAN PEMASANGAN TANDA BATAS WIUP ATAU WIUPK OPERASI PRODUKSI &gt;&gt;&gt; @lt5b0294fb096fa
+A. RUANG LINGKUP
+1. Kewajiban pemasangan tanda batas Batas WIUP Operasi Produksi atau WIUPK Operasi Produksi hanya berlaku bagi IUP Operasi Produksi atau IUPK Operasi Produksi yang:
+a. WIUP Operasi Produksi atau WIUPK Operasi Produksi-nya berhimpit/berbatasan langsung dengan WIUP, WIUPK, wilayah Kontrak Karya, atau wilayah Perjanjian Karya Pengusahaan Pertambangan Batubara lain; atau
+b. lokasi kegiatan penambangan dan penimbunannya berdekatan dengan batas WIUP Operasi Produksi atau WIUPK Operasi Produksinya.
+2. Tahapan Kegiatan pemasangan Tanda Batas tersebut meliputi:
+a. pengumuman dan sosialisasi;
+b. koordinasi;
+c. kompilasi data wilayah dan persiapan teknis;
+d. pengukuran Titik Batas;
+e. pemasangan Tanda Batas;
+f. pembuatan berita acara;
+g. pelaporan pelaksanaan pemasangan Tanda Batas; dan
+h. penetapan Tanda Batas.
+[...]
+D. PEDOMAN
+2. Tahapan Kegiatan Pemasangan Tanda Batas
+[…]
+b. Koordinasi
+1) Pemegang IUP Operasi Produksi dan IUPK Operasi Produksi melakukan koordinasi kepada: 
+a) pemegang IUP atau IUPK yang WIUP atau WIUPK-nya berbatasan langsung dengan WIUP Operasi Produksi atau WIUPK Operasi Produksi yang akan dipasang Tanda Batas;
+b) pemegang IUP atau IUPK beda komoditas yang memanfaatkan WIUP atau WIUPK secara bersama;
+c) pemegang izin sektor lain di luar kegiatan usaha pertambangan yang berbatasan langsung dengan WIUP atau WIUPK atau memanfaatkan lahan secara bersama dalam WIUP atau WIUPK; 
+d) pemegang hak atas tanah dalam WIUP atau WIUPK; 
+e) petugas Direktorat Jenderal dan/atau Dinas Teknis Provinsi;
+f) petugas instansi sektor lain di luar kegiatan usaha pertambangan yang berbatasan langsung dengan WIUP atau WIUPK atau memanfaatkan lahan secara bersama dalam WIUP atau WIUPK sesuai kewenangannya; dan 
+g) petugas kantor Kecamatan dan/atau Desa/Kelurahan/ Nagari/Distrik setempat. 
+2) Koordinasi tersebut terkait: 
+a) pengukuran Titik Batas; 
+b) penyaksian pemasangan Tanda Batas; dan 
+c) pembuatan dan penandatanganan berita acara pemasangan Tanda Batas.
+[...]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -790,159 +1000,436 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>melakukanpengangkutanterhadapsampahterpilahdenganmenggunakanalatangkutyangdisesuaikandengankondisisampahyangmengandungb3dan/atausampahyangmengandunglimbahb3</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="I4" t="n">
+        <v>2492</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>melaksanakantahapankoordinasisesuaidenganketentuanperaturanperundang-undangan,bagipemegangiupatauiupkyangakanmelakukanpemasangantandabataswiupoperasiproduksiatauwiupkoperasiproduksi</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>continuous</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>tidakadasanksi</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>memastikanpengangkutanterhadapsampahyangmengandungb3dan/ataulimbahb3dilaksanakansesuaidenganketentuanperaturanperundang-undangan.</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>peraturanmenterilingkunganhidupdankehutanannomor1tahun2024kewajibanpasal12(1)pengangkutansampahdilakukandenganketentuan:a.dilakukanterhadapsampahterpilahberdasarkankelompoksampah;danb.menggunakanalatangkutyangdisesuaikandengankondisidan/ataukelompoksampah.(2)kondisisampahsebagaimanadimaksudpadaayat(1)hurufbmeliputi:a.sampahbasah;danb.sampahkering.(3)ketentuanpengangkutansebagaimanadimaksudpadaayat(1)hurufbdapatdikecualikandalamhal:a.lokasitimbulansampahsulituntukdicapaidenganalatangkut;dan/ataub.alatangkutyangtersediatidakmemadai.pasal13(1)pengangkutansampahdilakukandari:a.sumbersampahsebagaimanadimaksuddalampasal6ayat(1)ke:1.areapemilahansampahyangtimbulakibatbencana;atau2.tempatpemrosesanakhiruntuksampahyangtidakdapatdilakukanpemanfaatankembalidan/ataupengolahan;b.areapemilahansampahyangtimbulakibatbencanake:1.pemanfaat;2.fasilitaspengolahan;atau3.tempatpemrosesanakhiruntuksampahyangtidakdapatdilakukanpemanfaatankembalidan/ataupengolahan;danc.fasilitaspengolahanketempatpemrosesanakhiruntukresiduhasilpengolahan.(2)dalamhalpengangkutandilakukanterhadapsampahyangmengandungb3dan/ataulimbahb3,pengangkutandilaksanakansesuaidenganketentuanperaturanperundang-undangan.</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr">
         <is>
+          <t>1.memastikanagarkoodinasiyangdilakukanterkaitdengan:a.pengukurantitikbatas;b.penyaksianpemasangantandabatas;danc.pembuatandanpenandatangananberitaacarapemasangantandabatas.2.melakukankoordinasikepadapemegangiupatauiupkyangwiupatauwiupk-nyaberbatasanlangsungdenganwiupoperasiproduksiatauwiupkoperasiproduksiyangakandipasangtandabatas.3.melakukankoordinasikepadapemegangiupatauiupkbedakomoditasyangmemanfaatkanwiupatauwiupksecarabersama.4.melakukankoordinasikepadapemegangizinsektorlaindiluarkegiatanusahapertambanganyangberbatasanlangsungdenganwiupatauwiupkataumemanfaatkanlahansecarabersamadalamwiupatauwiupk.5.melakukankoordinasikepadapemeganghakatastanahdalamwiupatauwiupk.6.melakukankoordinasikepadapetugasdirektoratjenderaldan/ataudinasteknisprovinsi.7.melakukankoordinasikepadapetugasinstansisektorlaindiluarkegiatanusahapertambanganyangberbatasanlangsungdenganwiupatauwiupkataumemanfaatkanlahansecarabersamadalamwiupatauwiupksesuaikewenangannya.8.melakukankoordinasikepadapetugaskantorkecamatandan/ataudesa/kelurahan/nagari/distriksetempat.</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>keputusanmenterienergidansumberdayamineralnomor1825k/30/mem/2018tahun2018kewajiban###kesatu:menetapkanpedomanpemasangantandabataswilayahizinusahapertambangan(wiup)atauwilayahizinusahapertambangankhusus(wiupk)operasiproduksiyangterdiriatas:a.pedomanpemasangantandabataswiupatauwiupkoperasiproduksi,tercantumdalamlampirani;[...]lampiranipedomanpemasangantandabataswiupatauwiupkoperasiproduksi&gt;&gt;&gt;a.ruanglingkup1.kewajibanpemasangantandabatasbataswiupoperasiproduksiatauwiupkoperasiproduksihanyaberlakubagiiupoperasiproduksiatauiupkoperasiproduksiyang:a.wiupoperasiproduksiatauwiupkoperasiproduksi-nyaberhimpit/berbatasanlangsungdenganwiup,wiupk,wilayahkontrakkarya,atauwilayahperjanjiankaryapengusahaanpertambanganbatubaralain;ataub.lokasikegiatanpenambangandanpenimbunannyaberdekatandenganbataswiupoperasiproduksiatauwiupkoperasiproduksinya.2.tahapankegiatanpemasangantandabatastersebutmeliputi:a.pengumumandansosialisasi;b.koordinasi;c.kompilasidatawilayahdanpersiapanteknis;d.pengukurantitikbatas;e.pemasangantandabatas;f.pembuatanberitaacara;g.pelaporanpelaksanaanpemasangantandabatas;danh.penetapantandabatas.[...]d.pedoman2.tahapankegiatanpemasangantandabatas[…]b.koordinasi1)pemegangiupoperasiproduksidaniupkoperasiproduksimelakukankoordinasikepada:a)pemegangiupatauiupkyangwiupatauwiupk-nyaberbatasanlangsungdenganwiupoperasiproduksiatauwiupkoperasiproduksiyangakandipasangtandabatas;b)pemegangiupatauiupkbedakomoditasyangmemanfaatkanwiupatauwiupksecarabersama;c)pemegangizinsektorlaindiluarkegiatanusahapertambanganyangberbatasanlangsungdenganwiupatauwiupkataumemanfaatkanlahansecarabersamadalamwiupatauwiupk;d)pemeganghakatastanahdalamwiupatauwiupk;e)petugasdirektoratjenderaldan/ataudinasteknisprovinsi;f)petugasinstansisektorlaindiluarkegiatanusahapertambanganyangberbatasanlangsungdenganwiupatauwiupkataumemanfaatkanlahansecarabersamadalamwiupatauwiupksesuaikewenangannya;dang)petugaskantorkecamatandan/ataudesa/kelurahan/nagari/distriksetempat.2)koordinasitersebutterkait:a)pengukurantitikbatas;b)penyaksianpemasangantandabatas;danc)pembuatandanpenandatangananberitaacarapemasangantandabatas.[...]</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>319b50e166a40122ed2ace8c38997ecd2e04502f426141be31fff925e97767f2</t>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>56b4510aed4145fab3488f12346038a446b8238862c55123c2a163c797ae411d</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Limbah Bahan Berbahaya dan Beracun&gt;Penanganan Sampah yang Mengandung B3 dan/atau Limbah B3 yang Timbul Akibat Bencana</t>
+          <t>Pertambangan Batubara&gt;Pelaksanaan Kegiatan Usaha Pertambangan Batubara</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Melakukan pengangkutan terhadap Sampah terpilah dengan menggunakan alat angkut yang disesuaikan dengan jenis Sampah yang Mengandung B3 dan/atau Sampah yang Mengandung Limbah B3</t>
+          <t>Memiiki Izin Usaha Jasa Pertambangan</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Continuous</t>
+          <t>Licensing</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Tidak Ada Sanksi</t>
+          <t>Administratif dan Pidana</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Memastikan pengangkutan terhadap Sampah yang Mengandung B3 dan/atau Limbah B3 dilaksanakan sesuai dengan ketentuan peraturan perundang-undangan.</t>
+          <t>1. Mengajukan permohonan IUJP kepada Menteri ESDM atau gubernur.
+2. Memenuhi persyaratan administratif meliputi surat permohonan; format isian lampiran permohonan; akta pendirian badan usaha dan perubahannya yang telah mendapatkan pengesahan dari instansi yang berwenang; mencantumkan maksud dan tujuan di dalam akta pendirian sesuai ketentuan; Nomor Pokok Wajib Pajak (NPWP) badan usaha; Nomor Induk Berusaha (NIB), daftar susunan direksi dan komisaris atau pengurus yang dilengkapi dengan identitas dan NPWP/Tax ID, daftar pemegang saham sampai dengan perseorangan penerima manfaat akhir (beneficial ownership) yang dilengkapi jumlah/persentase saham dan NPWP/Tax ID; da surat pernyataan tertulis di atas materai dan distempel basah (cap perusahaan asli) yang menyatakan bahwa seluruh keterangan yang dilampirkan pada surat permohonan adalah benar.
+3. Memenuhi persyaratan teknis meliputi daftar tenaga ahli dalam bentuk tabel sesuai ketentuan; dan daftar peralatan, dalam bentuk tabel sesuai ketentuan.
+4. Mengajukan permohonan izin melalui Sistem Perizinan Berusaha Terintegrasi secara Elektronik (Online Single Submission/OSS), dan tidak hadir secara tatap muka di lingkungan Direktorat Jenderal Mineral dan Batubara kecuali terdapat kepentingan yang mendesak.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Peraturan Menteri Lingkungan Hidup dan Kehutanan Nomor 1 Tahun 2024@lt65bb45bd5609b
-Kewajiban
-Pasal 6
-(1) Pemilahan dilakukan di sumber Sampah meliputi:
-a. lokasi terjadinya Bencana; dan
-b. area pengungsian.
-(2) Pemilahan di lokasi terjadinya Bencana dikelompokkan berdasarkan jenis Sampah yang meliputi:
-a. Sampah yang Mengandung B3 dan/atau Sampah yang Mengandung Limbah B3;
-[...]
-(3) Pemilahan Sampah yang Timbul Akibat Bencana di area pengungsian dikelompokkan berdasarkan jenis Sampah yang meliputi:
-a. Sampah yang Mengandung B3 dan/atau Sampah yang Mengandung Limbah B3;
-[...]
-Pasal 12
-(1) Pengangkutan Sampah dilakukan dengan ketentuan:
-a. dilakukan terhadap Sampah terpilah berdasarkan kelompok Sampah; dan
-b. menggunakan alat angkut yang disesuaikan dengan kondisi dan/atau kelompok Sampah.
-[...]
-(3) Ketentuan pengangkutan sebagaimana dimaksud pada ayat (1) huruf b dapat dikecualikan dalam hal:
-a. lokasi timbulan Sampah sulit untuk dicapai dengan alat angkut; dan/atau
-b. alat angkut yang tersedia tidak memadai.
-Pasal 13
-(1) Pengangkutan Sampah dilakukan dari:
-a. sumber Sampah sebagaimana dimaksud dalam Pasal 6 ayat (1) ke:
-1. area pemilahan Sampah yang Timbul Akibat Bencana; atau
-2. tempat pemrosesan akhir untuk Sampah yang tidak dapat dilakukan pemanfaatan kembali dan/atau pengolahan;
-b. area Pemilahan Sampah yang Timbul Akibat Bencana ke:
-1. pemanfaat;
-2. fasilitas pengolahan; atau
-3. tempat pemrosesan akhir untuk Sampah yang tidak dapat dilakukan pemanfaatan kembali dan/atau pengolahan; dan
-c. fasilitas pengolahan ke tempat pemrosesan akhir untuk residu hasil pengolahan.
-(2) Dalam hal pengangkutan dilakukan terhadap sampah yang Mengandung B3 dan/atau Limbah B3, pengangkutan dilaksanakan sesuai dengan ketentuan peraturan perundang-undangan.</t>
+          <t>Undang-Undang Nomor 4 Tahun 2009@28851
+Kewajiban
+Pasal 124  &gt;&gt;&gt; @lt5ee99c014ba3a
+[...]
+(3) Jenis usaha Jasa Pertambangan yaitu pelaksanaan di bidang:
+a. Penyelidikan Umum;
+b. Eksplorasi;
+c. Studi Kelayakan;
+d. Konstruksi Pertambangan;
+e. Pengangkutan;
+f. lingkungan Pertambangan;
+g. Reklamasi dan Pascatambang;
+h. keselamatan Pertambangan; dan/atau
+i. Penambangan.
+[...]
+Pasal 125  &gt;&gt;&gt; @lt5ee99c014ba3a
+(1) Dalam hal pemegang IUP atau IUPK menggunakan Jasa Pertambangan, tanggung jawab kegiatan Usaha Pertambangan tetap dibebankan kepada pemegang IUP atau IUPK.
+[...]
+Peraturan Pemerintah Nomor 96 Tahun 2021@lt614815d4f1925
+Kewajiban
+Pasal 6 &gt;&gt;&gt; @lt614815d4f1925
+(1) Usaha Pertambangan dilaksanakan berdasarkan Perizinan Berusaha dari Pemerintah pusat.
+(2) Perizinan Berusaha sebagaimana dimaksud pada ayat (1) dilaksanakan melalui pemberian:
+a. nomor induk berusaha;
+b. sertifikat standar; dan/atau
+c. izin.
+(3) Perizinan Berusaha sebagaimana dimaksud pada ayat (2) dilaksanakan sesuai dengan ketentuan peraturan perundang-undangan.
+(4) lzin sebagaimana dirnaksud pada ayat (2) huruf c terdiri atas:
+[...]
+h. IUJP; dan
+[...]
+Pasal 137 &gt;&gt;&gt; @lt614815d4f1925
+[...]
+(2) Perusahaan Jasa Pertambangan sebagaimana dimaksud pada ayat (1) melaksanakan kegiatan usaha Jasa Pertambangan dengan jenis usaha di bidang:
+a. Penyelidikan Umum;
+b. Eksplorasi;
+c. Studi Kelayakan;
+d. Konstruksi Pertarnbangan;
+e. Pengangkutan;
+f. lingkungan Pertambangan;
+g. Reklamasi dan Pascatambang;
+h. keselamatan Pertambangan; dan/atau
+i. Penambangan.
+(3) Kegiatan usaha Jasa Pertambangan sebagaimana dimaksud pada ayat (2) terdiri atas:
+a. konsultasi;
+b. perencanaan; dan
+c. pelaksanaan.
+[...]
+Peraturan Menteri Energi Dan Sumber Daya Mineral Nomor 5 Tahun 2021@lt60c040c8e9b53
+Kewajiban
+Lampiran III &gt;&gt;&gt; @lt60c040c8e9b53
+A. Standar Perizinan Berusaha Berbasis Risiko Subsektor Mineral dan Batubara
+VIII. Standar Usaha Jasa Pertambangan
+[...]
+3. Penggolongan Usaha IUJP untuk jenis kegiatan pelaksanaan yang meliputi bidang:
+a. penyelidikan umum, meliputi subbidang:
+1. survei tinjau (reconnaissance);
+2. remote sensing; dan
+3. prospeksi;
+b. eksplorasi, meliputi subbidang:
+1. manajemen eksplorasi;
+2. penentuan posisi;
+3. pemetaan topografi;
+4. pemetaan geologi;
+5. geokimia;
+6. geofisika;
+7. survei bawah permukaan;
+8. geoteknik;
+9. pemboran eksplorasi;
+10. percontoan eksplorasi; dan
+11. perhitungan sumber daya dan cadangan;
+c. studi kelayakan, meliputi subbidang:
+1. penyusunan dokumen lingkungan (AMDAL dan/atau UKL-UPL); dan
+2. penyusunan Studi Kelayakan;
+d. konstruksi pertambangan, meliputi subbidang:
+1. penerowongan (tunneling);
+2. penyemenan tambang bawah tanah;
+3. penyanggaan tambang bawah tanah;
+4. shaft sinking;
+5. sistem penerangan tambang bawah tanah;
+6. alat gali, muat, dan angkut tambang bawah tanah;
+7. pemboran dan peledakan;
+8. fasilitas perbengkelan;
+9. komisioning tambang;
+10. ventilasi tambang;
+11. fasilitas pengolahan;
+12. fasilitas pemurnian;
+13. jalan pertambangan;
+14. jembatan;
+15. pelabuhan;
+16. gudang bahan peledak;
+17. fasilitas penimbunan bahan bakar cair;
+18. sistem penyaliran;
+19. tempat penyimpanan sementara limbah bahan berbahaya dan beracun (B3);
+20. kolam pengendap;
+21. Tailing Storage Facility (TSF); dan
+22. geoteknik;
+e. pengangkutan, meliputi subbidang:
+1. menggunakan truk;
+2. menggunakan lori;
+3. menggunakan ban berjalan (belt conveyor);
+4. menggunakan tongkang;
+5. menggunakan pipa; dan
+6. menggunakan lift;
+f. lingkungan pertambangan, meliputi subbidang:
+1. pemantauan lingkungan;
+2. survei RKL/RPL;
+3. pengelolaan air asam tambang;
+4. audit lingkungan pertambangan; dan
+5. pengendalian erosi;
+g. reklamasi dan pascatambang, meliputi subbidang:
+1. penyiapan dan penataan lahan;
+2. penebaran tanah pucuk (topsoil);
+3. pembongkaran fasilitas;
+4. pembibitan;
+5. penanaman; dan
+6. perawatan;
+h. keselamatan pertambangan, meliputi subbidang:
+1. pemeriksaan dan pengujian teknik;
+2. audit keselamatan dan kesehatan kerja pertambangan; dan/atau
+i. penambangan, meliputi subbidang:
+1. pembukaan lahan;
+2. pemberaian/pembongkaran tanah/batuan penutup dengan didahului peledakan;
+3. pemberaian/pembongkaran tanah/batuan penutup tanpa didahului peledakan;
+4. pengupasan, pemuatan dan pemindahan tanah/batuan penutup;
+5. penggalian mineral (mineral getting);
+6. penggalian batubara (coal getting); dan
+7. penggalian, pemindahan dan/atau pencucian endapan mineral aluvial dalam rangka program kemitraan.
+4. Persyaratan Umum Usaha
+Untuk mendapatkan Izin usaha Jasa Pertambangan, pemohon mengajukan persyaratan:
+a. administratif:
+1. surat permohonan;
+2. format isian lampiran permohonan;
+3. akta pendirian badan usaha dan perubahannya yang telah mendapatkan pengesahan dari instansi yang berwenang.
+4. mencantumkan maksud dan tujuan di dalam akta pendirian yang menyatakan antara lain:
+“Bergerak di bidang usaha jasa pertambangan, Kode KBLI 09900, dapat digabung dengan konstruksi, penyewaaan alat/mesin dll
+Tidak dapat digabung dengan:
+a) Pertambangan mineral/batubara, Kode KBLI: 05xxx, 07xxx, 08xxx
+b) Perdagangan mineral/batubara, Kode KBLI: 46610, 46620, 46634, 46641”
+5. Nomor Pokok Wajib Pajak (NPWP) badan usaha;
+6. NIB;
+7. daftar susunan direksi dan komisaris atau pengurus yang dilengkapi dengan identitas dan NPWP/Tax ID;
+8. daftar pemegang saham sampai dengan perseorangan penerima manfaat akhir (beneficial ownership) yang dilengkapi jumlah/persentase saham dan NPWP/Tax ID; dan
+9. surat pernyataan tertulis di atas materai dan distempel basah (cap perusahaan asli) yang menyatakan bahwa seluruh keterangan yang dilampirkan pada surat permohonan adalah benar.
+b. teknis:
+1. daftar tenaga ahli dalam bentuk tabel yang meliputi:
+a) nama tenaga ahli;
+b) keahlian yang dibuktikan dengan sertifikat kompetensi dan/atau sertifikat pelatihan;
+c) Kartu Tanda Penduduk (KTP)/Izin Mempekerjakan Tenaga Kerja Asing (IMTA);
+d) ijazah;
+e) curriculum vitae (CV); dan
+f) surat pernyataan tenaga ahli yang ditandatangani oleh tenaga ahli yang bersangkutan di atas materai.
+2. daftar peralatan, dalam bentuk tabel yang meliputi:
+a) jenis;
+b) jumlah;
+c) kondisi;
+i. kelayakan penggunaan yang dinyatakan dalam persentase; dan
+ii. untuk peralatan angkat, gali, muat dan angkut melampirkan surat pernyataan kelayakan (mechanical availability) yang ditandatangani oleh kepala bagian mekanik/permesinan atau orang yang berkompeten;
+d) status kepemilikan;
+i. melampirkan surat pernyataan yang ditandatangani oleh Direksi diatas materai apabila status kepemilikan peralatan adalah milik badan usaha pemohon.
+ii. untuk peralatan dengan status sewa, salinan dokumen perjanjian sewa peralatan harus dilampirkan.
+iii. jika belum mempunyai peralatan baik milik sendiri maupun sewa, harus melampirkan surat perjanjian kerja sama (MoU) atau surat dukungan dengan perusahaan yang memiliki peralatan.
+e) lokasi keberadaan alat.
+c. Bila diperlukan, verifikasi lapangan untuk tenaga ahli dan peralatan dapat dilakukanberdasarkan hasil evaluasi dokumen permohonan IUJP khusus untuk bidang usaha penambangan
+d. Kelengkapan tambahan persyaratan untuk permohonan IUJP Perpanjangan dan/atau IUJP Perubahan:
+1) bukti penyampaian laporan kegiatan triwulanan kepada Kepala Teknik Tambang atau instansi pemberi izin; dan
+2) salinan dokumen IUJP sebelumnya.
+Durasi pemenuhan persyaratan paling lama 30 (tiga puluh) hari sesuai dengan ketentuan jangka waktu lembaga Online Single Submission (OSS).
+[...]
+Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Kewajiban
+Pasal 35 &gt;&gt;&gt; @lt5e6f51a775ad4
+(1) Izin usaha di bidang pertambangan mineral dan batubara dikelompokkan menjadi:
+[...]
+g. IUJP.
+(2) Izin usaha di bidang pertambangan mineral dan batubara sebagaimana dimaksud pada ayat (1) huruf a sampai dengan huruf g dapat diberikan kepada:
+a. Badan Usaha;
+[...]
+(3) Badan Usaha sebagaimana dimaksud pada ayat (2) huruf a terdiri atas:
+[...]
+c. badan usaha swasta.
+[...]
+Pasal 36 &gt;&gt;&gt; @lt5e6f51a775ad4
+(1) Badan Usaha, koperasi, dan perseorangan hanya dapat melaksanakan kegiatan usaha pertambangan mineral dan batubara setelah mendapatkan izin usaha di bidang pertambangan mineral dan batubara sebagaimana dimaksud dalam Pasal 35 ayat (1).
+(2) Izin usaha di bidang pertambangan mineral dan batubara sebagaimana dimaksud dalam Pasal 35 ayat (1) tidak dapat digunakan selain sebagaimana dimaksud dalam pemberian izin usaha di bidang pertambangan mineral dan batubara.
+Pasal 55 &gt;&gt;&gt; @lt5e6f51a775ad4
+(1) IUJP meliputi kegiatan:
+a. konsultasi, perencanaan, dan pelaksanaan di bidang:
+1. Penyelidikan Umum;
+2. Eksplorasi;
+3. Studi Kelayakan;
+4. Konstruksi pertambangan;
+5. Pengangkutan;
+6. lingkungan pertambangan;
+7. reklamasi dan pascatambang; dan/atau
+8. keselamatan pertambangan;
+b. konsultasi dan perencanaan di bidang:
+1. penambangan; atau
+2. pengolahan dan pemurnian
+[...]
+(3) Bidang usaha jasa pertambangan sebagaimana dimaksud pada ayat (1) terdiri atas subbidang yang ditetapkan oleh Menteri.
+(4) IUJP sebagaimana dimaksud pada ayat (1) diberikan untuk jangka waktu 5 (lima) tahun dan dapat diperpanjang untuk jangka waktu 5 (lima) tahun setiap kali perpanjangan.
+Pasal 72
+Pemegang IUJP dalam melaksanakan kegiatan usahanya wajib:
+[...]
+m. memenuhi ketentuan peraturan perundang-undangan di bidang usaha jasa pertambangan.
+Keputusan Menteri Energi Dan Sumber Daya Mineral Nomor 1796 K/30/MEM/2018 Tahun 2018@lt5afe7503eb1b1
+Kewajiban
+LAMPIRAN VII &gt;&gt;&gt; @lt5afe7503eb1b1
+PEDOMAN PELAKSANAAN PERMOHONAN, EVALUASI, PENERBITAN, SERTA PERPANJANGAN IZIN USAHA JASA PERTAMBANGAN (IUJP)
+Keterangan Pedoman Pelaksanaan Permohonan, Evaluasi, Penerbitan, serta Perpanjangan IUJP:
+1. Pengajuan Permohonan
+a. Badan Usaha mengajukan permohonan IUJP baru atau Perpanjangan IUJP kepada Menteri atau gubernur.
+b. Atas permohonan sebagaimana dimaksud pada huruf a, petugas penerima permohonan melakukan verifikasi terhadap dokumen kelengkapan persyaratan administratif, teknis, lingkungan, dan finansial.
+1) permohonan yang memenuhi persyaratan akan diberikan tanda terima permohonan, dan diteruskan kepada evaluator untuk dievaluasi.
+2) permohonan yang terdapat kekurangan/belum lengkap, maka permohonan dikembalikan. Untuk permohonan yang dikembalikan kepada pemohon disertai catatan yang sesuai dengan hasil verifikasi. Permohonan dapat diajukan kembali setelah melengkapi persyaratan sesuai dengan hasil verifikasi dengan nomor dan tanggal surat permohonan yang baru
+[...]
+Keterangan Pedoman Pelaksanaan Permohonan, Evaluasi, Penerbitan, serta Perpanjangan IUJP:
+[…]
+Keputusan Menteri Energi Dan Sumber Daya Mineral Nomor 33.K/MB.01/MEM.B/2023 Tahun 2023@lt63fc51c94b035
+Kewajiban
+###KESATU: &gt;&gt;&gt; @lt63fc51c94b035
+Pelayanan perizinan subsektor mineral dan batubara yang menjadi kewenangan dari Pemerintah Pusat dilaksanakan melalui Sistem Perizinan Berusaha Terintegrasi secara Elektronik (Online Single Submission) yang dapat diakses pada laman https://oss.go.id/.
+###KEDUA: &gt;&gt;&gt; @lt63fc51c94b035
+Pelayanan pemberian persetujuan subsektor mineral dan batubara yang meliputi:
+[...]
+c. persetujuan lainnya sesuai dengan ketentuan peraturan perundang-undangan,
+dilaksanakan melalui:
+[...]
+b. aplikasi Perizinan Usaha dan Operasional Sektor ESDM yang dapat diakses pada laman https://perizinan.esdm.go.id/minerba;
+c. pengiriman surat elektronik (e-mail) ke alamat surat elektronik (e-mail) resmi Direktorat Jenderal Mineral dan Batubara djmb@esdm.go.id; dan/atau
+d. aplikasi lainnya yang terdapat di Direktorat Jenderal Mineral dan Batubara sepanjang telah tersedia.
+###KETIGA: &gt;&gt;&gt; @lt63fc51c94b035
+Dalam mendukung pelaksanaan pelayanan perizinan dan pemberian persetujuan subsektor mineral dan batubara sebagaimana dimaksud dalam Diktum KESATU dan Diktum KEDUA, Direktorat Jenderal Mineral dan batubara menyediakan pelayanan informasi dan perizinan melalui nomor telepon hotline, sebagai berikut:
+[...]
+b. pelayanan informasi terkait Jaminan Reklamasi, Jaminan Pascatambang, Izin Usaha Jasa Pertambangan, Kepala Teknik Tambang, Pemasangan Tanda Batas WIUP/WIUPK, dan Rencana Kerja Perluasan WIUP/WIUPK, pada nomor telepon (021) 8311-669; dan
+[...]
+dengan waktu pelayanan sebagai berikut:
+a. untuk hari Senin s.d. Kamis pada pukul 08.00 s.d. 16.00 WIB (istirahat pukul 12.00 s.d. 13.00 WIB); dan
+b. untuk hari Jumat pada pukul 08.00 s.d. 16.30 WIB (istirahat pukul 11.30 s.d. 13.00 WIB).
+###KEEMPAT: &gt;&gt;&gt; @lt63fc51c94b035
+Pelayanan perizinan dan pemberian persetujuan subsektor mineral dan batubara serta pelayanan informasi sebagaimana dimaksud dalam Diktum KESATU sampai dengan Diktum KETIGA wajib dilaksanakan melalui saluran yang telah ada dan dilarang melakukan tatap muka ke lingkungan Direktorat Jenderal Mineral dan Batubara.
+###KELIMA: &gt;&gt;&gt; @lt63fc51c94b035
+Dalam hal terdapat kepentingan yang sangat mendesak dan memerlukan kehadiran tatap muka ke lingkungan Direktorat Jenderal Mineral dan Batubara, kehadiran tatap muka hanya dapat dilakukan oleh pimpinan Badan Usaha/Koperasi/Perusahaan Perseorangan (setingkat direktur) dengan ketentuan:
+a. melakukan pendaftaran terlebih dahulu pada saluran yang disediakan Direktorat Jenderal Mineral dan Batubara untuk mendapatkan jadwal kehadiran tatap muka;
+b. membawa identitas diri dan dokumen/tanda pengenal yang menunjukkan sebagai pimpinan dari Badan Usaha/Koperasi/Perusahaan Perseorangan pada saat kehadiran tatap muka sesuai dengan jadwal yang ditetapkan;
+c. diterima oleh Pejabat Pimpinan Tinggi Pratama di lingkungan Direktorat Jenderal Mineral dan Batubara; dan
+d. apabila pada jadwal kehadiran tatap muka yang telah ditetapkan Pejabat Pimpinan Tinggi Pratama mendapatkan penugasan lain yang tidak dapat ditinggalkan, kehadiran tatap muka dapat diterima oleh minimal setingkat Pejabat Administrator.
+Sehubungan dengan pelaksanaan pelayanan perizinan subsektor mineral dan batubara pada Direktorat Jenderal Mineral dan Batubara, bersama ini kami sampaikan hal-hal sebagai berikut:
+###1. Pelayanan perizinan subsektor mineral dan batubara yang menjadi kewenangan dari Pemerintah Pusat dilaksanakan melalui Sistem Perizinan Berusaha Terintegrasi secara Elektronik (Online Single Submission) yang dapat diakses pada laman https://oss.go.id/.
+Surat Edaran Menteri Energi Dan Sumber Daya Mineral Nomor 1.E/MB.01/MEM.B/2023 Tahun 2023@lt63fc5a4a75cbb
+Kewajiban
+###2. Pelayanan pemberian persetujuan subsektor mineral dan batubara yang meliput: &gt;&gt;&gt; @lt63fc5a4a75cbb
+[...]
+c. persetujuan lainnya sesuai dengan ketentuan peraturan perundang-undangan,
+dilaksanakan melalui:
+[...]
+b. aplikasi Perizinan Usaha dan Operasional Sektor ESDM yang dapat diakses pada laman https://perizinan.esdm.go.id/minerba;
+c. pengiriman surat elektronik (e-mail) ke alamat surat elektronik (e-mail) resmi Direktorat Jenderal Mineral dan Batubara djmb@esdm.go.id; dan/atau
+d. aplikasi lainnya yang terdapat di Direktorat Jenderal Mineral dan Batubara sepanjang telah tersedia.
+###3. Dalam mendukung pelaksanaan pelayanan perizinan dan pemberian persetujuan subsektor mineral dan batubara sebagaimana dimaksud dalam Diktum KESATU dan Diktum KEDUA, Direktorat Jenderal Mineral dan Batubara menyediakan pelayanan informasi dan perizinan melalui nomor telepon hotline, sebagai berikut: &gt;&gt;&gt; @lt63fc5a4a75cbb
+[...]
+b. pelayanan informasi terkait Jaminan Reklamasi, Jaminan Pascatambang, Izin Usaha Jasa Pertambangan, Kepala Teknik Tambang, Pemasangan Tanda Batas WIUP/WIUPK, dan Rencana Kerja Perluasan WIUP/WIUPK, pada nomor telepon (021) 8311-669; dan
+[...]
+dengan waktu pelayanan sebagai berikut:
+a. untuk hari Senin s.d. Kamis pada pukul 08.00 s.d. 16.00 WIB (istirahat pukul 12.00 s.d. 13.00 WIB); dan
+b. untuk hari Jum’at pada pukul 08.00 s.d. 16.30 WIB (istirahat pukul 11.30 s.d. 13.00 WIB).
+Berkenaan dengan hal tersebut bersama ini disampaikan hal-hal sebagai berikut:
+###1. segala pengurusan perizinan, permohonan persetujuan dan permohonan informasi melalui saluran sebagaimana dimaksud pada angka 1, angka 2, dan angka 3 tersebut di atas agar dilaksanakan melalui saluran yang telah ada dan tidak diperkenankan melakukan tatap muka ke lingkungan Direktorat Jenderal Mineral dan Batubara;
+###2. dalam hal terdapat kepentingan yang sangat mendesak dan memerlukan kehadiran tatap muka ke lingkungan Direktorat Jenderal Mineral dan Batubara, hanya dapat dilakukan oleh pimpinan Badan Usaha/Koperasi/Perusahaan Perseorangan minimal setingkat Direktur dengan membawa dokumen/tanda pengenal yang menunjukkan sebagai pimpinan dari Badan Usaha/Koperasi/Perusahaan Perseorangan. &gt;&gt;&gt; @lt63fc5a4a75cbb</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>melakukanpengangkutanterhadapsampahterpilahdenganmenggunakanalatangkutyangdisesuaikandenganjenissampahyangmengandungb3dan/atausampahyangmengandunglimbahb3</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>continuous</t>
-        </is>
+          <t>Undang-Undang Nomor 4 Tahun 2009@28851
+Sanksi
+Pasal 151 &gt;&gt;&gt; @28851
+(1) Menteri berhak memberikan sanksi administratif kepada pemegang IUP, IUPK, IPR, SIPB, atau IUP untuk Penjualan atas pelanggaran ketentuan sebagaimana dimaksud dalam [...] Pasal 124 ayat (1) [...].
+(2) Sanksi administratif sebagaimana dimaksud pada ayat (1) berupa:
+a. peringatan tertulis;
+b. denda;
+c. penghentian sementara sebagian atau seluruh kegiatan Eksplorasi atau Operasi Produksi; dan/atau
+d. pencabutan IUP, IUPK, IPR, SIPB, atau IUP untuk Penjualan.
+Pasal 155 &gt;&gt;&gt; @28851
+Segala akibat hukum yang timbul karena penghentian sementara dan/atau pencabutan IUP, IPR atau IUPK sebagaimana dimaksud dalam Pasal 151 ayat (2) huruf b dan huruf c diselesaikan sesuai dengan ketentuan peraturan perundang-undangan.
+Pasal 156 &gt;&gt;&gt; @28851
+Ketentuan lebih lanjut mengenai jenis, besaran denda, tata cara, dan mekanisme pengenaan sanksi administratif sebagaimana dimaksud dalam Pasal 151 diatur dengan Peraturan Pemerintah.
+Pasal 161 &gt;&gt;&gt; @28851
+Setiap orang yang menampung, memanfaatkan, melakukan Pengolahan dan/atau Pemurnian, Pengembangan dan/atau Pemanfaatan, Pengangkutan, Penjualan Mineral dan/atau Batubara yang tidak berasal dari pemegang IUP, IUPK, IPR, SIPB atau izin sebagaimana dimaksud dalam [...] Pasal 105 [...] dipidana dengan pidana penjara paling lama 5 (lima) tahun dan denda paling banyak Rp100.000.000.000,00 (seratus miliar rupiah).
+Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Sanksi
+Pasal 95 
+(1) Pemegang IUP, IUPK, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, IUJP, dan IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, yang tidak mematuhi atau melanggar ketentuan sebagaimana dimaksud dalam [...] Pasal 72 huruf a atau huruf m [...].
+(2) Sanksi administratif sebagaimana dimaksud pada ayat (1) berupa:
+a. peringatan tertulis;
+b. penghentian sementara sebagian atau seluruh kegiatan usaha; dan/atau
+c. pencabutan izin.
+(3) Sanksi administratif sebagaimana dimaksud pada ayat (2) diberikan oleh Direktur Jenderal atas nama Menteri atau gubernur sesuai dengan kewenangannya.</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>16451</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2139</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>tidakadasanksi</t>
+          <t>memiikiizinusahajasapertambangan</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>memastikanpengangkutanterhadapsampahyangmengandungb3dan/ataulimbahb3dilaksanakansesuaidenganketentuanperaturanperundang-undangan.</t>
+          <t>licensing</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>peraturanmenterilingkunganhidupdankehutanannomor1tahun2024kewajibanpasal6(1)pemilahandilakukandisumbersampahmeliputi:a.lokasiterjadinyabencana;danb.areapengungsian.(2)pemilahandilokasiterjadinyabencanadikelompokkanberdasarkanjenissampahyangmeliputi:a.sampahyangmengandungb3dan/atausampahyangmengandunglimbahb3;[...](3)pemilahansampahyangtimbulakibatbencanadiareapengungsiandikelompokkanberdasarkanjenissampahyangmeliputi:a.sampahyangmengandungb3dan/atausampahyangmengandunglimbahb3;[...]pasal12(1)pengangkutansampahdilakukandenganketentuan:a.dilakukanterhadapsampahterpilahberdasarkankelompoksampah;danb.menggunakanalatangkutyangdisesuaikandengankondisidan/ataukelompoksampah.[...](3)ketentuanpengangkutansebagaimanadimaksudpadaayat(1)hurufbdapatdikecualikandalamhal:a.lokasitimbulansampahsulituntukdicapaidenganalatangkut;dan/ataub.alatangkutyangtersediatidakmemadai.pasal13(1)pengangkutansampahdilakukandari:a.sumbersampahsebagaimanadimaksuddalampasal6ayat(1)ke:1.areapemilahansampahyangtimbulakibatbencana;atau2.tempatpemrosesanakhiruntuksampahyangtidakdapatdilakukanpemanfaatankembalidan/ataupengolahan;b.areapemilahansampahyangtimbulakibatbencanake:1.pemanfaat;2.fasilitaspengolahan;atau3.tempatpemrosesanakhiruntuksampahyangtidakdapatdilakukanpemanfaatankembalidan/ataupengolahan;danc.fasilitaspengolahanketempatpemrosesanakhiruntukresiduhasilpengolahan.(2)dalamhalpengangkutandilakukanterhadapsampahyangmengandungb3dan/ataulimbahb3,pengangkutandilaksanakansesuaidenganketentuanperaturanperundang-undangan.</t>
+          <t>administratifdanpidana</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.mengajukanpermohonaniujpkepadamenteriesdmataugubernur.2.memenuhipersyaratanadministratifmeliputisuratpermohonan;formatisianlampiranpermohonan;aktapendirianbadanusahadanperubahannyayangtelahmendapatkanpengesahandariinstansiyangberwenang;mencantumkanmaksuddantujuandidalamaktapendiriansesuaiketentuan;nomorpokokwajibpajak(npwp)badanusaha;nomorindukberusaha(nib),daftarsusunandireksidankomisarisataupengurusyangdilengkapidenganidentitasdannpwp/taxid,daftarpemegangsahamsampaidenganperseoranganpenerimamanfaatakhir(beneficialownership)yangdilengkapijumlah/persentasesahamdannpwp/taxid;dasuratpernyataantertulisdiatasmateraidandistempelbasah(capperusahaanasli)yangmenyatakanbahwaseluruhketeranganyangdilampirkanpadasuratpermohonanadalahbenar.3.memenuhipersyaratanteknismeliputidaftartenagaahlidalambentuktabelsesuaiketentuan;dandaftarperalatan,dalambentuktabelsesuaiketentuan.4.mengajukanpermohonanizinmelaluisistemperizinanberusahaterintegrasisecaraelektronik(onlinesinglesubmission/oss),dantidakhadirsecaratatapmukadilingkungandirektoratjenderalmineraldanbatubarakecualiterdapatkepentinganyangmendesak.</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>a01fd35e2c48f6f3b8f2891a53c74727f7d4b04b67c18b0025ff035316ea5dd8</t>
+          <t>undang-undangnomor4tahun2009@28851kewajibanpasal124&gt;&gt;&gt;[...](3)jenisusahajasapertambanganyaitupelaksanaandibidang:a.penyelidikanumum;b.eksplorasi;c.studikelayakan;d.konstruksipertambangan;e.pengangkutan;f.lingkunganpertambangan;g.reklamasidanpascatambang;h.keselamatanpertambangan;dan/ataui.penambangan.[...]pasal125&gt;&gt;&gt;(1)dalamhalpemegangiupatauiupkmenggunakanjasapertambangan,tanggungjawabkegiatanusahapertambangantetapdibebankankepadapemegangiupatauiupk.[...]peraturanpemerintahnomor96tahun2021kewajibanpasal6&gt;&gt;&gt;(1)usahapertambangandilaksanakanberdasarkanperizinanberusahadaripemerintahpusat.(2)perizinanberusahasebagaimanadimaksudpadaayat(1)dilaksanakanmelaluipemberian:a.nomorindukberusaha;b.sertifikatstandar;dan/atauc.izin.(3)perizinanberusahasebagaimanadimaksudpadaayat(2)dilaksanakansesuaidenganketentuanperaturanperundang-undangan.(4)lzinsebagaimanadirnaksudpadaayat(2)hurufcterdiriatas:[...]h.iujp;dan[...]pasal137&gt;&gt;&gt;[...](2)perusahaanjasapertambangansebagaimanadimaksudpadaayat(1)melaksanakankegiatanusahajasapertambangandenganjenisusahadibidang:a.penyelidikanumum;b.eksplorasi;c.studikelayakan;d.konstruksipertarnbangan;e.pengangkutan;f.lingkunganpertambangan;g.reklamasidanpascatambang;h.keselamatanpertambangan;dan/ataui.penambangan.(3)kegiatanusahajasapertambangansebagaimanadimaksudpadaayat(2)terdiriatas:a.konsultasi;b.perencanaan;danc.pelaksanaan.[...]peraturanmenterienergidansumberdayamineralnomor5tahun2021kewajibanlampiraniii&gt;&gt;&gt;a.standarperizinanberusahaberbasisrisikosubsektormineraldanbatubaraviii.standarusahajasapertambangan[...]3.penggolonganusahaiujpuntukjeniskegiatanpelaksanaanyangmeliputibidang:a.penyelidikanumum,meliputisubbidang:1.surveitinjau(reconnaissance);2.remotesensing;dan3.prospeksi;b.eksplorasi,meliputisubbidang:1.manajemeneksplorasi;2.penentuanposisi;3.pemetaantopografi;4.pemetaangeologi;5.geokimia;6.geofisika;7.surveibawahpermukaan;8.geoteknik;9.pemboraneksplorasi;10.percontoaneksplorasi;dan11.perhitungansumberdayadancadangan;c.studikelayakan,meliputisubbidang:1.penyusunandokumenlingkungan(amdaldan/atauukl-upl);dan2.penyusunanstudikelayakan;d.konstruksipertambangan,meliputisubbidang:1.penerowongan(tunneling);2.penyemenantambangbawahtanah;3.penyanggaantambangbawahtanah;4.shaftsinking;5.sistempenerangantambangbawahtanah;6.alatgali,muat,danangkuttambangbawahtanah;7.pemborandanpeledakan;8.fasilitasperbengkelan;9.komisioningtambang;10.ventilasitambang;11.fasilitaspengolahan;12.fasilitaspemurnian;13.jalanpertambangan;14.jembatan;15.pelabuhan;16.gudangbahanpeledak;17.fasilitaspenimbunanbahanbakarcair;18.sistempenyaliran;19.tempatpenyimpanansementaralimbahbahanberbahayadanberacun(b3);20.kolampengendap;21.tailingstoragefacility(tsf);dan22.geoteknik;e.pengangkutan,meliputisubbidang:1.menggunakantruk;2.menggunakanlori;3.menggunakanbanberjalan(beltconveyor);4.menggunakantongkang;5.menggunakanpipa;dan6.menggunakanlift;f.lingkunganpertambangan,meliputisubbidang:1.pemantauanlingkungan;2.surveirkl/rpl;3.pengelolaanairasamtambang;4.auditlingkunganpertambangan;dan5.pengendalianerosi;g.reklamasidanpascatambang,meliputisubbidang:1.penyiapandanpenataanlahan;2.penebarantanahpucuk(topsoil);3.pembongkaranfasilitas;4.pembibitan;5.penanaman;dan6.perawatan;h.keselamatanpertambangan,meliputisubbidang:1.pemeriksaandanpengujianteknik;2.auditkeselamatandankesehatankerjapertambangan;dan/ataui.penambangan,meliputisubbidang:1.pembukaanlahan;2.pemberaian/pembongkarantanah/batuanpenutupdengandidahuluipeledakan;3.pemberaian/pembongkarantanah/batuanpenutuptanpadidahuluipeledakan;4.pengupasan,pemuatandanpemindahantanah/batuanpenutup;5.penggalianmineral(mineralgetting);6.penggalianbatubara(coalgetting);dan7.penggalian,pemindahandan/ataupencucianendapanmineralaluvialdalamrangkaprogramkemitraan.4.persyaratanumumusahauntukmendapatkanizinusahajasapertambangan,pemohonmengajukanpersyaratan:a.administratif:1.suratpermohonan;2.formatisianlampiranpermohonan;3.aktapendirianbadanusahadanperubahannyayangtelahmendapatkanpengesahandariinstansiyangberwenang.4.mencantumkanmaksuddantujuandidalamaktapendirianyangmenyatakanantaralain:“bergerakdibidangusahajasapertambangan,kodekbli09900,dapatdigabungdengankonstruksi,penyewaaanalat/mesindlltidakdapatdigabungdengan:a)pertambanganmineral/batubara,kodekbli:05xxx,07xxx,08xxxb)perdaganganmineral/batubara,kodekbli:46610,46620,46634,46641”5.nomorpokokwajibpajak(npwp)badanusaha;6.nib;7.daftarsusunandireksidankomisarisataupengurusyangdilengkapidenganidentitasdannpwp/taxid;8.daftarpemegangsahamsampaidenganperseoranganpenerimamanfaatakhir(beneficialownership)yangdilengkapijumlah/persentasesahamdannpwp/taxid;dan9.suratpernyataantertulisdiatasmateraidandistempelbasah(capperusahaanasli)yangmenyatakanbahwaseluruhketeranganyangdilampirkanpadasuratpermohonanadalahbenar.b.teknis:1.daftartenagaahlidalambentuktabelyangmeliputi:a)namatenagaahli;b)keahlianyangdibuktikandengansertifikatkompetensidan/atausertifikatpelatihan;c)kartutandapenduduk(ktp)/izinmempekerjakantenagakerjaasing(imta);d)ijazah;e)curriculumvitae(cv);danf)suratpernyataantenagaahliyangditandatanganiolehtenagaahliyangbersangkutandiatasmaterai.2.daftarperalatan,dalambentuktabelyangmeliputi:a)jenis;b)jumlah;c)kondisi;i.kelayakanpenggunaanyangdinyatakandalampersentase;danii.untukperalatanangkat,gali,muatdanangkutmelampirkansuratpernyataankelayakan(mechanicalavailability)yangditandatanganiolehkepalabagianmekanik/permesinanatauorangyangberkompeten;d)statuskepemilikan;i.melampirkansuratpernyataanyangditandatanganiolehdireksidiatasmateraiapabilastatuskepemilikanperalatanadalahmilikbadanusahapemohon.ii.untukperalatandenganstatussewa,salinandokumenperjanjiansewaperalatanharusdilampirkan.iii.jikabelummempunyaiperalatanbaikmiliksendirimaupunsewa,harusmelampirkansuratperjanjiankerjasama(mou)atausuratdukungandenganperusahaanyangmemilikiperalatan.e)lokasikeberadaanalat.c.biladiperlukan,verifikasilapanganuntuktenagaahlidanperalatandapatdilakukanberdasarkanhasilevaluasidokumenpermohonaniujpkhususuntukbidangusahapenambangand.kelengkapantambahanpersyaratanuntukpermohonaniujpperpanjangandan/atauiujpperubahan:1)buktipenyampaianlaporankegiatantriwulanankepadakepalatekniktambangatauinstansipemberiizin;dan2)salinandokumeniujpsebelumnya.durasipemenuhanpersyaratanpalinglama30(tigapuluh)harisesuaidenganketentuanjangkawaktulembagaonlinesinglesubmission(oss).[...]peraturanmenterienergidansumberdayamineralnomor7tahun2020kewajibanpasal35&gt;&gt;&gt;(1)izinusahadibidangpertambanganmineraldanbatubaradikelompokkanmenjadi:[...]g.iujp.(2)izinusahadibidangpertambanganmineraldanbatubarasebagaimanadimaksudpadaayat(1)hurufasampaidenganhurufgdapatdiberikankepada:a.badanusaha;[...](3)badanusahasebagaimanadimaksudpadaayat(2)hurufaterdiriatas:[...]c.badanusahaswasta.[...]pasal36&gt;&gt;&gt;(1)badanusaha,koperasi,danperseoranganhanyadapatmelaksanakankegiatanusahapertambanganmineraldanbatubarasetelahmendapatkanizinusahadibidangpertambanganmineraldanbatubarasebagaimanadimaksuddalampasal35ayat(1).(2)izinusahadibidangpertambanganmineraldanbatubarasebagaimanadimaksuddalampasal35ayat(1)tidakdapatdigunakanselainsebagaimanadimaksuddalampemberianizinusahadibidangpertambanganmineraldanbatubara.pasal55&gt;&gt;&gt;(1)iujpmeliputikegiatan:a.konsultasi,perencanaan,danpelaksanaandibidang:1.penyelidikanumum;2.eksplorasi;3.studikelayakan;4.konstruksipertambangan;5.pengangkutan;6.lingkunganpertambangan;7.reklamasidanpascatambang;dan/atau8.keselamatanpertambangan;b.konsultasidanperencanaandibidang:1.penambangan;atau2.pengolahandanpemurnian[...](3)bidangusahajasapertambangansebagaimanadimaksudpadaayat(1)terdiriatassubbidangyangditetapkanolehmenteri.(4)iujpsebagaimanadimaksudpadaayat(1)diberikanuntukjangkawaktu5(lima)tahundandapatdiperpanjanguntukjangkawaktu5(lima)tahunsetiapkaliperpanjangan.pasal72pemegangiujpdalammelaksanakankegiatanusahanyawajib:[...]m.memenuhiketentuanperaturanperundang-undangandibidangusahajasapertambangan.keputusanmenterienergidansumberdayamineralnomor1796k/30/mem/2018tahun2018kewajibanlampiranvii&gt;&gt;&gt;pedomanpelaksanaanpermohonan,evaluasi,penerbitan,sertaperpanjanganizinusahajasapertambangan(iujp)keteranganpedomanpelaksanaanpermohonan,evaluasi,penerbitan,sertaperpanjanganiujp:1.pengajuanpermohonana.badanusahamengajukanpermohonaniujpbaruatauperpanjanganiujpkepadamenteriataugubernur.b.ataspermohonansebagaimanadimaksudpadahurufa,petugaspenerimapermohonanmelakukanverifikasiterhadapdokumenkelengkapanpersyaratanadministratif,teknis,lingkungan,danfinansial.1)permohonanyangmemenuhipersyaratanakandiberikantandaterimapermohonan,danditeruskankepadaevaluatoruntukdievaluasi.2)permohonanyangterdapatkekurangan/belumlengkap,makapermohonandikembalikan.untukpermohonanyangdikembalikankepadapemohondisertaicatatanyangsesuaidenganhasilverifikasi.permohonandapatdiajukankembalisetelahmelengkapipersyaratansesuaidenganhasilverifikasidengannomordantanggalsuratpermohonanyangbaru[...]keteranganpedomanpelaksanaanpermohonan,evaluasi,penerbitan,sertaperpanjanganiujp:[…]keputusanmenterienergidansumberdayamineralnomor33.k/mb.01/mem.b/2023tahun2023kewajiban###kesatu:&gt;&gt;&gt;pelayananperizinansubsektormineraldanbatubarayangmenjadikewenangandaripemerintahpusatdilaksanakanmelaluisistemperizinanberusahaterintegrasisecaraelektronik(onlinesinglesubmission)yangdapatdiaksespadalamanhttps://oss.go.id/.###kedua:&gt;&gt;&gt;pelayananpemberianpersetujuansubsektormineraldanbatubarayangmeliputi:[...]c.persetujuanlainnyasesuaidenganketentuanperaturanperundang-undangan,dilaksanakanmelalui:[...]b.aplikasiperizinanusahadanoperasionalsektoresdmyangdapatdiaksespadalamanhttps://perizinan.esdm.go.id/minerba;c.pengirimansuratelektronik(e-mail)kealamatsuratelektronik(e-mail)resmidirektoratjenderalmineraldanbatubaradjmb@esdm.go.id;dan/ataud.aplikasilainnyayangterdapatdidirektoratjenderalmineraldanbatubarasepanjangtelahtersedia.###ketiga:&gt;&gt;&gt;dalammendukungpelaksanaanpelayananperizinandanpemberianpersetujuansubsektormineraldanbatubarasebagaimanadimaksuddalamdiktumkesatudandiktumkedua,direktoratjenderalmineraldanbatubaramenyediakanpelayananinformasidanperizinanmelaluinomorteleponhotline,sebagaiberikut:[...]b.pelayananinformasiterkaitjaminanreklamasi,jaminanpascatambang,izinusahajasapertambangan,kepalatekniktambang,pemasangantandabataswiup/wiupk,danrencanakerjaperluasanwiup/wiupk,padanomortelepon(021)8311-669;dan[...]denganwaktupelayanansebagaiberikut:a.untukharisenins.d.kamispadapukul08.00s.d.16.00wib(istirahatpukul12.00s.d.13.00wib);danb.untukharijumatpadapukul08.00s.d.16.30wib(istirahatpukul11.30s.d.13.00wib).###keempat:&gt;&gt;&gt;pelayananperizinandanpemberianpersetujuansubsektormineraldanbatubarasertapelayananinformasisebagaimanadimaksuddalamdiktumkesatusampaidengandiktumketigawajibdilaksanakanmelaluisaluranyangtelahadadandilarangmelakukantatapmukakelingkungandirektoratjenderalmineraldanbatubara.###kelima:&gt;&gt;&gt;dalamhalterdapatkepentinganyangsangatmendesakdanmemerlukankehadirantatapmukakelingkungandirektoratjenderalmineraldanbatubara,kehadirantatapmukahanyadapatdilakukanolehpimpinanbadanusaha/koperasi/perusahaanperseorangan(setingkatdirektur)denganketentuan:a.melakukanpendaftaranterlebihdahulupadasaluranyangdisediakandirektoratjenderalmineraldanbatubarauntukmendapatkanjadwalkehadirantatapmuka;b.membawaidentitasdiridandokumen/tandapengenalyangmenunjukkansebagaipimpinandaribadanusaha/koperasi/perusahaanperseoranganpadasaatkehadirantatapmukasesuaidenganjadwalyangditetapkan;c.diterimaolehpejabatpimpinantinggipratamadilingkungandirektoratjenderalmineraldanbatubara;dand.apabilapadajadwalkehadirantatapmukayangtelahditetapkanpejabatpimpinantinggipratamamendapatkanpenugasanlainyangtidakdapatditinggalkan,kehadirantatapmukadapatditerimaolehminimalsetingkatpejabatadministrator.sehubungandenganpelaksanaanpelayananperizinansubsektormineraldanbatubarapadadirektoratjenderalmineraldanbatubara,bersamainikamisampaikanhal-halsebagaiberikut:###1.pelayananperizinansubsektormineraldanbatubarayangmenjadikewenangandaripemerintahpusatdilaksanakanmelaluisistemperizinanberusahaterintegrasisecaraelektronik(onlinesinglesubmission)yangdapatdiaksespadalamanhttps://oss.go.id/.suratedaranmenterienergidansumberdayamineralnomor1.e/mb.01/mem.b/2023tahun2023kewajiban###2.pelayananpemberianpersetujuansubsektormineraldanbatubarayangmeliput:&gt;&gt;&gt;[...]c.persetujuanlainnyasesuaidenganketentuanperaturanperundang-undangan,dilaksanakanmelalui:[...]b.aplikasiperizinanusahadanoperasionalsektoresdmyangdapatdiaksespadalamanhttps://perizinan.esdm.go.id/minerba;c.pengirimansuratelektronik(e-mail)kealamatsuratelektronik(e-mail)resmidirektoratjenderalmineraldanbatubaradjmb@esdm.go.id;dan/ataud.aplikasilainnyayangterdapatdidirektoratjenderalmineraldanbatubarasepanjangtelahtersedia.###3.dalammendukungpelaksanaanpelayananperizinandanpemberianpersetujuansubsektormineraldanbatubarasebagaimanadimaksuddalamdiktumkesatudandiktumkedua,direktoratjenderalmineraldanbatubaramenyediakanpelayananinformasidanperizinanmelaluinomorteleponhotline,sebagaiberikut:&gt;&gt;&gt;[...]b.pelayananinformasiterkaitjaminanreklamasi,jaminanpascatambang,izinusahajasapertambangan,kepalatekniktambang,pemasangantandabataswiup/wiupk,danrencanakerjaperluasanwiup/wiupk,padanomortelepon(021)8311-669;dan[...]denganwaktupelayanansebagaiberikut:a.untukharisenins.d.kamispadapukul08.00s.d.16.00wib(istirahatpukul12.00s.d.13.00wib);danb.untukharijum’atpadapukul08.00s.d.16.30wib(istirahatpukul11.30s.d.13.00wib).berkenaandenganhaltersebutbersamainidisampaikanhal-halsebagaiberikut:###1.segalapengurusanperizinan,permohonanpersetujuandanpermohonaninformasimelaluisaluransebagaimanadimaksudpadaangka1,angka2,danangka3tersebutdiatasagardilaksanakanmelaluisaluranyangtelahadadantidakdiperkenankanmelakukantatapmukakelingkungandirektoratjenderalmineraldanbatubara;###2.dalamhalterdapatkepentinganyangsangatmendesakdanmemerlukankehadirantatapmukakelingkungandirektoratjenderalmineraldanbatubara,hanyadapatdilakukanolehpimpinanbadanusaha/koperasi/perusahaanperseoranganminimalsetingkatdirekturdenganmembawadokumen/tandapengenalyangmenunjukkansebagaipimpinandaribadanusaha/koperasi/perusahaanperseorangan.&gt;&gt;&gt;</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>undang-undangnomor4tahun2009@28851sanksipasal151&gt;&gt;&gt;@28851(1)menteriberhakmemberikansanksiadministratifkepadapemegangiup,iupk,ipr,sipb,atauiupuntukpenjualanataspelanggaranketentuansebagaimanadimaksuddalam[...]pasal124ayat(1)[...].(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)berupa:a.peringatantertulis;b.denda;c.penghentiansementarasebagianatauseluruhkegiataneksplorasiatauoperasiproduksi;dan/ataud.pencabutaniup,iupk,ipr,sipb,atauiupuntukpenjualan.pasal155&gt;&gt;&gt;@28851segalaakibathukumyangtimbulkarenapenghentiansementaradan/ataupencabutaniup,ipratauiupksebagaimanadimaksuddalampasal151ayat(2)hurufbdanhurufcdiselesaikansesuaidenganketentuanperaturanperundang-undangan.pasal156&gt;&gt;&gt;@28851ketentuanlebihlanjutmengenaijenis,besarandenda,tatacara,danmekanismepengenaansanksiadministratifsebagaimanadimaksuddalampasal151diaturdenganperaturanpemerintah.pasal161&gt;&gt;&gt;@28851setiaporangyangmenampung,memanfaatkan,melakukanpengolahandan/ataupemurnian,pengembangandan/ataupemanfaatan,pengangkutan,penjualanmineraldan/ataubatubarayangtidakberasaldaripemegangiup,iupk,ipr,sipbatauizinsebagaimanadimaksuddalam[...]pasal105[...]dipidanadenganpidanapenjarapalinglama5(lima)tahundandendapalingbanyakrp100.000.000.000,00(seratusmiliarrupiah).peraturanmenterienergidansumberdayamineralnomor7tahun2020sanksipasal95(1)pemegangiup,iupk,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,iujp,daniupoperasiproduksikhususuntukpengangkutandanpenjualan,yangtidakmematuhiataumelanggarketentuansebagaimanadimaksuddalam[...]pasal72hurufaatauhurufm[...].(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)berupa:a.peringatantertulis;b.penghentiansementarasebagianatauseluruhkegiatanusaha;dan/atauc.pencabutanizin.(3)sanksiadministratifsebagaimanadimaksudpadaayat(2)diberikanolehdirekturjenderalatasnamamenteriataugubernursesuaidengankewenangannya.</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>eef91935756ec95d1dc9f9b9adb91f98ca614fabe053e5e024401f61bb10f3b6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Limbah Bahan Berbahaya dan Beracun&gt;Penanganan Sampah yang Mengandung B3 dan/atau Limbah B3 yang Timbul Akibat Bencana</t>
+          <t>Pertambangan Batubara&gt;Pelaksanaan Kegiatan Usaha Pertambangan Batubara</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Melakukan pemanfaatan kembali dengan cara mengguna ulang Sampah yang masih bermanfaat tanpa melalui suatu proses pengolahan terlebih dahulu untuk Sampah yang Mengandung B3 dan/atau Limbah B3</t>
+          <t>Memiliki sarana dan fasilitas untuk mengikutsertakan anak perusahaan dan/atau afiliasi dalam usaha jasa pertambangan</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -952,85 +1439,119 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Tidak Ada Sanksi</t>
+          <t>Administratif</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Memastikan pemanfaatan kembali Sampah yang mengandung B3 dan/atau Sampah yang Mengandung Limbah B3 dilaksanakan sesuai dengan ketentuan peraturan perundang-undangan di bidang pengelolaan Limbah B3.</t>
+          <t>1. Memiliki fasilitas penunjang kegiatan usaha jasa pertambangan.
+2. Memiliki fasilitas pengelolaan lingkungan pertambangan.
+3. Memiliki fasilitas keselamatan pertambangan.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Peraturan Menteri Lingkungan Hidup dan Kehutanan Nomor 1 Tahun 2024@lt65bb45bd5609b
-Kewajiban
-Pasal 14
-(1) Pemanfaatan kembali Sampah yang Timbul Akibat Bencana dilakukan terhadap Sampah yang dapat langsung digunakan.
-(2) Pemanfaatan kembali sebagaimana dimaksud pada ayat (1) dilakukan dengan cara:
-[...]
-b. mengguna ulang Sampah yang masih bermanfaat tanpa melalui suatu proses pengolahan terlebih dahulu, untuk Sampah yang Mengandung B3 dan/atau Sampah yang Mengandung Limbah B3.
-(3) Pemanfaatan kembali Sampah yang mengandung B3 dan/atau Sampah yang Mengandung Limbah B3 sebagaimana dimaksud pada ayat (2) huruf b dilaksanakan sesuai dengan ketentuan peraturan perundang-undangan di bidang pengelolaan Limbah B3.
-[...]
-Pasal 15
-(1) Pemanfaatan kembali Sampah sebagaimana dimaksud dalam Pasal 14 dilakukan oleh:
-[...]
-b. badan usaha.
-[...]</t>
+          <t>Peraturan Menteri Energi Dan Sumber Daya Mineral Nomor 5 Tahun 2021@lt60c040c8e9b53
+Kewajiban
+Lampiran III
+STANDAR KEGIATAN USAHA DAN PRODUK PADA PENYELENGGARAAN PERIZINAN BERUSAHA BERBASIS RISIKO SUBSEKTOR MINERAL DAN BATUBARA
+B. PERIZINAN BERUSAHA UNTUK MENUNJANG KEGIATAN BERUSAHA PADA SUBSEKTOR MINERAL DAN BATUBARA 
+II. Standar Persetujuan Penggunaan Keikutsertaan Anak Perusahaan dan/atau Afiliasi Dalam Usaha Jasa Pertambangan Dengan Jenis Pelaksanaan
+No. : 5
+Sarana: 
+Jika telah mendapatkan pekerjaan, harus memiliki:
+a. fasilitas penunjang kegiatan usaha jasa pertambangan;
+b. fasilitas pengelolaan lingkungan pertambangan; dan
+c. fasilitas keselamatan pertambangan.
+Peraturan Direktur Jenderal Mineral, Batubara dan Panas Bumi Nomor 376.K/30/DJB/2010 Tahun 2010@lt4ca43f1e33042
+Kewajiban
+Pasal 4 &gt;&gt;&gt; @lt4ca43f1e33042
+(1) Perusahaan afiliasi usaha jasa pertambangan diwajibkan mengikuti syarat-syarat dan ketentuan Pemegang IUP atau IUPK dalam penyediaan peralatan kerja yang dibutuhkan.
+(2) Peralatan kerja sebagaimana dimaksud pada ayat (1) merupakan peralatan utama kegiatan jasa pertambangan mineral atau batubara yang harus disediakan dalam jumlah cukup dan memadai sesuai dengan peruntukannya.
+(3) Perusahaan afiliasi usaha jasa pertambangan dapat menggunakan peralatan yang dimiliki oleh pemegang IUP atau IUPK untuk melaksanakan kegiatan pertambangan mineral atau batubara yang dibuktikan dengan surat perjanjian sewa peralatan.
+(4) Sewa peralatan sebagaimana dimaksud pada ayat (3) harus dibuat di atas materai yang cukup dengan menyebutkan:
+a. jenis dan tipe;
+b. jumlah;
+c. syarat pembayaran; dan
+d. jangka waktu.
+Pasal 5 &gt;&gt;&gt; @lt4ca43f1e33042
+(1) Perusahaan afiliasi usaha jasa pertambangan diwajibkan mengikuti syarat-syarat dan ketentuan Pemegang IUP atau IUPK dalam penyediaan tenaga kerja yang dibutuhkan.
+(2) Penyediaan tenaga kerja sebagaimana dimaksud pada ayat (1) harus disediakan dalam jumlah cukup sesuai dengan kompetensinya.
+(3) Kompetensi sebagaimana dimaksud pada ayat (2) diterapkan pada tenaga kerja utama kegiatan jasa pertambangan mineral atau batubara.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>melakukanpemanfaatankembalidengancaramenggunaulangsampahyangmasihbermanfaattanpamelaluisuatuprosespengolahanterlebihdahuluuntuksampahyangmengandungb3dan/ataulimbahb3</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+          <t>Peraturan Menteri Energi Dan Sumber Daya Mineral Nomor 5 Tahun 2021@lt60c040c8e9b53
+Sanksi
+Lampiran III &gt;&gt;&gt; @lt60c040c8e9b53
+A. Standar Perizinan Berusaha Berbasis Risiko Subsektor Mineral dan Batubara
+II. Standar Persetujuan Penggunaan Keikutsertaan Anak Perusahaan dan/atau Afiliasi Dalam Usaha Jasa Pertambangan Dengan Jenis Pelaksanaan
+6. Penilaian Kesesuaian dan Pengawasan
+[...]
+5. Penerapan sanksi
+a) sanksi administratif berupa:
+1) peringatan tertulis;
+2) penghentian sementara sebagian atau seluruh kegiatan; dan/atau
+3) pencabutan IUJP,
+sesuai dengan ketentuan peraturan perundang-undangan. 
+b) sanksi pidana sesuai dengan ketentuan peraturan perundang undangan.</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>2095</v>
+      </c>
+      <c r="J6" t="n">
+        <v>675</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>memilikisaranadanfasilitasuntukmengikutsertakananakperusahaandan/atauafiliasidalamusahajasapertambangan</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>continuous</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>tidakadasanksi</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>memastikanpemanfaatankembalisampahyangmengandungb3dan/atausampahyangmengandunglimbahb3dilaksanakansesuaidenganketentuanperaturanperundang-undangandibidangpengelolaanlimbahb3.</t>
-        </is>
-      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>peraturanmenterilingkunganhidupdankehutanannomor1tahun2024kewajibanpasal14(1)pemanfaatankembalisampahyangtimbulakibatbencanadilakukanterhadapsampahyangdapatlangsungdigunakan.(2)pemanfaatankembalisebagaimanadimaksudpadaayat(1)dilakukandengancara:[...]b.menggunaulangsampahyangmasihbermanfaattanpamelaluisuatuprosespengolahanterlebihdahulu,untuksampahyangmengandungb3dan/atausampahyangmengandunglimbahb3.(3)pemanfaatankembalisampahyangmengandungb3dan/atausampahyangmengandunglimbahb3sebagaimanadimaksudpadaayat(2)hurufbdilaksanakansesuaidenganketentuanperaturanperundang-undangandibidangpengelolaanlimbahb3.[...]pasal15(1)pemanfaatankembalisampahsebagaimanadimaksuddalampasal14dilakukanoleh:[...]b.badanusaha.[...]</t>
+          <t>administratif</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.memilikifasilitaspenunjangkegiatanusahajasapertambangan.2.memilikifasilitaspengelolaanlingkunganpertambangan.3.memilikifasilitaskeselamatanpertambangan.</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>fd1ad79b3205d919fa83eec3bfa338f5de11a6fdddae016299ae8441566263a7</t>
+          <t>peraturanmenterienergidansumberdayamineralnomor5tahun2021kewajibanlampiraniiistandarkegiatanusahadanprodukpadapenyelenggaraanperizinanberusahaberbasisrisikosubsektormineraldanbatubarab.perizinanberusahauntukmenunjangkegiatanberusahapadasubsektormineraldanbatubaraii.standarpersetujuanpenggunaankeikutsertaananakperusahaandan/atauafiliasidalamusahajasapertambangandenganjenispelaksanaanno.:5sarana:jikatelahmendapatkanpekerjaan,harusmemiliki:a.fasilitaspenunjangkegiatanusahajasapertambangan;b.fasilitaspengelolaanlingkunganpertambangan;danc.fasilitaskeselamatanpertambangan.peraturandirekturjenderalmineral,batubaradanpanasbuminomor376.k/30/djb/2010tahun2010kewajibanpasal4&gt;&gt;&gt;(1)perusahaanafiliasiusahajasapertambangandiwajibkanmengikutisyarat-syaratdanketentuanpemegangiupatauiupkdalampenyediaanperalatankerjayangdibutuhkan.(2)peralatankerjasebagaimanadimaksudpadaayat(1)merupakanperalatanutamakegiatanjasapertambanganmineralataubatubarayangharusdisediakandalamjumlahcukupdanmemadaisesuaidenganperuntukannya.(3)perusahaanafiliasiusahajasapertambangandapatmenggunakanperalatanyangdimilikiolehpemegangiupatauiupkuntukmelaksanakankegiatanpertambanganmineralataubatubarayangdibuktikandengansuratperjanjiansewaperalatan.(4)sewaperalatansebagaimanadimaksudpadaayat(3)harusdibuatdiatasmateraiyangcukupdenganmenyebutkan:a.jenisdantipe;b.jumlah;c.syaratpembayaran;dand.jangkawaktu.pasal5&gt;&gt;&gt;(1)perusahaanafiliasiusahajasapertambangandiwajibkanmengikutisyarat-syaratdanketentuanpemegangiupatauiupkdalampenyediaantenagakerjayangdibutuhkan.(2)penyediaantenagakerjasebagaimanadimaksudpadaayat(1)harusdisediakandalamjumlahcukupsesuaidengankompetensinya.(3)kompetensisebagaimanadimaksudpadaayat(2)diterapkanpadatenagakerjautamakegiatanjasapertambanganmineralataubatubara.</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>peraturanmenterienergidansumberdayamineralnomor5tahun2021sanksilampiraniii&gt;&gt;&gt;a.standarperizinanberusahaberbasisrisikosubsektormineraldanbatubaraii.standarpersetujuanpenggunaankeikutsertaananakperusahaandan/atauafiliasidalamusahajasapertambangandenganjenispelaksanaan6.penilaiankesesuaiandanpengawasan[...]5.penerapansanksia)sanksiadministratifberupa:1)peringatantertulis;2)penghentiansementarasebagianatauseluruhkegiatan;dan/atau3)pencabutaniujp,sesuaidenganketentuanperaturanperundang-undangan.b)sanksipidanasesuaidenganketentuanperaturanperundangundangan.</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>2b19c2333234b9ee14dc9407a9e96ebe5b909fc5db2502e875820acce1c2100d</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Limbah Bahan Berbahaya dan Beracun&gt;Penanganan Sampah yang Mengandung B3 dan/atau Limbah B3 yang Timbul Akibat Bencana</t>
+          <t>Pertambangan Batubara&gt;Pelaksanaan Kegiatan Usaha Pertambangan Batubara</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Melakukan pengolahan Sampah yang Mengandung B3 dan/atau Sampah yang Mengandung Limbah B3 sesuai dengan ketentuan peraturan perundang-undangan di bidang pengelolaan limbah B3</t>
+          <t>Memenuhi ketentuan peraturan perundang-undangan dalam melaksanakan kegiatan Usaha Jasa Pertambangan, berupa pelaksanaan</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1045,67 +1566,3661 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Memastikan pengolahan Sampah yang Mengandung B3 dan/atau Sampah yang Mengandung Limbah B3 dilaksanakan sesuai dengan ketentuan peraturan perundang-undangan di bidang pengelolaan Limbah B3.</t>
+          <t>Memiliki Izin Usaha Jasa Pertambangan.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Peraturan Menteri Lingkungan Hidup dan Kehutanan Nomor 1 Tahun 2024@lt65bb45bd5609b
-Kewajiban
-Pasal 16
-(1) Pengolahan Sampah yang Timbul Akibat Bencana dilakukan terhadap jenis Sampah yang tidak dapat dimanfaatkan kembali.
-(2) Pengolahan Sampah yang Timbul Akibat Bencana dilakukan dengan cara:
-a. biodigester;
-b. termal;
-c. stabilisasi dan solidifikasi; dan/atau
-d. cara lain sesuai dengan perkembangan ilmu pengetahuan dan/atau teknologi.
-(3) Cara pengolahan sebagaimana dimaksud pada ayat (2) dipilih dengan mempertimbangkan hasil pengolahan yang mempunyai nilai ekonomi dan dapat dimanfaatkan.
-(4) Pengolahan Sampah yang Mengandung B3 dan/atau Sampah yang Mengandung Limbah B3 dilaksanakan sesuai dengan ketentuan peraturan perundang-undangan di bidang pengelolaan Limbah B3.
-Pasal 17
-(1) Pengolahan Sampah sebagaimana dimaksud dalam Pasal 16 dilakukan oleh:
-[...]
-b. badan usaha.
+          <t>Peraturan Pemerintah Nomor 96 Tahun 2021@lt614815d4f1925
+Kewajiban
+Pasal 6 &gt;&gt;&gt; @lt614815d4f1925
+[...]
+(4) lzin sebagaimana dirnaksud pada ayat (2) huruf c terdiri atas:
+[...]
+h. IUJP; dan
+[...]
+Pasal 137 &gt;&gt;&gt; @lt614815d4f1925
+[...]
+(3) Kegiatan usaha Jasa Pertambangan sebagaimana dimaksud pada ayat (2) terdiri atas:
+[...]
+c. pelaksanaan.
+[…]
+(5) Kegiatan pelaksanaan sebagaimana dimaksud pada ayat (3) huruf c dilaksanakan setelah mendapatkan IUJP sebagaimana dimaksud dalam Pasal 6 ayat (4) huruf h.
+[...]
+Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Kewajiban
+Pasal 72
+Pemegang IUJP dalam melaksanakan kegiatan usahanya wajib:
+[...]
+m. memenuhi ketentuan peraturan perundang-undangan di bidang usaha jasa pertambangan.</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>764</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>memenuhiketentuanperaturanperundang-undangandalammelaksanakankegiatanusahajasapertambangan,berupapelaksanaan</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>tidakadasanksi</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>memilikiizinusahajasapertambangan.</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>peraturanpemerintahnomor96tahun2021kewajibanpasal6&gt;&gt;&gt;[...](4)lzinsebagaimanadirnaksudpadaayat(2)hurufcterdiriatas:[...]h.iujp;dan[...]pasal137&gt;&gt;&gt;[...](3)kegiatanusahajasapertambangansebagaimanadimaksudpadaayat(2)terdiriatas:[...]c.pelaksanaan.[…](5)kegiatanpelaksanaansebagaimanadimaksudpadaayat(3)hurufcdilaksanakansetelahmendapatkaniujpsebagaimanadimaksuddalampasal6ayat(4)hurufh.[...]peraturanmenterienergidansumberdayamineralnomor7tahun2020kewajibanpasal72pemegangiujpdalammelaksanakankegiatanusahanyawajib:[...]m.memenuhiketentuanperaturanperundang-undangandibidangusahajasapertambangan.</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>136f8770f7bc2d604058db155883edf6b352f499841b63b4ea4d79d3780add77</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pertambangan Batubara&gt;Pelaksanaan Kegiatan Usaha Pertambangan Batubara</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Menerima pekerjaan pengupasan lapisan (stripping) batuan/tanah penutup usaha Jasa Pertambangan yang didapatkan hanya dari Pemegang Izin Usaha Pertambangan Operasi Produksi atau Izin Usaha Pertambangan Khusus Operasi Produksi</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Kewajiban
+Pasal 56 &gt;&gt;&gt; @lt5e6f51a775ad4
+(1) Dalam pelaksanaan kegiatan Penambangan Pemegang IUJP hanya dapat menerima pekerjaan pengupasan lapisan (stripping) batuan/tanah penutup dari Pemegang IUP Operasi Produksi atau IUPK Operasi Produksi.
+[...]
+Pasal 72
+Pemegang IUJP dalam melaksanakan kegiatan usahanya wajib:
+[...]
+m. memenuhi ketentuan peraturan perundang-undangan di bidang usaha jasa pertambangan.
+Peraturan Menteri Energi Dan Sumber Daya Mineral Nomor 25 Tahun 2018@lt5af950ccbfc3d
+Kewajiban
+Pasal 15 &gt;&gt;&gt; @lt5af950ccbfc3d
+(1) Kegiatan Penambangan terdiri atas:
+a. pengupasan lapisan (stripping) tanah penutup dan/atau batuan penutup;
+[...]
+(2) Pemegang IUP Operasi Produksi dan IUPK Operasi Produksi dalam melakukan kegiatan pengupasan lapisan (stripping) tanah penutup dan/atau batuan penutup sebagaimana dimaksud pada ayat (1) huruf a dan kegiatan Pengangkutan Mineral atau Batubara sebagaimana dimaksud pada ayat (1) huruf c dapat bekerja sama dengan pemegang Izin Usaha Jasa Pertambangan sesuai dengan ketentuan peraturan perundang-undangan.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Sanksi
+Pasal 95 
+(1) Pemegang IUP, IUPK, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, IUJP, dan IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, yang tidak mematuhi atau melanggar ketentuan sebagaimana dimaksud dalam [...] Pasal 72 huruf a atau huruf m [...].
+(2) Sanksi administratif sebagaimana dimaksud pada ayat (1) berupa:
+a. peringatan tertulis;
+b. penghentian sementara sebagian atau seluruh kegiatan usaha; dan/atau
+c. pencabutan izin.
+(3) Sanksi administratif sebagaimana dimaksud pada ayat (2) diberikan oleh Direktur Jenderal atas nama Menteri atau gubernur sesuai dengan kewenangannya.</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1144</v>
+      </c>
+      <c r="J8" t="n">
+        <v>716</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>menerimapekerjaanpengupasanlapisan(stripping)batuan/tanahpenutupusahajasapertambanganyangdidapatkanhanyadaripemegangizinusahapertambanganoperasiproduksiatauizinusahapertambangankhususoperasiproduksi</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>peraturanmenterienergidansumberdayamineralnomor7tahun2020kewajibanpasal56&gt;&gt;&gt;(1)dalampelaksanaankegiatanpenambanganpemegangiujphanyadapatmenerimapekerjaanpengupasanlapisan(stripping)batuan/tanahpenutupdaripemegangiupoperasiproduksiatauiupkoperasiproduksi.[...]pasal72pemegangiujpdalammelaksanakankegiatanusahanyawajib:[...]m.memenuhiketentuanperaturanperundang-undangandibidangusahajasapertambangan.peraturanmenterienergidansumberdayamineralnomor25tahun2018kewajibanpasal15&gt;&gt;&gt;(1)kegiatanpenambanganterdiriatas:a.pengupasanlapisan(stripping)tanahpenutupdan/ataubatuanpenutup;[...](2)pemegangiupoperasiproduksidaniupkoperasiproduksidalammelakukankegiatanpengupasanlapisan(stripping)tanahpenutupdan/ataubatuanpenutupsebagaimanadimaksudpadaayat(1)hurufadankegiatanpengangkutanmineralataubatubarasebagaimanadimaksudpadaayat(1)hurufcdapatbekerjasamadenganpemegangizinusahajasapertambangansesuaidenganketentuanperaturanperundang-undangan.</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>peraturanmenterienergidansumberdayamineralnomor7tahun2020sanksipasal95(1)pemegangiup,iupk,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,iujp,daniupoperasiproduksikhususuntukpengangkutandanpenjualan,yangtidakmematuhiataumelanggarketentuansebagaimanadimaksuddalam[...]pasal72hurufaatauhurufm[...].(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)berupa:a.peringatantertulis;b.penghentiansementarasebagianatauseluruhkegiatanusaha;dan/atauc.pencabutanizin.(3)sanksiadministratifsebagaimanadimaksudpadaayat(2)diberikanolehdirekturjenderalatasnamamenteriataugubernursesuaidengankewenangannya.</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>5fe460fef5c1d42fc75b880007f2ad5694efabc98f746038c1e8fa0e432589af</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pertambangan Batubara&gt;Pelaksanaan Kegiatan Usaha Pertambangan Batubara</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Dilarang memiliki izin lain di bidang pertambangan mineral dan batubara</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Prohibition</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Kewajiban
+Pasal 72
+Pemegang IUJP dalam melaksanakan kegiatan usahanya wajib:
+[...]
+m. memenuhi ketentuan peraturan perundang-undangan di bidang usaha jasa pertambangan.
+Pasal 73 &gt;&gt;&gt; @lt5e6f51a775ad4
+Pemegang IUJP dilarang:
+a. memiliki IUP, Izin Pertambangan Rakyat, IUPK, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, dan IUP Operasi Produksi khusus untuk pengangkutan dan penjualan; dan
+[…]
+Peraturan Menteri Energi Dan Sumber Daya Mineral Nomor 5 Tahun 2021@lt60c040c8e9b53
+Kewajiban
+Lampiran III &gt;&gt;&gt; @lt60c040c8e9b53
+A. Standar Perizinan Berusaha Berbasis Risiko Subsektor Mineral dan Batubara
+VIII. Standar Usaha Jasa Pertambangan
+[...]
+5. Persyaratan Khusus Usaha
+Tidak memiliki izin lain di bidang pertambangan Mineral dan Batubara antara lain:
+1. Izin Usaha Pertambangan (IUP);
+2. Usaha Pertambangan Khusus (IUPK);
+3. IUPK sebagai Kelanjutan Operasi Kontrak/Perjanjian;
+4. Surat Izin Penambangan Batuan (SIPB);
+5. Izin Pertambangan Rakyat (IPR); dan
+6. Izin Pengangkutan dan Penjualan.
 [...]</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Sanksi
+Pasal 95 &gt;&gt;&gt; @lt5e6f51a775ad4
+(1) Pemegang IUP, IUPK, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, IUJP, dan IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, yang tidak mematuhi atau melanggar ketentuan sebagaimana dimaksud dalam [...] Pasal 72 huruf a atau huruf m, Pasal 73 huruf a atau huruf b, [...].
+(2) Sanksi administratif sebagaimana dimaksud pada ayat (1) berupa:
+a. peringatan tertulis;
+b. penghentian sementara sebagian atau seluruh kegiatan usaha; dan/atau
+c. pencabutan izin.
+(3) Sanksi administratif sebagaimana dimaksud pada ayat (2) diberikan oleh Direktur Jenderal atas nama Menteri atau gubernur sesuai dengan kewenangannya.
+Peraturan Menteri Energi Dan Sumber Daya Mineral Nomor 5 Tahun 2021@lt60c040c8e9b53
+Sanksi
+Lampiran III &gt;&gt;&gt; @lt60c040c8e9b53
+A. Standar Perizinan Berusaha Berbasis Risiko Subsektor Mineral dan Batubara
+VIII. Standar Usaha Jasa Pertambangan
+[...]
+6. Penerapan sanksi
+a) sanksi administratif berupa:
+1) peringatan tertulis;
+2) penghentian sementara sebagian atau seluruh kegiatan; dan/atau
+3) pencabutan IUJP,
+sesuai dengan ketentuan peraturan perundang-undangan. 
+b) sanksi pidana sesuai dengan ketentuan peraturan perundang undangan.</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1108</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1306</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>dilarangmemilikiizinlaindibidangpertambanganmineraldanbatubara</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>prohibition</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>melakukanpengolahansampahyangmengandungb3dan/atausampahyangmengandunglimbahb3sesuaidenganketentuanperaturanperundang-undangandibidangpengelolaanlimbahb3</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>peraturanmenterienergidansumberdayamineralnomor7tahun2020kewajibanpasal72pemegangiujpdalammelaksanakankegiatanusahanyawajib:[...]m.memenuhiketentuanperaturanperundang-undangandibidangusahajasapertambangan.pasal73&gt;&gt;&gt;pemegangiujpdilarang:a.memilikiiup,izinpertambanganrakyat,iupk,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,daniupoperasiproduksikhususuntukpengangkutandanpenjualan;dan[…]peraturanmenterienergidansumberdayamineralnomor5tahun2021kewajibanlampiraniii&gt;&gt;&gt;a.standarperizinanberusahaberbasisrisikosubsektormineraldanbatubaraviii.standarusahajasapertambangan[...]5.persyaratankhusususahatidakmemilikiizinlaindibidangpertambanganmineraldanbatubaraantaralain:1.izinusahapertambangan(iup);2.usahapertambangankhusus(iupk);3.iupksebagaikelanjutanoperasikontrak/perjanjian;4.suratizinpenambanganbatuan(sipb);5.izinpertambanganrakyat(ipr);dan6.izinpengangkutandanpenjualan.[...]</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>peraturanmenterienergidansumberdayamineralnomor7tahun2020sanksipasal95&gt;&gt;&gt;(1)pemegangiup,iupk,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,iujp,daniupoperasiproduksikhususuntukpengangkutandanpenjualan,yangtidakmematuhiataumelanggarketentuansebagaimanadimaksuddalam[...]pasal72hurufaatauhurufm,pasal73hurufaatauhurufb,[...].(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)berupa:a.peringatantertulis;b.penghentiansementarasebagianatauseluruhkegiatanusaha;dan/atauc.pencabutanizin.(3)sanksiadministratifsebagaimanadimaksudpadaayat(2)diberikanolehdirekturjenderalatasnamamenteriataugubernursesuaidengankewenangannya.peraturanmenterienergidansumberdayamineralnomor5tahun2021sanksilampiraniii&gt;&gt;&gt;a.standarperizinanberusahaberbasisrisikosubsektormineraldanbatubaraviii.standarusahajasapertambangan[...]6.penerapansanksia)sanksiadministratifberupa:1)peringatantertulis;2)penghentiansementarasebagianatauseluruhkegiatan;dan/atau3)pencabutaniujp,sesuaidenganketentuanperaturanperundang-undangan.b)sanksipidanasesuaidenganketentuanperaturanperundangundangan.</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>d5f9df2dd5eb01338ec5fc9ea92e773f7d9f13050c504580adf282b6f4b66855</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pertambangan Batubara&gt;Pelaksanaan Kegiatan Usaha Pertambangan Batubara</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Dilarang melaksanakan kegiatan yang tidak sesuai dengan IUJP</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Prohibition</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Kewajiban
+Pasal 72
+Pemegang IUJP dalam melaksanakan kegiatan usahanya wajib:
+[...]
+m. memenuhi ketentuan peraturan perundang-undangan di bidang usaha jasa pertambangan.
+Pasal 73 &gt;&gt;&gt; @lt5e6f51a775ad4
+Pemegang IUJP dilarang:
+[…]
+b. melaksanakan kegiatan yang tidak sesuai dengan IUJP.</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Sanksi
+Pasal 95 &gt;&gt;&gt; @lt5e6f51a775ad4
+(1) Pemegang IUP, IUPK, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, IUJP, dan IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, yang tidak mematuhi atau melanggar ketentuan sebagaimana dimaksud dalam [...] Pasal 72 huruf a atau huruf m ,Pasal 73 huruf a atau huruf b, [...].
+(2) Sanksi administratif sebagaimana dimaksud pada ayat (1) berupa:
+a. peringatan tertulis;
+b. penghentian sementara sebagian atau seluruh kegiatan usaha; dan/atau
+c. pencabutan izin.
+(3) Sanksi administratif sebagaimana dimaksud pada ayat (2) diberikan oleh Direktur Jenderal atas nama Menteri atau gubernur sesuai dengan kewenangannya.</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>368</v>
+      </c>
+      <c r="J10" t="n">
+        <v>769</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>dilarangmelaksanakankegiatanyangtidaksesuaidenganiujp</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>prohibition</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>peraturanmenterienergidansumberdayamineralnomor7tahun2020kewajibanpasal72pemegangiujpdalammelaksanakankegiatanusahanyawajib:[...]m.memenuhiketentuanperaturanperundang-undangandibidangusahajasapertambangan.pasal73&gt;&gt;&gt;pemegangiujpdilarang:[…]b.melaksanakankegiatanyangtidaksesuaidenganiujp.</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>peraturanmenterienergidansumberdayamineralnomor7tahun2020sanksipasal95&gt;&gt;&gt;(1)pemegangiup,iupk,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,iujp,daniupoperasiproduksikhususuntukpengangkutandanpenjualan,yangtidakmematuhiataumelanggarketentuansebagaimanadimaksuddalam[...]pasal72hurufaatauhurufm,pasal73hurufaatauhurufb,[...].(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)berupa:a.peringatantertulis;b.penghentiansementarasebagianatauseluruhkegiatanusaha;dan/atauc.pencabutanizin.(3)sanksiadministratifsebagaimanadimaksudpadaayat(2)diberikanolehdirekturjenderalatasnamamenteriataugubernursesuaidengankewenangannya.</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>f3858bd3ff1407429935ac64502ff20af57af8ac1040eda9eff0eefb931f4434</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pertambangan Batubara&gt;Pelaksanaan Kegiatan Usaha Pertambangan Batubara</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Memenuhi sarana setelah memenuhi Izin Usaha Pertambangan (IUP) bagi Perusahaan Jasa Pertambangan</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1. Memiliki fasilitas penunjang kegiatan usaha jasa pertambangan.
+2. Memiliki fasilitas pengelolaan lingkungan pertambangan.
+3. Memiliki fasilitas keselamatan pertambangan.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Peraturan Menteri Energi Dan Sumber Daya Mineral Nomor 5 Tahun 2021@lt60c040c8e9b53
+Kewajiban
+Lampiran III &gt;&gt;&gt; @lt60c040c8e9b53
+A. Standar Perizinan Berusaha Berbasis Risiko Subsektor Mineral dan Batubara
+VIII. Standar Usaha Jasa Pertambangan
+[...]
+6. Sarana
+Setelah mendapatkan pekerjaan, pemegang IUJP harus memiliki:
+a. fasilitas penunjang kegiatan usaha jasa pertambangan;
+b. fasilitas pengelolaan lingkungan pertambangan; dan
+c. fasilitas keselamatan pertambangan.
+[...]
+Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Kewajiban
+Pasal 72
+Pemegang IUJP dalam melaksanakan kegiatan usahanya wajib:
+[...]
+m. memenuhi ketentuan peraturan perundang-undangan di bidang usaha jasa pertambangan.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Peraturan Menteri Energi Dan Sumber Daya Mineral Nomor 5 Tahun 2021@lt60c040c8e9b53
+Sanksi
+Lampiran III &gt;&gt;&gt; @lt60c040c8e9b53
+A. Standar Perizinan Berusaha Berbasis Risiko Subsektor Mineral dan Batubara
+VIII. Standar Usaha Jasa Pertambangan
+[...]
+6. Penerapan sanksi
+a) sanksi administratif berupa:
+1) peringatan tertulis;
+2) penghentian sementara sebagian atau seluruh kegiatan; dan/atau
+3) pencabutan IUJP,
+sesuai dengan ketentuan peraturan perundang-undangan. 
+b) sanksi pidana sesuai dengan ketentuan peraturan perundang undangan.
+Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Sanksi
+Pasal 95 
+(1) Pemegang IUP, IUPK, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, IUJP, dan IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, yang tidak mematuhi atau melanggar ketentuan sebagaimana dimaksud dalam [...] Pasal 72 huruf a atau huruf m [...].
+(2) Sanksi administratif sebagaimana dimaksud pada ayat (1) berupa:
+a. peringatan tertulis;
+b. penghentian sementara sebagian atau seluruh kegiatan usaha; dan/atau
+c. pencabutan izin.
+(3) Sanksi administratif sebagaimana dimaksud pada ayat (2) diberikan oleh Direktur Jenderal atas nama Menteri atau gubernur sesuai dengan kewenangannya.</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>731</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1251</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>memenuhisaranasetelahmemenuhiizinusahapertambangan(iup)bagiperusahaanjasapertambangan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>continuous</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1.memilikifasilitaspenunjangkegiatanusahajasapertambangan.2.memilikifasilitaspengelolaanlingkunganpertambangan.3.memilikifasilitaskeselamatanpertambangan.</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>peraturanmenterienergidansumberdayamineralnomor5tahun2021kewajibanlampiraniii&gt;&gt;&gt;a.standarperizinanberusahaberbasisrisikosubsektormineraldanbatubaraviii.standarusahajasapertambangan[...]6.saranasetelahmendapatkanpekerjaan,pemegangiujpharusmemiliki:a.fasilitaspenunjangkegiatanusahajasapertambangan;b.fasilitaspengelolaanlingkunganpertambangan;danc.fasilitaskeselamatanpertambangan.[...]peraturanmenterienergidansumberdayamineralnomor7tahun2020kewajibanpasal72pemegangiujpdalammelaksanakankegiatanusahanyawajib:[...]m.memenuhiketentuanperaturanperundang-undangandibidangusahajasapertambangan.</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>peraturanmenterienergidansumberdayamineralnomor5tahun2021sanksilampiraniii&gt;&gt;&gt;a.standarperizinanberusahaberbasisrisikosubsektormineraldanbatubaraviii.standarusahajasapertambangan[...]6.penerapansanksia)sanksiadministratifberupa:1)peringatantertulis;2)penghentiansementarasebagianatauseluruhkegiatan;dan/atau3)pencabutaniujp,sesuaidenganketentuanperaturanperundang-undangan.b)sanksipidanasesuaidenganketentuanperaturanperundangundangan.peraturanmenterienergidansumberdayamineralnomor7tahun2020sanksipasal95(1)pemegangiup,iupk,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,iujp,daniupoperasiproduksikhususuntukpengangkutandanpenjualan,yangtidakmematuhiataumelanggarketentuansebagaimanadimaksuddalam[...]pasal72hurufaatauhurufm[...].(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)berupa:a.peringatantertulis;b.penghentiansementarasebagianatauseluruhkegiatanusaha;dan/atauc.pencabutanizin.(3)sanksiadministratifsebagaimanadimaksudpadaayat(2)diberikanolehdirekturjenderalatasnamamenteriataugubernursesuaidengankewenangannya.</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>f388aa03a481b6624ea7b013afa99bc9f959bc54ee21140f42eed150df337964</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pertambangan Batubara&gt;Pelaksanaan Kegiatan Usaha Pertambangan Batubara</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Menetapkan dan menerapkan prosedur yang efektif dan terdokumentasi bagi pemegang Izin Usaha Jasa Pertambangan (IUJP)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Peraturan Menteri Energi Dan Sumber Daya Mineral Nomor 5 Tahun 2021@lt60c040c8e9b53
+Kewajiban
+Lampiran III &gt;&gt;&gt; @lt60c040c8e9b53
+A. Standar Perizinan Berusaha Berbasis Risiko Subsektor Mineral dan Batubara
+VIII. Standar Usaha Jasa Pertambangan
+[...]
+10. Sistem Manajemen Usaha
+a. Menetapkan dan menerapkan prosedur yang efektif dan terdokumentasi terkait pengelolaan jasa pertambangan yang meliputi:
+1. perencanaan; 
+2. pelaksanaan;
+3. pemantauan; 
+4. evaluasi; dan
+5. hasil perbaikan evaluasi.
+[...]
+Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Kewajiban
+Pasal 72
+Pemegang IUJP dalam melaksanakan kegiatan usahanya wajib:
+[...]
+m. memenuhi ketentuan peraturan perundang-undangan di bidang usaha jasa pertambangan.</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Peraturan Menteri Energi Dan Sumber Daya Mineral Nomor 5 Tahun 2021@lt60c040c8e9b53
+Sanksi
+Lampiran III &gt;&gt;&gt; @lt60c040c8e9b53
+A. Standar Perizinan Berusaha Berbasis Risiko Subsektor Mineral dan Batubara
+VIII. Standar Usaha Jasa Pertambangan
+[...]
+6. Penerapan sanksi
+a) sanksi administratif berupa:
+1) peringatan tertulis;
+2) penghentian sementara sebagian atau seluruh kegiatan; dan/atau
+3) pencabutan IUJP,
+sesuai dengan ketentuan peraturan perundang-undangan. 
+b) sanksi pidana sesuai dengan ketentuan peraturan perundang undangan.
+Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Sanksi
+Pasal 95 
+(1) Pemegang IUP, IUPK, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, IUJP, dan IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, yang tidak mematuhi atau melanggar ketentuan sebagaimana dimaksud dalam [...] Pasal 72 huruf a atau huruf m [...].
+(2) Sanksi administratif sebagaimana dimaksud pada ayat (1) berupa:
+a. peringatan tertulis;
+b. penghentian sementara sebagian atau seluruh kegiatan usaha; dan/atau
+c. pencabutan izin.
+(3) Sanksi administratif sebagaimana dimaksud pada ayat (2) diberikan oleh Direktur Jenderal atas nama Menteri atau gubernur sesuai dengan kewenangannya.</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>755</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1251</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>menetapkandanmenerapkanproseduryangefektifdanterdokumentasibagipemegangizinusahajasapertambangan(iujp)</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>peraturanmenterienergidansumberdayamineralnomor5tahun2021kewajibanlampiraniii&gt;&gt;&gt;a.standarperizinanberusahaberbasisrisikosubsektormineraldanbatubaraviii.standarusahajasapertambangan[...]10.sistemmanajemenusahaa.menetapkandanmenerapkanproseduryangefektifdanterdokumentasiterkaitpengelolaanjasapertambanganyangmeliputi:1.perencanaan;2.pelaksanaan;3.pemantauan;4.evaluasi;dan5.hasilperbaikanevaluasi.[...]peraturanmenterienergidansumberdayamineralnomor7tahun2020kewajibanpasal72pemegangiujpdalammelaksanakankegiatanusahanyawajib:[...]m.memenuhiketentuanperaturanperundang-undangandibidangusahajasapertambangan.</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>peraturanmenterienergidansumberdayamineralnomor5tahun2021sanksilampiraniii&gt;&gt;&gt;a.standarperizinanberusahaberbasisrisikosubsektormineraldanbatubaraviii.standarusahajasapertambangan[...]6.penerapansanksia)sanksiadministratifberupa:1)peringatantertulis;2)penghentiansementarasebagianatauseluruhkegiatan;dan/atau3)pencabutaniujp,sesuaidenganketentuanperaturanperundang-undangan.b)sanksipidanasesuaidenganketentuanperaturanperundangundangan.peraturanmenterienergidansumberdayamineralnomor7tahun2020sanksipasal95(1)pemegangiup,iupk,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,iujp,daniupoperasiproduksikhususuntukpengangkutandanpenjualan,yangtidakmematuhiataumelanggarketentuansebagaimanadimaksuddalam[...]pasal72hurufaatauhurufm[...].(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)berupa:a.peringatantertulis;b.penghentiansementarasebagianatauseluruhkegiatanusaha;dan/atauc.pencabutanizin.(3)sanksiadministratifsebagaimanadimaksudpadaayat(2)diberikanolehdirekturjenderalatasnamamenteriataugubernursesuaidengankewenangannya.</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>40fdb74a1807a773c9bf9150fefd9e0f1fa330ad81c228b6784c1e35cf14969f</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pertambangan Batubara&gt;Pelaksanaan Kegiatan Usaha Pertambangan Batubara</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Menerapkan kaidah teknik pertambangan yang baik bagi pemegang Izin Usaha Jasa Pertambangan (IUJP)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1. Melaksanakan kaidah teknik usaha jasa pertambangan yang baik, meliputi upaya pengelolaan lingkungan hidup, keselamatan pertambangan, konservasi Mineral dan Batubara, dan teknis pertambangan sesuai dengan bidang usahanya; dan kewajiban untuk mengangkat penanggung jawab operasional sebagai pemimpin tertinggi di lapangan.
+2. Melaksanakan tata kelola pengusahaan pertambangan, yaitu meliputi pengutamaan produk dalam negeri; pengutamaan subkontraktor lokal sesuai dengan kompetensinya; pengutamaan tenaga kerja lokal; dan pengoptimalan pembelanjaan lokal baik barang maupun jasa pertambangan.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Kewajiban
+Pasal 72
+Pemegang IUJP dalam melaksanakan kegiatan usahanya wajib:
+[...]
+m. memenuhi ketentuan peraturan perundang-undangan di bidang usaha jasa pertambangan.
+Peraturan Menteri Energi Dan Sumber Daya Mineral Nomor 26 Tahun 2018@lt5b02917def988
+Kewajiban
+Pasal 5 &gt;&gt;&gt; @lt5b02917def988
+(1) Pemegang IUJP wajib melaksanakan kaidah pertambangan yang baik sesuai dengan bidang usahanya.
+(2) Kaidah pertambangan yang baik sebagaimana dimaksud pada ayat (1) meliputi:
+a. kaidah teknik usaha jasa pertambangan yang baik; dan
+b. tata kelola pengusahaan jasa pertambangan.
+(3) Kaidah teknik usaha jasa pertambangan yang baik sebagaimana dimaksud pada ayat (2) huruf a meliputi:
+a. upaya pengelolaan lingkungan hidup, keselamatan pertambangan, konservasi Mineral dan Batubara, dan teknis pertambangan sesuai dengan bidang usahanya; dan
+b. kewajiban untuk mengangkat penanggung jawab operasional sebagai pemimpin tertinggi di lapangan.
+(4) Tata kelola pengusahaan jasa pertambangan sebagaimana dimaksud pada ayat (2) huruf b meliputi:
+a. pengutamaan produk dalam negeri;
+b. pengutamaan subkontraktor lokal sesuai dengan kompetensinya;
+c. pengutamaan tenaga kerja lokal; dan
+d. pengoptimalan pembelanjaan lokal baik barang maupun jasa pertambangan.
+(5) Menteri menetapkan pedoman pelaksanaan kaidah pertambangan yang baik bagi pemegang IUJP sebagaimana dimaksud pada ayat (2).</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Sanksi
+Pasal 95 
+(1) Pemegang IUP, IUPK, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, IUJP, dan IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, yang tidak mematuhi atau melanggar ketentuan sebagaimana dimaksud dalam [...] Pasal 72 huruf a atau huruf m [...].
+(2) Sanksi administratif sebagaimana dimaksud pada ayat (1) berupa:
+a. peringatan tertulis;
+b. penghentian sementara sebagian atau seluruh kegiatan usaha; dan/atau
+c. pencabutan izin.
+(3) Sanksi administratif sebagaimana dimaksud pada ayat (2) diberikan oleh Direktur Jenderal atas nama Menteri atau gubernur sesuai dengan kewenangannya.</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>1459</v>
+      </c>
+      <c r="J13" t="n">
+        <v>715</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>menerapkankaidahteknikpertambanganyangbaikbagipemegangizinusahajasapertambangan(iujp)</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>1.melaksanakankaidahteknikusahajasapertambanganyangbaik,meliputiupayapengelolaanlingkunganhidup,keselamatanpertambangan,konservasimineraldanbatubara,danteknispertambangansesuaidenganbidangusahanya;dankewajibanuntukmengangkatpenanggungjawaboperasionalsebagaipemimpintertinggidilapangan.2.melaksanakantatakelolapengusahaanpertambangan,yaitumeliputipengutamaanprodukdalamnegeri;pengutamaansubkontraktorlokalsesuaidengankompetensinya;pengutamaantenagakerjalokal;danpengoptimalanpembelanjaanlokalbaikbarangmaupunjasapertambangan.</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>peraturanmenterienergidansumberdayamineralnomor7tahun2020kewajibanpasal72pemegangiujpdalammelaksanakankegiatanusahanyawajib:[...]m.memenuhiketentuanperaturanperundang-undangandibidangusahajasapertambangan.peraturanmenterienergidansumberdayamineralnomor26tahun2018kewajibanpasal5&gt;&gt;&gt;(1)pemegangiujpwajibmelaksanakankaidahpertambanganyangbaiksesuaidenganbidangusahanya.(2)kaidahpertambanganyangbaiksebagaimanadimaksudpadaayat(1)meliputi:a.kaidahteknikusahajasapertambanganyangbaik;danb.tatakelolapengusahaanjasapertambangan.(3)kaidahteknikusahajasapertambanganyangbaiksebagaimanadimaksudpadaayat(2)hurufameliputi:a.upayapengelolaanlingkunganhidup,keselamatanpertambangan,konservasimineraldanbatubara,danteknispertambangansesuaidenganbidangusahanya;danb.kewajibanuntukmengangkatpenanggungjawaboperasionalsebagaipemimpintertinggidilapangan.(4)tatakelolapengusahaanjasapertambangansebagaimanadimaksudpadaayat(2)hurufbmeliputi:a.pengutamaanprodukdalamnegeri;b.pengutamaansubkontraktorlokalsesuaidengankompetensinya;c.pengutamaantenagakerjalokal;dand.pengoptimalanpembelanjaanlokalbaikbarangmaupunjasapertambangan.(5)menterimenetapkanpedomanpelaksanaankaidahpertambanganyangbaikbagipemegangiujpsebagaimanadimaksudpadaayat(2).</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>peraturanmenterienergidansumberdayamineralnomor7tahun2020sanksipasal95(1)pemegangiup,iupk,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,iujp,daniupoperasiproduksikhususuntukpengangkutandanpenjualan,yangtidakmematuhiataumelanggarketentuansebagaimanadimaksuddalam[...]pasal72hurufaatauhurufm[...].(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)berupa:a.peringatantertulis;b.penghentiansementarasebagianatauseluruhkegiatanusaha;dan/atauc.pencabutanizin.(3)sanksiadministratifsebagaimanadimaksudpadaayat(2)diberikanolehdirekturjenderalatasnamamenteriataugubernursesuaidengankewenangannya.</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>a868e7dc77b06e465fd4cfe102d56f79796082d22eec1d3cbb80177b9a092594</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pertambangan Batubara&gt;Pelaksanaan Kegiatan Usaha Pertambangan Batubara</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mengajukan permohonan pengesahan Penanggung Jawab Operasional kepada kepala inspektur tambang/Kepala Dinas atas nama kepala inspektur tambang melalui website yang telah ditentukan atau secara offline kepada Kepala Dinas, bagi Direksi Perusahaan Jasa Pertambangan</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Licensing</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1. Merupakan pekerja perusahaan jasa pertambangan.
+2. Memiliki riwayat hidup calon PJO.
+3. Memiliki jabatan tertinggi dibuktikan dalam struktur organisasi perusahaan jasa pertambangan (di site) yang ditandatangani oleh Direksi dengan cap basah.
+4. Memiliki surat pernyataan dukungan dari Direksi Perusahaan jasa pertambangan.
+5. Memiliki surat pernyataan komitmen calon PJO.
+6. Memiliki bukti lulus Uji Kemahiran Berbahasa Indonesia dengan predikat paling kurang madya dalam jangka waktu 6 (enam) bulan bagi warna negara asing. KTT dapat membatalkan kembali pengesahan tersebut apabila PJO tersebut belum lulus Uji Kemahiran Berbahasa Indonesia dalam jangka waktu yang telah ditetapkan.
+7. Memiliki syarat lain yang ditentukan oleh Kepala Teknik Tambang.
+8. Memastikan Direksi melakukan penunjukan calon PJO dan dibuktikan dengan surat penunjukkan.
+9. Memastikan Direksi membuat dan mengajukan surat permohonan pengesahan calon PJO kepada KTT yang dilengkapi dengan dokumen pemenuhan syarat PJO.
+10. Memastikan Direksi menunjuk kembali calon PJO apabila berdasarkan evaluasi KTT calon PJO dinyatakan tidak layak atau kinerja PJO dinyatakan kurang baik.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Kewajiban
+Pasal 72
+Pemegang IUJP dalam melaksanakan kegiatan usahanya wajib:
+[...]
+m. memenuhi ketentuan peraturan perundang-undangan di bidang usaha jasa pertambangan.
+Keputusan Menteri Energi Dan Sumber Daya Mineral Nomor 1827 K/30/MEM/2018 Tahun 2018@lt5b0299aa115db
+Kewajiban
+LAMPIRAN 1 PEDOMAN PERMOHONAN, EVALUASI, DAN/ATAU PENGESAHAN KEPALA  TEKNIK TAMBANG, PENANGGUNG JAWAB TEKNIK DAN LINGKUNGAN,  KEPALA TAMBANG BAWAH TANAH, PENGAWAS OPERASIONAL, PENGAWAS  TEKNIS, DAN/ATAU PENANGGUNG JAWAB OPERASIONAL  &gt;&gt;&gt; @lt5b0299aa115db
+Keterangan:
+[...]
+4. Permohonan, Evaluasi, Pengesahan, dan Evaluasi Kinerja PJO:
+a. Persyaratan PJO
+Penunjukan PJO oleh direksi Perusahaan Jasa Pertambangan didasarkan pada beberapa syarat yang meliputi:
+1) Persyaratan Administratif yang terdiri atas:
+a) pekerja perusahaan jasa pertambangan; 
+b) riwayat hidup calon PJO; 
+c) memiliki jabatan tertinggi dibuktikan dalam struktur organisasi perusahaan jasa pertambangan (di site) yang ditandatangani oleh Direksi dengan cap basah; 
+d) surat pernyataan dukungan dari Direksi Perusahaan jasa pertambangan; 
+e) surat pernyataan komitmen calon PJO;
+f) bagi warga negara asing yang sudah disahkan sebagai PJO maka dilanjutkan dengan lulus Uji Kemahiran Berbahasa Indonesia dengan predikat paling kurang madya dalam jangka waktu 6 (enam) bulan. KTT dapat membatalkan kembali pengesahan tersebut apabila PJO tersebut belum lulus Uji Kemahiran Berbahasa Indonesia dalam jangka waktu yang telah ditetapkan; dan 
+g) syarat lain yang ditentukan oleh KTT. 
+2) Persyaratan Teknis yang terdiri atas:
+a) memahami aspek pengelolaan usaha jasa pertambangan sesuai dengan ketentuan peraturan perundang-undangan;
+b) memahami aspek teknis pertambangan, konservasi, keselamatan pertambangan, dan perlindungan lingkungan sesuai dengan ketentuan peraturan perundang-undangan; 
+c) memahami kewajiban dan sanksi usaha jasa pertambangan sesuai dengan ketentuan peraturan perundang-undangan;dan
+d) jenjang sertifikat kompetensi pengawas operasional atau sertifikat kualifikasi yang diakui oleh KaIT yang ditentukan berdasarkan pertimbangan teknis oleh KTT
+b. Tata Cara Permohonan
+Tata cara pengajuan permohonan pengesahan oleh Direksi perusahaan jasa pertambangan kepada KTT sesuai dengan diagram alir sebagai berikut.
+[...]
+Diagram alir di atas dapat dijelaskan sebagai berikut:
+1. Direksi perusahaan jasa pertambangan menunjuk calon PJO dan dibuktikan dengan surat penunjukkan 
+2. Direksi perusahaan jasa pertambangan membuat dan mengajukan surat permohonan pengesahan calon PJO kepada KTT. Surat permohonan tersebut dilengkapi dengan dokumen pemenuhan syarat PJO.
+3. KTT melakukan evaluasi terhadap permohonan pengesahan calon PJO.
+4. Apabila berdasarkan evaluasi yang dilakukan oleh KTT, calon PJO dinyatakan layak, selanjutnya KTT menerbitkan surat pengesahan PJO
+5. Apabila berdasarkan evaluasi yang dilakukan oleh KTT, calon PJO dinyatakan tidak layak selanjutnya KTT meminta penggantian calon PJO kepada Direksi perusahaan jasa pertambangan.
+6. Setelah seorang PJO disahkan oleh KTT, PJO dapat melakukan tugas dan tanggung jawabnya untuk menjamin aspek teknis, keselamatan, dan lindungan lingkungan pertambangan. Secara berkala, sesuai dengan waktu yang ditentukan oleh KTT, KTT dapat mengevaluasi kinerja PJO.
+7. Apabila kinerja PJO berdasarkan hasil evaluasi dinyatakan kurang baik, KTT dapat meminta penggantian PJO kepada Direksi PJP.
+8. Apabila kinerja PJO berdasarkan hasil evaluasi dinyatakan baik, PJO yang bersangkutan dapat tetap melaksanakan tugas dan tanggung jawabnya sebagai PJO.
+[Catatan: diagram alir tata cara pengajuan permohonan pengesahan oleh Direksi perusahaan jasa pertambangan kepada KTT dapat dilihat secara detail pada Lampiran I Keputusan Menteri Energi Dan Sumber Daya Mineral Nomor 1827 K/30/MEM/2018 Tahun 2018]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Sanksi
+Pasal 95 
+(1) Pemegang IUP, IUPK, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, IUJP, dan IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, yang tidak mematuhi atau melanggar ketentuan sebagaimana dimaksud dalam [...] Pasal 72 huruf a atau huruf m [...].
+(2) Sanksi administratif sebagaimana dimaksud pada ayat (1) berupa:
+a. peringatan tertulis;
+b. penghentian sementara sebagian atau seluruh kegiatan usaha; dan/atau
+c. pencabutan izin.
+(3) Sanksi administratif sebagaimana dimaksud pada ayat (2) diberikan oleh Direktur Jenderal atas nama Menteri atau gubernur sesuai dengan kewenangannya.</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>3894</v>
+      </c>
+      <c r="J14" t="n">
+        <v>716</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>mengajukanpermohonanpengesahanpenanggungjawaboperasionalkepadakepalainspekturtambang/kepaladinasatasnamakepalainspekturtambangmelaluiwebsiteyangtelahditentukanatausecaraofflinekepadakepaladinas,bagidireksiperusahaanjasapertambangan</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>licensing</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>1.merupakanpekerjaperusahaanjasapertambangan.2.memilikiriwayathidupcalonpjo.3.memilikijabatantertinggidibuktikandalamstrukturorganisasiperusahaanjasapertambangan(disite)yangditandatanganiolehdireksidengancapbasah.4.memilikisuratpernyataandukungandaridireksiperusahaanjasapertambangan.5.memilikisuratpernyataankomitmencalonpjo.6.memilikibuktilulusujikemahiranberbahasaindonesiadenganpredikatpalingkurangmadyadalamjangkawaktu6(enam)bulanbagiwarnanegaraasing.kttdapatmembatalkankembalipengesahantersebutapabilapjotersebutbelumlulusujikemahiranberbahasaindonesiadalamjangkawaktuyangtelahditetapkan.7.memilikisyaratlainyangditentukanolehkepalatekniktambang.8.memastikandireksimelakukanpenunjukancalonpjodandibuktikandengansuratpenunjukkan.9.memastikandireksimembuatdanmengajukansuratpermohonanpengesahancalonpjokepadakttyangdilengkapidengandokumenpemenuhansyaratpjo.10.memastikandireksimenunjukkembalicalonpjoapabilaberdasarkanevaluasikttcalonpjodinyatakantidaklayakataukinerjapjodinyatakankurangbaik.</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>peraturanmenterienergidansumberdayamineralnomor7tahun2020kewajibanpasal72pemegangiujpdalammelaksanakankegiatanusahanyawajib:[...]m.memenuhiketentuanperaturanperundang-undangandibidangusahajasapertambangan.keputusanmenterienergidansumberdayamineralnomor1827k/30/mem/2018tahun2018kewajibanlampiran1pedomanpermohonan,evaluasi,dan/ataupengesahankepalatekniktambang,penanggungjawabteknikdanlingkungan,kepalatambangbawahtanah,pengawasoperasional,pengawasteknis,dan/ataupenanggungjawaboperasional&gt;&gt;&gt;keterangan:[...]4.permohonan,evaluasi,pengesahan,danevaluasikinerjapjo:a.persyaratanpjopenunjukanpjoolehdireksiperusahaanjasapertambangandidasarkanpadabeberapasyaratyangmeliputi:1)persyaratanadministratifyangterdiriatas:a)pekerjaperusahaanjasapertambangan;b)riwayathidupcalonpjo;c)memilikijabatantertinggidibuktikandalamstrukturorganisasiperusahaanjasapertambangan(disite)yangditandatanganiolehdireksidengancapbasah;d)suratpernyataandukungandaridireksiperusahaanjasapertambangan;e)suratpernyataankomitmencalonpjo;f)bagiwarganegaraasingyangsudahdisahkansebagaipjomakadilanjutkandenganlulusujikemahiranberbahasaindonesiadenganpredikatpalingkurangmadyadalamjangkawaktu6(enam)bulan.kttdapatmembatalkankembalipengesahantersebutapabilapjotersebutbelumlulusujikemahiranberbahasaindonesiadalamjangkawaktuyangtelahditetapkan;dang)syaratlainyangditentukanolehktt.2)persyaratanteknisyangterdiriatas:a)memahamiaspekpengelolaanusahajasapertambangansesuaidenganketentuanperaturanperundang-undangan;b)memahamiaspekteknispertambangan,konservasi,keselamatanpertambangan,danperlindunganlingkungansesuaidenganketentuanperaturanperundang-undangan;c)memahamikewajibandansanksiusahajasapertambangansesuaidenganketentuanperaturanperundang-undangan;dand)jenjangsertifikatkompetensipengawasoperasionalatausertifikatkualifikasiyangdiakuiolehkaityangditentukanberdasarkanpertimbanganteknisolehkttb.tatacarapermohonantatacarapengajuanpermohonanpengesahanolehdireksiperusahaanjasapertambangankepadakttsesuaidengandiagramalirsebagaiberikut.[...]diagramalirdiatasdapatdijelaskansebagaiberikut:1.direksiperusahaanjasapertambanganmenunjukcalonpjodandibuktikandengansuratpenunjukkan2.direksiperusahaanjasapertambanganmembuatdanmengajukansuratpermohonanpengesahancalonpjokepadaktt.suratpermohonantersebutdilengkapidengandokumenpemenuhansyaratpjo.3.kttmelakukanevaluasiterhadappermohonanpengesahancalonpjo.4.apabilaberdasarkanevaluasiyangdilakukanolehktt,calonpjodinyatakanlayak,selanjutnyakttmenerbitkansuratpengesahanpjo5.apabilaberdasarkanevaluasiyangdilakukanolehktt,calonpjodinyatakantidaklayakselanjutnyakttmemintapenggantiancalonpjokepadadireksiperusahaanjasapertambangan.6.setelahseorangpjodisahkanolehktt,pjodapatmelakukantugasdantanggungjawabnyauntukmenjaminaspekteknis,keselamatan,danlindunganlingkunganpertambangan.secaraberkala,sesuaidenganwaktuyangditentukanolehktt,kttdapatmengevaluasikinerjapjo.7.apabilakinerjapjoberdasarkanhasilevaluasidinyatakankurangbaik,kttdapatmemintapenggantianpjokepadadireksipjp.8.apabilakinerjapjoberdasarkanhasilevaluasidinyatakanbaik,pjoyangbersangkutandapattetapmelaksanakantugasdantanggungjawabnyasebagaipjo.[catatan:diagramalirtatacarapengajuanpermohonanpengesahanolehdireksiperusahaanjasapertambangankepadakttdapatdilihatsecaradetailpadalampiranikeputusanmenterienergidansumberdayamineralnomor1827k/30/mem/2018tahun2018]</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>peraturanmenterienergidansumberdayamineralnomor7tahun2020sanksipasal95(1)pemegangiup,iupk,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,iujp,daniupoperasiproduksikhususuntukpengangkutandanpenjualan,yangtidakmematuhiataumelanggarketentuansebagaimanadimaksuddalam[...]pasal72hurufaatauhurufm[...].(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)berupa:a.peringatantertulis;b.penghentiansementarasebagianatauseluruhkegiatanusaha;dan/atauc.pencabutanizin.(3)sanksiadministratifsebagaimanadimaksudpadaayat(2)diberikanolehdirekturjenderalatasnamamenteriataugubernursesuaidengankewenangannya.</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>2dd452ef5619c9d2136461c68f2bbf2557074bca20fe0c3f728cbd596ed6565d</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Pertambangan Batubara&gt;Pelaksanaan Kegiatan Usaha Pertambangan Batubara</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Menyampaikan laporan berkala pelaksanaan kegiatan usaha pertambangan batubara yang dilakukan kepada Menteri ESDM atau gubernur bagi pemegang IUP, IUPK, IPR, SIPB, Izin Pengangkutan dan Penjualan, IUJP, atau IUP untuk Penjualan</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Periodic</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1. Menyusun dan menyampaikan Laporan Berkala kepada Menteri ESDM melalui Direktur Jenderal Mineral dan Batubara atau gubernur sesuai dengan kewenangannya bagi pemegang IUP tahap kegiatan Eksplorasi atau pemegang IUPK tahap kegiatan Eksplorasi, yang meliputi: a. laporan atas RKAB; b. laporan kualitas air limbah pertambangan; c. laporan statistik kecelakaan tambang dan kejadian berbahaya; d. laporan statistik penyakit tenaga kerja; e. laporan pelaksanaan reklamasi dalam rangka pelepasan atau pencairan jaminan reklamasi; dan f. laporan audit internal penerapan Sistem Manajemen Keselamatan Pertambangan Mineral dan Batubara, sesuai dengan ketentuan peraturan perundang-undangan.
+2. Menyusun dan menyampaikan Laporan Berkala kepada Menteri ESDM melalui Direktur Jenderal Mineral dan Batubara atau gubernur sesuai dengan kewenangannya bagi pemegang IUP tahap kegiatan Operasi Produksi, pemegang IUPK tahap kegiatan Operasi Produksi, atau pemegang IUPK sebagai Kelanjutan Operasi Kontrak/Perjanjian, yang meliputi: a. laporan atas RKAB; b. laporan kualitas air limbah pertambangan; c. laporan konservasi; d. laporan statistik kecelakaan tambang dan kejadian berbahaya; e. laporan statistik penyakit tenaga kerja; f. laporan pelaksanaan reklamasi dalam rangka pelepasan atau pencairan jaminan reklamasi; g. laporan pelaksanaan pascatambang dalam rangka pencairan jaminan pascatambang; dan h. laporan audit internal penerapan Sistem Manajemen Keselamatan Pertambangan Mineral dan Batubara.
+3. Menyusun dan menyampaikan Laporan Berkala kepada gubernur bagi pemegang IPR, yang meliputi: a. laporan pengelolaan dan pemantauan lingkungan; dan b. laporan pelaksanaan operasi produksi.
+4. Menyusun dan menyampaikan Laporan Berkala kepada gubernur bagi pemegang SIPB, yang meliputi: a. laporan pengelolaan dan pemantauan lingkungan; dan b. laporan pelaksanaan kegiatan penambangan.
+5. Menyusun dan menyampaikan Laporan Berkala berupa laporan triwulan kepada Menteri ESDM melalui Direktur Jenderal Mineral dan Batubara atau gubernur sesuai dengan kewenangannya bagi pemegang Izin Pengangkutan dan Penjualan, yang meliputi: a. laporan realisasi pembelian mineral atau batubara; dan b. laporan realisasi penjualan mineral atau batubara.
+6. Menyusun dan melaporkan Laporan Berkala kepada Menteri ESDM melalui Direktur Jenderal Mineral dan Batubara atau gubernur sesuai dengan kewenangannya bagi pemegang IUJP, yang berupa laporan pelaksanaan kegiatan usaha jasa pertambangan.
+7. Menyampaikan Laporan Berkala dalam bentuk laporan bulanan paling lambat 10 (sepuluh) hari kalender setelah berakhirnya tiap bulan kecuali untuk laporan kualitas air limbah pertambangan paling lambat 15 (lima belas) hari kalender setelah berakhirnya tiap bulan, bagi pemegang IUP tahap kegiatan Eksplorasi, pemegang IUPK tahap kegiatan Eksplorasi, pemegang IUP Tahap Kegiatan Operasi Produksi, pemegang IUPK tahap kegiatan Operasi Produksi, atau pemegang IUPK sebagai Kelanjutan Operasi Kontrak/Perjanjian.
+8. Menyampaikan Laporan Berkala dalam bentuk laporan triwulan paling lambat 30 (tiga puluh) hari kalender setelah berakhirnya tiap triwulan, bagi pemegang IUP tahap kegiatan Eksplorasi, pemegang IUPK tahap kegiatan Eksplorasi, pemegang IUP tahap kegiatan Operasi Produksi, pemegang IUPK tahap kegiatan Operasi Produksi, pemegang IUPK sebagai Kelanjutan Operasi Kontrak/Perjanjian, atau pemegang Izin Pengangkutan dan Penjualan.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Peraturan Pemerintah Nomor 96 Tahun 2021@lt614815d4f1925
+Kewajiban
+Pasal 178 &gt;&gt;&gt; @lt614815d4f1925
+(1) Pemegang IUP, IUPK, IPR, SIPB, Izin Pengangkutan dan Penjualan, IUJP, dan IUP untuk Penjualan wajib menyusun dan menyampaikan laporan pelaksanaan kegiatan Usaha Pertambangan yang dilakukan kepada Menteri.
+(2) Laporan sebagaimana dimaksud pada ayat (1) paling sedikit terdiri atas:
+a. laporan berkala;
+[...]
+(3) Laporan sebagaimana dimaksud pada ayat (2) disampaikan secara tertulis dan/atau secara elektronik.
+(4) Ketentuan lebih lanjut mengenai tata cara penyampaian laporan diatur dalam Peraturan Menteri.
+Peraturan Menteri Energi Dan Sumber Daya Mineral Nomor 10 Tahun 2023@lt650bf408d43bd
+Kewajiban
+Pasal 2 &gt;&gt;&gt; @lt650bf408d43bd
+(1) Pemegang IUP tahap kegiatan Eksplorasi, pemegang IUPK tahap kegiatan Eksplorasi, pemegang IUP tahap kegiatan Operasi Produksi, pemegang IUPK tahap kegiatan Operasi Produksi, dan pemegang IUPK sebagai Kelanjutan Operasi Kontrak/Perjanjian wajib:
+[...]
+b. menyampaikan laporan tertulis atas pelaksanaan RKAB tahap kegiatan Eksplorasi atau pelaksanaan RKAB tahap kegiatan Operasi Produksi kepada Menteri atau Gubernur sesuai dengan kewenangannya.
+(2) RKAB dan laporan sebagaimana dimaksud pada ayat (1) disampaikan dalam bentuk data elektronik (softcopy) dan/atau melalui sistem informasi.
+Pasal 14 &gt;&gt;&gt; @lt650bf408d43bd
+(1) Pemegang IUP tahap kegiatan Eksplorasi, pemegang IUPK tahap kegiatan Eksplorasi, pemegang IUP tahap kegiatan Operasi Produksi, pemegang IUPK tahap kegiatan Operasi Produksi, pemegang IUPK sebagai Kelanjutan Operasi Kontrak/Perjanjian, pemegang IPR, pemegang SIPB, pemegang Izin Pengangkutan dan Penjualan, dan pemegang IUJP wajib menyusun dan menyampaikan laporan yang meliputi:
+a. Laporan Berkala;
+[...]
+(2) Laporan Berkala sebagaimana dimaksud pada ayat (1) huruf a terdiri atas laporan bulanan dan/atau laporan triwulanan.
+Pasal 15 &gt;&gt;&gt; @lt650bf408d43bd
+(1) Pemegang IUP tahap kegiatan Eksplorasi atau pemegang IUPK tahap kegiatan Eksplorasi wajib menyusun dan menyampaikan Laporan Berkala sebagaimana dimaksud dalam Pasal 14 ayat (1) huruf a kepada Menteri melalui Direktur Jenderal atau Gubernur sesuai dengan kewenangannya yang meliputi:
+a. laporan atas RKAB;
+b. laporan kualitas air limbah pertambangan;
+c. laporan statistik kecelakaan tambang dan kejadian berbahaya;
+d. laporan statistik penyakit tenaga kerja;
+e. laporan pelaksanaan reklamasi dalam rangka pelepasan atau pencairan jaminan reklamasi; dan
+f. laporan audit internal penerapan Sistem Manajemen Keselamatan Pertambangan Mineral dan Batubara,
+sesuai dengan ketentuan peraturan perundang-undangan.
+(2) Pemegang IUP tahap kegiatan Operasi Produksi, pemegang IUPK tahap kegiatan Operasi Produksi, atau pemegang IUPK sebagai Kelanjutan Operasi Kontrak/Perjanjian wajib menyusun dan menyampaikan Laporan Berkala sebagaimana dimaksud dalam Pasal 14 ayat (1) huruf a kepada Menteri melalui Direktur Jenderal atau Gubernur sesuai dengan kewenangannya yang meliputi:
+a. laporan atas RKAB;
+b. laporan kualitas air limbah pertambangan;
+c. laporan konservasi;
+d. laporan statistik kecelakaan tambang dan kejadian berbahaya;
+e. laporan statistik penyakit tenaga kerja;
+f. laporan pelaksanaan reklamasi dalam rangka pelepasan atau pencairan jaminan reklamasi;
+g. laporan pelaksanaan pascatambang dalam rangka pencairan jaminan pascatambang; dan
+h. laporan audit internal penerapan Sistem Manajemen Keselamatan Pertambangan Mineral dan Batubara.
+[...]
+(5) Pemegang IPR wajib menyusun dan menyampaikan Laporan Berkala sebagaimana dimaksud dalam Pasal 14 ayat (1) huruf a kepada Gubernur yang meliputi:
+a. laporan pengelolaan dan pemantauan lingkungan; dan
+b. laporan pelaksanaan operasi produksi.
+(6) Pemegang SIPB wajib menyusun dan menyampaikan Laporan Berkala sebagaimana dimaksud dalam Pasal 14 ayat (1) huruf a kepada Gubernur yang meliputi:
+a. laporan pengelolaan dan pemantauan lingkungan; dan
+b. laporan pelaksanaan kegiatan penambangan.
+(7) Pemegang Izin Pengangkutan dan Penjualan wajib menyusun dan menyampaikan Laporan Berkala berupa Laporan Triwulan sebagaimana dimaksud dalam Pasal 14 ayat (1) huruf a kepada Menteri melalui Direktur Jenderal atau Gubernur sesuai dengan kewenangannya yang meliputi:
+a. laporan realisasi pembelian mineral atau batubara; dan
+b. laporan realisasi penjualan mineral atau batubara.
+(8) Pemegang IUJP wajib menyusun dan menyampaikan Laporan Berkala sebagaimana dimaksud dalam Pasal 14 ayat (1) huruf a kepada Menteri melalui Direktur Jenderal atau Gubernur sesuai dengan kewenangannya yang berupa laporan pelaksanaan kegiatan usaha jasa pertambangan.
+Pasal 17 &gt;&gt;&gt; @lt650bf408d43bd
+(1) Pemegang IUP tahap kegiatan Eksplorasi, pemegang IUPK tahap kegiatan Eksplorasi, pemegang IUP Tahap Kegiatan Operasi Produksi, pemegang IUPK tahap kegiatan Operasi Produksi, dan pemegang IUPK sebagai Kelanjutan Operasi Kontrak/Perjanjian wajib menyampaikan Laporan Berkala dalam bentuk laporan bulanan kepada Menteri melalui Direktur Jenderal dalam jangka waktu paling lambat 10 (sepuluh) hari kalender setelah berakhirnya tiap bulan kecuali untuk laporan kualitas air limbah pertambangan paling lambat 15 (lima belas) hari kalender setelah berakhirnya tiap bulan.
+(2) Pemegang IUP tahap kegiatan Eksplorasi, pemegang IUPK tahap kegiatan Eksplorasi, pemegang IUP tahap kegiatan Operasi Produksi, pemegang IUPK tahap kegiatan Operasi Produksi, pemegang IUPK sebagai Kelanjutan Operasi Kontrak/Perjanjian, dan pemegang Izin Pengangkutan dan Penjualan wajib menyampaikan Laporan Berkala dalam bentuk laporan triwulan kepada Menteri melalui Direktur Jenderal atau Gubernur sesuai dengan kewenangannya dalam jangka waktu paling lambat 30 (tiga puluh) hari kalender setelah berakhirnya tiap triwulan.
+Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Kewajiban
+Pasal 72
+Pemegang IUJP dalam melaksanakan kegiatan usahanya wajib:
+[...]
+m. memenuhi ketentuan peraturan perundang-undangan di bidang usaha jasa pertambangan.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Peraturan Pemerintah Nomor 96 Tahun 2021@lt614815d4f1925
+Sanksi
+Pasal 185 &gt;&gt;&gt; @lt614815d4f1925
+(1) Pemegang IUP, IUPK, IPR, SIPB, atau IUP untuk Penjualan yang melakukan pelanggaran terhadap ketentuan sebagaimana dimaksud dalam [...] Pasal 178 ayat (1) [...] dikenai sanksi administratif.
+(2) sanksi administratif sebagaimana dimaksud pada ayat (1) benrpa:
+a. peringatan tertulis;
+b. penghentian sernentara sebagian atau seluruh kegiatan Eksplorasi atau Operasi produksi; dan/atau
+c. pencabutan IUP, IUPK, IPR, SIPB, atau IUP untuk Penjualan.
+(3) selain sanksi administratif sebagaimana dimaksud pada ayat (2), pemegang IUP, IUPK, IPR, atau SIPB, yang melakukan pelanggaran terhadap ketentuan sebagaimana dimaksud dalam pasal 51 ayat (2) huruf b dan Pasal 107 ayat (2) huruf b dikenai denda.
+(4) Pengenaan denda sebagaimana dimaksud pada ayat (3) dilaksanakan sesuai dengan ketentuan peraturan perundang-undangan di bidang pajak daerah dan retribusi daerah.
+Pasal 186 &gt;&gt;&gt; @lt614815d4f1925
+Peringatan tertulis sebagaimana dimaksud dalam pasal 185 ayat (2) huruf a diberikan paling banyak 3 (tiga) kali dengan jangka waktu peringatan masing-masing 30 (tiga puluh) hari kalender.
+Peraturan Menteri Energi Dan Sumber Daya Mineral Nomor 10 Tahun 2023@lt650bf408d43bd
+Sanksi
+Pasal 23 &gt;&gt;&gt; @lt650bf408d43bd
+(1) Pemegang IUP, IUPK, IUPK sebagai kelanjutan Operasi Kontrak/Perjanjian, IPR, SIPB, IUJP, atau Izin Pengangkutan dan Penjualan yang tidak mematuhi atau melanggar ketentuan sebagaimana dimaksud dalam Pasal 2 ayat (1), [...], Pasal 14 ayat (1), Pasal 15 ayat (1), ayat (2), [...], ayat (5), ayat (6), ayat (7) atau ayat (8), Pasal 17 ayat (1) atau ayat (2), [...] dikenakan sanksi administratif.
+(2) Sanksi administratif sebagaimana dimaksud pada ayat (1) berupa:
+a. peringatan tertulis;
+b. penghentian sementara sebagian atau seluruh kegiatan usaha; dan/atau
+c. pencabutan izin.
+Pasal 24 &gt;&gt;&gt; @lt650bf408d43bd
+Peringatan tertulis sebagaimana dimaksud dalam Pasal 23 ayat (2) huruf a diberikan oleh Direktur Jenderal atas nama Menteri atau Gubernur sesuai dengan kewenangannya paling banyak 3 (tiga) kali dengan jangka waktu peringatan masing-masing 30 (tiga puluh) hari kalender.
+Pasal 25 &gt;&gt;&gt; @lt650bf408d43bd
+(1) Dalam hal pemegang IUP, IUPK, IUPK sebagai kelanjutan Operasi Kontrak/Perjanjian, IPR, SIPB, IUJP, atau Izin Pengangkutan dan Penjualan yang dikenakan sanksi peringatan tertulis setelah berakhirnya jangka waktu peringatan tertulis sebagaimana dimaksud dalam Pasal 24 belum melaksanakan kewajibannya, dikenakan sanksi administratif berupa penghentian sementara sebagian atau seluruh kegiatan usaha sebagaimana dimaksud dalam Pasal 23 ayat (2) huruf b.
+(2) Sanksi administratif berupa penghentian sementara sebagian atau seluruh kegiatan usaha sebagaimana dimaksud pada ayat (1) diberikan oleh Direktur Jenderal atas nama Menteri atau Gubernur sesuai dengan kewenangannya dalam jangka waktu paling lama 60 (enam puluh) hari kalender sejak jangka waktu peringatan tertulis berakhir.
+Pasal 26 &gt;&gt;&gt; @lt650bf408d43bd
+Sanksi administratif berupa pencabutan izin sebagaimana dimaksud dalam Pasal 23 ayat (2) huruf c diberikan oleh Menteri atau Gubernur sesuai dengan kewenangannya kepada pemegang IUP, IUPK, IUPK sebagai kelanjutan Operasi Kontrak/Perjanjian, IPR, SIPB, IUJP, atau Izin Pengangkutan dan Penjualan, yang tidak melaksanakan kewajiban sampai dengan berakhirnya jangka waktu pengenaan sanksi berupa penghentian sementara sebagian atau seluruh kegiatan usaha sebagaimana dimaksud dalam Pasal 25 ayat (2).
+Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Sanksi
+Pasal 95 
+(1) Pemegang IUP, IUPK, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, IUJP, dan IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, yang tidak mematuhi atau melanggar ketentuan sebagaimana dimaksud dalam [...] Pasal 72 huruf a atau huruf m [...].
+(2) Sanksi administratif sebagaimana dimaksud pada ayat (1) berupa:
+a. peringatan tertulis;
+b. penghentian sementara sebagian atau seluruh kegiatan usaha; dan/atau
+c. pencabutan izin.
+(3) Sanksi administratif sebagaimana dimaksud pada ayat (2) diberikan oleh Direktur Jenderal atas nama Menteri atau gubernur sesuai dengan kewenangannya.</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>5995</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4245</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>menyampaikanlaporanberkalapelaksanaankegiatanusahapertambanganbatubarayangdilakukankepadamenteriesdmataugubernurbagipemegangiup,iupk,ipr,sipb,izinpengangkutandanpenjualan,iujp,atauiupuntukpenjualan</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>periodic</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>1.menyusundanmenyampaikanlaporanberkalakepadamenteriesdmmelaluidirekturjenderalmineraldanbatubaraataugubernursesuaidengankewenangannyabagipemegangiuptahapkegiataneksplorasiataupemegangiupktahapkegiataneksplorasi,yangmeliputi:a.laporanatasrkab;b.laporankualitasairlimbahpertambangan;c.laporanstatistikkecelakaantambangdankejadianberbahaya;d.laporanstatistikpenyakittenagakerja;e.laporanpelaksanaanreklamasidalamrangkapelepasanataupencairanjaminanreklamasi;danf.laporanauditinternalpenerapansistemmanajemenkeselamatanpertambanganmineraldanbatubara,sesuaidenganketentuanperaturanperundang-undangan.2.menyusundanmenyampaikanlaporanberkalakepadamenteriesdmmelaluidirekturjenderalmineraldanbatubaraataugubernursesuaidengankewenangannyabagipemegangiuptahapkegiatanoperasiproduksi,pemegangiupktahapkegiatanoperasiproduksi,ataupemegangiupksebagaikelanjutanoperasikontrak/perjanjian,yangmeliputi:a.laporanatasrkab;b.laporankualitasairlimbahpertambangan;c.laporankonservasi;d.laporanstatistikkecelakaantambangdankejadianberbahaya;e.laporanstatistikpenyakittenagakerja;f.laporanpelaksanaanreklamasidalamrangkapelepasanataupencairanjaminanreklamasi;g.laporanpelaksanaanpascatambangdalamrangkapencairanjaminanpascatambang;danh.laporanauditinternalpenerapansistemmanajemenkeselamatanpertambanganmineraldanbatubara.3.menyusundanmenyampaikanlaporanberkalakepadagubernurbagipemegangipr,yangmeliputi:a.laporanpengelolaandanpemantauanlingkungan;danb.laporanpelaksanaanoperasiproduksi.4.menyusundanmenyampaikanlaporanberkalakepadagubernurbagipemegangsipb,yangmeliputi:a.laporanpengelolaandanpemantauanlingkungan;danb.laporanpelaksanaankegiatanpenambangan.5.menyusundanmenyampaikanlaporanberkalaberupalaporantriwulankepadamenteriesdmmelaluidirekturjenderalmineraldanbatubaraataugubernursesuaidengankewenangannyabagipemegangizinpengangkutandanpenjualan,yangmeliputi:a.laporanrealisasipembelianmineralataubatubara;danb.laporanrealisasipenjualanmineralataubatubara.6.menyusundanmelaporkanlaporanberkalakepadamenteriesdmmelaluidirekturjenderalmineraldanbatubaraataugubernursesuaidengankewenangannyabagipemegangiujp,yangberupalaporanpelaksanaankegiatanusahajasapertambangan.7.menyampaikanlaporanberkaladalambentuklaporanbulananpalinglambat10(sepuluh)harikalendersetelahberakhirnyatiapbulankecualiuntuklaporankualitasairlimbahpertambanganpalinglambat15(limabelas)harikalendersetelahberakhirnyatiapbulan,bagipemegangiuptahapkegiataneksplorasi,pemegangiupktahapkegiataneksplorasi,pemegangiuptahapkegiatanoperasiproduksi,pemegangiupktahapkegiatanoperasiproduksi,ataupemegangiupksebagaikelanjutanoperasikontrak/perjanjian.8.menyampaikanlaporanberkaladalambentuklaporantriwulanpalinglambat30(tigapuluh)harikalendersetelahberakhirnyatiaptriwulan,bagipemegangiuptahapkegiataneksplorasi,pemegangiupktahapkegiataneksplorasi,pemegangiuptahapkegiatanoperasiproduksi,pemegangiupktahapkegiatanoperasiproduksi,pemegangiupksebagaikelanjutanoperasikontrak/perjanjian,ataupemegangizinpengangkutandanpenjualan.</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>peraturanpemerintahnomor96tahun2021kewajibanpasal178&gt;&gt;&gt;(1)pemegangiup,iupk,ipr,sipb,izinpengangkutandanpenjualan,iujp,daniupuntukpenjualanwajibmenyusundanmenyampaikanlaporanpelaksanaankegiatanusahapertambanganyangdilakukankepadamenteri.(2)laporansebagaimanadimaksudpadaayat(1)palingsedikitterdiriatas:a.laporanberkala;[...](3)laporansebagaimanadimaksudpadaayat(2)disampaikansecaratertulisdan/atausecaraelektronik.(4)ketentuanlebihlanjutmengenaitatacarapenyampaianlaporandiaturdalamperaturanmenteri.peraturanmenterienergidansumberdayamineralnomor10tahun2023kewajibanpasal2&gt;&gt;&gt;(1)pemegangiuptahapkegiataneksplorasi,pemegangiupktahapkegiataneksplorasi,pemegangiuptahapkegiatanoperasiproduksi,pemegangiupktahapkegiatanoperasiproduksi,danpemegangiupksebagaikelanjutanoperasikontrak/perjanjianwajib:[...]b.menyampaikanlaporantertulisataspelaksanaanrkabtahapkegiataneksplorasiataupelaksanaanrkabtahapkegiatanoperasiproduksikepadamenteriataugubernursesuaidengankewenangannya.(2)rkabdanlaporansebagaimanadimaksudpadaayat(1)disampaikandalambentukdataelektronik(softcopy)dan/ataumelaluisisteminformasi.pasal14&gt;&gt;&gt;(1)pemegangiuptahapkegiataneksplorasi,pemegangiupktahapkegiataneksplorasi,pemegangiuptahapkegiatanoperasiproduksi,pemegangiupktahapkegiatanoperasiproduksi,pemegangiupksebagaikelanjutanoperasikontrak/perjanjian,pemegangipr,pemegangsipb,pemegangizinpengangkutandanpenjualan,danpemegangiujpwajibmenyusundanmenyampaikanlaporanyangmeliputi:a.laporanberkala;[...](2)laporanberkalasebagaimanadimaksudpadaayat(1)hurufaterdiriataslaporanbulanandan/ataulaporantriwulanan.pasal15&gt;&gt;&gt;(1)pemegangiuptahapkegiataneksplorasiataupemegangiupktahapkegiataneksplorasiwajibmenyusundanmenyampaikanlaporanberkalasebagaimanadimaksuddalampasal14ayat(1)hurufakepadamenterimelaluidirekturjenderalataugubernursesuaidengankewenangannyayangmeliputi:a.laporanatasrkab;b.laporankualitasairlimbahpertambangan;c.laporanstatistikkecelakaantambangdankejadianberbahaya;d.laporanstatistikpenyakittenagakerja;e.laporanpelaksanaanreklamasidalamrangkapelepasanataupencairanjaminanreklamasi;danf.laporanauditinternalpenerapansistemmanajemenkeselamatanpertambanganmineraldanbatubara,sesuaidenganketentuanperaturanperundang-undangan.(2)pemegangiuptahapkegiatanoperasiproduksi,pemegangiupktahapkegiatanoperasiproduksi,ataupemegangiupksebagaikelanjutanoperasikontrak/perjanjianwajibmenyusundanmenyampaikanlaporanberkalasebagaimanadimaksuddalampasal14ayat(1)hurufakepadamenterimelaluidirekturjenderalataugubernursesuaidengankewenangannyayangmeliputi:a.laporanatasrkab;b.laporankualitasairlimbahpertambangan;c.laporankonservasi;d.laporanstatistikkecelakaantambangdankejadianberbahaya;e.laporanstatistikpenyakittenagakerja;f.laporanpelaksanaanreklamasidalamrangkapelepasanataupencairanjaminanreklamasi;g.laporanpelaksanaanpascatambangdalamrangkapencairanjaminanpascatambang;danh.laporanauditinternalpenerapansistemmanajemenkeselamatanpertambanganmineraldanbatubara.[...](5)pemegangiprwajibmenyusundanmenyampaikanlaporanberkalasebagaimanadimaksuddalampasal14ayat(1)hurufakepadagubernuryangmeliputi:a.laporanpengelolaandanpemantauanlingkungan;danb.laporanpelaksanaanoperasiproduksi.(6)pemegangsipbwajibmenyusundanmenyampaikanlaporanberkalasebagaimanadimaksuddalampasal14ayat(1)hurufakepadagubernuryangmeliputi:a.laporanpengelolaandanpemantauanlingkungan;danb.laporanpelaksanaankegiatanpenambangan.(7)pemegangizinpengangkutandanpenjualanwajibmenyusundanmenyampaikanlaporanberkalaberupalaporantriwulansebagaimanadimaksuddalampasal14ayat(1)hurufakepadamenterimelaluidirekturjenderalataugubernursesuaidengankewenangannyayangmeliputi:a.laporanrealisasipembelianmineralataubatubara;danb.laporanrealisasipenjualanmineralataubatubara.(8)pemegangiujpwajibmenyusundanmenyampaikanlaporanberkalasebagaimanadimaksuddalampasal14ayat(1)hurufakepadamenterimelaluidirekturjenderalataugubernursesuaidengankewenangannyayangberupalaporanpelaksanaankegiatanusahajasapertambangan.pasal17&gt;&gt;&gt;(1)pemegangiuptahapkegiataneksplorasi,pemegangiupktahapkegiataneksplorasi,pemegangiuptahapkegiatanoperasiproduksi,pemegangiupktahapkegiatanoperasiproduksi,danpemegangiupksebagaikelanjutanoperasikontrak/perjanjianwajibmenyampaikanlaporanberkaladalambentuklaporanbulanankepadamenterimelaluidirekturjenderaldalamjangkawaktupalinglambat10(sepuluh)harikalendersetelahberakhirnyatiapbulankecualiuntuklaporankualitasairlimbahpertambanganpalinglambat15(limabelas)harikalendersetelahberakhirnyatiapbulan.(2)pemegangiuptahapkegiataneksplorasi,pemegangiupktahapkegiataneksplorasi,pemegangiuptahapkegiatanoperasiproduksi,pemegangiupktahapkegiatanoperasiproduksi,pemegangiupksebagaikelanjutanoperasikontrak/perjanjian,danpemegangizinpengangkutandanpenjualanwajibmenyampaikanlaporanberkaladalambentuklaporantriwulankepadamenterimelaluidirekturjenderalataugubernursesuaidengankewenangannyadalamjangkawaktupalinglambat30(tigapuluh)harikalendersetelahberakhirnyatiaptriwulan.peraturanmenterienergidansumberdayamineralnomor7tahun2020kewajibanpasal72pemegangiujpdalammelaksanakankegiatanusahanyawajib:[...]m.memenuhiketentuanperaturanperundang-undangandibidangusahajasapertambangan.</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>peraturanpemerintahnomor96tahun2021sanksipasal185&gt;&gt;&gt;(1)pemegangiup,iupk,ipr,sipb,atauiupuntukpenjualanyangmelakukanpelanggaranterhadapketentuansebagaimanadimaksuddalam[...]pasal178ayat(1)[...]dikenaisanksiadministratif.(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)benrpa:a.peringatantertulis;b.penghentiansernentarasebagianatauseluruhkegiataneksplorasiatauoperasiproduksi;dan/atauc.pencabutaniup,iupk,ipr,sipb,atauiupuntukpenjualan.(3)selainsanksiadministratifsebagaimanadimaksudpadaayat(2),pemegangiup,iupk,ipr,atausipb,yangmelakukanpelanggaranterhadapketentuansebagaimanadimaksuddalampasal51ayat(2)hurufbdanpasal107ayat(2)hurufbdikenaidenda.(4)pengenaandendasebagaimanadimaksudpadaayat(3)dilaksanakansesuaidenganketentuanperaturanperundang-undangandibidangpajakdaerahdanretribusidaerah.pasal186&gt;&gt;&gt;peringatantertulissebagaimanadimaksuddalampasal185ayat(2)hurufadiberikanpalingbanyak3(tiga)kalidenganjangkawaktuperingatanmasing-masing30(tigapuluh)harikalender.peraturanmenterienergidansumberdayamineralnomor10tahun2023sanksipasal23&gt;&gt;&gt;(1)pemegangiup,iupk,iupksebagaikelanjutanoperasikontrak/perjanjian,ipr,sipb,iujp,atauizinpengangkutandanpenjualanyangtidakmematuhiataumelanggarketentuansebagaimanadimaksuddalampasal2ayat(1),[...],pasal14ayat(1),pasal15ayat(1),ayat(2),[...],ayat(5),ayat(6),ayat(7)atauayat(8),pasal17ayat(1)atauayat(2),[...]dikenakansanksiadministratif.(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)berupa:a.peringatantertulis;b.penghentiansementarasebagianatauseluruhkegiatanusaha;dan/atauc.pencabutanizin.pasal24&gt;&gt;&gt;peringatantertulissebagaimanadimaksuddalampasal23ayat(2)hurufadiberikanolehdirekturjenderalatasnamamenteriataugubernursesuaidengankewenangannyapalingbanyak3(tiga)kalidenganjangkawaktuperingatanmasing-masing30(tigapuluh)harikalender.pasal25&gt;&gt;&gt;(1)dalamhalpemegangiup,iupk,iupksebagaikelanjutanoperasikontrak/perjanjian,ipr,sipb,iujp,atauizinpengangkutandanpenjualanyangdikenakansanksiperingatantertulissetelahberakhirnyajangkawaktuperingatantertulissebagaimanadimaksuddalampasal24belummelaksanakankewajibannya,dikenakansanksiadministratifberupapenghentiansementarasebagianatauseluruhkegiatanusahasebagaimanadimaksuddalampasal23ayat(2)hurufb.(2)sanksiadministratifberupapenghentiansementarasebagianatauseluruhkegiatanusahasebagaimanadimaksudpadaayat(1)diberikanolehdirekturjenderalatasnamamenteriataugubernursesuaidengankewenangannyadalamjangkawaktupalinglama60(enampuluh)harikalendersejakjangkawaktuperingatantertulisberakhir.pasal26&gt;&gt;&gt;sanksiadministratifberupapencabutanizinsebagaimanadimaksuddalampasal23ayat(2)hurufcdiberikanolehmenteriataugubernursesuaidengankewenangannyakepadapemegangiup,iupk,iupksebagaikelanjutanoperasikontrak/perjanjian,ipr,sipb,iujp,atauizinpengangkutandanpenjualan,yangtidakmelaksanakankewajibansampaidenganberakhirnyajangkawaktupengenaansanksiberupapenghentiansementarasebagianatauseluruhkegiatanusahasebagaimanadimaksuddalampasal25ayat(2).peraturanmenterienergidansumberdayamineralnomor7tahun2020sanksipasal95(1)pemegangiup,iupk,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,iujp,daniupoperasiproduksikhususuntukpengangkutandanpenjualan,yangtidakmematuhiataumelanggarketentuansebagaimanadimaksuddalam[...]pasal72hurufaatauhurufm[...].(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)berupa:a.peringatantertulis;b.penghentiansementarasebagianatauseluruhkegiatanusaha;dan/atauc.pencabutanizin.(3)sanksiadministratifsebagaimanadimaksudpadaayat(2)diberikanolehdirekturjenderalatasnamamenteriataugubernursesuaidengankewenangannya.</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>a0a58854d122b5159133b48641aac75e0b71e06370961747a6fccd8599c0fea9</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Pertambangan Batubara&gt;Pelaksanaan Kegiatan Usaha Pertambangan Batubara</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Memperoleh Perizinan Berusaha Untuk Menunjang Kegiatan Usaha pada subsektor batubara berupa persetujuan konsultasi dan/atau perencanaan pada usaha jasa pertambangan untuk Aktivitas Keinsinyuran dan Konsultasi Teknis Ybdi</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Licensing</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1. Memenuhi persyaratan Administratif/Persyaratan Umum berupa Surat permohonan yang sudah ditandatangani direksi, bermaterai, dan distempel basah (cap badan usaha asli).
+2. Memenuhi persyaratan Administratif/Persyaratan Umum berupa Profil badan usaha yang berisi: a. Nama badan usaha; b. Alamat badan usaha; c. Data kontak resmi badan usaha pemohon meliputi: nomor telepon; nomor telepon seluler; alamat surat elektronik (e-mail). d. Status permodalan (Dalam negeri/Asing); e. Badan usaha pertambangan dan/atau jasa pertambangan yang masih dalam satu grup.
+3. Memenuhi persyaratan Administratif/Persyaratan Umum berupa Akta pendirian badan usaha dan perubahannya yang telah mendapatkan pengesahan dari instansi yang berwenang, dengan ketentuan: a. Akta yang bergerak di bidang usaha dengan kode KBLI 71102 atau 09900; b. Dapat digabung dengan bidang usaha lainnya, namun tidak dapat digabung dengan: - Pertambangan mineral/batubara, Kode KBLI: 05101, 07xxx,08xxx; - Perdagangan mineral/batubara, Kode KBLI: 46610, 46620, 46634, 46641, atau kode lain yang terkait perdagangan mineral/barubara.
+4. Memenuhi persyaratan Administratif/Persyaratan Umum berupa Nomor Induk Berusaha (NIB) dengan kode KBLI: 71102 atau 09900.
+5. Memenuhi persyaratan Administratif/Persyaratan Umum berupa Nomor Pokok Wajib Pajak (NPWP) badan usaha.
+6. Memenuhi persyaratan Administratif/Persyaratan Umum berupa daftar susunan direksi dan komisaris atau pengurus yang dilengkapi dengan identitas (KTP/Pasport) dan nomor NPWP/Tax ID Direksi dan Komisaris.
+7. Memenuhi persyaratan Administratif/Persyaratan Umum berupa daftar pemegang saham sampai dengan perseorangan penerima manfaat akhir (Beneficial Ownership) yang dilengkapi jumlah/persentase saham dan NPWP/Tax ID.
+8. Memenuhi persyaratan Administratif/Persyaratan Umum berupa surat pernyataan tertulis di atas materai dan distempel basah (cap perusahaan asli) yang menyatakan bahwa seluruh keterangan yang dilampirkan pada surat permohonan adalah benar.
+9. Memenuhi persyaratan Administratif/Persyaratan Umum berupa informasi Ketenagakerjaan meliputi: kantor pusat dan/atau kantor cabang.
+10. Memenuhi Persyaratan Teknis yang meliputi Daftar Tenaga Ahli, dalam bentuk tabel yang meliputi: a. Nama tenaga ahli; b. Keahlian yang dibuktikan dengan sertifikat kompetensi atau sertifikat pelatihan; c. KTP/IMTA; d. Ijazah; e. Curriculum vitae; f. Surat pernyataan tenaga ahli yang ditandatangani oleh tenaga ahli yang bersangkutan di atas materai, yang menyatakan bahwa tenaga ahli yang bersangkutan adalah benar sebagai tenaga ahli pada badan usaha pemohon.
+11. Mengajukan permohonan izin melalui Sistem Perizinan Berusaha Terintegrasi secara Elektronik (Online Single Submission/OSS), dan tidak hadir secara tatap muka di lingkungan Direktorat Jenderal Mineral dan Batubara kecuali terdapat kepentingan yang mendesak.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Peraturan Pemerintah Nomor 5 Tahun 2021@lt6032548acffe0
+Kewajiban
+Pasal 23  &gt;&gt;&gt; @lt6032548acffe0
+[...]
+(2) Pelaku Usaha harus mematuhi persyaratan dan/atau kewajiban Perizinan Berusaha sebagaimana tercantum dalam Lampiran II.
+Pasal 41  &gt;&gt;&gt; @lt6032548acffe0
+(1) Perizinan Berusaha sektor energi dan sumber daya mineral terdiri atas subsektor:
+[...]
+c. mineral dan batubara; dan
+[…]
+(4) Perizinan Berusaha pada subsektor mineral dan batubara sebagaimana dimaksud pada ayat (1) huruf c yang ditetapkan berdasarkan hasil analisis Risiko kegiatan usaha terdiri atas:
+a. pertambangan;
+b. pertambangan khusus;
+c. pertambangan khusus sebagai kelanjutan operasi kontrak/perjanjian;
+d. pertambangan rakyat;
+e. penambangan batuan;
+f. pengangkutan dan penjualan;
+g. jasa pertambangan; dan
+h. pertambangan untuk penjualan.
+[…]
+Pasal 42  &gt;&gt;&gt; @lt6032548acffe0
+[…]
+(3) Perizinan Berusaha Untuk Menunjang Kegiatan Usaha pada subsektor mineral dan batubara sebagaimana dimaksud dalam Pasal 41 ayat (1) huruf c meliputi:
+[...]
+b. persetujuan konsultasi dan/atau perencanaan pada usaha jasa pertambangan;
+[…]
+Pasal 43  &gt;&gt;&gt; @lt6032548acffe0
+(1) Kode KBLI/KBLI terkait, judul KBLI, ruang lingkup kegiatan, parameter Risiko, tingkat Risiko, Perizinan Berusaha, jangka waktu, masa berlaku, dan kewenangan Perizinan Berusaha sebagaimana dimaksud dalam Pasal 41 dan Perizinan Berusaha Untuk Menunjang Kegiatan Usaha sebagaimana dimaksud dalam Pasal 42 tercantum dalam Lampiran I.
+(2) Persyaratan dan/atau kewajiban Perizinan Berusaha pada sektor energi dan sumber daya mineral yang ditetapkan berdasarkan hasil analisis Risiko kegiatan usaha sebagaimana dimaksud dalam Pasal 41 dan Perizinan Berusaha Untuk Menunjang Kegiatan Usaha sebagaimana dimaksud dalam Pasal 42 tercantum dalam Lampiran II.
+LAMPIRAN I  &gt;&gt;&gt; @lt6032548acffe0
+B. PERIZINAN BERUSAHA UNTUK MENUNJANG KEGIATAN BERUSAHA SEKTOR ENERGI DAN SUMBER DAYA MINERAL
+[...]
+No.: 30
+Perizinan Berusaha: Konsultasi dan/atau Perencanaan pada Usaha Jasa Pertambangan
+Kode KBLI Terkait: 71102
+Jangka Waktu: 14 Hari
+Masa Berlaku: Paling lama 5 tahun dan dapat diperpanjang
+Kewenangan Pemerintah - Parameter: Seluruh
+Kewenangan Pemerintah  - Pusat/Provinsi/Kabupaten/Kota: Menteri
+LAMPIRAN II  &gt;&gt;&gt; @lt6032548acffe0
+B. DAFTAR PERSYARATAN DAN/ATAU KEWAJIBAN PERIZINAN BERUSAHA UNTUK MENUNJANG KEGIATAN USAHA (NON-KBLI) SEKTOR ENERGI DAN SUMBER DAYA MINERAL
+[...]
+No.: 34
+Jenis Perizinan: Konsultasi dan/atau Perencanaan pada Usaha Jasa Pertambangan
+KBLI Terkait - Kode KBLI: 71102
+KBLI Terkait - Judul KBLI: Aktivitas Keinsinyuran dan Konsultasi Teknis Ybdi
+Persyaratan - Rincian:
+Persyaratan Administratif/Persyaratan Umum:
+1. Surat permohonan yang sudah ditandatangani direksi, bermaterai, dan distempel basah (cap badan usaha asli)
+2. Profil badan usaha yang berisi:
+a. Nama badan usaha;
+b. Alamat badan usaha;
+c. Data kontak resmi badan usaha pemohon meliputi: nomor telepon; nomor telepon seluler; alamat surat elektronik (e-mail).
+d. Status permodalan (Dalam negeri/Asing);
+e. Badan usaha pertambangan dan/atau jasa pertambangan yang masih dalam satu grup.
+3. Akta pendirian badan usaha dan perubahannya yang telah mendapatkan pengesahan dari instansi yang berwenang; Dengan ketentuan:
+a. Akta yang bergerak di bidang usaha dengan kode KBLI: 71102 atau 09900;
+b. Dapat digabung dengan bidang usaha lainnya, namun tidak dapat digabung dengan:
+- Pertambangan mineral/batubara, Kode KBLI: 05101, 07xxx, 08xxx;
+- Perdagangan mineral/batubara, Kode KBLI: 46610, 46620, 46634, 46641, atau kode lain yang terkait perdagangan mineral/barubara.
+4. Nomor Induk Berusaha (NIB) dengan kode KBLI: 71102 atau 09900;
+5. Nomor Pokok Wajib Pajak (NPWP) badan usaha;
+6. Daftar susunan direksi dan komisaris atau pengurus yang dilengkapi dengan identitas (KTP/Pasport) dan nomor NPWP/Tax ID;
+a. KTP/Paspor dan NPWP/Tax ID Direksi;
+b. KTP/Paspor dan NPWP/Tax ID Komisaris;
+7. Daftar pemegang saham sampai dengan perseorangan penerima manfaat akhir (Beneficial Ownership) yang dilengkapi jumlah/persentase saham dan NPWP/Tax ID;
+8. Surat pernyataan tertulis di atas materai dan distempel basah (cap perusahaan asli) yang menyatakan bahwa seluruh keterangan yang dilampirkan pada surat permohonan adalah benar;
+9. Ketenagakerjaan meliputi: kantor pusat dan/atau kantor cabang.
+Persyaratan Teknis:
+1. Daftar Tenaga Ahli, dalam bentuk tabel yang meliputi:
+a. Nama tenaga ahli;
+b. Keahlian yang dibuktikan dengan sertifikat kompetensi atau sertifikat pelatihan;
+c. KTP/IMTA;
+d. Ijazah;
+e. Curriculum vitae;
+f. Surat pernyataan tenaga ahli yang ditandatangani oleh tenaga ahli yang bersangkutan di atas materai, yang menyatakan bahwa tenaga ahli yang bersangkutan adalah benar sebagai tenaga ahli pada badan usaha pemohon.
+Persyaratan - Jangka Waktu Pemenuhan: 14 Hari
+[...]
+Keputusan Menteri Energi Dan Sumber Daya Mineral Nomor 33.K/MB.01/MEM.B/2023 Tahun 2023@lt63fc51c94b035
+Kewajiban
+###KESATU: &gt;&gt;&gt; @lt63fc51c94b035
+Pelayanan perizinan subsektor mineral dan batubara yang menjadi kewenangan dari Pemerintah Pusat dilaksanakan melalui Sistem Perizinan Berusaha Terintegrasi secara Elektronik (Online Single Submission) yang dapat diakses pada laman https://oss.go.id/.
+###KEDUA: &gt;&gt;&gt; @lt63fc51c94b035
+Pelayanan pemberian persetujuan subsektor mineral dan batubara yang meliputi:
+[...]
+c. persetujuan lainnya sesuai dengan ketentuan peraturan perundang-undangan,
+dilaksanakan melalui:
+[...]
+b. aplikasi Perizinan Usaha dan Operasional Sektor ESDM yang dapat diakses pada laman https://perizinan.esdm.go.id/minerba;
+c. pengiriman surat elektronik (e-mail) ke alamat surat elektronik (e-mail) resmi Direktorat Jenderal Mineral dan Batubara djmb@esdm.go.id; dan/atau
+d. aplikasi lainnya yang terdapat di Direktorat Jenderal Mineral dan Batubara sepanjang telah tersedia.
+###KETIGA: &gt;&gt;&gt; @lt63fc51c94b035
+Dalam mendukung pelaksanaan pelayanan perizinan dan pemberian persetujuan subsektor mineral dan batubara sebagaimana dimaksud dalam Diktum KESATU dan Diktum KEDUA, Direktorat Jenderal Mineral dan batubara menyediakan pelayanan informasi dan perizinan melalui nomor telepon hotline, sebagai berikut:
+a. pelayanan informasi terkait IUP/IUPK/Izin Pengangkutan dan Penjualan, RKAB, Studi Kelayakan, Perubahan Pemegang Saham, dan Minerba Online Monitoring System/MOMS, pada nomor telepon (021) 8311-671;
+b. pelayanan informasi terkait Jaminan Reklamasi, Jaminan Pascatambang, Izin Usaha Jasa Pertambangan, Kepala Teknik Tambang, Pemasangan Tanda Batas WIUP/WIUPK, dan Rencana Kerja Perluasan WIUP/WIUPK, pada nomor telepon (021) 8311-669; dan
+[...]
+dengan waktu pelayanan sebagai berikut:
+a. untuk hari Senin s.d. Kamis pada pukul 08.00 s.d. 16.00 WIB (istirahat pukul 12.00 s.d. 13.00 WIB); dan
+b. untuk hari Jumat pada pukul 08.00 s.d. 16.30 WIB (istirahat pukul 11.30 s.d. 13.00 WIB).
+###KEEMPAT: &gt;&gt;&gt; @lt63fc51c94b035
+Pelayanan perizinan dan pemberian persetujuan subsektor mineral dan batubara serta pelayanan informasi sebagaimana dimaksud dalam Diktum KESATU sampai dengan Diktum KETIGA wajib dilaksanakan melalui saluran yang telah ada dan dilarang melakukan tatap muka ke lingkungan Direktorat Jenderal Mineral dan Batubara.
+###KELIMA: &gt;&gt;&gt; @lt63fc51c94b035
+Dalam hal terdapat kepentingan yang sangat mendesak dan memerlukan kehadiran tatap muka ke lingkungan Direktorat Jenderal Mineral dan Batubara, kehadiran tatap muka hanya dapat dilakukan oleh pimpinan Badan Usaha/Koperasi/Perusahaan Perseorangan (setingkat direktur) dengan ketentuan:
+a. melakukan pendaftaran terlebih dahulu pada saluran yang disediakan Direktorat Jenderal Mineral dan Batubara untuk mendapatkan jadwal kehadiran tatap muka;
+b. membawa identitas diri dan dokumen/tanda pengenal yang menunjukkan sebagai pimpinan dari Badan Usaha/Koperasi/Perusahaan Perseorangan pada saat kehadiran tatap muka sesuai dengan jadwal yang ditetapkan;
+c. diterima oleh Pejabat Pimpinan Tinggi Pratama di lingkungan Direktorat Jenderal Mineral dan Batubara; dan
+d. apabila pada jadwal kehadiran tatap muka yang telah ditetapkan Pejabat Pimpinan Tinggi Pratama mendapatkan penugasan lain yang tidak dapat ditinggalkan, kehadiran tatap muka dapat diterima oleh minimal setingkat Pejabat Administrator.
+Sehubungan dengan pelaksanaan pelayanan perizinan subsektor mineral dan batubara pada Direktorat Jenderal Mineral dan Batubara, bersama ini kami sampaikan hal-hal sebagai berikut:
+###1. Pelayanan perizinan subsektor mineral dan batubara yang menjadi kewenangan dari Pemerintah Pusat dilaksanakan melalui Sistem Perizinan Berusaha Terintegrasi secara Elektronik (Online Single Submission) yang dapat diakses pada laman https://oss.go.id/.
+Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Kewajiban
+Pasal 72
+Pemegang IUJP dalam melaksanakan kegiatan usahanya wajib:
+[...]
+m. memenuhi ketentuan peraturan perundang-undangan di bidang usaha jasa pertambangan.
+Surat Edaran Menteri Energi Dan Sumber Daya Mineral Nomor 1.E/MB.01/MEM.B/2023 Tahun 2023@lt63fc5a4a75cbb
+Kewajiban
+###2. Pelayanan pemberian persetujuan subsektor mineral dan batubara yang meliput: &gt;&gt;&gt; @lt63fc5a4a75cbb
+[...]
+c. persetujuan lainnya sesuai dengan ketentuan peraturan perundang-undangan,
+dilaksanakan melalui:
+[...]
+b. aplikasi Perizinan Usaha dan Operasional Sektor ESDM yang dapat diakses pada laman https://perizinan.esdm.go.id/minerba;
+c. pengiriman surat elektronik (e-mail) ke alamat surat elektronik (e-mail) resmi Direktorat Jenderal Mineral dan Batubara djmb@esdm.go.id; dan/atau
+d. aplikasi lainnya yang terdapat di Direktorat Jenderal Mineral dan Batubara sepanjang telah tersedia.
+###3. Dalam mendukung pelaksanaan pelayanan perizinan dan pemberian persetujuan subsektor mineral dan batubara sebagaimana dimaksud dalam Diktum KESATU dan Diktum KEDUA, Direktorat Jenderal Mineral dan Batubara menyediakan pelayanan informasi dan perizinan melalui nomor telepon hotline, sebagai berikut: &gt;&gt;&gt; @lt63fc5a4a75cbb
+a. pelayanan informasi terkait IUP/IUPK/Izin Pengangkutan dan Penjualan, RKAB, Studi Kelayakan, Perubahan Pemegang Saham, dan Minerba Online Monitoring System/MOMS, pada nomor telepon (021) 8311-671;
+b. pelayanan informasi terkait Jaminan Reklamasi, Jaminan Pascatambang, Izin Usaha Jasa Pertambangan, Kepala Teknik Tambang, Pemasangan Tanda Batas WIUP/WIUPK, dan Rencana Kerja Perluasan WIUP/WIUPK, pada nomor telepon (021) 8311-669; dan
+[...]
+dengan waktu pelayanan sebagai berikut:
+a. untuk hari Senin s.d. Kamis pada pukul 08.00 s.d. 16.00 WIB (istirahat pukul 12.00 s.d. 13.00 WIB); dan
+b. untuk hari Jum’at pada pukul 08.00 s.d. 16.30 WIB (istirahat pukul 11.30 s.d. 13.00 WIB).
+Berkenaan dengan hal tersebut bersama ini disampaikan hal-hal sebagai berikut:
+###1. segala pengurusan perizinan, permohonan persetujuan dan permohonan informasi melalui saluran sebagaimana dimaksud pada angka 1, angka 2, dan angka 3 tersebut di atas agar dilaksanakan melalui saluran yang telah ada dan tidak diperkenankan melakukan tatap muka ke lingkungan Direktorat Jenderal Mineral dan Batubara;
+###2. dalam hal terdapat kepentingan yang sangat mendesak dan memerlukan kehadiran tatap muka ke lingkungan Direktorat Jenderal Mineral dan Batubara, hanya dapat dilakukan oleh pimpinan Badan Usaha/Koperasi/Perusahaan Perseorangan minimal setingkat Direktur dengan membawa dokumen/tanda pengenal yang menunjukkan sebagai pimpinan dari Badan Usaha/Koperasi/Perusahaan Perseorangan. &gt;&gt;&gt; @lt63fc5a4a75cbb</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Peraturan Pemerintah Nomor 5 Tahun 2021@lt6032548acffe0
+Sanksi
+Pasal 383  &gt;&gt;&gt; @lt6032548acffe0
+(1) Pemegang Perizinan Berusaha yang ditetapkan berdasarkan hasil analisis Risiko kegiatan usaha dan/atau Perizinan Berusaha Untuk Menunjang Kegiatan Usaha pada sektor mineral dan batubara yang tidak memenuhi kewajiban dan/atau persyaratan Perizinan Berusaha, dapat diberikan sanksi administratif oleh menteri yang menyelenggarakan urusan pemerintahan di bidang energi dan sumber daya mineral sesuai dengan ketentuan peraturan perundang-undangan.
+(2) Sanksi administratif sebagaimana dimaksud pada ayat (1) berupa:
+a. peringatan tertulis;
+b. penghentian sementara sebagian atau seluruh kegiatan Perizinan Berusaha; dan/atau
+c. pencabutan Perizinan Berusaha.
+(3) Sanksi administratif berupa peringatan tertulis sebagaimana dimaksud pada ayat (2) huruf a diberikan paling banyak 3 (tiga) kali dengan jangka waktu peringatan masing-masing 30 (tiga puluh) Hari.
+(4) Dalam hal Pelaku Usaha yang telah mendapatkan sanksi administratif berupa peringatan tertulis sebagaimana dimaksud pada ayat (3) belum melakukan kewajibannya sampai dengan berakhirnya sanksi administratif berupa peringatan tertulis yang ketiga, dikenai sanksi administratif berupa penghentian sementara sebagian atau seluruh kegiatan sebagaimana dimaksud pada ayat (2) huruf b.
+(5) Dalam hal Pelaku Usaha yang telah mendapatkan sanksi administratif berupa penghentian sementara sebagian atau seluruh kegiatan sebagaimana dimaksud pada ayat (2) huruf b, belum melakukan kewajibannya sampai dengan berakhirnya jangka waktu pemberian sanksi administratif berupa penghentian sementara sebagian atau seluruh kegiatan, dikenai sanksi administratif berupa pencabutan Perizinan Berusaha sebagaimana dimaksud pada ayat (2) huruf c.
+Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Sanksi
+Pasal 95 
+(1) Pemegang IUP, IUPK, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, IUJP, dan IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, yang tidak mematuhi atau melanggar ketentuan sebagaimana dimaksud dalam [...] Pasal 72 huruf a atau huruf m [...].
+(2) Sanksi administratif sebagaimana dimaksud pada ayat (1) berupa:
+a. peringatan tertulis;
+b. penghentian sementara sebagian atau seluruh kegiatan usaha; dan/atau
+c. pencabutan izin.
+(3) Sanksi administratif sebagaimana dimaksud pada ayat (2) diberikan oleh Direktur Jenderal atas nama Menteri atau gubernur sesuai dengan kewenangannya.</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>11393</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2497</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>memperolehperizinanberusahauntukmenunjangkegiatanusahapadasubsektorbatubaraberupapersetujuankonsultasidan/atauperencanaanpadausahajasapertambanganuntukaktivitaskeinsinyurandankonsultasiteknisybdi</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>licensing</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>1.memenuhipersyaratanadministratif/persyaratanumumberupasuratpermohonanyangsudahditandatanganidireksi,bermaterai,dandistempelbasah(capbadanusahaasli).2.memenuhipersyaratanadministratif/persyaratanumumberupaprofilbadanusahayangberisi:a.namabadanusaha;b.alamatbadanusaha;c.datakontakresmibadanusahapemohonmeliputi:nomortelepon;nomorteleponseluler;alamatsuratelektronik(e-mail).d.statuspermodalan(dalamnegeri/asing);e.badanusahapertambangandan/ataujasapertambanganyangmasihdalamsatugrup.3.memenuhipersyaratanadministratif/persyaratanumumberupaaktapendirianbadanusahadanperubahannyayangtelahmendapatkanpengesahandariinstansiyangberwenang,denganketentuan:a.aktayangbergerakdibidangusahadengankodekbli71102atau09900;b.dapatdigabungdenganbidangusahalainnya,namuntidakdapatdigabungdengan:-pertambanganmineral/batubara,kodekbli:05101,07xxx,08xxx;-perdaganganmineral/batubara,kodekbli:46610,46620,46634,46641,ataukodelainyangterkaitperdaganganmineral/barubara.4.memenuhipersyaratanadministratif/persyaratanumumberupanomorindukberusaha(nib)dengankodekbli:71102atau09900.5.memenuhipersyaratanadministratif/persyaratanumumberupanomorpokokwajibpajak(npwp)badanusaha.6.memenuhipersyaratanadministratif/persyaratanumumberupadaftarsusunandireksidankomisarisataupengurusyangdilengkapidenganidentitas(ktp/pasport)dannomornpwp/taxiddireksidankomisaris.7.memenuhipersyaratanadministratif/persyaratanumumberupadaftarpemegangsahamsampaidenganperseoranganpenerimamanfaatakhir(beneficialownership)yangdilengkapijumlah/persentasesahamdannpwp/taxid.8.memenuhipersyaratanadministratif/persyaratanumumberupasuratpernyataantertulisdiatasmateraidandistempelbasah(capperusahaanasli)yangmenyatakanbahwaseluruhketeranganyangdilampirkanpadasuratpermohonanadalahbenar.9.memenuhipersyaratanadministratif/persyaratanumumberupainformasiketenagakerjaanmeliputi:kantorpusatdan/ataukantorcabang.10.memenuhipersyaratanteknisyangmeliputidaftartenagaahli,dalambentuktabelyangmeliputi:a.namatenagaahli;b.keahlianyangdibuktikandengansertifikatkompetensiatausertifikatpelatihan;c.ktp/imta;d.ijazah;e.curriculumvitae;f.suratpernyataantenagaahliyangditandatanganiolehtenagaahliyangbersangkutandiatasmaterai,yangmenyatakanbahwatenagaahliyangbersangkutanadalahbenarsebagaitenagaahlipadabadanusahapemohon.11.mengajukanpermohonanizinmelaluisistemperizinanberusahaterintegrasisecaraelektronik(onlinesinglesubmission/oss),dantidakhadirsecaratatapmukadilingkungandirektoratjenderalmineraldanbatubarakecualiterdapatkepentinganyangmendesak.</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>peraturanpemerintahnomor5tahun2021kewajibanpasal23&gt;&gt;&gt;[...](2)pelakuusahaharusmematuhipersyaratandan/ataukewajibanperizinanberusahasebagaimanatercantumdalamlampiranii.pasal41&gt;&gt;&gt;(1)perizinanberusahasektorenergidansumberdayamineralterdiriatassubsektor:[...]c.mineraldanbatubara;dan[…](4)perizinanberusahapadasubsektormineraldanbatubarasebagaimanadimaksudpadaayat(1)hurufcyangditetapkanberdasarkanhasilanalisisrisikokegiatanusahaterdiriatas:a.pertambangan;b.pertambangankhusus;c.pertambangankhusussebagaikelanjutanoperasikontrak/perjanjian;d.pertambanganrakyat;e.penambanganbatuan;f.pengangkutandanpenjualan;g.jasapertambangan;danh.pertambanganuntukpenjualan.[…]pasal42&gt;&gt;&gt;[…](3)perizinanberusahauntukmenunjangkegiatanusahapadasubsektormineraldanbatubarasebagaimanadimaksuddalampasal41ayat(1)hurufcmeliputi:[...]b.persetujuankonsultasidan/atauperencanaanpadausahajasapertambangan;[…]pasal43&gt;&gt;&gt;(1)kodekbli/kbliterkait,judulkbli,ruanglingkupkegiatan,parameterrisiko,tingkatrisiko,perizinanberusaha,jangkawaktu,masaberlaku,dankewenanganperizinanberusahasebagaimanadimaksuddalampasal41danperizinanberusahauntukmenunjangkegiatanusahasebagaimanadimaksuddalampasal42tercantumdalamlampirani.(2)persyaratandan/ataukewajibanperizinanberusahapadasektorenergidansumberdayamineralyangditetapkanberdasarkanhasilanalisisrisikokegiatanusahasebagaimanadimaksuddalampasal41danperizinanberusahauntukmenunjangkegiatanusahasebagaimanadimaksuddalampasal42tercantumdalamlampiranii.lampirani&gt;&gt;&gt;b.perizinanberusahauntukmenunjangkegiatanberusahasektorenergidansumberdayamineral[...]no.:30perizinanberusaha:konsultasidan/atauperencanaanpadausahajasapertambangankodekbliterkait:71102jangkawaktu:14harimasaberlaku:palinglama5tahundandapatdiperpanjangkewenanganpemerintah-parameter:seluruhkewenanganpemerintah-pusat/provinsi/kabupaten/kota:menterilampiranii&gt;&gt;&gt;b.daftarpersyaratandan/ataukewajibanperizinanberusahauntukmenunjangkegiatanusaha(non-kbli)sektorenergidansumberdayamineral[...]no.:34jenisperizinan:konsultasidan/atauperencanaanpadausahajasapertambangankbliterkait-kodekbli:71102kbliterkait-judulkbli:aktivitaskeinsinyurandankonsultasiteknisybdipersyaratan-rincian:persyaratanadministratif/persyaratanumum:1.suratpermohonanyangsudahditandatanganidireksi,bermaterai,dandistempelbasah(capbadanusahaasli)2.profilbadanusahayangberisi:a.namabadanusaha;b.alamatbadanusaha;c.datakontakresmibadanusahapemohonmeliputi:nomortelepon;nomorteleponseluler;alamatsuratelektronik(e-mail).d.statuspermodalan(dalamnegeri/asing);e.badanusahapertambangandan/ataujasapertambanganyangmasihdalamsatugrup.3.aktapendirianbadanusahadanperubahannyayangtelahmendapatkanpengesahandariinstansiyangberwenang;denganketentuan:a.aktayangbergerakdibidangusahadengankodekbli:71102atau09900;b.dapatdigabungdenganbidangusahalainnya,namuntidakdapatdigabungdengan:-pertambanganmineral/batubara,kodekbli:05101,07xxx,08xxx;-perdaganganmineral/batubara,kodekbli:46610,46620,46634,46641,ataukodelainyangterkaitperdaganganmineral/barubara.4.nomorindukberusaha(nib)dengankodekbli:71102atau09900;5.nomorpokokwajibpajak(npwp)badanusaha;6.daftarsusunandireksidankomisarisataupengurusyangdilengkapidenganidentitas(ktp/pasport)dannomornpwp/taxid;a.ktp/paspordannpwp/taxiddireksi;b.ktp/paspordannpwp/taxidkomisaris;7.daftarpemegangsahamsampaidenganperseoranganpenerimamanfaatakhir(beneficialownership)yangdilengkapijumlah/persentasesahamdannpwp/taxid;8.suratpernyataantertulisdiatasmateraidandistempelbasah(capperusahaanasli)yangmenyatakanbahwaseluruhketeranganyangdilampirkanpadasuratpermohonanadalahbenar;9.ketenagakerjaanmeliputi:kantorpusatdan/ataukantorcabang.persyaratanteknis:1.daftartenagaahli,dalambentuktabelyangmeliputi:a.namatenagaahli;b.keahlianyangdibuktikandengansertifikatkompetensiatausertifikatpelatihan;c.ktp/imta;d.ijazah;e.curriculumvitae;f.suratpernyataantenagaahliyangditandatanganiolehtenagaahliyangbersangkutandiatasmaterai,yangmenyatakanbahwatenagaahliyangbersangkutanadalahbenarsebagaitenagaahlipadabadanusahapemohon.persyaratan-jangkawaktupemenuhan:14hari[...]keputusanmenterienergidansumberdayamineralnomor33.k/mb.01/mem.b/2023tahun2023kewajiban###kesatu:&gt;&gt;&gt;pelayananperizinansubsektormineraldanbatubarayangmenjadikewenangandaripemerintahpusatdilaksanakanmelaluisistemperizinanberusahaterintegrasisecaraelektronik(onlinesinglesubmission)yangdapatdiaksespadalamanhttps://oss.go.id/.###kedua:&gt;&gt;&gt;pelayananpemberianpersetujuansubsektormineraldanbatubarayangmeliputi:[...]c.persetujuanlainnyasesuaidenganketentuanperaturanperundang-undangan,dilaksanakanmelalui:[...]b.aplikasiperizinanusahadanoperasionalsektoresdmyangdapatdiaksespadalamanhttps://perizinan.esdm.go.id/minerba;c.pengirimansuratelektronik(e-mail)kealamatsuratelektronik(e-mail)resmidirektoratjenderalmineraldanbatubaradjmb@esdm.go.id;dan/ataud.aplikasilainnyayangterdapatdidirektoratjenderalmineraldanbatubarasepanjangtelahtersedia.###ketiga:&gt;&gt;&gt;dalammendukungpelaksanaanpelayananperizinandanpemberianpersetujuansubsektormineraldanbatubarasebagaimanadimaksuddalamdiktumkesatudandiktumkedua,direktoratjenderalmineraldanbatubaramenyediakanpelayananinformasidanperizinanmelaluinomorteleponhotline,sebagaiberikut:a.pelayananinformasiterkaitiup/iupk/izinpengangkutandanpenjualan,rkab,studikelayakan,perubahanpemegangsaham,danminerbaonlinemonitoringsystem/moms,padanomortelepon(021)8311-671;b.pelayananinformasiterkaitjaminanreklamasi,jaminanpascatambang,izinusahajasapertambangan,kepalatekniktambang,pemasangantandabataswiup/wiupk,danrencanakerjaperluasanwiup/wiupk,padanomortelepon(021)8311-669;dan[...]denganwaktupelayanansebagaiberikut:a.untukharisenins.d.kamispadapukul08.00s.d.16.00wib(istirahatpukul12.00s.d.13.00wib);danb.untukharijumatpadapukul08.00s.d.16.30wib(istirahatpukul11.30s.d.13.00wib).###keempat:&gt;&gt;&gt;pelayananperizinandanpemberianpersetujuansubsektormineraldanbatubarasertapelayananinformasisebagaimanadimaksuddalamdiktumkesatusampaidengandiktumketigawajibdilaksanakanmelaluisaluranyangtelahadadandilarangmelakukantatapmukakelingkungandirektoratjenderalmineraldanbatubara.###kelima:&gt;&gt;&gt;dalamhalterdapatkepentinganyangsangatmendesakdanmemerlukankehadirantatapmukakelingkungandirektoratjenderalmineraldanbatubara,kehadirantatapmukahanyadapatdilakukanolehpimpinanbadanusaha/koperasi/perusahaanperseorangan(setingkatdirektur)denganketentuan:a.melakukanpendaftaranterlebihdahulupadasaluranyangdisediakandirektoratjenderalmineraldanbatubarauntukmendapatkanjadwalkehadirantatapmuka;b.membawaidentitasdiridandokumen/tandapengenalyangmenunjukkansebagaipimpinandaribadanusaha/koperasi/perusahaanperseoranganpadasaatkehadirantatapmukasesuaidenganjadwalyangditetapkan;c.diterimaolehpejabatpimpinantinggipratamadilingkungandirektoratjenderalmineraldanbatubara;dand.apabilapadajadwalkehadirantatapmukayangtelahditetapkanpejabatpimpinantinggipratamamendapatkanpenugasanlainyangtidakdapatditinggalkan,kehadirantatapmukadapatditerimaolehminimalsetingkatpejabatadministrator.sehubungandenganpelaksanaanpelayananperizinansubsektormineraldanbatubarapadadirektoratjenderalmineraldanbatubara,bersamainikamisampaikanhal-halsebagaiberikut:###1.pelayananperizinansubsektormineraldanbatubarayangmenjadikewenangandaripemerintahpusatdilaksanakanmelaluisistemperizinanberusahaterintegrasisecaraelektronik(onlinesinglesubmission)yangdapatdiaksespadalamanhttps://oss.go.id/.peraturanmenterienergidansumberdayamineralnomor7tahun2020kewajibanpasal72pemegangiujpdalammelaksanakankegiatanusahanyawajib:[...]m.memenuhiketentuanperaturanperundang-undangandibidangusahajasapertambangan.suratedaranmenterienergidansumberdayamineralnomor1.e/mb.01/mem.b/2023tahun2023kewajiban###2.pelayananpemberianpersetujuansubsektormineraldanbatubarayangmeliput:&gt;&gt;&gt;[...]c.persetujuanlainnyasesuaidenganketentuanperaturanperundang-undangan,dilaksanakanmelalui:[...]b.aplikasiperizinanusahadanoperasionalsektoresdmyangdapatdiaksespadalamanhttps://perizinan.esdm.go.id/minerba;c.pengirimansuratelektronik(e-mail)kealamatsuratelektronik(e-mail)resmidirektoratjenderalmineraldanbatubaradjmb@esdm.go.id;dan/ataud.aplikasilainnyayangterdapatdidirektoratjenderalmineraldanbatubarasepanjangtelahtersedia.###3.dalammendukungpelaksanaanpelayananperizinandanpemberianpersetujuansubsektormineraldanbatubarasebagaimanadimaksuddalamdiktumkesatudandiktumkedua,direktoratjenderalmineraldanbatubaramenyediakanpelayananinformasidanperizinanmelaluinomorteleponhotline,sebagaiberikut:&gt;&gt;&gt;a.pelayananinformasiterkaitiup/iupk/izinpengangkutandanpenjualan,rkab,studikelayakan,perubahanpemegangsaham,danminerbaonlinemonitoringsystem/moms,padanomortelepon(021)8311-671;b.pelayananinformasiterkaitjaminanreklamasi,jaminanpascatambang,izinusahajasapertambangan,kepalatekniktambang,pemasangantandabataswiup/wiupk,danrencanakerjaperluasanwiup/wiupk,padanomortelepon(021)8311-669;dan[...]denganwaktupelayanansebagaiberikut:a.untukharisenins.d.kamispadapukul08.00s.d.16.00wib(istirahatpukul12.00s.d.13.00wib);danb.untukharijum’atpadapukul08.00s.d.16.30wib(istirahatpukul11.30s.d.13.00wib).berkenaandenganhaltersebutbersamainidisampaikanhal-halsebagaiberikut:###1.segalapengurusanperizinan,permohonanpersetujuandanpermohonaninformasimelaluisaluransebagaimanadimaksudpadaangka1,angka2,danangka3tersebutdiatasagardilaksanakanmelaluisaluranyangtelahadadantidakdiperkenankanmelakukantatapmukakelingkungandirektoratjenderalmineraldanbatubara;###2.dalamhalterdapatkepentinganyangsangatmendesakdanmemerlukankehadirantatapmukakelingkungandirektoratjenderalmineraldanbatubara,hanyadapatdilakukanolehpimpinanbadanusaha/koperasi/perusahaanperseoranganminimalsetingkatdirekturdenganmembawadokumen/tandapengenalyangmenunjukkansebagaipimpinandaribadanusaha/koperasi/perusahaanperseorangan.&gt;&gt;&gt;</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>peraturanpemerintahnomor5tahun2021sanksipasal383&gt;&gt;&gt;(1)pemegangperizinanberusahayangditetapkanberdasarkanhasilanalisisrisikokegiatanusahadan/atauperizinanberusahauntukmenunjangkegiatanusahapadasektormineraldanbatubarayangtidakmemenuhikewajibandan/ataupersyaratanperizinanberusaha,dapatdiberikansanksiadministratifolehmenteriyangmenyelenggarakanurusanpemerintahandibidangenergidansumberdayamineralsesuaidenganketentuanperaturanperundang-undangan.(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)berupa:a.peringatantertulis;b.penghentiansementarasebagianatauseluruhkegiatanperizinanberusaha;dan/atauc.pencabutanperizinanberusaha.(3)sanksiadministratifberupaperingatantertulissebagaimanadimaksudpadaayat(2)hurufadiberikanpalingbanyak3(tiga)kalidenganjangkawaktuperingatanmasing-masing30(tigapuluh)hari.(4)dalamhalpelakuusahayangtelahmendapatkansanksiadministratifberupaperingatantertulissebagaimanadimaksudpadaayat(3)belummelakukankewajibannyasampaidenganberakhirnyasanksiadministratifberupaperingatantertulisyangketiga,dikenaisanksiadministratifberupapenghentiansementarasebagianatauseluruhkegiatansebagaimanadimaksudpadaayat(2)hurufb.(5)dalamhalpelakuusahayangtelahmendapatkansanksiadministratifberupapenghentiansementarasebagianatauseluruhkegiatansebagaimanadimaksudpadaayat(2)hurufb,belummelakukankewajibannyasampaidenganberakhirnyajangkawaktupemberiansanksiadministratifberupapenghentiansementarasebagianatauseluruhkegiatan,dikenaisanksiadministratifberupapencabutanperizinanberusahasebagaimanadimaksudpadaayat(2)hurufc.peraturanmenterienergidansumberdayamineralnomor7tahun2020sanksipasal95(1)pemegangiup,iupk,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,iujp,daniupoperasiproduksikhususuntukpengangkutandanpenjualan,yangtidakmematuhiataumelanggarketentuansebagaimanadimaksuddalam[...]pasal72hurufaatauhurufm[...].(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)berupa:a.peringatantertulis;b.penghentiansementarasebagianatauseluruhkegiatanusaha;dan/atauc.pencabutanizin.(3)sanksiadministratifsebagaimanadimaksudpadaayat(2)diberikanolehdirekturjenderalatasnamamenteriataugubernursesuaidengankewenangannya.</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>b9c202aae2cf5d067357472c6585d7b059bfb553271ef2bb6dba93ddf2b249e7</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Pertambangan Batubara&gt;Pelaksanaan Kegiatan Usaha Pertambangan Batubara</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Memperoleh Perizinan Berusaha Untuk Menunjang Kegiatan Usaha pada subsektor batubara berupa persetujuan penggunaan keikutsertaan anak perusahaan dan/atau afiliasi dalam usaha jasa pertambangan pada Aktivitas Penunjang Pertambangan dan Penggalian Lainnya</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Licensing</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1. Memenuhi persyaratan administratif, yang meliputi: 1. Alasan melakukan penunjukan langsung; 2. Nama perusahaan jasa afiliasi; 3. Nama dan jenis pekerjaan; 4. Volume dan nilai pekerjaan; 5. Jangka waktu pelaksanaan; 6. Kontrak kerjasama; 7. Melampirkan IUJP perusahaan afiliasi atau izin yang diterbitkan oleh intansi terkait; 8. Daftar pemegang saham sampai dengan perseorangan penerima manfaat akhir (Beneficial Ownership); 9. Dokumen pengumuman pengadaan barang dan jasa di media massa lokal dan/atau nasioal sebanyak 2 (dua) kali berturut-turut dalam jangka waktu masing-masing 10 (sepuluh) hari kalender; 10. Dokumen prakualifikasi atau pasca-kualifikasi yang tidak memenuhi persyaratan yang diinginkan; 11. Surat pernyataan yang menjamin tidak adanya transfer pricing atau transfer profit yang ditandatangani oleh Direktur Utama; 12. Surat pernyataan yang menjamin bahwa persyaratan administrasi dan teknis dalam penunjukan langsung perusahaan jasa afiliasi sama dengan yang dipersyaratkan dalam pengadaan barang dan jasa, ditandatangani oleh Direktur Utama; 13. Dokumen tata cara pelaksanaan lelang Perusahaan Jasa Pertambangan.
+2. Memenuhi persyaratan Teknis berupa Daftar Tenaga Ahli dalam bentuk tabel yang meliputi: a. Nama tenaga ahli; b. Latar belakang tenaga ahli; c. Keahlian/sertifikat/pengalaman; d. KTP/IMTA; e. Ijazah; f. Curriculum vitae; g. Surat pernyataan tenaga ahli.
+3. Memenuhi persyaratan Teknis berupa daftar peralatan, dalam bentuk tabel yang meliputi: a. Jenis; b. Jumlah; c. Kondisi; d. Status Kepemilikan; e. Lokasi keberadaan alat.
+4. Memenuhi persyaratan Teknis berupa surat perjanjian kerjasama dengan perusahaan pemilik peralatan, apabila belum mempunyai peralatan sendiri.
+5. Mengajukan permohonan izin melalui Sistem Perizinan Berusaha Terintegrasi secara Elektronik (Online Single Submission/OSS), dan tidak hadir secara tatap muka di lingkungan Direktorat Jenderal Mineral dan Batubara kecuali terdapat kepentingan yang mendesak.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Peraturan Pemerintah Nomor 5 Tahun 2021@lt6032548acffe0
+Kewajiban
+Pasal 23  &gt;&gt;&gt; @lt6032548acffe0
+[...]
+(2) Pelaku Usaha harus mematuhi persyaratan dan/atau kewajiban Perizinan Berusaha sebagaimana tercantum dalam Lampiran II.
+Pasal 41  &gt;&gt;&gt; @lt6032548acffe0
+(1) Perizinan Berusaha sektor energi dan sumber daya mineral terdiri atas subsektor:
+[...]
+c. mineral dan batubara; dan
+[…]
+(4) Perizinan Berusaha pada subsektor mineral dan batubara sebagaimana dimaksud pada ayat (1) huruf c yang ditetapkan berdasarkan hasil analisis Risiko kegiatan usaha terdiri atas:
+a. pertambangan;
+b. pertambangan khusus;
+c. pertambangan khusus sebagai kelanjutan operasi kontrak/perjanjian;
+d. pertambangan rakyat;
+e. penambangan batuan;
+f. pengangkutan dan penjualan;
+g. jasa pertambangan; dan
+h. pertambangan untuk penjualan.
+[…]
+Pasal 42  &gt;&gt;&gt; @lt6032548acffe0
+[…]
+(3) Perizinan Berusaha Untuk Menunjang Kegiatan Usaha pada subsektor mineral dan batubara sebagaimana dimaksud dalam Pasal 41 ayat (1) huruf c meliputi:
+[...]
+c. persetujuan penggunaan keikutsertaan anak perusahaan dan/atau afiliasi dalam usaha jasa pertambangan.
+[…]
+Pasal 43  &gt;&gt;&gt; @lt6032548acffe0
+(1) Kode KBLI/KBLI terkait, judul KBLI, ruang lingkup kegiatan, parameter Risiko, tingkat Risiko, Perizinan Berusaha, jangka waktu, masa berlaku, dan kewenangan Perizinan Berusaha sebagaimana dimaksud dalam Pasal 41 dan Perizinan Berusaha Untuk Menunjang Kegiatan Usaha sebagaimana dimaksud dalam Pasal 42 tercantum dalam Lampiran I.
+(2) Persyaratan dan/atau kewajiban Perizinan Berusaha pada sektor energi dan sumber daya mineral yang ditetapkan berdasarkan hasil analisis Risiko kegiatan usaha sebagaimana dimaksud dalam Pasal 41 dan Perizinan Berusaha Untuk Menunjang Kegiatan Usaha sebagaimana dimaksud dalam Pasal 42 tercantum dalam Lampiran II.
+LAMPIRAN I  &gt;&gt;&gt; @lt6032548acffe0
+B. PERIZINAN BERUSAHA UNTUK MENUNJANG KEGIATAN BERUSAHA SEKTOR ENERGI DAN SUMBER DAYA MINERAL
+[...]
+No.: 28
+Perizinan Berusaha: Persetujuan penggunaan keikutsertaan anak perusahaan dan/atau afiliasi dalam usaha jasa pertambangan dengan jenis pelaksanaan
+Kode KBLI Terkait: 09900
+Jangka Waktu: 14 hari
+Masa Berlaku: Sesuai masa berlaku persetujuan penggunaan anak usaha dan/atau afiliasi dalam bidang usaha jasa pertambangan
+Kewenangan Pemerintah - Parameter: Seluruh
+Kewenangan Pemerintah  - Pusat/Provinsi/Kabupaten/Kota: Menteri
+LAMPIRAN II  &gt;&gt;&gt; @lt6032548acffe0
+B. DAFTAR PERSYARATAN DAN/ATAU KEWAJIBAN PERIZINAN BERUSAHA UNTUK MENUNJANG KEGIATAN USAHA (NON-KBLI) SEKTOR ENERGI DAN SUMBER DAYA MINERAL
+No. 32: Persetujuan penggunaan keikutsertaan anak perusahaan dan/atau afiliasi dalam usaha jasa pertambangan dengan jenis pelaksanaan
+KBLI Terkait - Kode KBLI: 09900
+KBLI Terkait - Judul KBLI: Aktivitas Penunjang Pertambangan dan Penggalian Lainnya
+Persyaratan - Rincian:
+Persyaratan administratif:
+1. Alasan melakukan penunjukan langsung;
+2. Nama perusahaan jasa afiliasi;
+3. Nama dan jenis pekerjaan;
+4. Volume dan nilai pekerjaan;
+5. Jangka waktu pelaksanaan;
+6. Kontrak kerjasama;
+7. Melampirkan IUJP perusahaan afiliasi atau izin yang diterbitkan oleh intansi terkait;
+8. Daftar pemegang saham sampai dengan perseorangan penerima manfaat akhir (Beneficial Ownership);
+9. Dokumen pengumuman pengadaan barang dan jasa di media massa lokal dan/atau nasional sebanyak 2 (dua) kali berturut-turut dalam jangka waktu masing-masing 10 (sepuluh) hari kalender;
+10. Dokumen prakualifikasi atau pasca-kualifikasi yang tidak memenuhi persyaratan yang diinginkan;
+11. Surat pernyataan yang menjamin tidak adanya transfer pricing atau transfer profit yang ditandatangani oleh Direktur Utama;
+12. Surat pernyataan yang menjamin bahwa persyaratan administrasi dan teknis dalam penunjukan langsung perusahaan jasa afiliasi sama dengan yang dipersyaratkan dalam pengadaan barang dan jasa, ditandatangani oleh Direktur Utama;
+13. Dokumen tata cara pelaksanaan lelang Perusahaan Jasa Pertambangan.
+Persyaratan Teknis:
+1. Daftar Tenaga Ahli, dalam bentuk tabel yang meliputi:
+a. Nama tenaga ahli;
+b. Latar belakang tenaga ahli;
+c. Keahlian/sertifikat/pengalaman;
+d. KTP/IMTA;
+e. Ijazah;
+f. Curriculum vitae;
+g. Surat pernyataan tenaga ahli.
+2. Daftar peralatan, dalam bentuk tabel yang meliputi:
+a. Jenis;
+b. Jumlah;
+c. Kondisi;
+d. Status Kepemilikan;
+e. Lokasi keberadaan alat.
+3. Surat perjanjian kerjasama dengan perusahaan pemilik peralatan, apabila belum mempunyai peralatan sendiri.
+(Verifikasi tenaga ahli, dan fisik peralatan dapat dilakukan apabila diperlukan)
+Persyaratan - Jangka Waktu Pemenuhan: 14 Hari
+[...]
+Keputusan Menteri Energi Dan Sumber Daya Mineral Nomor 33.K/MB.01/MEM.B/2023 Tahun 2023@lt63fc51c94b035
+Kewajiban
+###KESATU: &gt;&gt;&gt; @lt63fc51c94b035
+Pelayanan perizinan subsektor mineral dan batubara yang menjadi kewenangan dari Pemerintah Pusat dilaksanakan melalui Sistem Perizinan Berusaha Terintegrasi secara Elektronik (Online Single Submission) yang dapat diakses pada laman https://oss.go.id/.
+###KEDUA: &gt;&gt;&gt; @lt63fc51c94b035
+Pelayanan pemberian persetujuan subsektor mineral dan batubara yang meliputi:
+[...]
+c. persetujuan lainnya sesuai dengan ketentuan peraturan perundang-undangan,
+dilaksanakan melalui:
+[...]
+b. aplikasi Perizinan Usaha dan Operasional Sektor ESDM yang dapat diakses pada laman https://perizinan.esdm.go.id/minerba;
+c. pengiriman surat elektronik (e-mail) ke alamat surat elektronik (e-mail) resmi Direktorat Jenderal Mineral dan Batubara djmb@esdm.go.id; dan/atau
+d. aplikasi lainnya yang terdapat di Direktorat Jenderal Mineral dan Batubara sepanjang telah tersedia.
+###KETIGA: &gt;&gt;&gt; @lt63fc51c94b035
+Dalam mendukung pelaksanaan pelayanan perizinan dan pemberian persetujuan subsektor mineral dan batubara sebagaimana dimaksud dalam Diktum KESATU dan Diktum KEDUA, Direktorat Jenderal Mineral dan batubara menyediakan pelayanan informasi dan perizinan melalui nomor telepon hotline, sebagai berikut:
+a. pelayanan informasi terkait IUP/IUPK/Izin Pengangkutan dan Penjualan, RKAB, Studi Kelayakan, Perubahan Pemegang Saham, dan Minerba Online Monitoring System/MOMS, pada nomor telepon (021) 8311-671;
+b. pelayanan informasi terkait Jaminan Reklamasi, Jaminan Pascatambang, Izin Usaha Jasa Pertambangan, Kepala Teknik Tambang, Pemasangan Tanda Batas WIUP/WIUPK, dan Rencana Kerja Perluasan WIUP/WIUPK, pada nomor telepon (021) 8311-669; dan
+[...]
+dengan waktu pelayanan sebagai berikut:
+a. untuk hari Senin s.d. Kamis pada pukul 08.00 s.d. 16.00 WIB (istirahat pukul 12.00 s.d. 13.00 WIB); dan
+b. untuk hari Jumat pada pukul 08.00 s.d. 16.30 WIB (istirahat pukul 11.30 s.d. 13.00 WIB).
+###KEEMPAT: &gt;&gt;&gt; @lt63fc51c94b035
+Pelayanan perizinan dan pemberian persetujuan subsektor mineral dan batubara serta pelayanan informasi sebagaimana dimaksud dalam Diktum KESATU sampai dengan Diktum KETIGA wajib dilaksanakan melalui saluran yang telah ada dan dilarang melakukan tatap muka ke lingkungan Direktorat Jenderal Mineral dan Batubara.
+###KELIMA: &gt;&gt;&gt; @lt63fc51c94b035
+Dalam hal terdapat kepentingan yang sangat mendesak dan memerlukan kehadiran tatap muka ke lingkungan Direktorat Jenderal Mineral dan Batubara, kehadiran tatap muka hanya dapat dilakukan oleh pimpinan Badan Usaha/Koperasi/Perusahaan Perseorangan (setingkat direktur) dengan ketentuan:
+a. melakukan pendaftaran terlebih dahulu pada saluran yang disediakan Direktorat Jenderal Mineral dan Batubara untuk mendapatkan jadwal kehadiran tatap muka;
+b. membawa identitas diri dan dokumen/tanda pengenal yang menunjukkan sebagai pimpinan dari Badan Usaha/Koperasi/Perusahaan Perseorangan pada saat kehadiran tatap muka sesuai dengan jadwal yang ditetapkan;
+c. diterima oleh Pejabat Pimpinan Tinggi Pratama di lingkungan Direktorat Jenderal Mineral dan Batubara; dan
+d. apabila pada jadwal kehadiran tatap muka yang telah ditetapkan Pejabat Pimpinan Tinggi Pratama mendapatkan penugasan lain yang tidak dapat ditinggalkan, kehadiran tatap muka dapat diterima oleh minimal setingkat Pejabat Administrator.
+Sehubungan dengan pelaksanaan pelayanan perizinan subsektor mineral dan batubara pada Direktorat Jenderal Mineral dan Batubara, bersama ini kami sampaikan hal-hal sebagai berikut:
+###1. Pelayanan perizinan subsektor mineral dan batubara yang menjadi kewenangan dari Pemerintah Pusat dilaksanakan melalui Sistem Perizinan Berusaha Terintegrasi secara Elektronik (Online Single Submission) yang dapat diakses pada laman https://oss.go.id/.
+Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Kewajiban
+Pasal 72
+Pemegang IUJP dalam melaksanakan kegiatan usahanya wajib:
+[...]
+m. memenuhi ketentuan peraturan perundang-undangan di bidang usaha jasa pertambangan.
+Surat Edaran Menteri Energi Dan Sumber Daya Mineral Nomor 1.E/MB.01/MEM.B/2023 Tahun 2023@lt63fc5a4a75cbb
+Kewajiban
+###2. Pelayanan pemberian persetujuan subsektor mineral dan batubara yang meliput: &gt;&gt;&gt; @lt63fc5a4a75cbb
+[...]
+c. persetujuan lainnya sesuai dengan ketentuan peraturan perundang-undangan,
+dilaksanakan melalui:
+[...]
+b. aplikasi Perizinan Usaha dan Operasional Sektor ESDM yang dapat diakses pada laman https://perizinan.esdm.go.id/minerba;
+c. pengiriman surat elektronik (e-mail) ke alamat surat elektronik (e-mail) resmi Direktorat Jenderal Mineral dan Batubara djmb@esdm.go.id; dan/atau
+d. aplikasi lainnya yang terdapat di Direktorat Jenderal Mineral dan Batubara sepanjang telah tersedia.
+###3. Dalam mendukung pelaksanaan pelayanan perizinan dan pemberian persetujuan subsektor mineral dan batubara sebagaimana dimaksud dalam Diktum KESATU dan Diktum KEDUA, Direktorat Jenderal Mineral dan Batubara menyediakan pelayanan informasi dan perizinan melalui nomor telepon hotline, sebagai berikut: &gt;&gt;&gt; @lt63fc5a4a75cbb
+a. pelayanan informasi terkait IUP/IUPK/Izin Pengangkutan dan Penjualan, RKAB, Studi Kelayakan, Perubahan Pemegang Saham, dan Minerba Online Monitoring System/MOMS, pada nomor telepon (021) 8311-671;
+b. pelayanan informasi terkait Jaminan Reklamasi, Jaminan Pascatambang, Izin Usaha Jasa Pertambangan, Kepala Teknik Tambang, Pemasangan Tanda Batas WIUP/WIUPK, dan Rencana Kerja Perluasan WIUP/WIUPK, pada nomor telepon (021) 8311-669; dan
+[...]
+dengan waktu pelayanan sebagai berikut:
+a. untuk hari Senin s.d. Kamis pada pukul 08.00 s.d. 16.00 WIB (istirahat pukul 12.00 s.d. 13.00 WIB); dan
+b. untuk hari Jum’at pada pukul 08.00 s.d. 16.30 WIB (istirahat pukul 11.30 s.d. 13.00 WIB).
+Berkenaan dengan hal tersebut bersama ini disampaikan hal-hal sebagai berikut:
+###1. segala pengurusan perizinan, permohonan persetujuan dan permohonan informasi melalui saluran sebagaimana dimaksud pada angka 1, angka 2, dan angka 3 tersebut di atas agar dilaksanakan melalui saluran yang telah ada dan tidak diperkenankan melakukan tatap muka ke lingkungan Direktorat Jenderal Mineral dan Batubara;
+###2. dalam hal terdapat kepentingan yang sangat mendesak dan memerlukan kehadiran tatap muka ke lingkungan Direktorat Jenderal Mineral dan Batubara, hanya dapat dilakukan oleh pimpinan Badan Usaha/Koperasi/Perusahaan Perseorangan minimal setingkat Direktur dengan membawa dokumen/tanda pengenal yang menunjukkan sebagai pimpinan dari Badan Usaha/Koperasi/Perusahaan Perseorangan. &gt;&gt;&gt; @lt63fc5a4a75cbb</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Peraturan Pemerintah Nomor 5 Tahun 2021@lt6032548acffe0
+Sanksi
+Pasal 383  &gt;&gt;&gt; @lt6032548acffe0
+(1) Pemegang Perizinan Berusaha yang ditetapkan berdasarkan hasil analisis Risiko kegiatan usaha dan/atau Perizinan Berusaha Untuk Menunjang Kegiatan Usaha pada sektor mineral dan batubara yang tidak memenuhi kewajiban dan/atau persyaratan Perizinan Berusaha, dapat diberikan sanksi administratif oleh menteri yang menyelenggarakan urusan pemerintahan di bidang energi dan sumber daya mineral sesuai dengan ketentuan peraturan perundang-undangan.
+(2) Sanksi administratif sebagaimana dimaksud pada ayat (1) berupa:
+a. peringatan tertulis;
+b. penghentian sementara sebagian atau seluruh kegiatan Perizinan Berusaha; dan/atau
+c. pencabutan Perizinan Berusaha.
+(3) Sanksi administratif berupa peringatan tertulis sebagaimana dimaksud pada ayat (2) huruf a diberikan paling banyak 3 (tiga) kali dengan jangka waktu peringatan masing-masing 30 (tiga puluh) Hari.
+(4) Dalam hal Pelaku Usaha yang telah mendapatkan sanksi administratif berupa peringatan tertulis sebagaimana dimaksud pada ayat (3) belum melakukan kewajibannya sampai dengan berakhirnya sanksi administratif berupa peringatan tertulis yang ketiga, dikenai sanksi administratif berupa penghentian sementara sebagian atau seluruh kegiatan sebagaimana dimaksud pada ayat (2) huruf b.
+(5) Dalam hal Pelaku Usaha yang telah mendapatkan sanksi administratif berupa penghentian sementara sebagian atau seluruh kegiatan sebagaimana dimaksud pada ayat (2) huruf b, belum melakukan kewajibannya sampai dengan berakhirnya jangka waktu pemberian sanksi administratif berupa penghentian sementara sebagian atau seluruh kegiatan, dikenai sanksi administratif berupa pencabutan Perizinan Berusaha sebagaimana dimaksud pada ayat (2) huruf c.
+Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Sanksi
+Pasal 95 
+(1) Pemegang IUP, IUPK, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, IUJP, dan IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, yang tidak mematuhi atau melanggar ketentuan sebagaimana dimaksud dalam [...] Pasal 72 huruf a atau huruf m [...].
+(2) Sanksi administratif sebagaimana dimaksud pada ayat (1) berupa:
+a. peringatan tertulis;
+b. penghentian sementara sebagian atau seluruh kegiatan usaha; dan/atau
+c. pencabutan izin.
+(3) Sanksi administratif sebagaimana dimaksud pada ayat (2) diberikan oleh Direktur Jenderal atas nama Menteri atau gubernur sesuai dengan kewenangannya.</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>11162</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2497</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>memperolehperizinanberusahauntukmenunjangkegiatanusahapadasubsektorbatubaraberupapersetujuanpenggunaankeikutsertaananakperusahaandan/atauafiliasidalamusahajasapertambanganpadaaktivitaspenunjangpertambangandanpenggalianlainnya</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>licensing</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>1.memenuhipersyaratanadministratif,yangmeliputi:1.alasanmelakukanpenunjukanlangsung;2.namaperusahaanjasaafiliasi;3.namadanjenispekerjaan;4.volumedannilaipekerjaan;5.jangkawaktupelaksanaan;6.kontrakkerjasama;7.melampirkaniujpperusahaanafiliasiatauizinyangditerbitkanolehintansiterkait;8.daftarpemegangsahamsampaidenganperseoranganpenerimamanfaatakhir(beneficialownership);9.dokumenpengumumanpengadaanbarangdanjasadimediamassalokaldan/ataunasioalsebanyak2(dua)kaliberturut-turutdalamjangkawaktumasing-masing10(sepuluh)harikalender;10.dokumenprakualifikasiataupasca-kualifikasiyangtidakmemenuhipersyaratanyangdiinginkan;11.suratpernyataanyangmenjamintidakadanyatransferpricingatautransferprofityangditandatanganiolehdirekturutama;12.suratpernyataanyangmenjaminbahwapersyaratanadministrasidanteknisdalampenunjukanlangsungperusahaanjasaafiliasisamadenganyangdipersyaratkandalampengadaanbarangdanjasa,ditandatanganiolehdirekturutama;13.dokumentatacarapelaksanaanlelangperusahaanjasapertambangan.2.memenuhipersyaratanteknisberupadaftartenagaahlidalambentuktabelyangmeliputi:a.namatenagaahli;b.latarbelakangtenagaahli;c.keahlian/sertifikat/pengalaman;d.ktp/imta;e.ijazah;f.curriculumvitae;g.suratpernyataantenagaahli.3.memenuhipersyaratanteknisberupadaftarperalatan,dalambentuktabelyangmeliputi:a.jenis;b.jumlah;c.kondisi;d.statuskepemilikan;e.lokasikeberadaanalat.4.memenuhipersyaratanteknisberupasuratperjanjiankerjasamadenganperusahaanpemilikperalatan,apabilabelummempunyaiperalatansendiri.5.mengajukanpermohonanizinmelaluisistemperizinanberusahaterintegrasisecaraelektronik(onlinesinglesubmission/oss),dantidakhadirsecaratatapmukadilingkungandirektoratjenderalmineraldanbatubarakecualiterdapatkepentinganyangmendesak.</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>peraturanpemerintahnomor5tahun2021kewajibanpasal23&gt;&gt;&gt;[...](2)pelakuusahaharusmematuhipersyaratandan/ataukewajibanperizinanberusahasebagaimanatercantumdalamlampiranii.pasal41&gt;&gt;&gt;(1)perizinanberusahasektorenergidansumberdayamineralterdiriatassubsektor:[...]c.mineraldanbatubara;dan[…](4)perizinanberusahapadasubsektormineraldanbatubarasebagaimanadimaksudpadaayat(1)hurufcyangditetapkanberdasarkanhasilanalisisrisikokegiatanusahaterdiriatas:a.pertambangan;b.pertambangankhusus;c.pertambangankhusussebagaikelanjutanoperasikontrak/perjanjian;d.pertambanganrakyat;e.penambanganbatuan;f.pengangkutandanpenjualan;g.jasapertambangan;danh.pertambanganuntukpenjualan.[…]pasal42&gt;&gt;&gt;[…](3)perizinanberusahauntukmenunjangkegiatanusahapadasubsektormineraldanbatubarasebagaimanadimaksuddalampasal41ayat(1)hurufcmeliputi:[...]c.persetujuanpenggunaankeikutsertaananakperusahaandan/atauafiliasidalamusahajasapertambangan.[…]pasal43&gt;&gt;&gt;(1)kodekbli/kbliterkait,judulkbli,ruanglingkupkegiatan,parameterrisiko,tingkatrisiko,perizinanberusaha,jangkawaktu,masaberlaku,dankewenanganperizinanberusahasebagaimanadimaksuddalampasal41danperizinanberusahauntukmenunjangkegiatanusahasebagaimanadimaksuddalampasal42tercantumdalamlampirani.(2)persyaratandan/ataukewajibanperizinanberusahapadasektorenergidansumberdayamineralyangditetapkanberdasarkanhasilanalisisrisikokegiatanusahasebagaimanadimaksuddalampasal41danperizinanberusahauntukmenunjangkegiatanusahasebagaimanadimaksuddalampasal42tercantumdalamlampiranii.lampirani&gt;&gt;&gt;b.perizinanberusahauntukmenunjangkegiatanberusahasektorenergidansumberdayamineral[...]no.:28perizinanberusaha:persetujuanpenggunaankeikutsertaananakperusahaandan/atauafiliasidalamusahajasapertambangandenganjenispelaksanaankodekbliterkait:09900jangkawaktu:14harimasaberlaku:sesuaimasaberlakupersetujuanpenggunaananakusahadan/atauafiliasidalambidangusahajasapertambangankewenanganpemerintah-parameter:seluruhkewenanganpemerintah-pusat/provinsi/kabupaten/kota:menterilampiranii&gt;&gt;&gt;b.daftarpersyaratandan/ataukewajibanperizinanberusahauntukmenunjangkegiatanusaha(non-kbli)sektorenergidansumberdayamineralno.32:persetujuanpenggunaankeikutsertaananakperusahaandan/atauafiliasidalamusahajasapertambangandenganjenispelaksanaankbliterkait-kodekbli:09900kbliterkait-judulkbli:aktivitaspenunjangpertambangandanpenggalianlainnyapersyaratan-rincian:persyaratanadministratif:1.alasanmelakukanpenunjukanlangsung;2.namaperusahaanjasaafiliasi;3.namadanjenispekerjaan;4.volumedannilaipekerjaan;5.jangkawaktupelaksanaan;6.kontrakkerjasama;7.melampirkaniujpperusahaanafiliasiatauizinyangditerbitkanolehintansiterkait;8.daftarpemegangsahamsampaidenganperseoranganpenerimamanfaatakhir(beneficialownership);9.dokumenpengumumanpengadaanbarangdanjasadimediamassalokaldan/ataunasionalsebanyak2(dua)kaliberturut-turutdalamjangkawaktumasing-masing10(sepuluh)harikalender;10.dokumenprakualifikasiataupasca-kualifikasiyangtidakmemenuhipersyaratanyangdiinginkan;11.suratpernyataanyangmenjamintidakadanyatransferpricingatautransferprofityangditandatanganiolehdirekturutama;12.suratpernyataanyangmenjaminbahwapersyaratanadministrasidanteknisdalampenunjukanlangsungperusahaanjasaafiliasisamadenganyangdipersyaratkandalampengadaanbarangdanjasa,ditandatanganiolehdirekturutama;13.dokumentatacarapelaksanaanlelangperusahaanjasapertambangan.persyaratanteknis:1.daftartenagaahli,dalambentuktabelyangmeliputi:a.namatenagaahli;b.latarbelakangtenagaahli;c.keahlian/sertifikat/pengalaman;d.ktp/imta;e.ijazah;f.curriculumvitae;g.suratpernyataantenagaahli.2.daftarperalatan,dalambentuktabelyangmeliputi:a.jenis;b.jumlah;c.kondisi;d.statuskepemilikan;e.lokasikeberadaanalat.3.suratperjanjiankerjasamadenganperusahaanpemilikperalatan,apabilabelummempunyaiperalatansendiri.(verifikasitenagaahli,danfisikperalatandapatdilakukanapabiladiperlukan)persyaratan-jangkawaktupemenuhan:14hari[...]keputusanmenterienergidansumberdayamineralnomor33.k/mb.01/mem.b/2023tahun2023kewajiban###kesatu:&gt;&gt;&gt;pelayananperizinansubsektormineraldanbatubarayangmenjadikewenangandaripemerintahpusatdilaksanakanmelaluisistemperizinanberusahaterintegrasisecaraelektronik(onlinesinglesubmission)yangdapatdiaksespadalamanhttps://oss.go.id/.###kedua:&gt;&gt;&gt;pelayananpemberianpersetujuansubsektormineraldanbatubarayangmeliputi:[...]c.persetujuanlainnyasesuaidenganketentuanperaturanperundang-undangan,dilaksanakanmelalui:[...]b.aplikasiperizinanusahadanoperasionalsektoresdmyangdapatdiaksespadalamanhttps://perizinan.esdm.go.id/minerba;c.pengirimansuratelektronik(e-mail)kealamatsuratelektronik(e-mail)resmidirektoratjenderalmineraldanbatubaradjmb@esdm.go.id;dan/ataud.aplikasilainnyayangterdapatdidirektoratjenderalmineraldanbatubarasepanjangtelahtersedia.###ketiga:&gt;&gt;&gt;dalammendukungpelaksanaanpelayananperizinandanpemberianpersetujuansubsektormineraldanbatubarasebagaimanadimaksuddalamdiktumkesatudandiktumkedua,direktoratjenderalmineraldanbatubaramenyediakanpelayananinformasidanperizinanmelaluinomorteleponhotline,sebagaiberikut:a.pelayananinformasiterkaitiup/iupk/izinpengangkutandanpenjualan,rkab,studikelayakan,perubahanpemegangsaham,danminerbaonlinemonitoringsystem/moms,padanomortelepon(021)8311-671;b.pelayananinformasiterkaitjaminanreklamasi,jaminanpascatambang,izinusahajasapertambangan,kepalatekniktambang,pemasangantandabataswiup/wiupk,danrencanakerjaperluasanwiup/wiupk,padanomortelepon(021)8311-669;dan[...]denganwaktupelayanansebagaiberikut:a.untukharisenins.d.kamispadapukul08.00s.d.16.00wib(istirahatpukul12.00s.d.13.00wib);danb.untukharijumatpadapukul08.00s.d.16.30wib(istirahatpukul11.30s.d.13.00wib).###keempat:&gt;&gt;&gt;pelayananperizinandanpemberianpersetujuansubsektormineraldanbatubarasertapelayananinformasisebagaimanadimaksuddalamdiktumkesatusampaidengandiktumketigawajibdilaksanakanmelaluisaluranyangtelahadadandilarangmelakukantatapmukakelingkungandirektoratjenderalmineraldanbatubara.###kelima:&gt;&gt;&gt;dalamhalterdapatkepentinganyangsangatmendesakdanmemerlukankehadirantatapmukakelingkungandirektoratjenderalmineraldanbatubara,kehadirantatapmukahanyadapatdilakukanolehpimpinanbadanusaha/koperasi/perusahaanperseorangan(setingkatdirektur)denganketentuan:a.melakukanpendaftaranterlebihdahulupadasaluranyangdisediakandirektoratjenderalmineraldanbatubarauntukmendapatkanjadwalkehadirantatapmuka;b.membawaidentitasdiridandokumen/tandapengenalyangmenunjukkansebagaipimpinandaribadanusaha/koperasi/perusahaanperseoranganpadasaatkehadirantatapmukasesuaidenganjadwalyangditetapkan;c.diterimaolehpejabatpimpinantinggipratamadilingkungandirektoratjenderalmineraldanbatubara;dand.apabilapadajadwalkehadirantatapmukayangtelahditetapkanpejabatpimpinantinggipratamamendapatkanpenugasanlainyangtidakdapatditinggalkan,kehadirantatapmukadapatditerimaolehminimalsetingkatpejabatadministrator.sehubungandenganpelaksanaanpelayananperizinansubsektormineraldanbatubarapadadirektoratjenderalmineraldanbatubara,bersamainikamisampaikanhal-halsebagaiberikut:###1.pelayananperizinansubsektormineraldanbatubarayangmenjadikewenangandaripemerintahpusatdilaksanakanmelaluisistemperizinanberusahaterintegrasisecaraelektronik(onlinesinglesubmission)yangdapatdiaksespadalamanhttps://oss.go.id/.peraturanmenterienergidansumberdayamineralnomor7tahun2020kewajibanpasal72pemegangiujpdalammelaksanakankegiatanusahanyawajib:[...]m.memenuhiketentuanperaturanperundang-undangandibidangusahajasapertambangan.suratedaranmenterienergidansumberdayamineralnomor1.e/mb.01/mem.b/2023tahun2023kewajiban###2.pelayananpemberianpersetujuansubsektormineraldanbatubarayangmeliput:&gt;&gt;&gt;[...]c.persetujuanlainnyasesuaidenganketentuanperaturanperundang-undangan,dilaksanakanmelalui:[...]b.aplikasiperizinanusahadanoperasionalsektoresdmyangdapatdiaksespadalamanhttps://perizinan.esdm.go.id/minerba;c.pengirimansuratelektronik(e-mail)kealamatsuratelektronik(e-mail)resmidirektoratjenderalmineraldanbatubaradjmb@esdm.go.id;dan/ataud.aplikasilainnyayangterdapatdidirektoratjenderalmineraldanbatubarasepanjangtelahtersedia.###3.dalammendukungpelaksanaanpelayananperizinandanpemberianpersetujuansubsektormineraldanbatubarasebagaimanadimaksuddalamdiktumkesatudandiktumkedua,direktoratjenderalmineraldanbatubaramenyediakanpelayananinformasidanperizinanmelaluinomorteleponhotline,sebagaiberikut:&gt;&gt;&gt;a.pelayananinformasiterkaitiup/iupk/izinpengangkutandanpenjualan,rkab,studikelayakan,perubahanpemegangsaham,danminerbaonlinemonitoringsystem/moms,padanomortelepon(021)8311-671;b.pelayananinformasiterkaitjaminanreklamasi,jaminanpascatambang,izinusahajasapertambangan,kepalatekniktambang,pemasangantandabataswiup/wiupk,danrencanakerjaperluasanwiup/wiupk,padanomortelepon(021)8311-669;dan[...]denganwaktupelayanansebagaiberikut:a.untukharisenins.d.kamispadapukul08.00s.d.16.00wib(istirahatpukul12.00s.d.13.00wib);danb.untukharijum’atpadapukul08.00s.d.16.30wib(istirahatpukul11.30s.d.13.00wib).berkenaandenganhaltersebutbersamainidisampaikanhal-halsebagaiberikut:###1.segalapengurusanperizinan,permohonanpersetujuandanpermohonaninformasimelaluisaluransebagaimanadimaksudpadaangka1,angka2,danangka3tersebutdiatasagardilaksanakanmelaluisaluranyangtelahadadantidakdiperkenankanmelakukantatapmukakelingkungandirektoratjenderalmineraldanbatubara;###2.dalamhalterdapatkepentinganyangsangatmendesakdanmemerlukankehadirantatapmukakelingkungandirektoratjenderalmineraldanbatubara,hanyadapatdilakukanolehpimpinanbadanusaha/koperasi/perusahaanperseoranganminimalsetingkatdirekturdenganmembawadokumen/tandapengenalyangmenunjukkansebagaipimpinandaribadanusaha/koperasi/perusahaanperseorangan.&gt;&gt;&gt;</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>peraturanpemerintahnomor5tahun2021sanksipasal383&gt;&gt;&gt;(1)pemegangperizinanberusahayangditetapkanberdasarkanhasilanalisisrisikokegiatanusahadan/atauperizinanberusahauntukmenunjangkegiatanusahapadasektormineraldanbatubarayangtidakmemenuhikewajibandan/ataupersyaratanperizinanberusaha,dapatdiberikansanksiadministratifolehmenteriyangmenyelenggarakanurusanpemerintahandibidangenergidansumberdayamineralsesuaidenganketentuanperaturanperundang-undangan.(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)berupa:a.peringatantertulis;b.penghentiansementarasebagianatauseluruhkegiatanperizinanberusaha;dan/atauc.pencabutanperizinanberusaha.(3)sanksiadministratifberupaperingatantertulissebagaimanadimaksudpadaayat(2)hurufadiberikanpalingbanyak3(tiga)kalidenganjangkawaktuperingatanmasing-masing30(tigapuluh)hari.(4)dalamhalpelakuusahayangtelahmendapatkansanksiadministratifberupaperingatantertulissebagaimanadimaksudpadaayat(3)belummelakukankewajibannyasampaidenganberakhirnyasanksiadministratifberupaperingatantertulisyangketiga,dikenaisanksiadministratifberupapenghentiansementarasebagianatauseluruhkegiatansebagaimanadimaksudpadaayat(2)hurufb.(5)dalamhalpelakuusahayangtelahmendapatkansanksiadministratifberupapenghentiansementarasebagianatauseluruhkegiatansebagaimanadimaksudpadaayat(2)hurufb,belummelakukankewajibannyasampaidenganberakhirnyajangkawaktupemberiansanksiadministratifberupapenghentiansementarasebagianatauseluruhkegiatan,dikenaisanksiadministratifberupapencabutanperizinanberusahasebagaimanadimaksudpadaayat(2)hurufc.peraturanmenterienergidansumberdayamineralnomor7tahun2020sanksipasal95(1)pemegangiup,iupk,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,iujp,daniupoperasiproduksikhususuntukpengangkutandanpenjualan,yangtidakmematuhiataumelanggarketentuansebagaimanadimaksuddalam[...]pasal72hurufaatauhurufm[...].(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)berupa:a.peringatantertulis;b.penghentiansementarasebagianatauseluruhkegiatanusaha;dan/atauc.pencabutanizin.(3)sanksiadministratifsebagaimanadimaksudpadaayat(2)diberikanolehdirekturjenderalatasnamamenteriataugubernursesuaidengankewenangannya.</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>f229e2c25f01e9562878324ddc488e3bcf626a98556a6b7ea1b50b4ef96ae93e</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Pertambangan Batubara&gt;Pelaksanaan Kegiatan Usaha Pertambangan Batubara</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Memenuhi Kewajiban Perizinan Berusaha Untuk Menunjang Kegiatan Usaha pada subsektor batubara berupa persetujuan konsultasi dan/atau perencanaan pada usaha jasa pertambangan sepanjang umur sertifikat standar (sertifikat konsultan dan/atau perencanaan usaha jasa pertambangan) pada Aktivitas Keinsinyuran dan Konsultasi Teknis Ybdi</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1. Mengutamakan produk dalam negeri.
+2. Melakukan kegiatan sesuai dengan bidang usahanya.
+3. Menyampaikan setiap dokumen kontrak jasa pertambangan dengan pemegang IUJP, IUP, atau IUPK kepada Menteri atau gubernur sesuai dengan kewenangannya.
+4. Melaksanakan ketentuan keselamatan pertambangan sesuai dengan ketentuan peraturan perundang-undangan.
+5. Menyusun dan menyampaikan laporan kegiatan kepada Menteri atau gubernur sesuai dengan kewenangannya serta kepada pemegang IUP atau IUPK sesuai dengan ketentuan peraturan perundang-undangan.
+6. Memiliki tenaga teknis pertambangan yang berkompeten sesuai dengan ketentuan peraturan perundang-undangan.
+7. Memenuhi ketentuan peraturan perundang-undangan di bidang usaha jasa pertambangan.
+8. Melaksanakan penerapan kaidah teknik usaha jasa pertambangan yang baik.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Peraturan Pemerintah Nomor 5 Tahun 2021@lt6032548acffe0
+Kewajiban
+Pasal 23 &gt;&gt;&gt; @lt6032548acffe0
+[...]
+(2) Pelaku Usaha harus mematuhi persyaratan dan/atau kewajiban Perizinan Berusaha sebagaimana tercantum dalam Lampiran II.
+Pasal 41 &gt;&gt;&gt; @lt6032548acffe0
+(1) Perizinan Berusaha sektor energi dan sumber daya mineral terdiri atas subsektor:
+[...]
+c. mineral dan batubara; dan
+[…]
+(4) Perizinan Berusaha pada subsektor mineral dan batubara sebagaimana dimaksud pada ayat (1) huruf c yang ditetapkan berdasarkan hasil analisis Risiko kegiatan usaha terdiri atas: 
+a. pertambangan; 
+b. pertambangan khusus; 
+c. pertambangan khusus sebagai kelanjutan operasi kontrak/perjanjian; 
+d. pertambangan rakyat; 
+e. penambangan batuan; 
+f. pengangkutan dan penjualan; 
+g. jasa pertambangan; dan 
+h. pertambangan untuk penjualan.
+[…]
+Pasal 42 &gt;&gt;&gt; @lt6032548acffe0
+[…]
+(3) Perizinan Berusaha Untuk Menunjang Kegiatan Usaha pada subsektor mineral dan batubara sebagaimana dimaksud dalam Pasal 41 ayat (1) huruf c meliputi: 
+[...]
+b. persetujuan konsultasi dan/atau perencanaan pada usaha jasa pertambangan;
+[…]
+Pasal 43  &gt;&gt;&gt; @lt6032548acffe0
+[...]
+(2) Persyaratan dan/atau kewajiban Perizinan Berusaha pada sektor energi dan sumber daya mineral yang ditetapkan berdasarkan hasil analisis Risiko kegiatan usaha sebagaimana dimaksud dalam Pasal 41 dan Perizinan Berusaha Untuk Menunjang Kegiatan Usaha sebagaimana dimaksud dalam Pasal 42 tercantum dalam Lampiran II.
+LAMPIRAN II &gt;&gt;&gt; @lt6032548acffe0
+B. DAFTAR PERSYARATAN DAN/ATAU KEWAJIBAN PERIZINAN BERUSAHA UNTUK MENUNJANG KEGIATAN USAHA (NON-KBLI) SEKTOR ENERGI DAN SUMBER DAYA MINERAL
+[...]
+No.: 34
+Jenis Perizinan: Konsultasi dan/atau Perencanaan pada Usaha Jasa Pertambangan
+KBLI Terkait - Kode KBLI: 71102
+KBLI Terkait - Judul KBLI: Aktivitas Keinsinyuran dan Konsultasi Teknis Ybdi
+[...]
+Kewajiban - Rincian:
+Kewajiban pemegang sertifikat standar (sertifikat konsultan dan/atau perencanaan usaha jasa pertambangan) meliputi:
+1. Mengutamakan produk dalam negeri;
+2. Melakukan kegiatan sesuai dengan bidang usahanya;
+3. Menyampaikan setiap dokumen kontrak jasa pertambangan dengan pemegang IUJP, IUP, atau IUPK kepada Menteri atau gubernur sesuai dengan kewenangannya;
+4. Melaksanakan ketentuan keselamatan pertambangan sesuai dengan ketentuan peraturan perundang-undangan;
+5. Menyusun dan menyampaikan laporan kegiatan kepada Menteri atau gubernur sesuai dengan kewenangannya serta kepada pemegang IUP atau IUPK sesuai dengan ketentuan peraturan perundang-undangan;
+6. Memiliki tenaga teknis pertambangan yang berkompeten sesuai dengan ketentuan peraturan perundang-undangan;
+7. Memenuhi ketentuan peraturan perundang-undangan di bidang usaha jasa pertambangan;
+8. Melaksanakan penerapan kaidah teknik usaha jasa pertambangan yang baik.
+Kewajiban - Jangka Waktu Pemenuhan: Setelah memperoleh sertifikat standar (sertifikat konsultan dan/atau perencanaan usaha jasa pertambangan) dan sepanjang umur sertifikat standar (sertifikat konsultan dan/atau perencanaan usaha jasa pertambangan).
+Keterangan: Masa berlaku Sertifikat konsultan dan perencana yaitu: 5 (lima) tahun.
+Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Kewajiban
+Pasal 72
+Pemegang IUJP dalam melaksanakan kegiatan usahanya wajib:
+[...]
+m. memenuhi ketentuan peraturan perundang-undangan di bidang usaha jasa pertambangan.</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Peraturan Pemerintah Nomor 5 Tahun 2021@lt6032548acffe0
+Sanksi
+Pasal 383 &gt;&gt;&gt; @lt6032548acffe0
+(1) Pemegang Perizinan Berusaha yang ditetapkan berdasarkan hasil analisis Risiko kegiatan usaha dan/atau Perizinan Berusaha Untuk Menunjang Kegiatan Usaha pada sektor mineral dan batubara yang tidak memenuhi kewajiban dan/atau persyaratan Perizinan Berusaha, dapat diberikan sanksi administratif oleh menteri yang menyelenggarakan urusan pemerintahan di bidang energi dan sumber daya mineral sesuai dengan ketentuan peraturan perundang-undangan.
+(2) Sanksi administratif sebagaimana dimaksud pada ayat (1) berupa:
+a. peringatan tertulis;
+b. penghentian sementara sebagian atau seluruh kegiatan Perizinan Berusaha; dan/atau
+c. pencabutan Perizinan Berusaha.
+(3) Sanksi administratif berupa peringatan tertulis sebagaimana dimaksud pada ayat (2) huruf a diberikan paling banyak 3 (tiga) kali dengan jangka waktu peringatan masing-masing 30 (tiga puluh) Hari.
+(4) Dalam hal Pelaku Usaha yang telah mendapatkan sanksi administratif berupa peringatan tertulis sebagaimana dimaksud pada ayat (3) belum melakukan kewajibannya sampai dengan berakhirnya sanksi administratif berupa peringatan tertulis yang ketiga, dikenai sanksi administratif berupa penghentian sementara sebagian atau seluruh kegiatan sebagaimana dimaksud pada ayat (2) huruf b.
+(5) Dalam hal Pelaku Usaha yang telah mendapatkan sanksi administratif berupa penghentian sementara sebagian atau seluruh kegiatan sebagaimana dimaksud pada ayat (2) huruf b, belum melakukan kewajibannya sampai dengan berakhirnya jangka waktu pemberian sanksi administratif berupa penghentian sementara sebagian atau seluruh kegiatan, dikenai sanksi administratif berupa pencabutan Perizinan Berusaha sebagaimana dimaksud pada ayat (2) huruf c.
+Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Sanksi
+Pasal 95 
+(1) Pemegang IUP, IUPK, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, IUJP, dan IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, yang tidak mematuhi atau melanggar ketentuan sebagaimana dimaksud dalam [...] Pasal 72 huruf a atau huruf m [...].
+(2) Sanksi administratif sebagaimana dimaksud pada ayat (1) berupa:
+a. peringatan tertulis;
+b. penghentian sementara sebagian atau seluruh kegiatan usaha; dan/atau
+c. pencabutan izin.
+(3) Sanksi administratif sebagaimana dimaksud pada ayat (2) diberikan oleh Direktur Jenderal atas nama Menteri atau gubernur sesuai dengan kewenangannya.</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>3368</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2496</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>memenuhikewajibanperizinanberusahauntukmenunjangkegiatanusahapadasubsektorbatubaraberupapersetujuankonsultasidan/atauperencanaanpadausahajasapertambangansepanjangumursertifikatstandar(sertifikatkonsultandan/atauperencanaanusahajasapertambangan)padaaktivitaskeinsinyurandankonsultasiteknisybdi</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>1.mengutamakanprodukdalamnegeri.2.melakukankegiatansesuaidenganbidangusahanya.3.menyampaikansetiapdokumenkontrakjasapertambangandenganpemegangiujp,iup,atauiupkkepadamenteriataugubernursesuaidengankewenangannya.4.melaksanakanketentuankeselamatanpertambangansesuaidenganketentuanperaturanperundang-undangan.5.menyusundanmenyampaikanlaporankegiatankepadamenteriataugubernursesuaidengankewenangannyasertakepadapemegangiupatauiupksesuaidenganketentuanperaturanperundang-undangan.6.memilikitenagateknispertambanganyangberkompetensesuaidenganketentuanperaturanperundang-undangan.7.memenuhiketentuanperaturanperundang-undangandibidangusahajasapertambangan.8.melaksanakanpenerapankaidahteknikusahajasapertambanganyangbaik.</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>peraturanpemerintahnomor5tahun2021kewajibanpasal23&gt;&gt;&gt;[...](2)pelakuusahaharusmematuhipersyaratandan/ataukewajibanperizinanberusahasebagaimanatercantumdalamlampiranii.pasal41&gt;&gt;&gt;(1)perizinanberusahasektorenergidansumberdayamineralterdiriatassubsektor:[...]c.mineraldanbatubara;dan[…](4)perizinanberusahapadasubsektormineraldanbatubarasebagaimanadimaksudpadaayat(1)hurufcyangditetapkanberdasarkanhasilanalisisrisikokegiatanusahaterdiriatas:a.pertambangan;b.pertambangankhusus;c.pertambangankhusussebagaikelanjutanoperasikontrak/perjanjian;d.pertambanganrakyat;e.penambanganbatuan;f.pengangkutandanpenjualan;g.jasapertambangan;danh.pertambanganuntukpenjualan.[…]pasal42&gt;&gt;&gt;[…](3)perizinanberusahauntukmenunjangkegiatanusahapadasubsektormineraldanbatubarasebagaimanadimaksuddalampasal41ayat(1)hurufcmeliputi:[...]b.persetujuankonsultasidan/atauperencanaanpadausahajasapertambangan;[…]pasal43&gt;&gt;&gt;[...](2)persyaratandan/ataukewajibanperizinanberusahapadasektorenergidansumberdayamineralyangditetapkanberdasarkanhasilanalisisrisikokegiatanusahasebagaimanadimaksuddalampasal41danperizinanberusahauntukmenunjangkegiatanusahasebagaimanadimaksuddalampasal42tercantumdalamlampiranii.lampiranii&gt;&gt;&gt;b.daftarpersyaratandan/ataukewajibanperizinanberusahauntukmenunjangkegiatanusaha(non-kbli)sektorenergidansumberdayamineral[...]no.:34jenisperizinan:konsultasidan/atauperencanaanpadausahajasapertambangankbliterkait-kodekbli:71102kbliterkait-judulkbli:aktivitaskeinsinyurandankonsultasiteknisybdi[...]kewajiban-rincian:kewajibanpemegangsertifikatstandar(sertifikatkonsultandan/atauperencanaanusahajasapertambangan)meliputi:1.mengutamakanprodukdalamnegeri;2.melakukankegiatansesuaidenganbidangusahanya;3.menyampaikansetiapdokumenkontrakjasapertambangandenganpemegangiujp,iup,atauiupkkepadamenteriataugubernursesuaidengankewenangannya;4.melaksanakanketentuankeselamatanpertambangansesuaidenganketentuanperaturanperundang-undangan;5.menyusundanmenyampaikanlaporankegiatankepadamenteriataugubernursesuaidengankewenangannyasertakepadapemegangiupatauiupksesuaidenganketentuanperaturanperundang-undangan;6.memilikitenagateknispertambanganyangberkompetensesuaidenganketentuanperaturanperundang-undangan;7.memenuhiketentuanperaturanperundang-undangandibidangusahajasapertambangan;8.melaksanakanpenerapankaidahteknikusahajasapertambanganyangbaik.kewajiban-jangkawaktupemenuhan:setelahmemperolehsertifikatstandar(sertifikatkonsultandan/atauperencanaanusahajasapertambangan)dansepanjangumursertifikatstandar(sertifikatkonsultandan/atauperencanaanusahajasapertambangan).keterangan:masaberlakusertifikatkonsultandanperencanayaitu:5(lima)tahun.peraturanmenterienergidansumberdayamineralnomor7tahun2020kewajibanpasal72pemegangiujpdalammelaksanakankegiatanusahanyawajib:[...]m.memenuhiketentuanperaturanperundang-undangandibidangusahajasapertambangan.</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>peraturanpemerintahnomor5tahun2021sanksipasal383&gt;&gt;&gt;(1)pemegangperizinanberusahayangditetapkanberdasarkanhasilanalisisrisikokegiatanusahadan/atauperizinanberusahauntukmenunjangkegiatanusahapadasektormineraldanbatubarayangtidakmemenuhikewajibandan/ataupersyaratanperizinanberusaha,dapatdiberikansanksiadministratifolehmenteriyangmenyelenggarakanurusanpemerintahandibidangenergidansumberdayamineralsesuaidenganketentuanperaturanperundang-undangan.(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)berupa:a.peringatantertulis;b.penghentiansementarasebagianatauseluruhkegiatanperizinanberusaha;dan/atauc.pencabutanperizinanberusaha.(3)sanksiadministratifberupaperingatantertulissebagaimanadimaksudpadaayat(2)hurufadiberikanpalingbanyak3(tiga)kalidenganjangkawaktuperingatanmasing-masing30(tigapuluh)hari.(4)dalamhalpelakuusahayangtelahmendapatkansanksiadministratifberupaperingatantertulissebagaimanadimaksudpadaayat(3)belummelakukankewajibannyasampaidenganberakhirnyasanksiadministratifberupaperingatantertulisyangketiga,dikenaisanksiadministratifberupapenghentiansementarasebagianatauseluruhkegiatansebagaimanadimaksudpadaayat(2)hurufb.(5)dalamhalpelakuusahayangtelahmendapatkansanksiadministratifberupapenghentiansementarasebagianatauseluruhkegiatansebagaimanadimaksudpadaayat(2)hurufb,belummelakukankewajibannyasampaidenganberakhirnyajangkawaktupemberiansanksiadministratifberupapenghentiansementarasebagianatauseluruhkegiatan,dikenaisanksiadministratifberupapencabutanperizinanberusahasebagaimanadimaksudpadaayat(2)hurufc.peraturanmenterienergidansumberdayamineralnomor7tahun2020sanksipasal95(1)pemegangiup,iupk,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,iujp,daniupoperasiproduksikhususuntukpengangkutandanpenjualan,yangtidakmematuhiataumelanggarketentuansebagaimanadimaksuddalam[...]pasal72hurufaatauhurufm[...].(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)berupa:a.peringatantertulis;b.penghentiansementarasebagianatauseluruhkegiatanusaha;dan/atauc.pencabutanizin.(3)sanksiadministratifsebagaimanadimaksudpadaayat(2)diberikanolehdirekturjenderalatasnamamenteriataugubernursesuaidengankewenangannya.</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>212e9b7175c598cf884514a9fd6eb4f1edca17ecb9574bebf9613127be62e65e</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Pertambangan Batubara&gt;Pelaksanaan Kegiatan Usaha Pertambangan Batubara</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Memenuhi Kewajiban Perizinan Berusaha Untuk Menunjang Kegiatan Usaha pada subsektor batubara berupa persetujuan penggunaan keikutsertaan anak perusahaan dan/atau afiliasi dalam usaha jasa pertambangan dalam jangka waktu sesuai persetujuan program kemitraan untuk Aktivitas Penunjang Pertambangan dan Penggalian Lainnya</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1. Menerapkan asas kepatutan, transparan, kewajaran dalam menggunakan perusahaan jasa pertambangan pemegang IUJP.
+2. Menyampaikan setiap dokumen kontrak penggunaan anak usaha dan/atau afiliasi dalam bidang jasa pertambangan kepada Menteri atau gubernur sesuai dengan kewenangannya.
+3. Menyampaikan laporan keuangan yang telah diaudit oleh kantor akuntan publik dan menyampaikan pernyataan bahwa tidak terjadi transfer of profit.</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Peraturan Pemerintah Nomor 5 Tahun 2021@lt6032548acffe0
+Kewajiban
+Pasal 23 &gt;&gt;&gt; @lt6032548acffe0
+[...]
+(2) Pelaku Usaha harus mematuhi persyaratan dan/atau kewajiban Perizinan Berusaha sebagaimana tercantum dalam Lampiran II.
+Pasal 41 &gt;&gt;&gt; @lt6032548acffe0
+(1) Perizinan Berusaha sektor energi dan sumber daya mineral terdiri atas subsektor:
+[...]
+c. mineral dan batubara; dan
+[…]
+(4) Perizinan Berusaha pada subsektor mineral dan batubara sebagaimana dimaksud pada ayat (1) huruf c yang ditetapkan berdasarkan hasil analisis Risiko kegiatan usaha terdiri atas: 
+a. pertambangan; 
+b. pertambangan khusus; 
+c. pertambangan khusus sebagai kelanjutan operasi kontrak/perjanjian; 
+d. pertambangan rakyat; 
+e. penambangan batuan; 
+f. pengangkutan dan penjualan; 
+g. jasa pertambangan; dan 
+h. pertambangan untuk penjualan.
+[…]
+Pasal 42 &gt;&gt;&gt; @lt6032548acffe0
+[…]
+(3) Perizinan Berusaha Untuk Menunjang Kegiatan Usaha pada subsektor mineral dan batubara sebagaimana dimaksud dalam Pasal 41 ayat (1) huruf c meliputi: 
+[...]
+c. persetujuan penggunaan keikutsertaan anak perusahaan dan/atau afiliasi dalam usaha jasa pertambangan.
+[…]
+Pasal 43  &gt;&gt;&gt; @lt6032548acffe0
+[...]
+(2) Persyaratan dan/atau kewajiban Perizinan Berusaha pada sektor energi dan sumber daya mineral yang ditetapkan berdasarkan hasil analisis Risiko kegiatan usaha sebagaimana dimaksud dalam Pasal 41 dan Perizinan Berusaha Untuk Menunjang Kegiatan Usaha sebagaimana dimaksud dalam Pasal 42 tercantum dalam Lampiran II.
+LAMPIRAN II &gt;&gt;&gt; @lt6032548acffe0
+B. DAFTAR PERSYARATAN DAN/ATAU KEWAJIBAN PERIZINAN BERUSAHA UNTUK MENUNJANG KEGIATAN USAHA (NON-KBLI) SEKTOR ENERGI DAN SUMBER DAYA MINERAL
+[...]
+No. 32: Persetujuan penggunaan keikutsertaan anak perusahaan dan/atau afiliasi dalam usaha jasa pertambangan dengan jenis pelaksanaan
+KBLI Terkait - Kode KBLI: 09900
+KBLI Terkait - Judul KBLI: Aktivitas Penunjang Pertambangan dan Penggalian Lainnya
+[...]
+Kewajiban - Rincian:
+1. Menerapkan asas kepatutan, transparan, kewajaran dalam menggunakan perusahaan jasa pertambangan pemegang IUJP;
+2. Menyampaikan setiap dokumen kontrak penggunaan anak usaha dan/atau afiliasi dalam bidang jasa pertambangan kepada Menteri atau gubernur sesuai dengan kewenangannya;
+3. Menyampaikan laporan keuangan yang telah diaudit oleh kantor akuntan publik dan menyampaikan pernyataan bahwa tidak terjadi transfer of profit.
+Kewajiban - Jangka Waktu Pemenuhan: Sesuai persetujuan program kemitraan.
+[...]
+Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Kewajiban
+Pasal 72
+Pemegang IUJP dalam melaksanakan kegiatan usahanya wajib:
+[...]
+m. memenuhi ketentuan peraturan perundang-undangan di bidang usaha jasa pertambangan.</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Peraturan Pemerintah Nomor 5 Tahun 2021@lt6032548acffe0
+Sanksi
+Pasal 383 &gt;&gt;&gt; @lt6032548acffe0
+(1) Pemegang Perizinan Berusaha yang ditetapkan berdasarkan hasil analisis Risiko kegiatan usaha dan/atau Perizinan Berusaha Untuk Menunjang Kegiatan Usaha pada sektor mineral dan batubara yang tidak memenuhi kewajiban dan/atau persyaratan Perizinan Berusaha, dapat diberikan sanksi administratif oleh menteri yang menyelenggarakan urusan pemerintahan di bidang energi dan sumber daya mineral sesuai dengan ketentuan peraturan perundang-undangan.
+(2) Sanksi administratif sebagaimana dimaksud pada ayat (1) berupa:
+a. peringatan tertulis;
+b. penghentian sementara sebagian atau seluruh kegiatan Perizinan Berusaha; dan/atau
+c. pencabutan Perizinan Berusaha.
+(3) Sanksi administratif berupa peringatan tertulis sebagaimana dimaksud pada ayat (2) huruf a diberikan paling banyak 3 (tiga) kali dengan jangka waktu peringatan masing-masing 30 (tiga puluh) Hari.
+(4) Dalam hal Pelaku Usaha yang telah mendapatkan sanksi administratif berupa peringatan tertulis sebagaimana dimaksud pada ayat (3) belum melakukan kewajibannya sampai dengan berakhirnya sanksi administratif berupa peringatan tertulis yang ketiga, dikenai sanksi administratif berupa penghentian sementara sebagian atau seluruh kegiatan sebagaimana dimaksud pada ayat (2) huruf b.
+(5) Dalam hal Pelaku Usaha yang telah mendapatkan sanksi administratif berupa penghentian sementara sebagian atau seluruh kegiatan sebagaimana dimaksud pada ayat (2) huruf b, belum melakukan kewajibannya sampai dengan berakhirnya jangka waktu pemberian sanksi administratif berupa penghentian sementara sebagian atau seluruh kegiatan, dikenai sanksi administratif berupa pencabutan Perizinan Berusaha sebagaimana dimaksud pada ayat (2) huruf c.
+Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Sanksi
+Pasal 95 
+(1) Pemegang IUP, IUPK, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, IUJP, dan IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, yang tidak mematuhi atau melanggar ketentuan sebagaimana dimaksud dalam [...] Pasal 72 huruf a atau huruf m [...].
+(2) Sanksi administratif sebagaimana dimaksud pada ayat (1) berupa:
+a. peringatan tertulis;
+b. penghentian sementara sebagian atau seluruh kegiatan usaha; dan/atau
+c. pencabutan izin.
+(3) Sanksi administratif sebagaimana dimaksud pada ayat (2) diberikan oleh Direktur Jenderal atas nama Menteri atau gubernur sesuai dengan kewenangannya.</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>2700</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2496</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>memenuhikewajibanperizinanberusahauntukmenunjangkegiatanusahapadasubsektorbatubaraberupapersetujuanpenggunaankeikutsertaananakperusahaandan/atauafiliasidalamusahajasapertambangandalamjangkawaktusesuaipersetujuanprogramkemitraanuntukaktivitaspenunjangpertambangandanpenggalianlainnya</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>1.menerapkanasaskepatutan,transparan,kewajarandalammenggunakanperusahaanjasapertambanganpemegangiujp.2.menyampaikansetiapdokumenkontrakpenggunaananakusahadan/atauafiliasidalambidangjasapertambangankepadamenteriataugubernursesuaidengankewenangannya.3.menyampaikanlaporankeuanganyangtelahdiauditolehkantorakuntanpublikdanmenyampaikanpernyataanbahwatidakterjaditransferofprofit.</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>peraturanpemerintahnomor5tahun2021kewajibanpasal23&gt;&gt;&gt;[...](2)pelakuusahaharusmematuhipersyaratandan/ataukewajibanperizinanberusahasebagaimanatercantumdalamlampiranii.pasal41&gt;&gt;&gt;(1)perizinanberusahasektorenergidansumberdayamineralterdiriatassubsektor:[...]c.mineraldanbatubara;dan[…](4)perizinanberusahapadasubsektormineraldanbatubarasebagaimanadimaksudpadaayat(1)hurufcyangditetapkanberdasarkanhasilanalisisrisikokegiatanusahaterdiriatas:a.pertambangan;b.pertambangankhusus;c.pertambangankhusussebagaikelanjutanoperasikontrak/perjanjian;d.pertambanganrakyat;e.penambanganbatuan;f.pengangkutandanpenjualan;g.jasapertambangan;danh.pertambanganuntukpenjualan.[…]pasal42&gt;&gt;&gt;[…](3)perizinanberusahauntukmenunjangkegiatanusahapadasubsektormineraldanbatubarasebagaimanadimaksuddalampasal41ayat(1)hurufcmeliputi:[...]c.persetujuanpenggunaankeikutsertaananakperusahaandan/atauafiliasidalamusahajasapertambangan.[…]pasal43&gt;&gt;&gt;[...](2)persyaratandan/ataukewajibanperizinanberusahapadasektorenergidansumberdayamineralyangditetapkanberdasarkanhasilanalisisrisikokegiatanusahasebagaimanadimaksuddalampasal41danperizinanberusahauntukmenunjangkegiatanusahasebagaimanadimaksuddalampasal42tercantumdalamlampiranii.lampiranii&gt;&gt;&gt;b.daftarpersyaratandan/ataukewajibanperizinanberusahauntukmenunjangkegiatanusaha(non-kbli)sektorenergidansumberdayamineral[...]no.32:persetujuanpenggunaankeikutsertaananakperusahaandan/atauafiliasidalamusahajasapertambangandenganjenispelaksanaankbliterkait-kodekbli:09900kbliterkait-judulkbli:aktivitaspenunjangpertambangandanpenggalianlainnya[...]kewajiban-rincian:1.menerapkanasaskepatutan,transparan,kewajarandalammenggunakanperusahaanjasapertambanganpemegangiujp;2.menyampaikansetiapdokumenkontrakpenggunaananakusahadan/atauafiliasidalambidangjasapertambangankepadamenteriataugubernursesuaidengankewenangannya;3.menyampaikanlaporankeuanganyangtelahdiauditolehkantorakuntanpublikdanmenyampaikanpernyataanbahwatidakterjaditransferofprofit.kewajiban-jangkawaktupemenuhan:sesuaipersetujuanprogramkemitraan.[...]peraturanmenterienergidansumberdayamineralnomor7tahun2020kewajibanpasal72pemegangiujpdalammelaksanakankegiatanusahanyawajib:[...]m.memenuhiketentuanperaturanperundang-undangandibidangusahajasapertambangan.</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>peraturanpemerintahnomor5tahun2021sanksipasal383&gt;&gt;&gt;(1)pemegangperizinanberusahayangditetapkanberdasarkanhasilanalisisrisikokegiatanusahadan/atauperizinanberusahauntukmenunjangkegiatanusahapadasektormineraldanbatubarayangtidakmemenuhikewajibandan/ataupersyaratanperizinanberusaha,dapatdiberikansanksiadministratifolehmenteriyangmenyelenggarakanurusanpemerintahandibidangenergidansumberdayamineralsesuaidenganketentuanperaturanperundang-undangan.(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)berupa:a.peringatantertulis;b.penghentiansementarasebagianatauseluruhkegiatanperizinanberusaha;dan/atauc.pencabutanperizinanberusaha.(3)sanksiadministratifberupaperingatantertulissebagaimanadimaksudpadaayat(2)hurufadiberikanpalingbanyak3(tiga)kalidenganjangkawaktuperingatanmasing-masing30(tigapuluh)hari.(4)dalamhalpelakuusahayangtelahmendapatkansanksiadministratifberupaperingatantertulissebagaimanadimaksudpadaayat(3)belummelakukankewajibannyasampaidenganberakhirnyasanksiadministratifberupaperingatantertulisyangketiga,dikenaisanksiadministratifberupapenghentiansementarasebagianatauseluruhkegiatansebagaimanadimaksudpadaayat(2)hurufb.(5)dalamhalpelakuusahayangtelahmendapatkansanksiadministratifberupapenghentiansementarasebagianatauseluruhkegiatansebagaimanadimaksudpadaayat(2)hurufb,belummelakukankewajibannyasampaidenganberakhirnyajangkawaktupemberiansanksiadministratifberupapenghentiansementarasebagianatauseluruhkegiatan,dikenaisanksiadministratifberupapencabutanperizinanberusahasebagaimanadimaksudpadaayat(2)hurufc.peraturanmenterienergidansumberdayamineralnomor7tahun2020sanksipasal95(1)pemegangiup,iupk,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,iujp,daniupoperasiproduksikhususuntukpengangkutandanpenjualan,yangtidakmematuhiataumelanggarketentuansebagaimanadimaksuddalam[...]pasal72hurufaatauhurufm[...].(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)berupa:a.peringatantertulis;b.penghentiansementarasebagianatauseluruhkegiatanusaha;dan/atauc.pencabutanizin.(3)sanksiadministratifsebagaimanadimaksudpadaayat(2)diberikanolehdirekturjenderalatasnamamenteriataugubernursesuaidengankewenangannya.</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>3d61b0e29f3a1d60f7a3e025193bc1620ea6a52ed12990c24d0ecdee96b8dc49</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Pertambangan Batubara&gt;Pelaksanaan Kegiatan Usaha Pertambangan Batubara</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Memiliki kontrak kerja yang berasaskan kepatutan, transparansi dan kewajaran apabila menggunakan perusahaan jasa pertambangan bagi pemegang IUP, IUPK, IUP Operasi Produksi Khusus untuk pengolahan dan/atau pemurnian, dan IUJP</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Kewajiban
+Pasal 72
+Pemegang IUJP dalam melaksanakan kegiatan usahanya wajib:
+[...]
+m. memenuhi ketentuan peraturan perundang-undangan di bidang usaha jasa pertambangan.
+Keputusan Menteri Energi Dan Sumber Daya Mineral Nomor 1827 K/30/MEM/2018 Tahun 2018@lt5b0299aa115db
+Kewajiban
+LAMPIRAN VIII PEDOMAN KAIDAH TEKNIK USAHA JASA PERTAMBANGAN DAN EVALUASI KAIDAH TEKNIK USAHA JASA PERTAMBANGAN &gt;&gt;&gt; @lt5b0299aa115db
+[...]
+D. KEGIATAN
+1. Kaidah Teknik Pertambangan Usaha Jasa 
+[...]
+c. Pemilihan Perusahaan Jasa Pertambangan 
+1) Penggunaan perusahaan jasa pertambangan oleh pemegang IUP, IUPK, IUP Operasi Produksi Khusus untuk pengolahan dan/atau pemurnian, dan IUJP harus didasarkan pada kontrak kerja yang berasaskan kepatutan, transparansi dan kewajaran.
+[...]</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Sanksi
+Pasal 95 
+(1) Pemegang IUP, IUPK, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, IUJP, dan IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, yang tidak mematuhi atau melanggar ketentuan sebagaimana dimaksud dalam [...] Pasal 72 huruf a atau huruf m [...].
+(2) Sanksi administratif sebagaimana dimaksud pada ayat (1) berupa:
+a. peringatan tertulis;
+b. penghentian sementara sebagian atau seluruh kegiatan usaha; dan/atau
+c. pencabutan izin.
+(3) Sanksi administratif sebagaimana dimaksud pada ayat (2) diberikan oleh Direktur Jenderal atas nama Menteri atau gubernur sesuai dengan kewenangannya.</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>846</v>
+      </c>
+      <c r="J20" t="n">
+        <v>715</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>memilikikontrakkerjayangberasaskankepatutan,transparansidankewajaranapabilamenggunakanperusahaanjasapertambanganbagipemegangiup,iupk,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,daniujp</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>conditional</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>peraturanmenterienergidansumberdayamineralnomor7tahun2020kewajibanpasal72pemegangiujpdalammelaksanakankegiatanusahanyawajib:[...]m.memenuhiketentuanperaturanperundang-undangandibidangusahajasapertambangan.keputusanmenterienergidansumberdayamineralnomor1827k/30/mem/2018tahun2018kewajibanlampiranviiipedomankaidahteknikusahajasapertambangandanevaluasikaidahteknikusahajasapertambangan&gt;&gt;&gt;[...]d.kegiatan1.kaidahteknikpertambanganusahajasa[...]c.pemilihanperusahaanjasapertambangan1)penggunaanperusahaanjasapertambanganolehpemegangiup,iupk,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,daniujpharusdidasarkanpadakontrakkerjayangberasaskankepatutan,transparansidankewajaran.[...]</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>peraturanmenterienergidansumberdayamineralnomor7tahun2020sanksipasal95(1)pemegangiup,iupk,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,iujp,daniupoperasiproduksikhususuntukpengangkutandanpenjualan,yangtidakmematuhiataumelanggarketentuansebagaimanadimaksuddalam[...]pasal72hurufaatauhurufm[...].(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)berupa:a.peringatantertulis;b.penghentiansementarasebagianatauseluruhkegiatanusaha;dan/atauc.pencabutanizin.(3)sanksiadministratifsebagaimanadimaksudpadaayat(2)diberikanolehdirekturjenderalatasnamamenteriataugubernursesuaidengankewenangannya.</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>2eaf3ae9d289ac750d8eb7b21e9ac48d1939ef1e1beb74f605c4f3f8fba12df4</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Pertambangan Batubara&gt;Pelaksanaan Kegiatan Usaha Pertambangan Batubara</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Memberikan sebagian pekerjaan yang didapatkannya kepada Perusahaan Jasa Pertambangan Lokal sebagai subkontraktor sesuai dengan kompetensinya bagi perusahaan jasa pertambangan berstatus PMA yang mendapatkan pekerjaan di bidang Jasa Pertambangan</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Kewajiban
+Pasal 72
+Pemegang IUJP dalam melaksanakan kegiatan usahanya wajib:
+[...]
+m. memenuhi ketentuan peraturan perundang-undangan di bidang usaha jasa pertambangan.
+Keputusan Menteri Energi Dan Sumber Daya Mineral Nomor 1827 K/30/MEM/2018 Tahun 2018@lt5b0299aa115db
+Kewajiban
+LAMPIRAN VIII PEDOMAN KAIDAH TEKNIK USAHA JASA PERTAMBANGAN DAN EVALUASI KAIDAH TEKNIK USAHA JASA PERTAMBANGAN &gt;&gt;&gt; @lt5b0299aa115db
+[...]
+D. KEGIATAN
+1. Kaidah Teknik Pertambangan Usaha Jasa 
+[...]
+c. Pemilihan Perusahaan Jasa Pertambangan
+[...]
+7) Dalam hal perusahaan jasa pertambangan berstatus PMA mendapatkan pekerjaan di bidang Jasa Pertambangan harus memberikan sebagian pekerjaan yang didapatkannya kepada Perusahaan Jasa Pertambangan Lokal sebagai subkontraktor sesuai dengan kompetensinya.
+[...]</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Sanksi
+Pasal 95 
+(1) Pemegang IUP, IUPK, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, IUJP, dan IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, yang tidak mematuhi atau melanggar ketentuan sebagaimana dimaksud dalam [...] Pasal 72 huruf a atau huruf m [...].
+(2) Sanksi administratif sebagaimana dimaksud pada ayat (1) berupa:
+a. peringatan tertulis;
+b. penghentian sementara sebagian atau seluruh kegiatan usaha; dan/atau
+c. pencabutan izin.
+(3) Sanksi administratif sebagaimana dimaksud pada ayat (2) diberikan oleh Direktur Jenderal atas nama Menteri atau gubernur sesuai dengan kewenangannya.</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>872</v>
+      </c>
+      <c r="J21" t="n">
+        <v>715</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>memberikansebagianpekerjaanyangdidapatkannyakepadaperusahaanjasapertambanganlokalsebagaisubkontraktorsesuaidengankompetensinyabagiperusahaanjasapertambanganberstatuspmayangmendapatkanpekerjaandibidangjasapertambangan</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>peraturanmenterienergidansumberdayamineralnomor7tahun2020kewajibanpasal72pemegangiujpdalammelaksanakankegiatanusahanyawajib:[...]m.memenuhiketentuanperaturanperundang-undangandibidangusahajasapertambangan.keputusanmenterienergidansumberdayamineralnomor1827k/30/mem/2018tahun2018kewajibanlampiranviiipedomankaidahteknikusahajasapertambangandanevaluasikaidahteknikusahajasapertambangan&gt;&gt;&gt;[...]d.kegiatan1.kaidahteknikpertambanganusahajasa[...]c.pemilihanperusahaanjasapertambangan[...]7)dalamhalperusahaanjasapertambanganberstatuspmamendapatkanpekerjaandibidangjasapertambanganharusmemberikansebagianpekerjaanyangdidapatkannyakepadaperusahaanjasapertambanganlokalsebagaisubkontraktorsesuaidengankompetensinya.[...]</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>peraturanmenterienergidansumberdayamineralnomor7tahun2020sanksipasal95(1)pemegangiup,iupk,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,iujp,daniupoperasiproduksikhususuntukpengangkutandanpenjualan,yangtidakmematuhiataumelanggarketentuansebagaimanadimaksuddalam[...]pasal72hurufaatauhurufm[...].(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)berupa:a.peringatantertulis;b.penghentiansementarasebagianatauseluruhkegiatanusaha;dan/atauc.pencabutanizin.(3)sanksiadministratifsebagaimanadimaksudpadaayat(2)diberikanolehdirekturjenderalatasnamamenteriataugubernursesuaidengankewenangannya.</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>8010be23311ed25630c5f583f79fa741a63411ffc58df9d813224ac424a9b85d</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Pertambangan Batubara&gt;Pelaksanaan Kegiatan Usaha Pertambangan Batubara</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Memenuhi kewajiban yang ditetapkan dalam peraturan perundang-undangan bagi perusahaan jasa pertambangan</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1. Melaksanakan ketentuan aspek teknis, konservasi, keselamatan, dan lindungan lingkungan pertambangan sesuai dengan bidang usaha dan ketentuan peraturan perundang-undangan.
+2. Mengangkat penanggung jawab operasional.
+3. Memiliki Tenaga Teknis Pertambangan yang Berkompeten sesuai dengan ketentuan peraturan perundang-undangan.
+4. Melaporkan IUJP-nya kepada gubernur tempat kegiatan usahanya sebelum memulai kegiatan usahanya bagi pemegang IUJP yang diterbitkan oleh Menteri ESDM.
+5. Menyusun laporan kegiatan secara berkala yang kemudian disampaikan kepada pemegang IUP, IUPK, dan IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian sesuai dengan ketentuan peraturan perundang-undangan.
+6. Memberikan informasi yang memuat alasan penggunaan tenaga kerja asing (TKA) yang kemudian disampaikan kepada pemegang IUP, IUPK, dan IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, yang mana disampaikan secara berkala bersama-sama dengan laporan berkala.</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Kewajiban
+Pasal 72
+Pemegang IUJP dalam melaksanakan kegiatan usahanya wajib:
+[...]
+m. memenuhi ketentuan peraturan perundang-undangan di bidang usaha jasa pertambangan.
+Keputusan Menteri Energi Dan Sumber Daya Mineral Nomor 1827 K/30/MEM/2018 Tahun 2018@lt5b0299aa115db
+Kewajiban
+LAMPIRAN VIII PEDOMAN KAIDAH TEKNIK USAHA JASA PERTAMBANGAN DAN EVALUASI KAIDAH TEKNIK USAHA JASA PERTAMBANGAN &gt;&gt;&gt; @lt5b0299aa115db
+[...]
+D. KEGIATAN
+[...]
+2. Kewajiban perusahaan jasa pertambangan terdiri atas;
+a. melaksanakan ketentuan aspek teknis, konservasi, keselamatan, dan lindungan lingkungan pertambangan sesuai dengan bidang usaha dan ketentuan peraturan perundang-undangan;
+b. mengangkat penanggung jawab operasional; 
+c. memiliki Tenaga Teknis Pertambangan yang Berkompeten sesuai dengan ketentuan peraturan perundang-undangan; dan
+d. pemegang IUJP yang diterbitkan oleh Menteri melaporkan IUJP-nya kepada gubernur tempat kegiatan usahanya sebelum memulai kegiatan usahanya.
+3. Evaluasi Penerapan Kaidah Teknik Usaha Jasa Pertambangan 
+Evaluasi penerapan kaidah teknik usaha jasa pertambangan dilakukan terhadap:
+a. laporan kegiatan secara berkala dari perusahaan jasa pertambangan kepada Menteri atau gubernur sesuai kewenangannya melalui pemegang IUP, IUPK, dan IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian sesuai dengan ketentuan peraturan perundang-undangan;
+b. Informasi yang memuat:
+[...]
+2) alasan penggunaan tenaga kerja asing (TKA) yang disampaikan oleh pemegang IUJP melalui pemegang IUP, IUPK, dan IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian.**)
+[...]
+FORMAT PENJELASAN PENGGUNAAN TENAGA KERJA ASING (TKA) OLEH PEMEGANG IUJP 
+[...]
+Catatan:
+Disampaikan berkala bersama-sama dengan laporan berkala</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Sanksi
+Pasal 95 
+(1) Pemegang IUP, IUPK, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, IUJP, dan IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, yang tidak mematuhi atau melanggar ketentuan sebagaimana dimaksud dalam [...] Pasal 72 huruf a atau huruf m [...].
+(2) Sanksi administratif sebagaimana dimaksud pada ayat (1) berupa:
+a. peringatan tertulis;
+b. penghentian sementara sebagian atau seluruh kegiatan usaha; dan/atau
+c. pencabutan izin.
+(3) Sanksi administratif sebagaimana dimaksud pada ayat (2) diberikan oleh Direktur Jenderal atas nama Menteri atau gubernur sesuai dengan kewenangannya.</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>1826</v>
+      </c>
+      <c r="J22" t="n">
+        <v>715</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>memenuhikewajibanyangditetapkandalamperaturanperundang-undanganbagiperusahaanjasapertambangan</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>1.melaksanakanketentuanaspekteknis,konservasi,keselamatan,danlindunganlingkunganpertambangansesuaidenganbidangusahadanketentuanperaturanperundang-undangan.2.mengangkatpenanggungjawaboperasional.3.memilikitenagateknispertambanganyangberkompetensesuaidenganketentuanperaturanperundang-undangan.4.melaporkaniujp-nyakepadagubernurtempatkegiatanusahanyasebelummemulaikegiatanusahanyabagipemegangiujpyangditerbitkanolehmenteriesdm.5.menyusunlaporankegiatansecaraberkalayangkemudiandisampaikankepadapemegangiup,iupk,daniupoperasiproduksikhususuntukpengolahandan/ataupemurniansesuaidenganketentuanperaturanperundang-undangan.6.memberikaninformasiyangmemuatalasanpenggunaantenagakerjaasing(tka)yangkemudiandisampaikankepadapemegangiup,iupk,daniupoperasiproduksikhususuntukpengolahandan/ataupemurnian,yangmanadisampaikansecaraberkalabersama-samadenganlaporanberkala.</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>peraturanmenterienergidansumberdayamineralnomor7tahun2020kewajibanpasal72pemegangiujpdalammelaksanakankegiatanusahanyawajib:[...]m.memenuhiketentuanperaturanperundang-undangandibidangusahajasapertambangan.keputusanmenterienergidansumberdayamineralnomor1827k/30/mem/2018tahun2018kewajibanlampiranviiipedomankaidahteknikusahajasapertambangandanevaluasikaidahteknikusahajasapertambangan&gt;&gt;&gt;[...]d.kegiatan[...]2.kewajibanperusahaanjasapertambanganterdiriatas;a.melaksanakanketentuanaspekteknis,konservasi,keselamatan,danlindunganlingkunganpertambangansesuaidenganbidangusahadanketentuanperaturanperundang-undangan;b.mengangkatpenanggungjawaboperasional;c.memilikitenagateknispertambanganyangberkompetensesuaidenganketentuanperaturanperundang-undangan;dand.pemegangiujpyangditerbitkanolehmenterimelaporkaniujp-nyakepadagubernurtempatkegiatanusahanyasebelummemulaikegiatanusahanya.3.evaluasipenerapankaidahteknikusahajasapertambanganevaluasipenerapankaidahteknikusahajasapertambangandilakukanterhadap:a.laporankegiatansecaraberkaladariperusahaanjasapertambangankepadamenteriataugubernursesuaikewenangannyamelaluipemegangiup,iupk,daniupoperasiproduksikhususuntukpengolahandan/ataupemurniansesuaidenganketentuanperaturanperundang-undangan;b.informasiyangmemuat:[...]2)alasanpenggunaantenagakerjaasing(tka)yangdisampaikanolehpemegangiujpmelaluipemegangiup,iupk,daniupoperasiproduksikhususuntukpengolahandan/ataupemurnian.**)[...]formatpenjelasanpenggunaantenagakerjaasing(tka)olehpemegangiujp[...]catatan:disampaikanberkalabersama-samadenganlaporanberkala</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>peraturanmenterienergidansumberdayamineralnomor7tahun2020sanksipasal95(1)pemegangiup,iupk,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,iujp,daniupoperasiproduksikhususuntukpengangkutandanpenjualan,yangtidakmematuhiataumelanggarketentuansebagaimanadimaksuddalam[...]pasal72hurufaatauhurufm[...].(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)berupa:a.peringatantertulis;b.penghentiansementarasebagianatauseluruhkegiatanusaha;dan/atauc.pencabutanizin.(3)sanksiadministratifsebagaimanadimaksudpadaayat(2)diberikanolehdirekturjenderalatasnamamenteriataugubernursesuaidengankewenangannya.</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>fdde37d6f477e2c622663538debcb31369b8c2933120047512e2fa788cd2d9b7</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Pertambangan Batubara&gt;Pelaksanaan Kegiatan Usaha Pertambangan Batubara</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Mengutamakan barang modal, peralatan, bahan baku, dan bahan pendukung yang berasal dari produk dalam negeri</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1. Menggunakan barang modal, peralatan, bahan baku, dan bahan pendukung lainnya dalam hal produk dalam negeri tidak tersedia.
+2. Menggunakan produk dalam negeri yang memenuhi standar kuaiitas dan layanan purna jual.
+3. Menggunakan produk dalam negeri yang dapat menjamin kontinuitas pasokan dan ketepatan waktu pengiriman
+4. Menyampaikan rencana pembelian barang modal, peralatan, bahan baku, dan bahan pendukung lainnya serta produk impor yang dijuai di dalam negeri dan barang yang, akan diimpor sendiri kepada Menteri dalam RKAB Tahunan</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Peraturan Pemerintah Nomor 96 Tahun 2021@lt614815d4f1925
+Kewajiban
+Pasal 162 &gt;&gt;&gt; @lt614815d4f1925
+(1) Pemegang IUP, IUPK, atau IUJP dalam melaksanakan kegiatan Usaha Pertambangan wajib mengutamakan barang modal, peralatan, bahan baku, dan bahan pendukung lainnya yang berasal dari produk dalam negeri.
+[...]
+Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Kewajiban
+Pasal 72
+Pemegang IUJP dalam melaksanakan kegiatan usahanya wajib:
+a. mengutamakan produk dalam negeri;
+[...]
+m. memenuhi ketentuan peraturan perundang-undangan di bidang usaha jasa pertambangan.
+Peraturan Menteri Energi Dan Sumber Daya Mineral Nomor 26 Tahun 2018@lt5b02917def988
+Kewajiban
+Pasal 36 &gt;&gt;&gt; @lt5b02917def988
+(1) Pemegang IUP Eksplorasi, IUPK Eksplorasi, IUP Operasi Produksi, IUPK Operasi Produksi, dan IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian wajib memanfaatkan barang, jasa, dan teknologi sebagaimana dimaksud dalam Pasal 3 ayat (4) huruf d dan Pasal 4 ayat (4) huruf d sesuai dengan RKAB Tahunan yang telah disetujui.
+(2) Pemegang IUP Eksplorasi, IUPK Eksplorasi, IUP Operasi Produksi, IUPK Operasi Produksi, dan IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian dalam pemanfaatan barang, jasa, dan teknologi sebagaimana dimaksud pada ayat (1) wajib menggunakan produk dalam negeri.
+(3) Dalam hal barang, jasa, dan teknologi sebagaimana dimaksud pada ayat (2) tidak tersedia di dalam negeri dengan pertimbangan:
+a. harga yang tidak kompetitif;
+b. kualitas/mutu yang tidak memenuhi standar; dan
+c. tidak tercukupinya jumlah dan kontinuitas pasokan, pemegang IUP Eksplorasi, IUPK Eksplorasi, IUP Operasi Produksi, IUPK Operasi Produksi, dan IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian dapat menggunakan barang, jasa, dan teknologi dari luar negeri.
+(4) Dalam pemanfaatan barang, jasa, dan teknologi sebagaimana dimaksud pada ayat (3) pemegang IUP Eksplorasi, IUPK Eksplorasi, IUP Operasi Produksi, IUPK Operasi Produksi, dan IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian wajib memenuhi tingkat kandungan dalam negeri sesuai dengan ketentuan peraturan perundang-undangan.
+(5) Menteri menetapkan daftar barang, jasa, dan teknologi yang diproduksi di dalam negeri.
+Peraturan Menteri Energi Dan Sumber Daya Mineral Nomor 25 Tahun 2018@lt5af950ccbfc3d
+Kewajiban
+Pasal 30 &gt;&gt;&gt; @lt5af950ccbfc3d
+(1) Pemegang IUP Eksplorasi, IUPK Eksplorasi, IUP Operasi Produksi, IUPK Operasi Produksi, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, dan Izin Usaha Jasa Pertambangan dalam melaksanakan kegiatan usaha pertambangan wajib mengutamakan barang modal, peralatan, bahan baku, dan bahan pendukung lainnya produk dalam negeri.
+[...]
+Keputusan Menteri Energi Dan Sumber Daya Mineral Nomor 1953 K/06/MEM/2018 Tahun 2018@lt5b9248acc2238
+Kewajiban
+###KESATU &gt;&gt;&gt; @lt5b9248acc2238
+Badan usaha yang bergerak di sektor energi dan sumber daya mineral yang meliputi kegiatan usaha di bidang:
+[...]
+b. mineral dan batubara;
+[...]
+dalam melaksanakan kegiatan usahanya wajib menggunakan barang operasi, barang modal, peralatan, bahan baku, dan bahan pendukung lainnya yang diproduksi di dalam negeri sepanjang memenuhi kualitas/spesifikasi, waktu penyerahan dan harga.</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Peraturan Pemerintah Nomor 96 Tahun 2021@lt614815d4f1925
+Sanksi
+Pasal 185 &gt;&gt;&gt; @lt614815d4f1925
+(1) Pemegang IUP, IUPK, IPR, SIPB, atau IUP untuk Penjualan yang melakukan pelanggaran terhadap ketentuan sebagaimana dimaksud dalam […] Pasal 162 ayat (1) […] dikenai sanksi administratif.
+(2) sanksi administratif sebagaimana dimaksud pada ayat (1) benrpa:
+a. peringatan tertulis;
+b. penghentian sernentara sebagian atau seluruh kegiatan Eksplorasi atau Operasi produksi; dan/atau
+c. pencabutan IUP, IUPK, IPR, SIPB, atau IUP untuk Penjualan.
+(3) selain sanksi administratif sebagaimana dimaksud pada ayat (2), pemegang IUP, IUPK, IPR, atau SIPB, yang melakukan pelanggaran terhadap ketentuan sebagaimana dimaksud dalam pasal 51 ayat (2) huruf b dan Pasal 107 ayat (2) huruf b dikenai denda.
+(4) Pengenaan denda sebagaimana dimaksud pada ayat (3) dilaksanakan sesuai dengan ketentuan peraturan perundang-undangan di bidang pajak daerah dan retribusi daerah.
+Pasal 186 &gt;&gt;&gt; @lt614815d4f1925
+Peringatan tertulis sebagaimana dimaksud dalam pasal 185 ayat (2) huruf a diberikan paling banyak 3 (tiga) kali dengan jangka waktu peringatan masing-masing 30 (tiga puluh) hari kalender.
+Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Sanksi
+Pasal 95
+(1) Pemegang IUP, IUPK, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, IUJP, dan IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, yang tidak mematuhi atau melanggar ketentuan sebagaimana dimaksud dalam [...] Pasal 72 huruf a atau sampai dengan huruf m, [...] dikenai sanksi administratif.
+(2) Sanksi administratif sebagaimana dimaksud pada ayat (1) berupa:
+a. peringatan tertulis;
+b. penghentian sementara sebagian atau seluruh kegiatan usaha; dan/atau
+c. pencabutan izin.
+(3) Sanksi administratif sebagaimana dimaksud pada ayat (2) diberikan oleh Direktur Jenderal atas nama Menteri atau gubernur sesuai dengan kewenangannya.
+Peraturan Menteri Energi Dan Sumber Daya Mineral Nomor 25 Tahun 2018@lt5af950ccbfc3d
+Sanksi
+Pasal 40 &gt;&gt;&gt; @lt5af950ccbfc3d
+(1)  Pemegang IUP Eksplorasi, IUPK Eksplorasi, IUP Operasi Produksi, IUPK Operasi Produksi, IUP Operasi Produksi khusus untuk pengolahan dan atau pemurnian, IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, dan Izin Usaha Jasa Pertambangan yang tidak mematuhi atau melanggar ketentuan sebagaimana dimaksud dalam Pasal 8 ayat (1) atau sampai dengan ayat (3), Pasal 9 ayat (1), Pasal 10 ayat (1), Pasal 11 ayat (1), Pasal 12 ayat (1), Pasal 13, Pasal 14 ayat (1) atau ayat (3), Pasal 16 ayat (1) atau ayat (6), Pasal 17 ayat (1), Pasal 18 ayat (1) atau sampai dengan ayat (6), Pasal 22, Pasal 24 ayat (1) atau ayat (3), Pasal 25 ayat (1), Pasal 26 ayat (1) atau ayat (2), Pasal 27 ayat (1), Pasal 29 ayat (1) atau ayat (3), Pasal 30 ayat (1) atau ayat (4), Pasal 33 ayat (1),  Pasal 38 ayat (1), ayat (4), ayat (6), atau ayat (7), atau Pasal 39 ayat (1) dikenakan sanksi administratif.
+(2) Sanksi administratif sebagaimana dimaksud pada ayat (1) berupa:
+a. peringatan tertulis;
+b. penghentian sementara sebagian atau seluruh kegiatan usaha; dan/atau
+c. pencabutan izin.
+(3)  Sanksi administratif sebagaimana dimaksud pada ayat (2) diberikan oleh Direktur Jenderal atas nama Menteri atau gubernur sesuai dengan kewenangannya.
+Pasal 41 &gt;&gt;&gt; @lt5af950ccbfc3d
+Peringatan tertulis sebagaimana dimaksud dalam Pasal 40 ayat (2) huruf a diberikan paling banyak 3 (tiga) kali dengan jangka waktu peringatan masing-masing paling lama 30 (tiga puluh) hari kalender.
+Pasal 42 &gt;&gt;&gt; @lt5af950ccbfc3d
+(1) Dalam hal pemegang IUP Eksplorasi, IUPK Eksplorasi, IUP Operasi Produksi, IUPK Operasi Produksi, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, atau Izin Usaha Jasa Pertambangan yang mendapat sanksi peringatan tertulis setelah berakhirnya jangka waktu peringatan tertulis sebagaimana dimaksud dalam Pasal 40 ayat (2) huruf a belum melaksanakan kewajibannya, dikenakan sanksi administratif berupa penghentian sementara sebagian atau seluruh kegiatan usaha sebagaimana dimaksud dalam Pasal 40 ayat (2) huruf b.
+(2) Sanksi administratif berupa penghentian sementara sebagian atau seluruh kegiatan usaha sebagaimana dimaksud pada ayat (1) dikenakan paling lama 60 (enam puluh) hari kalender.
+Pasal 43 &gt;&gt;&gt; @lt5af950ccbfc3d
+Sanksi administratif berupa pencabutan izin sebagaimana dimaksud dalam Pasal 40 ayat (2) huruf c dikenakan kepada pemegang IUP Eksplorasi, IUPK Eksplorasi, IUP Operasi Produksi, IUPK Operasi Produksi, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, atau Izin Usaha Jasa Pertambangan yang tidak melaksanakan kewajiban sampai dengan berakhirnya jangka waktu pengenaan sanksi berupa penghentian sementara sebagian atau seluruh kegiatan usaha sebagaimana dimaksud dalam Pasal 42 ayat (2) huruf b.</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>3256</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4932</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>mengutamakanbarangmodal,peralatan,bahanbaku,danbahanpendukungyangberasaldariprodukdalamnegeri</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>1.menggunakanbarangmodal,peralatan,bahanbaku,danbahanpendukunglainnyadalamhalprodukdalamnegeritidaktersedia.2.menggunakanprodukdalamnegeriyangmemenuhistandarkuaiitasdanlayananpurnajual.3.menggunakanprodukdalamnegeriyangdapatmenjaminkontinuitaspasokandanketepatanwaktupengiriman4.menyampaikanrencanapembelianbarangmodal,peralatan,bahanbaku,danbahanpendukunglainnyasertaprodukimporyangdijuaididalamnegeridanbarangyang,akandiimporsendirikepadamenteridalamrkabtahunan</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>peraturanpemerintahnomor96tahun2021kewajibanpasal162&gt;&gt;&gt;(1)pemegangiup,iupk,atauiujpdalammelaksanakankegiatanusahapertambanganwajibmengutamakanbarangmodal,peralatan,bahanbaku,danbahanpendukunglainnyayangberasaldariprodukdalamnegeri.[...]peraturanmenterienergidansumberdayamineralnomor7tahun2020kewajibanpasal72pemegangiujpdalammelaksanakankegiatanusahanyawajib:a.mengutamakanprodukdalamnegeri;[...]m.memenuhiketentuanperaturanperundang-undangandibidangusahajasapertambangan.peraturanmenterienergidansumberdayamineralnomor26tahun2018kewajibanpasal36&gt;&gt;&gt;(1)pemegangiupeksplorasi,iupkeksplorasi,iupoperasiproduksi,iupkoperasiproduksi,daniupoperasiproduksikhususuntukpengolahandan/ataupemurnianwajibmemanfaatkanbarang,jasa,danteknologisebagaimanadimaksuddalampasal3ayat(4)hurufddanpasal4ayat(4)hurufdsesuaidenganrkabtahunanyangtelahdisetujui.(2)pemegangiupeksplorasi,iupkeksplorasi,iupoperasiproduksi,iupkoperasiproduksi,daniupoperasiproduksikhususuntukpengolahandan/ataupemurniandalampemanfaatanbarang,jasa,danteknologisebagaimanadimaksudpadaayat(1)wajibmenggunakanprodukdalamnegeri.(3)dalamhalbarang,jasa,danteknologisebagaimanadimaksudpadaayat(2)tidaktersediadidalamnegeridenganpertimbangan:a.hargayangtidakkompetitif;b.kualitas/mutuyangtidakmemenuhistandar;danc.tidaktercukupinyajumlahdankontinuitaspasokan,pemegangiupeksplorasi,iupkeksplorasi,iupoperasiproduksi,iupkoperasiproduksi,daniupoperasiproduksikhususuntukpengolahandan/ataupemurniandapatmenggunakanbarang,jasa,danteknologidariluarnegeri.(4)dalampemanfaatanbarang,jasa,danteknologisebagaimanadimaksudpadaayat(3)pemegangiupeksplorasi,iupkeksplorasi,iupoperasiproduksi,iupkoperasiproduksi,daniupoperasiproduksikhususuntukpengolahandan/ataupemurnianwajibmemenuhitingkatkandungandalamnegerisesuaidenganketentuanperaturanperundang-undangan.(5)menterimenetapkandaftarbarang,jasa,danteknologiyangdiproduksididalamnegeri.peraturanmenterienergidansumberdayamineralnomor25tahun2018kewajibanpasal30&gt;&gt;&gt;(1)pemegangiupeksplorasi,iupkeksplorasi,iupoperasiproduksi,iupkoperasiproduksi,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,danizinusahajasapertambangandalammelaksanakankegiatanusahapertambanganwajibmengutamakanbarangmodal,peralatan,bahanbaku,danbahanpendukunglainnyaprodukdalamnegeri.[...]keputusanmenterienergidansumberdayamineralnomor1953k/06/mem/2018tahun2018kewajiban###kesatu&gt;&gt;&gt;badanusahayangbergerakdisektorenergidansumberdayamineralyangmeliputikegiatanusahadibidang:[...]b.mineraldanbatubara;[...]dalammelaksanakankegiatanusahanyawajibmenggunakanbarangoperasi,barangmodal,peralatan,bahanbaku,danbahanpendukunglainnyayangdiproduksididalamnegerisepanjangmemenuhikualitas/spesifikasi,waktupenyerahandanharga.</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>peraturanpemerintahnomor96tahun2021sanksipasal185&gt;&gt;&gt;(1)pemegangiup,iupk,ipr,sipb,atauiupuntukpenjualanyangmelakukanpelanggaranterhadapketentuansebagaimanadimaksuddalam[…]pasal162ayat(1)[…]dikenaisanksiadministratif.(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)benrpa:a.peringatantertulis;b.penghentiansernentarasebagianatauseluruhkegiataneksplorasiatauoperasiproduksi;dan/atauc.pencabutaniup,iupk,ipr,sipb,atauiupuntukpenjualan.(3)selainsanksiadministratifsebagaimanadimaksudpadaayat(2),pemegangiup,iupk,ipr,atausipb,yangmelakukanpelanggaranterhadapketentuansebagaimanadimaksuddalampasal51ayat(2)hurufbdanpasal107ayat(2)hurufbdikenaidenda.(4)pengenaandendasebagaimanadimaksudpadaayat(3)dilaksanakansesuaidenganketentuanperaturanperundang-undangandibidangpajakdaerahdanretribusidaerah.pasal186&gt;&gt;&gt;peringatantertulissebagaimanadimaksuddalampasal185ayat(2)hurufadiberikanpalingbanyak3(tiga)kalidenganjangkawaktuperingatanmasing-masing30(tigapuluh)harikalender.peraturanmenterienergidansumberdayamineralnomor7tahun2020sanksipasal95(1)pemegangiup,iupk,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,iujp,daniupoperasiproduksikhususuntukpengangkutandanpenjualan,yangtidakmematuhiataumelanggarketentuansebagaimanadimaksuddalam[...]pasal72hurufaatausampaidenganhurufm,[...]dikenaisanksiadministratif.(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)berupa:a.peringatantertulis;b.penghentiansementarasebagianatauseluruhkegiatanusaha;dan/atauc.pencabutanizin.(3)sanksiadministratifsebagaimanadimaksudpadaayat(2)diberikanolehdirekturjenderalatasnamamenteriataugubernursesuaidengankewenangannya.peraturanmenterienergidansumberdayamineralnomor25tahun2018sanksipasal40&gt;&gt;&gt;(1)pemegangiupeksplorasi,iupkeksplorasi,iupoperasiproduksi,iupkoperasiproduksi,iupoperasiproduksikhususuntukpengolahandanataupemurnian,iupoperasiproduksikhususuntukpengangkutandanpenjualan,danizinusahajasapertambanganyangtidakmematuhiataumelanggarketentuansebagaimanadimaksuddalampasal8ayat(1)atausampaidenganayat(3),pasal9ayat(1),pasal10ayat(1),pasal11ayat(1),pasal12ayat(1),pasal13,pasal14ayat(1)atauayat(3),pasal16ayat(1)atauayat(6),pasal17ayat(1),pasal18ayat(1)atausampaidenganayat(6),pasal22,pasal24ayat(1)atauayat(3),pasal25ayat(1),pasal26ayat(1)atauayat(2),pasal27ayat(1),pasal29ayat(1)atauayat(3),pasal30ayat(1)atauayat(4),pasal33ayat(1),pasal38ayat(1),ayat(4),ayat(6),atauayat(7),ataupasal39ayat(1)dikenakansanksiadministratif.(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)berupa:a.peringatantertulis;b.penghentiansementarasebagianatauseluruhkegiatanusaha;dan/atauc.pencabutanizin.(3)sanksiadministratifsebagaimanadimaksudpadaayat(2)diberikanolehdirekturjenderalatasnamamenteriataugubernursesuaidengankewenangannya.pasal41&gt;&gt;&gt;peringatantertulissebagaimanadimaksuddalampasal40ayat(2)hurufadiberikanpalingbanyak3(tiga)kalidenganjangkawaktuperingatanmasing-masingpalinglama30(tigapuluh)harikalender.pasal42&gt;&gt;&gt;(1)dalamhalpemegangiupeksplorasi,iupkeksplorasi,iupoperasiproduksi,iupkoperasiproduksi,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,iupoperasiproduksikhususuntukpengangkutandanpenjualan,atauizinusahajasapertambanganyangmendapatsanksiperingatantertulissetelahberakhirnyajangkawaktuperingatantertulissebagaimanadimaksuddalampasal40ayat(2)hurufabelummelaksanakankewajibannya,dikenakansanksiadministratifberupapenghentiansementarasebagianatauseluruhkegiatanusahasebagaimanadimaksuddalampasal40ayat(2)hurufb.(2)sanksiadministratifberupapenghentiansementarasebagianatauseluruhkegiatanusahasebagaimanadimaksudpadaayat(1)dikenakanpalinglama60(enampuluh)harikalender.pasal43&gt;&gt;&gt;sanksiadministratifberupapencabutanizinsebagaimanadimaksuddalampasal40ayat(2)hurufcdikenakankepadapemegangiupeksplorasi,iupkeksplorasi,iupoperasiproduksi,iupkoperasiproduksi,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,iupoperasiproduksikhususuntukpengangkutandanpenjualan,atauizinusahajasapertambanganyangtidakmelaksanakankewajibansampaidenganberakhirnyajangkawaktupengenaansanksiberupapenghentiansementarasebagianatauseluruhkegiatanusahasebagaimanadimaksuddalampasal42ayat(2)hurufb.</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>f073f6b7bbc50f41f21f93d1e2aa93174fd00015eb3d0c4dc06d258c7fea9d5a</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Pertambangan Batubara&gt;Pelaksanaan Kegiatan Usaha Pertambangan Batubara</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Menggunakan produk impor yang dijual di dalam negeri apabila produk dalam negeri tidak tersedia</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1. Memenuhi standar kuaiitas dan layanan purna jual.
+2. Menjamin kontinuitas pasokan dan ketepatan waktu pengiriman</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Peraturan Pemerintah Nomor 96 Tahun 2021@lt614815d4f1925
+Kewajiban
+Pasal 162 &gt;&gt;&gt; @lt614815d4f1925
+[...]
+(2) Dalam hal produk dalam negeri sebagaimana dimaksud pada ayat (1) tidak tersedia, pemegang IUP, IUPK, atau IUJP dapat membeli produk impor yang dijual di dalam negeri dengan ketentuan:
+a. memenuhi standar kuaiitas dan layanan purna jual; dan
+b. dapat menjamin kontinuitas pasokan dan ketepatan waktu pengiriman.
+[...]
+Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Kewajiban
+Pasal 72
+Pemegang IUJP dalam melaksanakan kegiatan usahanya wajib:
+[...]
+m. memenuhi ketentuan peraturan perundang-undangan di bidang usaha jasa pertambangan.
+Peraturan Menteri Energi Dan Sumber Daya Mineral Nomor 25 Tahun 2018@lt5af950ccbfc3d
+Kewajiban
+Pasal 30 &gt;&gt;&gt; @lt5af950ccbfc3d
+[...]
+(2) Dalam hal produk dalam negeri sebagaimana dimaksud pada ayat (1) tidak tersedia pemegang IUP Eksplorasi, IUPK Eksplorasi, IUP Operasi Produksi, IUPK Operasi Produksi, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, dan Izin Usaha Jasa Pertambangan dapat membeli produk impor yang dijual di Indonesia dengan ketentuan:
+a. memenuhi standar kualitas dan layanan purna jual; dan
+b. dapat menjamin kontinuitas pasokan dan ketepatan waktu pengiriman
+[...]</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Sanksi
+Pasal 95 
+(1) Pemegang IUP, IUPK, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, IUJP, dan IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, yang tidak mematuhi atau melanggar ketentuan sebagaimana dimaksud dalam [...] Pasal 72 huruf a atau huruf m [...].
+(2) Sanksi administratif sebagaimana dimaksud pada ayat (1) berupa:
+a. peringatan tertulis;
+b. penghentian sementara sebagian atau seluruh kegiatan usaha; dan/atau
+c. pencabutan izin.
+(3) Sanksi administratif sebagaimana dimaksud pada ayat (2) diberikan oleh Direktur Jenderal atas nama Menteri atau gubernur sesuai dengan kewenangannya.</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>1284</v>
+      </c>
+      <c r="J24" t="n">
+        <v>715</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>menggunakanprodukimporyangdijualdidalamnegeriapabilaprodukdalamnegeritidaktersedia</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>conditional</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>1.memenuhistandarkuaiitasdanlayananpurnajual.2.menjaminkontinuitaspasokandanketepatanwaktupengiriman</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>peraturanpemerintahnomor96tahun2021kewajibanpasal162&gt;&gt;&gt;[...](2)dalamhalprodukdalamnegerisebagaimanadimaksudpadaayat(1)tidaktersedia,pemegangiup,iupk,atauiujpdapatmembeliprodukimporyangdijualdidalamnegeridenganketentuan:a.memenuhistandarkuaiitasdanlayananpurnajual;danb.dapatmenjaminkontinuitaspasokandanketepatanwaktupengiriman.[...]peraturanmenterienergidansumberdayamineralnomor7tahun2020kewajibanpasal72pemegangiujpdalammelaksanakankegiatanusahanyawajib:[...]m.memenuhiketentuanperaturanperundang-undangandibidangusahajasapertambangan.peraturanmenterienergidansumberdayamineralnomor25tahun2018kewajibanpasal30&gt;&gt;&gt;[...](2)dalamhalprodukdalamnegerisebagaimanadimaksudpadaayat(1)tidaktersediapemegangiupeksplorasi,iupkeksplorasi,iupoperasiproduksi,iupkoperasiproduksi,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,danizinusahajasapertambangandapatmembeliprodukimporyangdijualdiindonesiadenganketentuan:a.memenuhistandarkualitasdanlayananpurnajual;danb.dapatmenjaminkontinuitaspasokandanketepatanwaktupengiriman[...]</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>peraturanmenterienergidansumberdayamineralnomor7tahun2020sanksipasal95(1)pemegangiup,iupk,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,iujp,daniupoperasiproduksikhususuntukpengangkutandanpenjualan,yangtidakmematuhiataumelanggarketentuansebagaimanadimaksuddalam[...]pasal72hurufaatauhurufm[...].(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)berupa:a.peringatantertulis;b.penghentiansementarasebagianatauseluruhkegiatanusaha;dan/atauc.pencabutanizin.(3)sanksiadministratifsebagaimanadimaksudpadaayat(2)diberikanolehdirekturjenderalatasnamamenteriataugubernursesuaidengankewenangannya.</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>987b50b3caf45ce82d66387aeb2d5fb078080027c68ac5cc6b3340708d8bcc5b</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Pertambangan Batubara&gt;Pelaksanaan Kegiatan Usaha Pertambangan Batubara</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Mengimpor barang modal, peralatan, bahan baku, dan bahan pendukung lainnya ke dalam negeri apabila produk impor yang dijual di dalam negeri tidak tersedia</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1. Menyampaikan pemberitahuan daftar pembelian barang.
+2. Menyampaikan pemberitahuan impor sementara.
+3. Menyampaikan pemberitahuan rekondisi barang.
+4. Menyampaikan rencana pembelian barang modal, peralatan, bahan baku, dan bahan pendukung lainnya serta produk impor yang dijuai di dalam negeri dan barang yang akan diimpor sendiri kepada Menteri Energi dan Sumber Daya Mineral dalam Rencana Kerja dan Anggaran Biaya Tahunan.
+5. Memenuhi ketentuan peraturan perundang-undangan di bidang perdagangan.</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Peraturan Pemerintah Nomor 96 Tahun 2021@lt614815d4f1925
+Kewajiban
+Pasal 162 &gt;&gt;&gt; @lt614815d4f1925
+[...]
+(3) Dalam hal ketentuan sebagaimana dimaksud pada ayat (2) tidak terpenuhi, pemegang IUP, IUPK, atau IUJP dapat mengimpor barang modal, peralatan, bahan baku, dan bahan pendukung lainnya ke dalam negeri.
+(4) Pemegang IUP, IUPK, ataur IUJP untuk memenuhi kebutuhan sebagaimana dimaksud pada ayat (3), wajib menyampaikan pemberitahuan:
+a. daftar pembelian barang;
+b. lmpor sementara; dan
+c. rekondisi barang, 
+kepada Menteri.
+(5) Pemegang IUP, IUPK, atau IUJP wajib menyampaikan rencana pembelian barang modal, peralatan, bahan baku, dan bahan pendukung lainnya serta produk impor yang dijuai di dalam negeri dan barang yang, akan diimpor sendiri kepada Menteri dalam RKAB Tahunan.
+(6) Dalam hal pemegang IUP, IUPK, atau IUJP melakukan impor barang modal, peraiatan, bahan baku, dan bahan pendukung lainnya harus memenuhi ketentuan peraturan perundang-undangan di bidang perdagangan.
+(7) Pembelian impor barang modal, peralatan, bahan baku, dan bahan pendukung lainnya dapat diberikan fasilitas impor sesuai dengan ketentuan peraturan perundang-undangan.
+Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Kewajiban
+Pasal 72
+Pemegang IUJP dalam melaksanakan kegiatan usahanya wajib:
+[...]
+m. memenuhi ketentuan peraturan perundang-undangan di bidang usaha jasa pertambangan.
+Peraturan Menteri Energi Dan Sumber Daya Mineral Nomor 25 Tahun 2018@lt5af950ccbfc3d
+Kewajiban
+Pasal 30 &gt;&gt;&gt; @lt5af950ccbfc3d
+[...]
+(3) Dalam hal ketentuan sebagaimana dimaksud pada ayat (2) tidak terpenuhi, pemegang IUP Eksplorasi, IUPK Eksplorasi, IUP Operasi Produksi, IUPK Operasi Produksi, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, dan Izin Usaha Jasa Pertambangan dapat mengimpor barang modal, peralatan, bahan baku, dan bahan pendukung lainnya ke Indonesia.
+(4) Untuk memenuhi kebutuhan sebagaimana dimaksud pada ayat (3), Pemegang IUP Eksplorasi, IUPK Eksplorasi, IUP Operasi Produksi, IUPK Operasi Produksi, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, dan Izin Usaha Jasa Pertambangan wajib menyampaikan pemberitahuan:
+a. daftar pembelian barang;
+b. impor sementara; dan
+c. rekondisi barang (remanufactured)
+[...]
+Keputusan Menteri Energi Dan Sumber Daya Mineral Nomor 1953 K/06/MEM/2018 Tahun 2018@lt5b9248acc2238
+Kewajiban
+###KESATU &gt;&gt;&gt; @lt5b9248acc2238
+Badan usaha yang bergerak di sektor energi dan sumber daya mineral yang meliputi kegiatan usaha di bidang:
+[...]
+b. mineral dan batubara;
+[...]
+dalam melaksanakan kegiatan usahanya wajib menggunakan barang operasi, barang modal, peralatan, bahan baku, dan bahan pendukung lainnya yang diproduksi di dalam negeri sepanjang memenuhi kualitas/spesifikasi, waktu penyerahan dan harga.
+KEDUA
+Dalam hal barang operasi, barang modal, peralatan, bahan baku, dan bahan pendukung lainnya dapat dipenuhi dari produksi dalam negeri sebagaimana dimaksud dalam Diktum KESATU, Badan usaha yang akan melakukan impor barang tidak diberikan fasilitas impor (masterlist).</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Sanksi
+Pasal 95 
+(1) Pemegang IUP, IUPK, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, IUJP, dan IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, yang tidak mematuhi atau melanggar ketentuan sebagaimana dimaksud dalam [...] Pasal 72 huruf a atau huruf m [...].
+(2) Sanksi administratif sebagaimana dimaksud pada ayat (1) berupa:
+a. peringatan tertulis;
+b. penghentian sementara sebagian atau seluruh kegiatan usaha; dan/atau
+c. pencabutan izin.
+(3) Sanksi administratif sebagaimana dimaksud pada ayat (2) diberikan oleh Direktur Jenderal atas nama Menteri atau gubernur sesuai dengan kewenangannya.
+Peraturan Menteri Energi Dan Sumber Daya Mineral Nomor 25 Tahun 2018@lt5af950ccbfc3d
+Sanksi
+Pasal 40 &gt;&gt;&gt; @lt5af950ccbfc3d
+(1)  Pemegang IUP Eksplorasi, IUPK Eksplorasi, IUP Operasi Produksi, IUPK Operasi Produksi, IUP Operasi Produksi khusus untuk pengolahan dan atau pemurnian, IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, dan Izin Usaha Jasa Pertambangan yang tidak mematuhi atau melanggar ketentuan sebagaimana dimaksud dalam Pasal 8 ayat (1) atau sampai dengan ayat (3), Pasal 9 ayat (1), Pasal 10 ayat (1), Pasal 11 ayat (1), Pasal 12 ayat (1), Pasal 13, Pasal 14 ayat (1) atau ayat (3), Pasal 16 ayat (1) atau ayat (6), Pasal 17 ayat (1), Pasal 18 ayat (1) atau sampai dengan ayat (6), Pasal 22, Pasal 24 ayat (1) atau ayat (3), Pasal 25 ayat (1), Pasal 26 ayat (1) atau ayat (2), Pasal 27 ayat (1), Pasal 29 ayat (1) atau ayat (3), Pasal 30 ayat (1) atau ayat (4), Pasal 33 ayat (1),  Pasal 38 ayat (1), ayat (4), ayat (6), atau ayat (7), atau Pasal 39 ayat (1) dikenakan sanksi administratif.
+(2) Sanksi administratif sebagaimana dimaksud pada ayat (1) berupa:
+a. peringatan tertulis;
+b. penghentian sementara sebagian atau seluruh kegiatan usaha; dan/atau
+c. pencabutan izin.
+(3)  Sanksi administratif sebagaimana dimaksud pada ayat (2) diberikan oleh Direktur Jenderal atas nama Menteri atau gubernur sesuai dengan kewenangannya.
+Pasal 41 &gt;&gt;&gt; @lt5af950ccbfc3d
+Peringatan tertulis sebagaimana dimaksud dalam Pasal 40 ayat (2) huruf a diberikan paling banyak 3 (tiga) kali dengan jangka waktu peringatan masing-masing paling lama 30 (tiga puluh) hari kalender.
+Pasal 42 &gt;&gt;&gt; @lt5af950ccbfc3d
+(1) Dalam hal pemegang IUP Eksplorasi, IUPK Eksplorasi, IUP Operasi Produksi, IUPK Operasi Produksi, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, atau Izin Usaha Jasa Pertambangan yang mendapat sanksi peringatan tertulis setelah berakhirnya jangka waktu peringatan tertulis sebagaimana dimaksud dalam Pasal 40 ayat (2) huruf a belum melaksanakan kewajibannya, dikenakan sanksi administratif berupa penghentian sementara sebagian atau seluruh kegiatan usaha sebagaimana dimaksud dalam Pasal 40 ayat (2) huruf b.
+(2) Sanksi administratif berupa penghentian sementara sebagian atau seluruh kegiatan usaha sebagaimana dimaksud pada ayat (1) dikenakan paling lama 60 (enam puluh) hari kalender.
+Pasal 43 &gt;&gt;&gt; @lt5af950ccbfc3d
+Sanksi administratif berupa pencabutan izin sebagaimana dimaksud dalam Pasal 40 ayat (2) huruf c dikenakan kepada pemegang IUP Eksplorasi, IUPK Eksplorasi, IUP Operasi Produksi, IUPK Operasi Produksi, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, atau Izin Usaha Jasa Pertambangan yang tidak melaksanakan kewajiban sampai dengan berakhirnya jangka waktu pengenaan sanksi berupa penghentian sementara sebagian atau seluruh kegiatan usaha sebagaimana dimaksud dalam Pasal 42 ayat (2) huruf b.</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>3078</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3710</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>mengimporbarangmodal,peralatan,bahanbaku,danbahanpendukunglainnyakedalamnegeriapabilaprodukimporyangdijualdidalamnegeritidaktersedia</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>conditional</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>1.menyampaikanpemberitahuandaftarpembelianbarang.2.menyampaikanpemberitahuanimporsementara.3.menyampaikanpemberitahuanrekondisibarang.4.menyampaikanrencanapembelianbarangmodal,peralatan,bahanbaku,danbahanpendukunglainnyasertaprodukimporyangdijuaididalamnegeridanbarangyangakandiimporsendirikepadamenterienergidansumberdayamineraldalamrencanakerjadananggaranbiayatahunan.5.memenuhiketentuanperaturanperundang-undangandibidangperdagangan.</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>peraturanpemerintahnomor96tahun2021kewajibanpasal162&gt;&gt;&gt;[...](3)dalamhalketentuansebagaimanadimaksudpadaayat(2)tidakterpenuhi,pemegangiup,iupk,atauiujpdapatmengimporbarangmodal,peralatan,bahanbaku,danbahanpendukunglainnyakedalamnegeri.(4)pemegangiup,iupk,atauriujpuntukmemenuhikebutuhansebagaimanadimaksudpadaayat(3),wajibmenyampaikanpemberitahuan:a.daftarpembelianbarang;b.lmporsementara;danc.rekondisibarang,kepadamenteri.(5)pemegangiup,iupk,atauiujpwajibmenyampaikanrencanapembelianbarangmodal,peralatan,bahanbaku,danbahanpendukunglainnyasertaprodukimporyangdijuaididalamnegeridanbarangyang,akandiimporsendirikepadamenteridalamrkabtahunan.(6)dalamhalpemegangiup,iupk,atauiujpmelakukanimporbarangmodal,peraiatan,bahanbaku,danbahanpendukunglainnyaharusmemenuhiketentuanperaturanperundang-undangandibidangperdagangan.(7)pembelianimporbarangmodal,peralatan,bahanbaku,danbahanpendukunglainnyadapatdiberikanfasilitasimporsesuaidenganketentuanperaturanperundang-undangan.peraturanmenterienergidansumberdayamineralnomor7tahun2020kewajibanpasal72pemegangiujpdalammelaksanakankegiatanusahanyawajib:[...]m.memenuhiketentuanperaturanperundang-undangandibidangusahajasapertambangan.peraturanmenterienergidansumberdayamineralnomor25tahun2018kewajibanpasal30&gt;&gt;&gt;[...](3)dalamhalketentuansebagaimanadimaksudpadaayat(2)tidakterpenuhi,pemegangiupeksplorasi,iupkeksplorasi,iupoperasiproduksi,iupkoperasiproduksi,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,danizinusahajasapertambangandapatmengimporbarangmodal,peralatan,bahanbaku,danbahanpendukunglainnyakeindonesia.(4)untukmemenuhikebutuhansebagaimanadimaksudpadaayat(3),pemegangiupeksplorasi,iupkeksplorasi,iupoperasiproduksi,iupkoperasiproduksi,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,danizinusahajasapertambanganwajibmenyampaikanpemberitahuan:a.daftarpembelianbarang;b.imporsementara;danc.rekondisibarang(remanufactured)[...]keputusanmenterienergidansumberdayamineralnomor1953k/06/mem/2018tahun2018kewajiban###kesatu&gt;&gt;&gt;badanusahayangbergerakdisektorenergidansumberdayamineralyangmeliputikegiatanusahadibidang:[...]b.mineraldanbatubara;[...]dalammelaksanakankegiatanusahanyawajibmenggunakanbarangoperasi,barangmodal,peralatan,bahanbaku,danbahanpendukunglainnyayangdiproduksididalamnegerisepanjangmemenuhikualitas/spesifikasi,waktupenyerahandanharga.keduadalamhalbarangoperasi,barangmodal,peralatan,bahanbaku,danbahanpendukunglainnyadapatdipenuhidariproduksidalamnegerisebagaimanadimaksuddalamdiktumkesatu,badanusahayangakanmelakukanimporbarangtidakdiberikanfasilitasimpor(masterlist).</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>peraturanmenterienergidansumberdayamineralnomor7tahun2020sanksipasal95(1)pemegangiup,iupk,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,iujp,daniupoperasiproduksikhususuntukpengangkutandanpenjualan,yangtidakmematuhiataumelanggarketentuansebagaimanadimaksuddalam[...]pasal72hurufaatauhurufm[...].(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)berupa:a.peringatantertulis;b.penghentiansementarasebagianatauseluruhkegiatanusaha;dan/atauc.pencabutanizin.(3)sanksiadministratifsebagaimanadimaksudpadaayat(2)diberikanolehdirekturjenderalatasnamamenteriataugubernursesuaidengankewenangannya.peraturanmenterienergidansumberdayamineralnomor25tahun2018sanksipasal40&gt;&gt;&gt;(1)pemegangiupeksplorasi,iupkeksplorasi,iupoperasiproduksi,iupkoperasiproduksi,iupoperasiproduksikhususuntukpengolahandanataupemurnian,iupoperasiproduksikhususuntukpengangkutandanpenjualan,danizinusahajasapertambanganyangtidakmematuhiataumelanggarketentuansebagaimanadimaksuddalampasal8ayat(1)atausampaidenganayat(3),pasal9ayat(1),pasal10ayat(1),pasal11ayat(1),pasal12ayat(1),pasal13,pasal14ayat(1)atauayat(3),pasal16ayat(1)atauayat(6),pasal17ayat(1),pasal18ayat(1)atausampaidenganayat(6),pasal22,pasal24ayat(1)atauayat(3),pasal25ayat(1),pasal26ayat(1)atauayat(2),pasal27ayat(1),pasal29ayat(1)atauayat(3),pasal30ayat(1)atauayat(4),pasal33ayat(1),pasal38ayat(1),ayat(4),ayat(6),atauayat(7),ataupasal39ayat(1)dikenakansanksiadministratif.(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)berupa:a.peringatantertulis;b.penghentiansementarasebagianatauseluruhkegiatanusaha;dan/atauc.pencabutanizin.(3)sanksiadministratifsebagaimanadimaksudpadaayat(2)diberikanolehdirekturjenderalatasnamamenteriataugubernursesuaidengankewenangannya.pasal41&gt;&gt;&gt;peringatantertulissebagaimanadimaksuddalampasal40ayat(2)hurufadiberikanpalingbanyak3(tiga)kalidenganjangkawaktuperingatanmasing-masingpalinglama30(tigapuluh)harikalender.pasal42&gt;&gt;&gt;(1)dalamhalpemegangiupeksplorasi,iupkeksplorasi,iupoperasiproduksi,iupkoperasiproduksi,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,iupoperasiproduksikhususuntukpengangkutandanpenjualan,atauizinusahajasapertambanganyangmendapatsanksiperingatantertulissetelahberakhirnyajangkawaktuperingatantertulissebagaimanadimaksuddalampasal40ayat(2)hurufabelummelaksanakankewajibannya,dikenakansanksiadministratifberupapenghentiansementarasebagianatauseluruhkegiatanusahasebagaimanadimaksuddalampasal40ayat(2)hurufb.(2)sanksiadministratifberupapenghentiansementarasebagianatauseluruhkegiatanusahasebagaimanadimaksudpadaayat(1)dikenakanpalinglama60(enampuluh)harikalender.pasal43&gt;&gt;&gt;sanksiadministratifberupapencabutanizinsebagaimanadimaksuddalampasal40ayat(2)hurufcdikenakankepadapemegangiupeksplorasi,iupkeksplorasi,iupoperasiproduksi,iupkoperasiproduksi,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,iupoperasiproduksikhususuntukpengangkutandanpenjualan,atauizinusahajasapertambanganyangtidakmelaksanakankewajibansampaidenganberakhirnyajangkawaktupengenaansanksiberupapenghentiansementarasebagianatauseluruhkegiatanusahasebagaimanadimaksuddalampasal42ayat(2)hurufb.</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>a76b98677e831a7588d47999b2eecdc74d320ec013d69d9ce9ee2bec6d2d7584</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Pertambangan Batubara&gt;Pelaksanaan Kegiatan Usaha Pertambangan Batubara</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Menyampaikan rencana pembelian barang modal, peralatan, bahan baku, dan bahan pendukung lainnya serta produk impor yang dijuai di dalam negeri dan barang yang akan diimpor sendiri kepada Menteri Energi dan Sumber Daya Mineral dalam Rencana Kerja dan Anggaran Biaya Tahunan</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Peraturan Pemerintah Nomor 96 Tahun 2021@lt614815d4f1925
+Kewajiban
+Pasal 162 &gt;&gt;&gt; @lt614815d4f1925
+[...]
+(5) Pemegang IUP, IUPK, atau IUJP wajib menyampaikan rencana pembelian barang modal, peralatan, bahan baku, dan bahan pendukung lainnya serta produk impor yang dijual di dalam negeri dan barang yang, akan diimpor sendiri kepada Menteri dalam RKAB Tahunan.
+[...]
+Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Kewajiban
+Pasal 72
+Pemegang IUJP dalam melaksanakan kegiatan usahanya wajib:
+[...]
+m. memenuhi ketentuan peraturan perundang-undangan di bidang usaha jasa pertambangan.
+Peraturan Menteri Energi Dan Sumber Daya Mineral Nomor 25 Tahun 2018@lt5af950ccbfc3d
+Kewajiban
+Pasal 30 &gt;&gt;&gt; @lt5af950ccbfc3d
+[...]
+(5) Rencana pembelian barang modal, peralatan, bahan baku, dan bahan pendukung lainnya untuk Pemegang IUP Eksplorasi, IUPK Eksplorasi, IUP Operasi Produksi, IUPK Operasi Produksi, dan IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian harus disampaikan dalam RKAB Tahunan.
+(6) Pembelian impor barang modal, peralatan, bahan baku dan bahan pendukung lainnya dapat memperoleh fasilitas impor sesuai dengan ketentuan peraturan perundang-undangan.</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Sanksi
+Pasal 95 
+(1) Pemegang IUP, IUPK, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, IUJP, dan IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, yang tidak mematuhi atau melanggar ketentuan sebagaimana dimaksud dalam [...] Pasal 72 huruf a atau huruf m [...].
+(2) Sanksi administratif sebagaimana dimaksud pada ayat (1) berupa:
+a. peringatan tertulis;
+b. penghentian sementara sebagian atau seluruh kegiatan usaha; dan/atau
+c. pencabutan izin.
+(3) Sanksi administratif sebagaimana dimaksud pada ayat (2) diberikan oleh Direktur Jenderal atas nama Menteri atau gubernur sesuai dengan kewenangannya.</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1211</v>
+      </c>
+      <c r="J26" t="n">
+        <v>715</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>menyampaikanrencanapembelianbarangmodal,peralatan,bahanbaku,danbahanpendukunglainnyasertaprodukimporyangdijuaididalamnegeridanbarangyangakandiimporsendirikepadamenterienergidansumberdayamineraldalamrencanakerjadananggaranbiayatahunan</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>peraturanpemerintahnomor96tahun2021kewajibanpasal162&gt;&gt;&gt;[...](5)pemegangiup,iupk,atauiujpwajibmenyampaikanrencanapembelianbarangmodal,peralatan,bahanbaku,danbahanpendukunglainnyasertaprodukimporyangdijualdidalamnegeridanbarangyang,akandiimporsendirikepadamenteridalamrkabtahunan.[...]peraturanmenterienergidansumberdayamineralnomor7tahun2020kewajibanpasal72pemegangiujpdalammelaksanakankegiatanusahanyawajib:[...]m.memenuhiketentuanperaturanperundang-undangandibidangusahajasapertambangan.peraturanmenterienergidansumberdayamineralnomor25tahun2018kewajibanpasal30&gt;&gt;&gt;[...](5)rencanapembelianbarangmodal,peralatan,bahanbaku,danbahanpendukunglainnyauntukpemegangiupeksplorasi,iupkeksplorasi,iupoperasiproduksi,iupkoperasiproduksi,daniupoperasiproduksikhususuntukpengolahandan/ataupemurnianharusdisampaikandalamrkabtahunan.(6)pembelianimporbarangmodal,peralatan,bahanbakudanbahanpendukunglainnyadapatmemperolehfasilitasimporsesuaidenganketentuanperaturanperundang-undangan.</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>peraturanmenterienergidansumberdayamineralnomor7tahun2020sanksipasal95(1)pemegangiup,iupk,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,iujp,daniupoperasiproduksikhususuntukpengangkutandanpenjualan,yangtidakmematuhiataumelanggarketentuansebagaimanadimaksuddalam[...]pasal72hurufaatauhurufm[...].(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)berupa:a.peringatantertulis;b.penghentiansementarasebagianatauseluruhkegiatanusaha;dan/atauc.pencabutanizin.(3)sanksiadministratifsebagaimanadimaksudpadaayat(2)diberikanolehdirekturjenderalatasnamamenteriataugubernursesuaidengankewenangannya.</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>1ff5850b673312f8dc2dcc00f6b24ee8b4bb915f5bf6138ccbb94cf21f642669</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Pertambangan Batubara&gt;Pelaksanaan Kegiatan Usaha Pertambangan Batubara</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Melaksanakan tahapan kompilasi data wilayah dan persiapan teknis sesuai dengan ketentuan peraturan perundang-undangan, bagi Pemegang IUP atau IUPK yang akan melakukan pemasangan tanda batas WIUP Operasi Produksi atau WIUPK Operasi Produksi</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Tidak Ada Sanksi</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1. Melaksanakan kompilasi data wilayah berupa inventarisasi: a. salinan IUP Operasi Produksi atau IUPK Operasi Produksi termasuk peta batas wilayah dan titik koordinat; b. salinan IUP atau IUPK yang WIUP atau WIUPK-nya berbatasan langsung dengan WIUP Operasi Produksi atau WIUPK Operasi Produksi yang akan dipasang Tanda Batas termasuk peta batas wilayah dan titik koordinat; c. salinan IUP atau IUPK beda komoditas yang memanfaatkan WIUP atau WIUPK secara bersama termasuk peta batas wilayah dan titik koordinat; d. peta dasar yang diterbitkan oleh instansi pemerintah yang menyelenggarakan urusan pemerintahan di bidang survei dan pemetaan; e. peta informasi wilayah pertambangan yang dikeluarkan oleh Direktorat Jenderal yang memuat semua WIUP atau WIUPK yang berbatasan langsung; dan f. titik JKHN yang dibangun oleh instansi pemerintah yang menyelenggarakan urusan pemerintahan di bidang survei dan pemetaan.
+2. Melaksanakan persiapan teknis dengan melakukan evaluasi hasil kompilasi data.
+3. Melaksanakan persiapan teknis dengan melakukan penyiapan peralatan pengukuran Titik Batas dan pemasangan Tanda Batas dan sarana pendukung.
+4. Melaksanakan persiapan teknis dengan melakukan penyiapan tenaga pelaksana.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Keputusan Menteri Energi Dan Sumber Daya Mineral Nomor 1825 K/30/MEM/2018 Tahun 2018@lt5b0294fb096fa
+Kewajiban
+###KESATU:
+Menetapkan Pedoman Pemasangan Tanda Batas Wilayah Izin Usaha Pertambangan (WIUP) atau Wilayah Izin Usaha Pertambangan Khusus (WIUPK) Operasi Produksi yang terdiri atas:
+a. Pedoman Pemasangan Tanda Batas WIUP atau WIUPK Operasi Produksi, tercantum dalam Lampiran I;
+[...]
+LAMPIRAN I  
+PEDOMAN PEMASANGAN TANDA BATAS WIUP ATAU WIUPK OPERASI PRODUKSI
+A. RUANG LINGKUP
+1. Kewajiban pemasangan tanda batas Batas WIUP Operasi Produksi atau WIUPK Operasi Produksi hanya berlaku bagi IUP Operasi Produksi atau IUPK Operasi Produksi yang:
+a. WIUP Operasi Produksi atau WIUPK Operasi Produksi-nya berhimpit/berbatasan langsung dengan WIUP, WIUPK, wilayah Kontrak Karya, atau wilayah Perjanjian Karya Pengusahaan Pertambangan Batubara lain; atau
+b. lokasi kegiatan penambangan dan penimbunannya berdekatan dengan batas WIUP Operasi Produksi atau WIUPK Operasi Produksinya.
+2. Tahapan Kegiatan pemasangan Tanda Batas tersebut meliputi:
+a. pengumuman dan sosialisasi;
+b. koordinasi;
+c. kompilasi data wilayah dan persiapan teknis;
+d. pengukuran Titik Batas;
+e. pemasangan Tanda Batas;
+f. pembuatan berita acara;
+g. pelaporan pelaksanaan pemasangan Tanda Batas; dan
+h. penetapan Tanda Batas.
+[...]
+D. PEDOMAN
+2. Tahapan Kegiatan Pemasangan Tanda Batas
+[...]
+c. Kompilasi Data Wilayah dan Persiapan Teknis
+1) Kompilasi Data Wilayah
+Kompilasi data wilayah berupa inventarisasi:
+a) salinan IUP Operasi Produksi atau IUPK Operasi Produksi termasuk peta batas wilayah dan titik koordinat;
+b) salinan IUP atau IUPK yang WIUP atau WIUPK-nya berbatasan langsung dengan WIUP Operasi Produksi atau WIUPK Operasi Produksi yang akan dipasang Tanda Batas termasuk peta batas wilayah dan titik koordinat;
+c) salinan IUP atau IUPK beda komoditas yang memanfaatkan WIUP atau WIUPK secara bersama termasuk peta batas wilayah dan titik koordinat;
+d) peta dasar yang diterbitkan oleh instansi pemerintah yang menyelenggarakan urusan pemerintahan di bidang survei dan pemetaan;
+e) peta informasi wilayah pertambangan yang dikeluarkan oleh Direktorat Jenderal yang memuat semua WIUP atau WIUPK yang berbatasan langsung; dan
+f) titik JKHN yang dibangun oleh instansi pemerintah yang menyelenggarakan urusan pemerintahan di bidang survei dan pemetaan.
+2) Persiapan Teknis
+Persiapan teknis meliputi:
+a) evaluasi hasil kompilasi data;
+b) penyiapan peralatan pengukuran Titik Batas dan pemasangan Tanda Batas dan sarana pendukung; dan
+c) penyiapan tenaga pelaksana.
+[...]</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>2555</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>melaksanakantahapankompilasidatawilayahdanpersiapanteknissesuaidenganketentuanperaturanperundang-undangan,bagipemegangiupatauiupkyangakanmelakukanpemasangantandabataswiupoperasiproduksiatauwiupkoperasiproduksi</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>tidakadasanksi</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>memastikanpengolahansampahyangmengandungb3dan/atausampahyangmengandunglimbahb3dilaksanakansesuaidenganketentuanperaturanperundang-undangandibidangpengelolaanlimbahb3.</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>peraturanmenterilingkunganhidupdankehutanannomor1tahun2024kewajibanpasal16(1)pengolahansampahyangtimbulakibatbencanadilakukanterhadapjenissampahyangtidakdapatdimanfaatkankembali.(2)pengolahansampahyangtimbulakibatbencanadilakukandengancara:a.biodigester;b.termal;c.stabilisasidansolidifikasi;dan/ataud.caralainsesuaidenganperkembanganilmupengetahuandan/atauteknologi.(3)carapengolahansebagaimanadimaksudpadaayat(2)dipilihdenganmempertimbangkanhasilpengolahanyangmempunyainilaiekonomidandapatdimanfaatkan.(4)pengolahansampahyangmengandungb3dan/atausampahyangmengandunglimbahb3dilaksanakansesuaidenganketentuanperaturanperundang-undangandibidangpengelolaanlimbahb3.pasal17(1)pengolahansampahsebagaimanadimaksuddalampasal16dilakukanoleh:[...]b.badanusaha.[...]</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1.melaksanakankompilasidatawilayahberupainventarisasi:a.salinaniupoperasiproduksiatauiupkoperasiproduksitermasukpetabataswilayahdantitikkoordinat;b.salinaniupatauiupkyangwiupatauwiupk-nyaberbatasanlangsungdenganwiupoperasiproduksiatauwiupkoperasiproduksiyangakandipasangtandabatastermasukpetabataswilayahdantitikkoordinat;c.salinaniupatauiupkbedakomoditasyangmemanfaatkanwiupatauwiupksecarabersamatermasukpetabataswilayahdantitikkoordinat;d.petadasaryangditerbitkanolehinstansipemerintahyangmenyelenggarakanurusanpemerintahandibidangsurveidanpemetaan;e.petainformasiwilayahpertambanganyangdikeluarkanolehdirektoratjenderalyangmemuatsemuawiupatauwiupkyangberbatasanlangsung;danf.titikjkhnyangdibangunolehinstansipemerintahyangmenyelenggarakanurusanpemerintahandibidangsurveidanpemetaan.2.melaksanakanpersiapanteknisdenganmelakukanevaluasihasilkompilasidata.3.melaksanakanpersiapanteknisdenganmelakukanpenyiapanperalatanpengukurantitikbatasdanpemasangantandabatasdansaranapendukung.4.melaksanakanpersiapanteknisdenganmelakukanpenyiapantenagapelaksana.</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>keputusanmenterienergidansumberdayamineralnomor1825k/30/mem/2018tahun2018kewajiban###kesatu:menetapkanpedomanpemasangantandabataswilayahizinusahapertambangan(wiup)atauwilayahizinusahapertambangankhusus(wiupk)operasiproduksiyangterdiriatas:a.pedomanpemasangantandabataswiupatauwiupkoperasiproduksi,tercantumdalamlampirani;[...]lampiranipedomanpemasangantandabataswiupatauwiupkoperasiproduksia.ruanglingkup1.kewajibanpemasangantandabatasbataswiupoperasiproduksiatauwiupkoperasiproduksihanyaberlakubagiiupoperasiproduksiatauiupkoperasiproduksiyang:a.wiupoperasiproduksiatauwiupkoperasiproduksi-nyaberhimpit/berbatasanlangsungdenganwiup,wiupk,wilayahkontrakkarya,atauwilayahperjanjiankaryapengusahaanpertambanganbatubaralain;ataub.lokasikegiatanpenambangandanpenimbunannyaberdekatandenganbataswiupoperasiproduksiatauwiupkoperasiproduksinya.2.tahapankegiatanpemasangantandabatastersebutmeliputi:a.pengumumandansosialisasi;b.koordinasi;c.kompilasidatawilayahdanpersiapanteknis;d.pengukurantitikbatas;e.pemasangantandabatas;f.pembuatanberitaacara;g.pelaporanpelaksanaanpemasangantandabatas;danh.penetapantandabatas.[...]d.pedoman2.tahapankegiatanpemasangantandabatas[...]c.kompilasidatawilayahdanpersiapanteknis1)kompilasidatawilayahkompilasidatawilayahberupainventarisasi:a)salinaniupoperasiproduksiatauiupkoperasiproduksitermasukpetabataswilayahdantitikkoordinat;b)salinaniupatauiupkyangwiupatauwiupk-nyaberbatasanlangsungdenganwiupoperasiproduksiatauwiupkoperasiproduksiyangakandipasangtandabatastermasukpetabataswilayahdantitikkoordinat;c)salinaniupatauiupkbedakomoditasyangmemanfaatkanwiupatauwiupksecarabersamatermasukpetabataswilayahdantitikkoordinat;d)petadasaryangditerbitkanolehinstansipemerintahyangmenyelenggarakanurusanpemerintahandibidangsurveidanpemetaan;e)petainformasiwilayahpertambanganyangdikeluarkanolehdirektoratjenderalyangmemuatsemuawiupatauwiupkyangberbatasanlangsung;danf)titikjkhnyangdibangunolehinstansipemerintahyangmenyelenggarakanurusanpemerintahandibidangsurveidanpemetaan.2)persiapanteknispersiapanteknismeliputi:a)evaluasihasilkompilasidata;b)penyiapanperalatanpengukurantitikbatasdanpemasangantandabatasdansaranapendukung;danc)penyiapantenagapelaksana.[...]</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>f201823a649a3ffa43d557e211a00e606374c0b7c48e7c8ed97248fb4355daef</t>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>a820a94cf6a599097042420d6638740533d077f61a9baa67b5a86923350789ce</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Pertambangan Batubara&gt;Pelaksanaan Kegiatan Usaha Pertambangan Batubara</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Menjaga dan memelihara setiap Tanda Batas yang telah dipasang termasuk akses menuju lokasi Tanda Batas sampai jangka berlakunya IUP Operasi Produksi atau IUPK Operasi Produksi berakhir, bagi Pemegang IUP atau IUPK yang telah memperoleh penetapan tanda batas</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Tidak Ada Sanksi</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Keputusan Menteri Energi Dan Sumber Daya Mineral Nomor 1825 K/30/MEM/2018 Tahun 2018@lt5b0294fb096fa
+Kewajiban
+###KESATU:
+Menetapkan Pedoman Pemasangan Tanda Batas Wilayah Izin Usaha Pertambangan (WIUP) atau Wilayah Izin Usaha Pertambangan Khusus (WIUPK) Operasi Produksi yang terdiri atas:
+a. Pedoman Pemasangan Tanda Batas WIUP atau WIUPK Operasi Produksi, tercantum dalam Lampiran I;
+[...]
+LAMPIRAN I  
+PEDOMAN PEMASANGAN TANDA BATAS WIUP ATAU WIUPK OPERASI PRODUKSI
+[...]
+h. Penetapan Tanda Batas
+[...]
+2) Pasca Penetapan
+a) Pemegang IUP Operasi Produksi dan IUPK Operasi Produksi harus:
+(1) menjaga dan memelihara setiap Tanda Batas yang telah dipasang termasuk akses menuju lokasi Tanda Batas sampai jangka waktu berlakunya IUP Operasi Produksi atau IUPK Operasi Produksi berakhir; dan
+[...]</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>799</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>menjagadanmemeliharasetiaptandabatasyangtelahdipasangtermasukaksesmenujulokasitandabatassampaijangkaberlakunyaiupoperasiproduksiatauiupkoperasiproduksiberakhir,bagipemegangiupatauiupkyangtelahmemperolehpenetapantandabatas</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>tidakadasanksi</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>keputusanmenterienergidansumberdayamineralnomor1825k/30/mem/2018tahun2018kewajiban###kesatu:menetapkanpedomanpemasangantandabataswilayahizinusahapertambangan(wiup)atauwilayahizinusahapertambangankhusus(wiupk)operasiproduksiyangterdiriatas:a.pedomanpemasangantandabataswiupatauwiupkoperasiproduksi,tercantumdalamlampirani;[...]lampiranipedomanpemasangantandabataswiupatauwiupkoperasiproduksi[...]h.penetapantandabatas[...]2)pascapenetapana)pemegangiupoperasiproduksidaniupkoperasiproduksiharus:(1)menjagadanmemeliharasetiaptandabatasyangtelahdipasangtermasukaksesmenujulokasitandabatassampaijangkawaktuberlakunyaiupoperasiproduksiatauiupkoperasiproduksiberakhir;dan[...]</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>c08b19fcb09f56a72fcf1e0e285f62ba2d488e2ad4a8e465c33ae03890e1647d</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Pertambangan Batubara&gt;Pelaksanaan Kegiatan Usaha Pertambangan Batubara</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Menyimpan dan memelihara data hasil pengukuran, berita acara, laporan hasil pelaksanaan pemasangan Tanda Batas, serta peta pengukuran dan pemasangan Tanda Batas, bagi Pemegang IUP atau IUPK yang telah memperoleh penetapan tanda batas</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Tidak Ada Sanksi</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Keputusan Menteri Energi Dan Sumber Daya Mineral Nomor 1825 K/30/MEM/2018 Tahun 2018@lt5b0294fb096fa
+Kewajiban
+###KESATU:
+Menetapkan Pedoman Pemasangan Tanda Batas Wilayah Izin Usaha Pertambangan (WIUP) atau Wilayah Izin Usaha Pertambangan Khusus (WIUPK) Operasi Produksi yang terdiri atas:
+a. Pedoman Pemasangan Tanda Batas WIUP atau WIUPK Operasi Produksi, tercantum dalam Lampiran I;
+[...]
+LAMPIRAN I  
+PEDOMAN PEMASANGAN TANDA BATAS WIUP ATAU WIUPK OPERASI PRODUKSI
+[...]
+h. Penetapan Tanda Batas
+[...]
+2) Pasca Penetapan
+a) Pemegang IUP Operasi Produksi dan IUPK Operasi Produksi harus:
+[...]
+(2) menyimpan dan memelihara data hasil pengukuran, berita acara, laporan hasil pelaksanaan pemasangan Tanda Batas, serta peta pengukuran dan pemasangan Tanda Batas.
+[...]</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>771</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>menyimpandanmemeliharadatahasilpengukuran,beritaacara,laporanhasilpelaksanaanpemasangantandabatas,sertapetapengukurandanpemasangantandabatas,bagipemegangiupatauiupkyangtelahmemperolehpenetapantandabatas</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>tidakadasanksi</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>keputusanmenterienergidansumberdayamineralnomor1825k/30/mem/2018tahun2018kewajiban###kesatu:menetapkanpedomanpemasangantandabataswilayahizinusahapertambangan(wiup)atauwilayahizinusahapertambangankhusus(wiupk)operasiproduksiyangterdiriatas:a.pedomanpemasangantandabataswiupatauwiupkoperasiproduksi,tercantumdalamlampirani;[...]lampiranipedomanpemasangantandabataswiupatauwiupkoperasiproduksi[...]h.penetapantandabatas[...]2)pascapenetapana)pemegangiupoperasiproduksidaniupkoperasiproduksiharus:[...](2)menyimpandanmemeliharadatahasilpengukuran,beritaacara,laporanhasilpelaksanaanpemasangantandabatas,sertapetapengukurandanpemasangantandabatas.[...]</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>4c11e661248d590b4a1f50e154a98bed051ee15d84934de911587c8038b2ba2c</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Pertambangan Batubara&gt;Pelaksanaan Kegiatan Usaha Pertambangan Batubara</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Memastikan Tanda Batas yang telah dipasang bebas dari tumbuh-tumbuhan yang dapat menutupi dalam radius 1 (satu) meter, bagi Pemegang IUP atau IUPK yang telah memperoleh penetapan tanda batas</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Tidak Ada Sanksi</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Keputusan Menteri Energi Dan Sumber Daya Mineral Nomor 1825 K/30/MEM/2018 Tahun 2018@lt5b0294fb096fa
+Kewajiban
+###KESATU:
+Menetapkan Pedoman Pemasangan Tanda Batas Wilayah Izin Usaha Pertambangan (WIUP) atau Wilayah Izin Usaha Pertambangan Khusus (WIUPK) Operasi Produksi yang terdiri atas:
+a. Pedoman Pemasangan Tanda Batas WIUP atau WIUPK Operasi Produksi, tercantum dalam Lampiran I;
+[...]
+LAMPIRAN I  
+PEDOMAN PEMASANGAN TANDA BATAS WIUP ATAU WIUPK OPERASI PRODUKSI
+[...]
+h. Penetapan Tanda Batas
+[...]
+2) Pasca Penetapan
+[...]
+b) Pemegang IUP Operasi Produksi dan IUPK Operasi Produksi memastikan Tanda Batas yang telah dipasang bebas dari tumbuh-tumbuhan yang dapat menutupi dalam radius 1 (satu) meter.
+[...]</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>717</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>memastikantandabatasyangtelahdipasangbebasdaritumbuh-tumbuhanyangdapatmenutupidalamradius1(satu)meter,bagipemegangiupatauiupkyangtelahmemperolehpenetapantandabatas</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>tidakadasanksi</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>keputusanmenterienergidansumberdayamineralnomor1825k/30/mem/2018tahun2018kewajiban###kesatu:menetapkanpedomanpemasangantandabataswilayahizinusahapertambangan(wiup)atauwilayahizinusahapertambangankhusus(wiupk)operasiproduksiyangterdiriatas:a.pedomanpemasangantandabataswiupatauwiupkoperasiproduksi,tercantumdalamlampirani;[...]lampiranipedomanpemasangantandabataswiupatauwiupkoperasiproduksi[...]h.penetapantandabatas[...]2)pascapenetapan[...]b)pemegangiupoperasiproduksidaniupkoperasiproduksimemastikantandabatasyangtelahdipasangbebasdaritumbuh-tumbuhanyangdapatmenutupidalamradius1(satu)meter.[...]</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>efec72c4842652cb9aaf0548a8e8741dbc55e2cb0894cabbc01a9ee0b3efead8</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Pertambangan Batubara&gt;Pelaksanaan Kegiatan Usaha Pertambangan Batubara</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Memastikan agar data hasil pengukuran, berita acara, laporan hasil pelaksanaan pemasangan Tanda Batas, serta peta pengukuran dan pemasangan Tanda Batas disimpan di tempat yang aman dan mudah diperoleh oleh petugas dari Direktorat Jenderal dan/atau Dinas Teknis Provinsi, bagi Pemegang IUP atau IUPK yang telah memperoleh penetapan tanda batas</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Tidak Ada Sanksi</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Keputusan Menteri Energi Dan Sumber Daya Mineral Nomor 1825 K/30/MEM/2018 Tahun 2018@lt5b0294fb096fa
+Kewajiban
+###KESATU:
+Menetapkan Pedoman Pemasangan Tanda Batas Wilayah Izin Usaha Pertambangan (WIUP) atau Wilayah Izin Usaha Pertambangan Khusus (WIUPK) Operasi Produksi yang terdiri atas:
+a. Pedoman Pemasangan Tanda Batas WIUP atau WIUPK Operasi Produksi, tercantum dalam Lampiran I;
+[...]
+LAMPIRAN I  
+PEDOMAN PEMASANGAN TANDA BATAS WIUP ATAU WIUPK OPERASI PRODUKSI
+[...]
+h. Penetapan Tanda Batas
+[...]
+2) Pasca Penetapan
+[...]
+c) Data hasil pengukuran, berita acara, laporan hasil pelaksanaan pemasangan Tanda Batas, serta peta pengukuran dan pemasangan Tanda Batas disimpan di tempat yang aman dan mudah diperoleh oleh petugas dari Direktorat Jenderal dan/atau Dinas Teknis Provinsi.
+[...]</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>797</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>memastikanagardatahasilpengukuran,beritaacara,laporanhasilpelaksanaanpemasangantandabatas,sertapetapengukurandanpemasangantandabatasdisimpanditempatyangamandanmudahdiperoleholehpetugasdaridirektoratjenderaldan/ataudinasteknisprovinsi,bagipemegangiupatauiupkyangtelahmemperolehpenetapantandabatas</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>tidakadasanksi</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>keputusanmenterienergidansumberdayamineralnomor1825k/30/mem/2018tahun2018kewajiban###kesatu:menetapkanpedomanpemasangantandabataswilayahizinusahapertambangan(wiup)atauwilayahizinusahapertambangankhusus(wiupk)operasiproduksiyangterdiriatas:a.pedomanpemasangantandabataswiupatauwiupkoperasiproduksi,tercantumdalamlampirani;[...]lampiranipedomanpemasangantandabataswiupatauwiupkoperasiproduksi[...]h.penetapantandabatas[...]2)pascapenetapan[...]c)datahasilpengukuran,beritaacara,laporanhasilpelaksanaanpemasangantandabatas,sertapetapengukurandanpemasangantandabatasdisimpanditempatyangamandanmudahdiperoleholehpetugasdaridirektoratjenderaldan/ataudinasteknisprovinsi.[...]</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>2e82c96a440e33f623f2a9ede13ad590e42d4e86650139541e5c7c04553e24df</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Pertambangan Batubara&gt;Pelaksanaan Kegiatan Usaha Pertambangan Batubara</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Melakukan pemasangan kembali Tanda Batas, bagi Pemegang IUP atau IUPK yang telah memperoleh penetapan tanda batas apabila Tanda Batas yang telah dipasang rusak/tercabut/hilang</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Tidak Ada Sanksi</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Keputusan Menteri Energi Dan Sumber Daya Mineral Nomor 1825 K/30/MEM/2018 Tahun 2018@lt5b0294fb096fa
+Kewajiban
+###KESATU:
+Menetapkan Pedoman Pemasangan Tanda Batas Wilayah Izin Usaha Pertambangan (WIUP) atau Wilayah Izin Usaha Pertambangan Khusus (WIUPK) Operasi Produksi yang terdiri atas:
+a. Pedoman Pemasangan Tanda Batas WIUP atau WIUPK Operasi Produksi, tercantum dalam Lampiran I;
+[...]
+LAMPIRAN I  
+PEDOMAN PEMASANGAN TANDA BATAS WIUP ATAU WIUPK OPERASI PRODUKSI
+[...]
+h. Penetapan Tanda Batas
+[...]
+2) Pasca Penetapan
+[...]
+d) Dalam hal Tanda Batas yang telah dipasang rusak/tercabut/hilang, maka Pemegang IUP Operasi Produksi dan IUPK Operasi Produksi wajib melakukan pemasangan kembali Tanda Batas yang rusak/tercabut/hilang tersebut.
+[...]</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>752</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>melakukanpemasangankembalitandabatas,bagipemegangiupatauiupkyangtelahmemperolehpenetapantandabatasapabilatandabatasyangtelahdipasangrusak/tercabut/hilang</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>conditional</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>tidakadasanksi</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>keputusanmenterienergidansumberdayamineralnomor1825k/30/mem/2018tahun2018kewajiban###kesatu:menetapkanpedomanpemasangantandabataswilayahizinusahapertambangan(wiup)atauwilayahizinusahapertambangankhusus(wiupk)operasiproduksiyangterdiriatas:a.pedomanpemasangantandabataswiupatauwiupkoperasiproduksi,tercantumdalamlampirani;[...]lampiranipedomanpemasangantandabataswiupatauwiupkoperasiproduksi[...]h.penetapantandabatas[...]2)pascapenetapan[...]d)dalamhaltandabatasyangtelahdipasangrusak/tercabut/hilang,makapemegangiupoperasiproduksidaniupkoperasiproduksiwajibmelakukanpemasangankembalitandabatasyangrusak/tercabut/hilangtersebut.[...]</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>d1498069d803bda2d50b269f804e9dd89ca33970af6106b478f10249a6f6dff6</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Pertambangan Batubara&gt;Pelaksanaan Kegiatan Usaha Pertambangan Batubara</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Menyampaikan laporan hasil pemeliharaan dan perawatan Tanda Batas yang telah dipasang kepada Direktur Jenderal secara berkala setiap 6 (enam) bulan, bagi Pemegang IUP atau IUPK yang telah memperoleh penetapan tanda batas</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Periodic</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Tidak Ada Sanksi</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Keputusan Menteri Energi Dan Sumber Daya Mineral Nomor 1825 K/30/MEM/2018 Tahun 2018@lt5b0294fb096fa
+Kewajiban
+###KESATU:
+Menetapkan Pedoman Pemasangan Tanda Batas Wilayah Izin Usaha Pertambangan (WIUP) atau Wilayah Izin Usaha Pertambangan Khusus (WIUPK) Operasi Produksi yang terdiri atas:
+a. Pedoman Pemasangan Tanda Batas WIUP atau WIUPK Operasi Produksi, tercantum dalam Lampiran I;
+[...]
+i. Format Laporan Hasil Pemeliharaan dan Perawatan Tanda Batas, tercantum dalam Lampiran IX, yang merupakan bagian tidak terpisahkan dari Keputusan Menteri ini.
+LAMPIRAN I  
+PEDOMAN PEMASANGAN TANDA BATAS WIUP ATAU WIUPK OPERASI PRODUKSI
+[...]
+h. Penetapan Tanda Batas
+[...]
+2) Pasca Penetapan
+[...]
+e) Pemegang IUP Operasi Produksi dan IUPK Operasi Produksi menyampaikan laporan hasil pemeliharaan dan perawatan Tanda Batas yang telah dipasang kepada Direktur Jenderal secara berkala setiap 6 (enam) bulan.
+f) Format laporan pemeliharaan dan perawatan tercantum dalam Lampiran IX Keputusan Menteri ini.
+LAMPIRAN 
+FORMAT LAPORAN HASIL PEMELIHARAAN DAN PERAWATAN TANDA BATAS
+[...]
+[Catatan: Detail mengenai Format Laporan Hasil Pemeliharaan dan Perawatan Tanda Batas dapat dilihat selengkapnya pada Lampiran IX Keputusan Menteri Energi Dan Sumber Daya Mineral Nomor 1825 K/30/MEM/2018 Tahun 2018 halaman 39-40]</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>1305</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>menyampaikanlaporanhasilpemeliharaandanperawatantandabatasyangtelahdipasangkepadadirekturjenderalsecaraberkalasetiap6(enam)bulan,bagipemegangiupatauiupkyangtelahmemperolehpenetapantandabatas</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>periodic</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>tidakadasanksi</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>keputusanmenterienergidansumberdayamineralnomor1825k/30/mem/2018tahun2018kewajiban###kesatu:menetapkanpedomanpemasangantandabataswilayahizinusahapertambangan(wiup)atauwilayahizinusahapertambangankhusus(wiupk)operasiproduksiyangterdiriatas:a.pedomanpemasangantandabataswiupatauwiupkoperasiproduksi,tercantumdalamlampirani;[...]i.formatlaporanhasilpemeliharaandanperawatantandabatas,tercantumdalamlampiranix,yangmerupakanbagiantidakterpisahkandarikeputusanmenteriini.lampiranipedomanpemasangantandabataswiupatauwiupkoperasiproduksi[...]h.penetapantandabatas[...]2)pascapenetapan[...]e)pemegangiupoperasiproduksidaniupkoperasiproduksimenyampaikanlaporanhasilpemeliharaandanperawatantandabatasyangtelahdipasangkepadadirekturjenderalsecaraberkalasetiap6(enam)bulan.f)formatlaporanpemeliharaandanperawatantercantumdalamlampiranixkeputusanmenteriini.lampiranformatlaporanhasilpemeliharaandanperawatantandabatas[...][catatan:detailmengenaiformatlaporanhasilpemeliharaandanperawatantandabatasdapatdilihatselengkapnyapadalampiranixkeputusanmenterienergidansumberdayamineralnomor1825k/30/mem/2018tahun2018halaman39-40]</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>6d8ec4a6976c03629b9cbc273e309fb5aa00a9f88075a2b6f77596ae515a33c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Pertambangan Batubara&gt;Pelaksanaan Kegiatan Usaha Pertambangan Batubara</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Melakukan kegiatan usaha sesuai dengan jenis dan bidang usahanya, bagi Pemegang IUJP</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Kewajiban
+Pasal 55
+(1) IUJP meliputi kegiatan:
+a. konsultasi, perencanaan, dan pelaksanaan di bidang:
+1. Penyelidikan Umum;
+2. Eksplorasi;
+3. Studi Kelayakan;
+4. Konstruksi pertambangan;
+5. Pengangkutan;
+6. lingkungan pertambangan;
+7. reklamasi dan pascatambang; dan/atau
+8. keselamatan pertambangan;
+b. konsultasi dan perencanaan di bidang:
+1. penambangan; atau
+2. pengolahan dan pemurnian.
+[...]
+Pasal 72
+Pemegang IUJP dalam melaksanakan kegiatan usahanya wajib:
+[...]
+d. melakukan kegiatan sesuai dengan jenis dan bidang usahanya;
+[...]
+m. memenuhi ketentuan peraturan perundang-undangan di bidang usaha jasa pertambangan.</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Sanksi
+Pasal 95 
+(1) Pemegang IUP, IUPK, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, IUJP, dan IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, yang tidak mematuhi atau melanggar ketentuan sebagaimana dimaksud dalam [...] Pasal 72 huruf a atau huruf m [...].
+(2) Sanksi administratif sebagaimana dimaksud pada ayat (1) berupa:
+a. peringatan tertulis;
+b. penghentian sementara sebagian atau seluruh kegiatan usaha; dan/atau
+c. pencabutan izin.
+(3) Sanksi administratif sebagaimana dimaksud pada ayat (2) diberikan oleh Direktur Jenderal atas nama Menteri atau gubernur sesuai dengan kewenangannya.</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>711</v>
+      </c>
+      <c r="J34" t="n">
+        <v>715</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>melakukankegiatanusahasesuaidenganjenisdanbidangusahanya,bagipemegangiujp</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>peraturanmenterienergidansumberdayamineralnomor7tahun2020kewajibanpasal55(1)iujpmeliputikegiatan:a.konsultasi,perencanaan,danpelaksanaandibidang:1.penyelidikanumum;2.eksplorasi;3.studikelayakan;4.konstruksipertambangan;5.pengangkutan;6.lingkunganpertambangan;7.reklamasidanpascatambang;dan/atau8.keselamatanpertambangan;b.konsultasidanperencanaandibidang:1.penambangan;atau2.pengolahandanpemurnian.[...]pasal72pemegangiujpdalammelaksanakankegiatanusahanyawajib:[...]d.melakukankegiatansesuaidenganjenisdanbidangusahanya;[...]m.memenuhiketentuanperaturanperundang-undangandibidangusahajasapertambangan.</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>peraturanmenterienergidansumberdayamineralnomor7tahun2020sanksipasal95(1)pemegangiup,iupk,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,iujp,daniupoperasiproduksikhususuntukpengangkutandanpenjualan,yangtidakmematuhiataumelanggarketentuansebagaimanadimaksuddalam[...]pasal72hurufaatauhurufm[...].(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)berupa:a.peringatantertulis;b.penghentiansementarasebagianatauseluruhkegiatanusaha;dan/atauc.pencabutanizin.(3)sanksiadministratifsebagaimanadimaksudpadaayat(2)diberikanolehdirekturjenderalatasnamamenteriataugubernursesuaidengankewenangannya.</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>fb6a9499df74f67e33d8c6906fa490ad99995490703d48bbfdf4b1a4bc165079</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Pertambangan Batubara&gt;Tenaga Kerja Bidang Pertambangan Batubara&gt;Ketentuan Umum Tenaga Kerja di Bidang Pertambangan Batubara</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Mengutamakan penggunaan tenaga kerja setempat, bagi Pemegang IUP Eksplorasi, IUPK Eksplorasi, IUP Operasi Produksi, IUPK Operasi Produksi, dan IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1. Menyusun dan membiayai program pendidikan dan pelatihan tenaga kerja setempat dan/atau nasional</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Peraturan Pemerintah Nomor 96 Tahun 2021@lt614815d4f1925
+Kewajiban
+Pasal 161 &gt;&gt;&gt; @lt614815d4f1925
+(1) Pemegang IUP dan IUPK wajib mengutamakan penggunaan tenaga kerja setempat.
+(2) Dalam hal tidak tersedia tenaga kerja setempat sebagaimana dimaksud pada ayat (1) yang memiliki kompetensi dan keahlian, pemegang IUP dan IUPK dapat menggunakan tenaga kerja nasional.
+(3) Dalam hal tidak tersedia tenaga kerja nasionai sebagainrana dimaksud pada ayat (2) yang memiliki kompetensi dan keahlian, pemegang IUP dan IUPK dapat menggunakan tenaga kerja asing setelah mendapatkan persetujuan dari instansi yang menyelenggarakan urusan pemerintahan di bidang ketenagakerjaan.
+Peraturan Menteri Energi Dan Sumber Daya Mineral Nomor 25 Tahun 2018@lt5af950ccbfc3d
+Kewajiban
+Pasal 29 &gt;&gt;&gt; @lt5af950ccbfc3d
+(1) Pemegang IUP Eksplorasi, IUPK Eksplorasi, IUP Operasi Produksi, IUPK Operasi Produksi, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, dan Izin Usaha Jasa Pertambangan wajib mengutamakan tenaga kerja setempat dan/atau nasional.
+[...]
+(3) Pemegang IUP Eksplorasi, IUPK Eksplorasi, IUP Operasi Produksi, IUPK Operasi Produksi, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, dan Izin Usaha Jasa Pertambangan wajib menyusun dan membiayai program pendidikan dan pelatihan tenaga kerja setempat dan/atau nasional.
+Peraturan Menteri Energi Dan Sumber Daya Mineral Nomor 39 Tahun 2008@lt575fd38089bab
+Kewajiban
+Pasal 3 &gt;&gt;&gt; @lt575fd38089bab
+Dalam melaksanakan kegiatan usaha pertambangan mineral dan batubara, pemegang Kuasa Pertambangan, pemegang Kontrak Karya dan pemegang Perjanjian Karya Pengusahaan Pertambangan Batubara wajib mempekerjakan tenaga kerja yang memiliki sertifikat kompetensi kerja sesuai SKKNI sebagaimana dimaksud dalam Pasal 1.</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Peraturan Pemerintah Nomor 96 Tahun 2021@lt614815d4f1925
+Sanksi
+Pasal 185 &gt;&gt;&gt; @lt614815d4f1925
+(1) Pemegang IUP, IUPK, IPR, SIPB, atau IUP untuk Penjualan yang melakukan pelanggaran terhadap ketentuan sebagaimana dimaksud dalam […] Pasal 161 ayat (1) […] dikenai sanksi administratif.
+(2) sanksi administratif sebagaimana dimaksud pada ayat (1) benrpa:
+a. peringatan tertulis;
+b. penghentian sernentara sebagian atau seluruh kegiatan Eksplorasi atau Operasi produksi; dan/atau
+c. pencabutan IUP, IUPK, IPR, SIPB, atau IUP untuk Penjualan.
+(3) selain sanksi administratif sebagaimana dimaksud pada ayat (2), pemegang IUP, IUPK, IPR, atau SIPB, yang melakukan pelanggaran terhadap ketentuan sebagaimana dimaksud dalam pasal 51 ayat (2) huruf b dan Pasal 107 ayat (2) huruf b dikenai denda.
+(4) Pengenaan denda sebagaimana dimaksud pada ayat (3) dilaksanakan sesuai dengan ketentuan peraturan perundang-undangan di bidang pajak daerah dan retribusi daerah.
+Pasal 186 &gt;&gt;&gt; @lt614815d4f1925
+Peringatan tertulis sebagaimana dimaksud dalam pasal 185 ayat (2) huruf a diberikan paling banyak 3 (tiga) kali dengan jangka waktu peringatan masing-masing 30 (tiga puluh) hari kalender.
+Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+Sanksi
+Pasal 95 
+(1) Pemegang IUP, IUPK, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, IUJP, dan IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, yang tidak mematuhi atau melanggar ketentuan sebagaimana dimaksud dalam [...] Pasal 72 huruf a atau huruf m [...].
+(2) Sanksi administratif sebagaimana dimaksud pada ayat (1) berupa:
+a. peringatan tertulis;
+b. penghentian sementara sebagian atau seluruh kegiatan usaha; dan/atau
+c. pencabutan izin.
+(3) Sanksi administratif sebagaimana dimaksud pada ayat (2) diberikan oleh Direktur Jenderal atas nama Menteri atau gubernur sesuai dengan kewenangannya.
+Peraturan Menteri Energi Dan Sumber Daya Mineral Nomor 25 Tahun 2018@lt5af950ccbfc3d
+Sanksi
+Pasal 40 &gt;&gt;&gt; @lt5af950ccbfc3d
+(1)  Pemegang IUP Eksplorasi, IUPK Eksplorasi, IUP Operasi Produksi, IUPK Operasi Produksi, IUP Operasi Produksi khusus untuk pengolahan dan atau pemurnian, IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, dan Izin Usaha Jasa Pertambangan yang tidak mematuhi atau melanggar ketentuan sebagaimana dimaksud dalam Pasal 8 ayat (1) atau sampai dengan ayat (3), Pasal 9 ayat (1), Pasal 10 ayat (1), Pasal 11 ayat (1), Pasal 12 ayat (1), Pasal 13, Pasal 14 ayat (1) atau ayat (3), Pasal 16 ayat (1) atau ayat (6), Pasal 17 ayat (1), Pasal 18 ayat (1) atau sampai dengan ayat (6), Pasal 22, Pasal 24 ayat (1) atau ayat (3), Pasal 25 ayat (1), Pasal 26 ayat (1) atau ayat (2), Pasal 27 ayat (1), Pasal 29 ayat (1) atau ayat (3), Pasal 30 ayat (1) atau ayat (4), Pasal 33 ayat (1),  Pasal 38 ayat (1), ayat (4), ayat (6), atau ayat (7), atau Pasal 39 ayat (1) dikenakan sanksi administratif.
+(2) Sanksi administratif sebagaimana dimaksud pada ayat (1) berupa:
+a. peringatan tertulis;
+b. penghentian sementara sebagian atau seluruh kegiatan usaha; dan/atau
+c. pencabutan izin.
+(3)  Sanksi administratif sebagaimana dimaksud pada ayat (2) diberikan oleh Direktur Jenderal atas nama Menteri atau gubernur sesuai dengan kewenangannya.
+Pasal 41 &gt;&gt;&gt; @lt5af950ccbfc3d
+Peringatan tertulis sebagaimana dimaksud dalam Pasal 40 ayat (2) huruf a diberikan paling banyak 3 (tiga) kali dengan jangka waktu peringatan masing-masing paling lama 30 (tiga puluh) hari kalender.
+Pasal 42 &gt;&gt;&gt; @lt5af950ccbfc3d
+(1) Dalam hal pemegang IUP Eksplorasi, IUPK Eksplorasi, IUP Operasi Produksi, IUPK Operasi Produksi, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, atau Izin Usaha Jasa Pertambangan yang mendapat sanksi peringatan tertulis setelah berakhirnya jangka waktu peringatan tertulis sebagaimana dimaksud dalam Pasal 40 ayat (2) huruf a belum melaksanakan kewajibannya, dikenakan sanksi administratif berupa penghentian sementara sebagian atau seluruh kegiatan usaha sebagaimana dimaksud dalam Pasal 40 ayat (2) huruf b.
+(2) Sanksi administratif berupa penghentian sementara sebagian atau seluruh kegiatan usaha sebagaimana dimaksud pada ayat (1) dikenakan paling lama 60 (enam puluh) hari kalender.
+Pasal 43 &gt;&gt;&gt; @lt5af950ccbfc3d
+Sanksi administratif berupa pencabutan izin sebagaimana dimaksud dalam Pasal 40 ayat (2) huruf c dikenakan kepada pemegang IUP Eksplorasi, IUPK Eksplorasi, IUP Operasi Produksi, IUPK Operasi Produksi, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, atau Izin Usaha Jasa Pertambangan yang tidak melaksanakan kewajiban sampai dengan berakhirnya jangka waktu pengenaan sanksi berupa penghentian sementara sebagian atau seluruh kegiatan usaha sebagaimana dimaksud dalam Pasal 42 ayat (2) huruf b.</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>1774</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4886</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>mengutamakanpenggunaantenagakerjasetempat,bagipemegangiupeksplorasi,iupkeksplorasi,iupoperasiproduksi,iupkoperasiproduksi,daniupoperasiproduksikhususuntukpengolahandan/ataupemurnian</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>1.menyusundanmembiayaiprogrampendidikandanpelatihantenagakerjasetempatdan/ataunasional</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>peraturanpemerintahnomor96tahun2021kewajibanpasal161&gt;&gt;&gt;(1)pemegangiupdaniupkwajibmengutamakanpenggunaantenagakerjasetempat.(2)dalamhaltidaktersediatenagakerjasetempatsebagaimanadimaksudpadaayat(1)yangmemilikikompetensidankeahlian,pemegangiupdaniupkdapatmenggunakantenagakerjanasional.(3)dalamhaltidaktersediatenagakerjanasionaisebagainranadimaksudpadaayat(2)yangmemilikikompetensidankeahlian,pemegangiupdaniupkdapatmenggunakantenagakerjaasingsetelahmendapatkanpersetujuandariinstansiyangmenyelenggarakanurusanpemerintahandibidangketenagakerjaan.peraturanmenterienergidansumberdayamineralnomor25tahun2018kewajibanpasal29&gt;&gt;&gt;(1)pemegangiupeksplorasi,iupkeksplorasi,iupoperasiproduksi,iupkoperasiproduksi,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,danizinusahajasapertambanganwajibmengutamakantenagakerjasetempatdan/ataunasional.[...](3)pemegangiupeksplorasi,iupkeksplorasi,iupoperasiproduksi,iupkoperasiproduksi,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,danizinusahajasapertambanganwajibmenyusundanmembiayaiprogrampendidikandanpelatihantenagakerjasetempatdan/ataunasional.peraturanmenterienergidansumberdayamineralnomor39tahun2008kewajibanpasal3&gt;&gt;&gt;dalammelaksanakankegiatanusahapertambanganmineraldanbatubara,pemegangkuasapertambangan,pemegangkontrakkaryadanpemegangperjanjiankaryapengusahaanpertambanganbatubarawajibmempekerjakantenagakerjayangmemilikisertifikatkompetensikerjasesuaiskknisebagaimanadimaksuddalampasal1.</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>peraturanpemerintahnomor96tahun2021sanksipasal185&gt;&gt;&gt;(1)pemegangiup,iupk,ipr,sipb,atauiupuntukpenjualanyangmelakukanpelanggaranterhadapketentuansebagaimanadimaksuddalam[…]pasal161ayat(1)[…]dikenaisanksiadministratif.(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)benrpa:a.peringatantertulis;b.penghentiansernentarasebagianatauseluruhkegiataneksplorasiatauoperasiproduksi;dan/atauc.pencabutaniup,iupk,ipr,sipb,atauiupuntukpenjualan.(3)selainsanksiadministratifsebagaimanadimaksudpadaayat(2),pemegangiup,iupk,ipr,atausipb,yangmelakukanpelanggaranterhadapketentuansebagaimanadimaksuddalampasal51ayat(2)hurufbdanpasal107ayat(2)hurufbdikenaidenda.(4)pengenaandendasebagaimanadimaksudpadaayat(3)dilaksanakansesuaidenganketentuanperaturanperundang-undangandibidangpajakdaerahdanretribusidaerah.pasal186&gt;&gt;&gt;peringatantertulissebagaimanadimaksuddalampasal185ayat(2)hurufadiberikanpalingbanyak3(tiga)kalidenganjangkawaktuperingatanmasing-masing30(tigapuluh)harikalender.peraturanmenterienergidansumberdayamineralnomor7tahun2020sanksipasal95(1)pemegangiup,iupk,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,iujp,daniupoperasiproduksikhususuntukpengangkutandanpenjualan,yangtidakmematuhiataumelanggarketentuansebagaimanadimaksuddalam[...]pasal72hurufaatauhurufm[...].(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)berupa:a.peringatantertulis;b.penghentiansementarasebagianatauseluruhkegiatanusaha;dan/atauc.pencabutanizin.(3)sanksiadministratifsebagaimanadimaksudpadaayat(2)diberikanolehdirekturjenderalatasnamamenteriataugubernursesuaidengankewenangannya.peraturanmenterienergidansumberdayamineralnomor25tahun2018sanksipasal40&gt;&gt;&gt;(1)pemegangiupeksplorasi,iupkeksplorasi,iupoperasiproduksi,iupkoperasiproduksi,iupoperasiproduksikhususuntukpengolahandanataupemurnian,iupoperasiproduksikhususuntukpengangkutandanpenjualan,danizinusahajasapertambanganyangtidakmematuhiataumelanggarketentuansebagaimanadimaksuddalampasal8ayat(1)atausampaidenganayat(3),pasal9ayat(1),pasal10ayat(1),pasal11ayat(1),pasal12ayat(1),pasal13,pasal14ayat(1)atauayat(3),pasal16ayat(1)atauayat(6),pasal17ayat(1),pasal18ayat(1)atausampaidenganayat(6),pasal22,pasal24ayat(1)atauayat(3),pasal25ayat(1),pasal26ayat(1)atauayat(2),pasal27ayat(1),pasal29ayat(1)atauayat(3),pasal30ayat(1)atauayat(4),pasal33ayat(1),pasal38ayat(1),ayat(4),ayat(6),atauayat(7),ataupasal39ayat(1)dikenakansanksiadministratif.(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)berupa:a.peringatantertulis;b.penghentiansementarasebagianatauseluruhkegiatanusaha;dan/atauc.pencabutanizin.(3)sanksiadministratifsebagaimanadimaksudpadaayat(2)diberikanolehdirekturjenderalatasnamamenteriataugubernursesuaidengankewenangannya.pasal41&gt;&gt;&gt;peringatantertulissebagaimanadimaksuddalampasal40ayat(2)hurufadiberikanpalingbanyak3(tiga)kalidenganjangkawaktuperingatanmasing-masingpalinglama30(tigapuluh)harikalender.pasal42&gt;&gt;&gt;(1)dalamhalpemegangiupeksplorasi,iupkeksplorasi,iupoperasiproduksi,iupkoperasiproduksi,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,iupoperasiproduksikhususuntukpengangkutandanpenjualan,atauizinusahajasapertambanganyangmendapatsanksiperingatantertulissetelahberakhirnyajangkawaktuperingatantertulissebagaimanadimaksuddalampasal40ayat(2)hurufabelummelaksanakankewajibannya,dikenakansanksiadministratifberupapenghentiansementarasebagianatauseluruhkegiatanusahasebagaimanadimaksuddalampasal40ayat(2)hurufb.(2)sanksiadministratifberupapenghentiansementarasebagianatauseluruhkegiatanusahasebagaimanadimaksudpadaayat(1)dikenakanpalinglama60(enampuluh)harikalender.pasal43&gt;&gt;&gt;sanksiadministratifberupapencabutanizinsebagaimanadimaksuddalampasal40ayat(2)hurufcdikenakankepadapemegangiupeksplorasi,iupkeksplorasi,iupoperasiproduksi,iupkoperasiproduksi,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,iupoperasiproduksikhususuntukpengangkutandanpenjualan,atauizinusahajasapertambanganyangtidakmelaksanakankewajibansampaidenganberakhirnyajangkawaktupengenaansanksiberupapenghentiansementarasebagianatauseluruhkegiatanusahasebagaimanadimaksuddalampasal42ayat(2)hurufb.</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>fd6472dad4729d251d9f2cb0ed745230ab7fdf872880d2408e579e26563065c8</t>
         </is>
       </c>
     </row>

--- a/my_data.xlsx
+++ b/my_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,45 +471,35 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 19</t>
+          <t>concat_update_judul</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 20</t>
+          <t>concat_update_tipe_kewajiban</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>concat_update_judul</t>
+          <t>concat_update_sanksi</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>concat_update_tipe_kewajiban</t>
+          <t>concat_update_checklist</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>concat_update_sanksi</t>
+          <t>concat_update_peraturan_kewajiban</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>concat_update_checklist</t>
+          <t>concat_update_peraturan_sanksi</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>concat_update_peraturan_kewajiban</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>concat_update_peraturan_sanksi</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hash</t>
         </is>
@@ -517,16 +507,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pertambangan Batubara&gt;Tenaga Kerja Bidang Pertambangan Batubara&gt;Ketentuan Umum Tenaga Kerja di Bidang Pertambangan Batubara</t>
+          <t>Oil and Gas Procurement&gt;Pengadaan Barang dan Jasa dalam Kegiatan Usaha Hulu Minyak dan Gas Bumi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mengutamakan penggunaan tenaga kerja setempat, bagi Pemegang IUP Eksplorasi, IUPK Eksplorasi, IUP Operasi Produksi, IUPK Operasi Produksi, dan IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian</t>
+          <t>Memenuhi komitmen Tingkat Komponen Dalam Negeri (TKDN) jasa yang dinyatakan sendiri (self-assesment) dan ditetapkan dalam kontrak, bagi Produsen Dalam Negeri dan Penyedia Barang dan/atau Jasa</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -541,109 +531,1307 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1. Menyusun dan membiayai program pendidikan dan pelatihan tenaga kerja setempat dan/atau nasional</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Peraturan Pemerintah Nomor 96 Tahun 2021@lt614815d4f1925
+          <t>Peraturan Menteri Energi Dan Sumber Daya Mineral Nomor 15 Tahun 2013@lt5135ade06c682
 Kewajiban
-Pasal 161 &gt;&gt;&gt; @lt614815d4f1925
-(1) Pemegang IUP dan IUPK wajib mengutamakan penggunaan tenaga kerja setempat.
-(2) Dalam hal tidak tersedia tenaga kerja setempat sebagaimana dimaksud pada ayat (1) yang memiliki kompetensi dan keahlian, pemegang IUP dan IUPK dapat menggunakan tenaga kerja nasional.
-(3) Dalam hal tidak tersedia tenaga kerja nasionai sebagainrana dimaksud pada ayat (2) yang memiliki kompetensi dan keahlian, pemegang IUP dan IUPK dapat menggunakan tenaga kerja asing setelah mendapatkan persetujuan dari instansi yang menyelenggarakan urusan pemerintahan di bidang ketenagakerjaan.
-Peraturan Menteri Energi Dan Sumber Daya Mineral Nomor 25 Tahun 2018@lt5af950ccbfc3d
+Pasal 8
+(1) Dalam upaya mengutamakan penggunaan Produk Dalam Negeri, Produsen Dalam Negeri dan/atau Penyedia Barang dan/atau Jasa wajib:
+[...]
+b. memenuhi komitmen TKDN jasa yang dinyatakan sendiri (self assesment) yang ditetapkan di dalam kontrak pengadaan barang dan/atau jasa;
+[...]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Peraturan Menteri Energi Dan Sumber Daya Mineral Nomor 15 Tahun 2013@lt5135ade06c682
+Sanksi
+Pasal 22
+(1) Produsen Dalam Negeri yang melanggar ketentuan dalam [...], Pasal 8 ayat (1) huruf b, [...] dikenai sanksi administratif oleh Direktur Jenderal berupa teguran tertulis dan/atau pencabutan SKUP Migas.
+(2) Penyedia Barang dan/atau Jasa yang melanggar ketentuan dalam [...], Pasal 8 ayat (1) huruf b, [...] dikenai sanksi administratif oleh Direktur Jenderal berupa teguran tertulis dan/atau pencabutan SKUP Migas.
+(3) Sanksi administratif berupa teguran tertulis sebagaimana dimaksud pada ayat (1) dan ayat (2) diberikan paling banyak 2 (dua) kali masing-masing dalam jangka waktu paling lama 1 (satu) bulan.
+(4) Dalam hal Produsen Dalam Negeri atau Penyedia Barang dan/atau Jasa yang mendapat teguran tertulis setelah berakhirnya jangka waktu teguran tertulis kedua sebagaimana dimaksud pada ayat (3) tidak melaksanakan kewajibannya, maka Direktur Jenderal mengenakan sanksi administratif berupa pencabutan SKUP Migas.
+Pasal 23
+(1) Produsen Dalam Negeri dan/atau Penyedia Barang dan/atau Jasa yang melanggar ketentuan dalam Pasal 8 ayat (1) butir b, [...] setelah pelaksanaan kontrak pengadaan barang dan/atau jasa, dikenai sanksi finansial oleh Kontraktor dengan ketentuan sebagai berikut:
+a. apabila tidak mengubah peringkat pemenang, besarnya sanksi adalah selisih antara Harga Evaluasi Penawaran (HEP) tahap realisasi kontrak dan Harga Evaluasi Penawaran (HEP) tahap penawaran;
+b. apabila mengubah peringkat pemenang, besarnya sanksi adalah selisih antara Harga Evaluasi Penawaran (HEP) tahap realisasi kontrak dan Harga Evaluasi Penawaran (HEP) tahap penawaran, ditambah selisih antara nilai kontrak peringkat I dan nilai penawaran peringkat II pada tahap penawaran.
+(2) Sanksi finansial sebagaimana dimaksud pada ayat (1) dikurangkan dari nilai pembayaran kontrak.
+(3) Contoh perhitungan besarnya sanksi sebagaimana dimaksud pada ayat (2) adalah sebagaimana tercantum dalam Lampiran V yang merupakan bagian yang tidak terpisahkan dari Peraturan Menteri ini.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>memenuhikomitmentingkatkomponendalamnegeri(tkdn)jasayangdinyatakansendiri(self-assesment)danditetapkandalamkontrak,bagiprodusendalamnegeridanpenyediabarangdan/ataujasa</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>peraturanmenterienergidansumberdayamineralnomor15tahun2013kewajibanpasal8(1)dalamupayamengutamakanpenggunaanprodukdalamnegeri,produsendalamnegeridan/ataupenyediabarangdan/ataujasawajib:[...]b.memenuhikomitmentkdnjasayangdinyatakansendiri(selfassesment)yangditetapkandidalamkontrakpengadaanbarangdan/ataujasa;[...]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>peraturanmenterienergidansumberdayamineralnomor15tahun2013sanksipasal22(1)produsendalamnegeriyangmelanggarketentuandalam[...],pasal8ayat(1)hurufb,[...]dikenaisanksiadministratifolehdirekturjenderalberupategurantertulisdan/ataupencabutanskupmigas.(2)penyediabarangdan/ataujasayangmelanggarketentuandalam[...],pasal8ayat(1)hurufb,[...]dikenaisanksiadministratifolehdirekturjenderalberupategurantertulisdan/ataupencabutanskupmigas.(3)sanksiadministratifberupategurantertulissebagaimanadimaksudpadaayat(1)danayat(2)diberikanpalingbanyak2(dua)kalimasing-masingdalamjangkawaktupalinglama1(satu)bulan.(4)dalamhalprodusendalamnegeriataupenyediabarangdan/ataujasayangmendapattegurantertulissetelahberakhirnyajangkawaktutegurantertuliskeduasebagaimanadimaksudpadaayat(3)tidakmelaksanakankewajibannya,makadirekturjenderalmengenakansanksiadministratifberupapencabutanskupmigas.pasal23(1)produsendalamnegeridan/ataupenyediabarangdan/ataujasayangmelanggarketentuandalampasal8ayat(1)butirb,[...]setelahpelaksanaankontrakpengadaanbarangdan/ataujasa,dikenaisanksifinansialolehkontraktordenganketentuansebagaiberikut:a.apabilatidakmengubahperingkatpemenang,besarnyasanksiadalahselisihantarahargaevaluasipenawaran(hep)tahaprealisasikontrakdanhargaevaluasipenawaran(hep)tahappenawaran;b.apabilamengubahperingkatpemenang,besarnyasanksiadalahselisihantarahargaevaluasipenawaran(hep)tahaprealisasikontrakdanhargaevaluasipenawaran(hep)tahappenawaran,ditambahselisihantaranilaikontrakperingkatidannilaipenawaranperingkatiipadatahappenawaran.(2)sanksifinansialsebagaimanadimaksudpadaayat(1)dikurangkandarinilaipembayarankontrak.(3)contohperhitunganbesarnyasanksisebagaimanadimaksudpadaayat(2)adalahsebagaimanatercantumdalamlampiranvyangmerupakanbagianyangtidakterpisahkandariperaturanmenteriini.</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>5b43d12c6279cae1412425c0d6a48c146a5914fa72a5cd777a27f6d858771b30</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Oil and Gas Procurement&gt;Pengadaan Barang dan Jasa dalam Kegiatan Usaha Hulu Minyak dan Gas Bumi</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mendapatkan persetujuan dari SKK Migas untuk Daftar Pengadaan (Procurement List) dalam tahap Eksplorasi, dengan nilai Paket Tender lebih dari Rp50.000.000.000,00 (lima puluh miliar rupiah), sebagai bagian dari Work Program and Budget (WP&amp;B) pada setiap tahun anggaran</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Licensing</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Menyusun Daftar Pengadaan (Procurement List) yang berisi informasi status Kontrak dan/atau Paket Tender, antara lain: a. Kontrak yang sedang berjalan (active); b. Paket Tender yang proses Tender-nya sedang berjalan (ongoing); c. Paket Tender yang proses Tender-nya akan dilaksanakan pada tahun yang bersangkutan atau berikutnya (future); d. Kontrak yang telah selesai dilaksanakan pada tahun sebelumnya (completed); dan e. Paket Tender yang dibatalkan (canceled).</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Pedoman Tata Kerja Nomor PTK-007/SKKIA0000/2023/S9 - Surat Keputusan Kepala SKKMIGAS Nomor KEP-0042/SKKIA0000/2023/S9 Tahun 2023@lt64364e41f280e</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>mendapatkanpersetujuandariskkmigasuntukdaftarpengadaan(procurementlist)dalamtahapeksplorasi,dengannilaipakettenderlebihdarirp50.000.000.000,00(limapuluhmiliarrupiah),sebagaibagiandariworkprogramandbudget(wp&amp;b)padasetiaptahunanggaran</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>licensing</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>menyusundaftarpengadaan(procurementlist)yangberisiinformasistatuskontrakdan/ataupakettender,antaralain:a.kontrakyangsedangberjalan(active);b.pakettenderyangprosestender-nyasedangberjalan(ongoing);c.pakettenderyangprosestender-nyaakandilaksanakanpadatahunyangbersangkutanatauberikutnya(future);d.kontrakyangtelahselesaidilaksanakanpadatahunsebelumnya(completed);dane.pakettenderyangdibatalkan(canceled).</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>pedomantatakerjanomorptk-007/skkia0000/2023/s9-suratkeputusankepalaskkmigasnomorkep-0042/skkia0000/2023/s9tahun2023</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>7486d0394521407582b95f14dab2a0cd7500fc6c35859600fa500e77fdbd5d8d</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Oil and Gas Procurement&gt;Pengadaan Barang dan Jasa dalam Kegiatan Usaha Hulu Minyak dan Gas Bumi</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mengajukan permohonan persetujuan Rencana Tender kepada SKK Migas dalam jangka waktu 6 (enam) bulan sejak Prakualifikasi disetujui</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Licensing</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Pedoman Tata Kerja Nomor PTK-007/SKKIA0000/2023/S9 - Surat Keputusan Kepala SKKMIGAS Nomor KEP-0042/SKKIA0000/2023/S9 Tahun 2023@lt64364e41f280e</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>mengajukanpermohonanpersetujuanrencanatenderkepadaskkmigasdalamjangkawaktu6(enam)bulansejakprakualifikasidisetujui</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>licensing</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>pedomantatakerjanomorptk-007/skkia0000/2023/s9-suratkeputusankepalaskkmigasnomorkep-0042/skkia0000/2023/s9tahun2023</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>b1425f304693fcacd879cd8adf76c6a64ec243267f9890faf9eaee498b14a55a</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Oil and Gas Procurement&gt;Pengadaan Barang dan Jasa dalam Kegiatan Usaha Hulu Minyak dan Gas Bumi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Melakukan pembayaran kepada Penyedia Barang/Jasa dalam tahap Eksploitasi melalui bank Badan Usaha Milik Negara (BUMN)/Daerah (BUMD)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Pedoman Tata Kerja Nomor PTK-007/SKKIA0000/2023/S9 - Surat Keputusan Kepala SKKMIGAS Nomor KEP-0042/SKKIA0000/2023/S9 Tahun 2023@lt64364e41f280e
 Kewajiban
-Pasal 29 &gt;&gt;&gt; @lt5af950ccbfc3d
-(1) Pemegang IUP Eksplorasi, IUPK Eksplorasi, IUP Operasi Produksi, IUPK Operasi Produksi, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, dan Izin Usaha Jasa Pertambangan wajib mengutamakan tenaga kerja setempat dan/atau nasional.
-[...]
-(3) Pemegang IUP Eksplorasi, IUPK Eksplorasi, IUP Operasi Produksi, IUPK Operasi Produksi, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, dan Izin Usaha Jasa Pertambangan wajib menyusun dan membiayai program pendidikan dan pelatihan tenaga kerja setempat dan/atau nasional.
-Peraturan Menteri Energi Dan Sumber Daya Mineral Nomor 39 Tahun 2008@lt575fd38089bab
+LAMPIRAN
+BAB IV
+1. Ketentuan Umum
+1.7. KKKS Cost Recovery dalam tahap eksploitasi wajib melaksanakan pembayaran kepada Pelaksana Kontrak menggunakan Bank BUMN/BUMD. KKKS Cost Recovery dalam tahap eksplorasi, dapat melaksanakan pembayaran menggunakan Bank BUMN/BUMD atau Bank Umum Swasta Nasional. Ketentuan ini dikecualikan untuk pelaksanaan pembayaran kepada Pelaksana Kontrak yang berstatus Perusahaan Asing.
+Surat Edaran Kepala BPMIGAS Nomor EDR-0067/BP00000/2008/SO Tahun 2008@28938
 Kewajiban
-Pasal 3 &gt;&gt;&gt; @lt575fd38089bab
-Dalam melaksanakan kegiatan usaha pertambangan mineral dan batubara, pemegang Kuasa Pertambangan, pemegang Kontrak Karya dan pemegang Perjanjian Karya Pengusahaan Pertambangan Batubara wajib mempekerjakan tenaga kerja yang memiliki sertifikat kompetensi kerja sesuai SKKNI sebagaimana dimaksud dalam Pasal 1.</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Peraturan Pemerintah Nomor 96 Tahun 2021@lt614815d4f1925
+1. Kontraktor Kontrak Kerja Sama (“KKKS”) harus mengutamakan penggunaan Bank Umum Nasional dalam melakukan pembayaran kepada Penyedia Barang/Jasa baik untuk rekening pembayar maupun rekening penerima sebagaimana telah dirubah dalam Surat Keputusan Kepala BPMIGAS Nomor KEP- 0066/BP00000/2008/SO tentang Pelaksanaan Pengadaan Barang/Jasa yang mengubah isi Bab I huruf C angka 2 dan Bab III huruf A angka 9 a, PTK No.007/PTK/VI/2004 tentang Pengelolaan Rantai Suplai KKKS.
+2. Yang dimaksud dengan Penyedia Barang/Jasa dalam surat edaran ini adalah sebagaimana dinyatakan dalam PTK No.007/PTK/VI/2004 tentang Pengelolaan Rantai Suplai KKKS Buku II Bab l Huruf A 10.
+3. KKKS harus mengutamakan penggunaan Bank Umum Nasional dalam penggunaan jasa perbankan lain terkait kegiatan usaha hulu minyak dan gas bumi.</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pedoman Tata Kerja Nomor PTK-007/SKKIA0000/2023/S9 - Surat Keputusan Kepala SKKMIGAS Nomor KEP-0042/SKKIA0000/2023/S9 Tahun 2023@lt64364e41f280e
 Sanksi
-Pasal 185 &gt;&gt;&gt; @lt614815d4f1925
-(1) Pemegang IUP, IUPK, IPR, SIPB, atau IUP untuk Penjualan yang melakukan pelanggaran terhadap ketentuan sebagaimana dimaksud dalam […] Pasal 161 ayat (1) […] dikenai sanksi administratif.
-(2) sanksi administratif sebagaimana dimaksud pada ayat (1) benrpa:
-a. peringatan tertulis;
-b. penghentian sernentara sebagian atau seluruh kegiatan Eksplorasi atau Operasi produksi; dan/atau
-c. pencabutan IUP, IUPK, IPR, SIPB, atau IUP untuk Penjualan.
-(3) selain sanksi administratif sebagaimana dimaksud pada ayat (2), pemegang IUP, IUPK, IPR, atau SIPB, yang melakukan pelanggaran terhadap ketentuan sebagaimana dimaksud dalam pasal 51 ayat (2) huruf b dan Pasal 107 ayat (2) huruf b dikenai denda.
-(4) Pengenaan denda sebagaimana dimaksud pada ayat (3) dilaksanakan sesuai dengan ketentuan peraturan perundang-undangan di bidang pajak daerah dan retribusi daerah.
-Pasal 186 &gt;&gt;&gt; @lt614815d4f1925
-Peringatan tertulis sebagaimana dimaksud dalam pasal 185 ayat (2) huruf a diberikan paling banyak 3 (tiga) kali dengan jangka waktu peringatan masing-masing 30 (tiga puluh) hari kalender.
-Peraturan Menteri Energi dan Sumber Daya Mineral Nomor 7 Tahun 2020@lt5e6f51a775ad4
+LAMPIRAN
+BAB X
+1. Pengawasan Terhadap KKKS Cost Recovery
+1.2. Sanksi atas pelanggaran dalam pengelolaan Pengadaan Barang/Jasa berdasarkan hasil audit adalah sebagai berikut:
+1.2.1. Sanksi administrasi
+Berupa surat peringatan kepada pimpinan tertinggi KKKS Cost Recovery, jika:
+1.2.1.1. Tidak melaksanakan proses pengelolaan Pengadaan Barang/Jasa sesuai dengan ketentuan pedoman ini, Petunjuk Pelaksanaan Pengadaan Barang/Jasa, Dokumen Tender, dan/atau Kontrak;
+BAB XII
+3. Apabila KKKS Cost Recovery terbukti melakukan kelalaian, kesalahan, atau pelanggaran terhadap Peraturan Perundang-Undangan yang berlaku, maka KKKS Cost Recovery bertanggung jawab atas segala akibat hukum yang timbul dan melepaskan, membebaskan, dan membela SKK Migas dari dan terhadap setiap kerugian, tuntutan, dan gugatan hukum pihak ketiga sebagai akibat dari kelalaian, kesalahan, atau pelanggaran kewajiban hukum KKKS Cost Recovery terhadap Peraturan Perundang-Undangan yang berlaku.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>melakukanpembayarankepadapenyediabarang/jasadalamtahapeksploitasimelaluibankbadanusahamiliknegara(bumn)/daerah(bumd)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>pedomantatakerjanomorptk-007/skkia0000/2023/s9-suratkeputusankepalaskkmigasnomorkep-0042/skkia0000/2023/s9tahun2023kewajibanlampiranbabiv1.ketentuanumum1.7.kkkscostrecoverydalamtahapeksploitasiwajibmelaksanakanpembayarankepadapelaksanakontrakmenggunakanbankbumn/bumd.kkkscostrecoverydalamtahapeksplorasi,dapatmelaksanakanpembayaranmenggunakanbankbumn/bumdataubankumumswastanasional.ketentuaninidikecualikanuntukpelaksanaanpembayarankepadapelaksanakontrakyangberstatusperusahaanasing.suratedarankepalabpmigasnomoredr-0067/bp00000/2008/sotahun2008@28938kewajiban1.kontraktorkontrakkerjasama(“kkks”)harusmengutamakanpenggunaanbankumumnasionaldalammelakukanpembayarankepadapenyediabarang/jasabaikuntukrekeningpembayarmaupunrekeningpenerimasebagaimanatelahdirubahdalamsuratkeputusankepalabpmigasnomorkep-0066/bp00000/2008/sotentangpelaksanaanpengadaanbarang/jasayangmengubahisibabihurufcangka2danbabiiihurufaangka9a,ptkno.007/ptk/vi/2004tentangpengelolaanrantaisuplaikkks.2.yangdimaksuddenganpenyediabarang/jasadalamsuratedaraniniadalahsebagaimanadinyatakandalamptkno.007/ptk/vi/2004tentangpengelolaanrantaisuplaikkksbukuiibablhurufa10.3.kkksharusmengutamakanpenggunaanbankumumnasionaldalampenggunaanjasaperbankanlainterkaitkegiatanusahahuluminyakdangasbumi.</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>pedomantatakerjanomorptk-007/skkia0000/2023/s9-suratkeputusankepalaskkmigasnomorkep-0042/skkia0000/2023/s9tahun2023sanksilampiranbabx1.pengawasanterhadapkkkscostrecovery1.2.sanksiataspelanggarandalampengelolaanpengadaanbarang/jasaberdasarkanhasilauditadalahsebagaiberikut:1.2.1.sanksiadministrasiberupasuratperingatankepadapimpinantertinggikkkscostrecovery,jika:1.2.1.1.tidakmelaksanakanprosespengelolaanpengadaanbarang/jasasesuaidenganketentuanpedomanini,petunjukpelaksanaanpengadaanbarang/jasa,dokumentender,dan/ataukontrak;babxii3.apabilakkkscostrecoveryterbuktimelakukankelalaian,kesalahan,ataupelanggaranterhadapperaturanperundang-undanganyangberlaku,makakkkscostrecoverybertanggungjawabatassegalaakibathukumyangtimbuldanmelepaskan,membebaskan,danmembelaskkmigasdaridanterhadapsetiapkerugian,tuntutan,dangugatanhukumpihakketigasebagaiakibatdarikelalaian,kesalahan,ataupelanggarankewajibanhukumkkkscostrecoveryterhadapperaturanperundang-undanganyangberlaku.</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>93b5218837dafd40a2d82bc1cb0035bec5fc596ac013b3492e572b635c25a7c7</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Oil and Gas Procurement&gt;Pengadaan Barang dan Jasa dalam Kegiatan Usaha Hulu Minyak dan Gas Bumi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Melakukan pembayaran kepada Penyedia Barang/Jasa dalam tahap Eksplorasi melalui bank Badan Usaha Milik Negara (BUMN)/Daerah (BUMD), atau bank umum swasta nasional</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pedoman Tata Kerja Nomor PTK-007/SKKIA0000/2023/S9 - Surat Keputusan Kepala SKKMIGAS Nomor KEP-0042/SKKIA0000/2023/S9 Tahun 2023@lt64364e41f280e
+Kewajiban
+LAMPIRAN
+BAB IV
+1. Ketentuan Umum
+1.7. KKKS Cost Recovery dalam tahap eksploitasi wajib melaksanakan pembayaran kepada Pelaksana Kontrak menggunakan Bank BUMN/BUMD. KKKS Cost Recovery dalam tahap eksplorasi, dapat melaksanakan pembayaran menggunakan Bank BUMN/BUMD atau Bank Umum Swasta Nasional. Ketentuan ini dikecualikan untuk pelaksanaan pembayaran kepada Pelaksana Kontrak yang berstatus Perusahaan Asing.
+Surat Edaran Kepala BPMIGAS Nomor EDR-0067/BP00000/2008/SO Tahun 2008@28938
+Kewajiban
+1. Kontraktor Kontrak Kerja Sama (“KKKS”) harus mengutamakan penggunaan Bank Umum Nasional dalam melakukan pembayaran kepada Penyedia Barang/Jasa baik untuk rekening pembayar maupun rekening penerima sebagaimana telah dirubah dalam Surat Keputusan Kepala BPMIGAS Nomor KEP- 0066/BP00000/2008/SO tentang Pelaksanaan Pengadaan Barang/Jasa yang mengubah isi Bab I huruf C angka 2 dan Bab III huruf A angka 9 a, PTK No.007/PTK/VI/2004 tentang Pengelolaan Rantai Suplai KKKS.
+2. Yang dimaksud dengan Penyedia Barang/Jasa dalam surat edaran ini adalah sebagaimana dinyatakan dalam PTK No.007/PTK/VI/2004 tentang Pengelolaan Rantai Suplai KKKS Buku II Bab l Huruf A 10.
+3. KKKS harus mengutamakan penggunaan Bank Umum Nasional dalam penggunaan jasa perbankan lain terkait kegiatan usaha hulu minyak dan gas bumi.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pedoman Tata Kerja Nomor PTK-007/SKKIA0000/2023/S9 - Surat Keputusan Kepala SKKMIGAS Nomor KEP-0042/SKKIA0000/2023/S9 Tahun 2023@lt64364e41f280e
 Sanksi
-Pasal 95 
-(1) Pemegang IUP, IUPK, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, IUJP, dan IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, yang tidak mematuhi atau melanggar ketentuan sebagaimana dimaksud dalam [...] Pasal 72 huruf a atau huruf m [...].
-(2) Sanksi administratif sebagaimana dimaksud pada ayat (1) berupa:
-a. peringatan tertulis;
-b. penghentian sementara sebagian atau seluruh kegiatan usaha; dan/atau
-c. pencabutan izin.
-(3) Sanksi administratif sebagaimana dimaksud pada ayat (2) diberikan oleh Direktur Jenderal atas nama Menteri atau gubernur sesuai dengan kewenangannya.
-Peraturan Menteri Energi Dan Sumber Daya Mineral Nomor 25 Tahun 2018@lt5af950ccbfc3d
+LAMPIRAN
+BAB X
+1. Pengawasan Terhadap KKKS Cost Recovery
+1.2. Sanksi atas pelanggaran dalam pengelolaan Pengadaan Barang/Jasa berdasarkan hasil audit adalah sebagai berikut:
+1.2.1. Sanksi administrasi
+Berupa surat peringatan kepada pimpinan tertinggi KKKS Cost Recovery, jika:
+1.2.1.1. Tidak melaksanakan proses pengelolaan Pengadaan Barang/Jasa sesuai dengan ketentuan pedoman ini, Petunjuk Pelaksanaan Pengadaan Barang/Jasa, Dokumen Tender, dan/atau Kontrak;
+BAB XII
+3. Apabila KKKS Cost Recovery terbukti melakukan kelalaian, kesalahan, atau pelanggaran terhadap Peraturan Perundang-Undangan yang berlaku, maka KKKS Cost Recovery bertanggung jawab atas segala akibat hukum yang timbul dan melepaskan, membebaskan, dan membela SKK Migas dari dan terhadap setiap kerugian, tuntutan, dan gugatan hukum pihak ketiga sebagai akibat dari kelalaian, kesalahan, atau pelanggaran kewajiban hukum KKKS Cost Recovery terhadap Peraturan Perundang-Undangan yang berlaku.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>melakukanpembayarankepadapenyediabarang/jasadalamtahapeksplorasimelaluibankbadanusahamiliknegara(bumn)/daerah(bumd),ataubankumumswastanasional</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>pedomantatakerjanomorptk-007/skkia0000/2023/s9-suratkeputusankepalaskkmigasnomorkep-0042/skkia0000/2023/s9tahun2023kewajibanlampiranbabiv1.ketentuanumum1.7.kkkscostrecoverydalamtahapeksploitasiwajibmelaksanakanpembayarankepadapelaksanakontrakmenggunakanbankbumn/bumd.kkkscostrecoverydalamtahapeksplorasi,dapatmelaksanakanpembayaranmenggunakanbankbumn/bumdataubankumumswastanasional.ketentuaninidikecualikanuntukpelaksanaanpembayarankepadapelaksanakontrakyangberstatusperusahaanasing.suratedarankepalabpmigasnomoredr-0067/bp00000/2008/sotahun2008@28938kewajiban1.kontraktorkontrakkerjasama(“kkks”)harusmengutamakanpenggunaanbankumumnasionaldalammelakukanpembayarankepadapenyediabarang/jasabaikuntukrekeningpembayarmaupunrekeningpenerimasebagaimanatelahdirubahdalamsuratkeputusankepalabpmigasnomorkep-0066/bp00000/2008/sotentangpelaksanaanpengadaanbarang/jasayangmengubahisibabihurufcangka2danbabiiihurufaangka9a,ptkno.007/ptk/vi/2004tentangpengelolaanrantaisuplaikkks.2.yangdimaksuddenganpenyediabarang/jasadalamsuratedaraniniadalahsebagaimanadinyatakandalamptkno.007/ptk/vi/2004tentangpengelolaanrantaisuplaikkksbukuiibablhurufa10.3.kkksharusmengutamakanpenggunaanbankumumnasionaldalampenggunaanjasaperbankanlainterkaitkegiatanusahahuluminyakdangasbumi.</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>pedomantatakerjanomorptk-007/skkia0000/2023/s9-suratkeputusankepalaskkmigasnomorkep-0042/skkia0000/2023/s9tahun2023sanksilampiranbabx1.pengawasanterhadapkkkscostrecovery1.2.sanksiataspelanggarandalampengelolaanpengadaanbarang/jasaberdasarkanhasilauditadalahsebagaiberikut:1.2.1.sanksiadministrasiberupasuratperingatankepadapimpinantertinggikkkscostrecovery,jika:1.2.1.1.tidakmelaksanakanprosespengelolaanpengadaanbarang/jasasesuaidenganketentuanpedomanini,petunjukpelaksanaanpengadaanbarang/jasa,dokumentender,dan/ataukontrak;babxii3.apabilakkkscostrecoveryterbuktimelakukankelalaian,kesalahan,ataupelanggaranterhadapperaturanperundang-undanganyangberlaku,makakkkscostrecoverybertanggungjawabatassegalaakibathukumyangtimbuldanmelepaskan,membebaskan,danmembelaskkmigasdaridanterhadapsetiapkerugian,tuntutan,dangugatanhukumpihakketigasebagaiakibatdarikelalaian,kesalahan,ataupelanggarankewajibanhukumkkkscostrecoveryterhadapperaturanperundang-undanganyangberlaku.</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>9ad5b9f683fe90fe94ab3f49a87c037a8e406ab7016d1352979af687431b04e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Oil and Gas Procurement&gt;Pengadaan Barang dan Jasa dalam Kegiatan Usaha Hulu Minyak dan Gas Bumi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Menggunakan e-Catalog dalam hal SKK Migas telah mengembangkan e-Catalog untuk komoditas tertentu</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pedoman Tata Kerja Nomor PTK-007/SKKIA0000/2023/S9 - Surat Keputusan Kepala SKKMIGAS Nomor KEP-0042/SKKIA0000/2023/S9 Tahun 2023@lt64364e41f280e</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>menggunakane-catalogdalamhalskkmigastelahmengembangkane-cataloguntukkomoditastertentu</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>conditional</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>pedomantatakerjanomorptk-007/skkia0000/2023/s9-suratkeputusankepalaskkmigasnomorkep-0042/skkia0000/2023/s9tahun2023</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>7412b64dba8e3e271f6b168f50aec9298862d9d613f69824689ae60c3c12ac42</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Oil and Gas Procurement&gt;Pengadaan Barang dan Jasa dalam Kegiatan Usaha Hulu Minyak dan Gas Bumi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Melakukan konsolidasi data dan menyiapkan laporan berkala terkait dengan manajemen Kontrak</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pedoman Tata Kerja Nomor PTK-007/SKKIA0000/2023/S9 - Surat Keputusan Kepala SKKMIGAS Nomor KEP-0042/SKKIA0000/2023/S9 Tahun 2023@lt64364e41f280e</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>melakukankonsolidasidatadanmenyiapkanlaporanberkalaterkaitdenganmanajemenkontrak</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>pedomantatakerjanomorptk-007/skkia0000/2023/s9-suratkeputusankepalaskkmigasnomorkep-0042/skkia0000/2023/s9tahun2023</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>b00526511fc474059e29b2274cfb6ca693366f5bc4dd33340f508ecf03ab4d95</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Oil and Gas Procurement&gt;Pengadaan Barang dan Jasa dalam Kegiatan Usaha Hulu Minyak dan Gas Bumi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mengenakan sanksi berupa denda atas keterlambatan penyerahan barang atau pekerjaan</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Pedoman Tata Kerja Nomor PTK-007/SKKIA0000/2023/S9 - Surat Keputusan Kepala SKKMIGAS Nomor KEP-0042/SKKIA0000/2023/S9 Tahun 2023@lt64364e41f280e</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>mengenakansanksiberupadendaatasketerlambatanpenyerahanbarangataupekerjaan</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>pedomantatakerjanomorptk-007/skkia0000/2023/s9-suratkeputusankepalaskkmigasnomorkep-0042/skkia0000/2023/s9tahun2023</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>a2e7f07072f5ddc5b0967bc9492f8c8d3ca250b0b6a6610f7797e4426710258c</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Oil and Gas Procurement&gt;Pengadaan Barang dan Jasa dalam Kegiatan Usaha Hulu Minyak dan Gas Bumi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mendapatkan persetujuan dari SKK Migas untuk menginisiasi pemeriksaan kepatuhan Penyedia Barang/Jasa terhadap Undang-Undang Tindak Pidana Korupsi, Foreign Corrupt Practices Act (FCPA), dan Anti-bribery and Corruption (ABC) yang dilakukan oleh auditor independen</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Licensing</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Menyampaikan pemberitahuan mengenai auditor independen yang ditunjuk kepada Penyedia Barang/Jasa.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Pedoman Tata Kerja Nomor PTK-007/SKKIA0000/2023/S9 - Surat Keputusan Kepala SKKMIGAS Nomor KEP-0042/SKKIA0000/2023/S9 Tahun 2023@lt64364e41f280e
+Kewajiban
+LAMPIRAN
+BAB IX
+2. Pengawasan Penyedia Barang/Jasa
+Pengawasan berupa pemeriksaan dilakukan oleh KKKS Cost Recovery, SKK Migas atau auditor yang ditunjuk oleh SKK Migas secara current dan post audit, termasuk namun tidak terbatas pada kepatuhan terhadap Undang-Undang Tindak Pidana Korupsi, Foreign Corrupt Practices Act (FCPA), dan/atau Anti-Bribery and Corruption (ABC) berdasarkan data hardcopy dan data digital.
+2.2. Pemeriksaan kepatuhan terhadap Undang-Undang Tindak Pidana Korupsi, FCPA, dan/atau ABC dapat dilakukan oleh auditor independen dengan ketentuan:
+2.2.1. Apabila diinisiasi oleh KKKS Cost Recovery, maka harus mendapatkan persetujuan SKK Migas;
+2.2.2. Apabila diinisiasi oleh SKK Migas, maka SKK Migas akan memberitahukan dan melibatkan KKKS Cost Recovery;
+2.2.3. SKK Migas atau KKKS Cost Recovery memberitahukan kepada Pelaksana Kontrak mengenai auditor independen yang ditunjuk, dan Pelaksana Kontrak harus menyampaikan data hardcopy dan data digital kepada auditor independen tersebut; dan
+2.2.4. Biaya pemeriksaan dapat dibebankan sebagai biaya operasi berdasarkan KKS.</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Pedoman Tata Kerja Nomor PTK-007/SKKIA0000/2023/S9 - Surat Keputusan Kepala SKKMIGAS Nomor KEP-0042/SKKIA0000/2023/S9 Tahun 2023@lt64364e41f280e
 Sanksi
-Pasal 40 &gt;&gt;&gt; @lt5af950ccbfc3d
-(1)  Pemegang IUP Eksplorasi, IUPK Eksplorasi, IUP Operasi Produksi, IUPK Operasi Produksi, IUP Operasi Produksi khusus untuk pengolahan dan atau pemurnian, IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, dan Izin Usaha Jasa Pertambangan yang tidak mematuhi atau melanggar ketentuan sebagaimana dimaksud dalam Pasal 8 ayat (1) atau sampai dengan ayat (3), Pasal 9 ayat (1), Pasal 10 ayat (1), Pasal 11 ayat (1), Pasal 12 ayat (1), Pasal 13, Pasal 14 ayat (1) atau ayat (3), Pasal 16 ayat (1) atau ayat (6), Pasal 17 ayat (1), Pasal 18 ayat (1) atau sampai dengan ayat (6), Pasal 22, Pasal 24 ayat (1) atau ayat (3), Pasal 25 ayat (1), Pasal 26 ayat (1) atau ayat (2), Pasal 27 ayat (1), Pasal 29 ayat (1) atau ayat (3), Pasal 30 ayat (1) atau ayat (4), Pasal 33 ayat (1),  Pasal 38 ayat (1), ayat (4), ayat (6), atau ayat (7), atau Pasal 39 ayat (1) dikenakan sanksi administratif.
-(2) Sanksi administratif sebagaimana dimaksud pada ayat (1) berupa:
-a. peringatan tertulis;
-b. penghentian sementara sebagian atau seluruh kegiatan usaha; dan/atau
-c. pencabutan izin.
-(3)  Sanksi administratif sebagaimana dimaksud pada ayat (2) diberikan oleh Direktur Jenderal atas nama Menteri atau gubernur sesuai dengan kewenangannya.
-Pasal 41 &gt;&gt;&gt; @lt5af950ccbfc3d
-Peringatan tertulis sebagaimana dimaksud dalam Pasal 40 ayat (2) huruf a diberikan paling banyak 3 (tiga) kali dengan jangka waktu peringatan masing-masing paling lama 30 (tiga puluh) hari kalender.
-Pasal 42 &gt;&gt;&gt; @lt5af950ccbfc3d
-(1) Dalam hal pemegang IUP Eksplorasi, IUPK Eksplorasi, IUP Operasi Produksi, IUPK Operasi Produksi, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, atau Izin Usaha Jasa Pertambangan yang mendapat sanksi peringatan tertulis setelah berakhirnya jangka waktu peringatan tertulis sebagaimana dimaksud dalam Pasal 40 ayat (2) huruf a belum melaksanakan kewajibannya, dikenakan sanksi administratif berupa penghentian sementara sebagian atau seluruh kegiatan usaha sebagaimana dimaksud dalam Pasal 40 ayat (2) huruf b.
-(2) Sanksi administratif berupa penghentian sementara sebagian atau seluruh kegiatan usaha sebagaimana dimaksud pada ayat (1) dikenakan paling lama 60 (enam puluh) hari kalender.
-Pasal 43 &gt;&gt;&gt; @lt5af950ccbfc3d
-Sanksi administratif berupa pencabutan izin sebagaimana dimaksud dalam Pasal 40 ayat (2) huruf c dikenakan kepada pemegang IUP Eksplorasi, IUPK Eksplorasi, IUP Operasi Produksi, IUPK Operasi Produksi, IUP Operasi Produksi khusus untuk pengolahan dan/atau pemurnian, IUP Operasi Produksi khusus untuk pengangkutan dan penjualan, atau Izin Usaha Jasa Pertambangan yang tidak melaksanakan kewajiban sampai dengan berakhirnya jangka waktu pengenaan sanksi berupa penghentian sementara sebagian atau seluruh kegiatan usaha sebagaimana dimaksud dalam Pasal 42 ayat (2) huruf b.</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>1774</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4886</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>mengutamakanpenggunaantenagakerjasetempat,bagipemegangiupeksplorasi,iupkeksplorasi,iupoperasiproduksi,iupkoperasiproduksi,daniupoperasiproduksikhususuntukpengolahandan/ataupemurnian</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
+LAMPIRAN
+BAB X
+1. Pengawasan Terhadap KKKS Cost Recovery
+1.2. Sanksi atas pelanggaran dalam pengelolaan Pengadaan Barang/Jasa berdasarkan hasil audit adalah sebagai berikut:
+1.2.1. Sanksi administrasi
+Berupa surat peringatan kepada pimpinan tertinggi KKKS Cost Recovery, jika:
+1.2.1.1. Tidak melaksanakan proses pengelolaan Pengadaan Barang/Jasa sesuai dengan ketentuan pedoman ini, Petunjuk Pelaksanaan Pengadaan Barang/Jasa, Dokumen Tender, dan/atau Kontrak;
+1.2.2. Sanksi finansial
+Tidak dapat dibebankan sebagai biaya operasi berdasarkan KKS pada periode perhitungan berikutnya atau setelah wilayah kerja KKKS Cost Recovery dalam tahap eksplorasi dinyatakan komersial untuk dikembangkan, untuk:
+1.2.2.2. Seluruh nilai Kontrak yang terealisasi, jika:
+1.2.2.2.5. Pelaksana Kontrak tidak bersedia dilakukan audit kepatuhan terhadap Undang-Undang Tindak Pidana Korupsi, Foreign Corrupt Practices Act (FCPA), dan/atau Anti-Bribery and Corruption (ABC) untuk Pengadaan Barang/Jasa dari Kontrak dimaksud.
+BAB XII
+3. Apabila KKKS Cost Recovery terbukti melakukan kelalaian, kesalahan, atau pelanggaran terhadap Peraturan Perundang-Undangan yang berlaku, maka KKKS Cost Recovery bertanggung jawab atas segala akibat hukum yang timbul dan melepaskan, membebaskan, dan membela SKK Migas dari dan terhadap setiap kerugian, tuntutan, dan gugatan hukum pihak ketiga sebagai akibat dari kelalaian, kesalahan, atau pelanggaran kewajiban hukum KKKS Cost Recovery terhadap Peraturan Perundang-Undangan yang berlaku.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>mendapatkanpersetujuandariskkmigasuntukmenginisiasipemeriksaankepatuhanpenyediabarang/jasaterhadapundang-undangtindakpidanakorupsi,foreigncorruptpracticesact(fcpa),dananti-briberyandcorruption(abc)yangdilakukanolehauditorindependen</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>licensing</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>menyampaikanpemberitahuanmengenaiauditorindependenyangditunjukkepadapenyediabarang/jasa.</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>pedomantatakerjanomorptk-007/skkia0000/2023/s9-suratkeputusankepalaskkmigasnomorkep-0042/skkia0000/2023/s9tahun2023kewajibanlampiranbabix2.pengawasanpenyediabarang/jasapengawasanberupapemeriksaandilakukanolehkkkscostrecovery,skkmigasatauauditoryangditunjukolehskkmigassecaracurrentdanpostaudit,termasuknamuntidakterbataspadakepatuhanterhadapundang-undangtindakpidanakorupsi,foreigncorruptpracticesact(fcpa),dan/atauanti-briberyandcorruption(abc)berdasarkandatahardcopydandatadigital.2.2.pemeriksaankepatuhanterhadapundang-undangtindakpidanakorupsi,fcpa,dan/atauabcdapatdilakukanolehauditorindependendenganketentuan:2.2.1.apabiladiinisiasiolehkkkscostrecovery,makaharusmendapatkanpersetujuanskkmigas;2.2.2.apabiladiinisiasiolehskkmigas,makaskkmigasakanmemberitahukandanmelibatkankkkscostrecovery;2.2.3.skkmigasataukkkscostrecoverymemberitahukankepadapelaksanakontrakmengenaiauditorindependenyangditunjuk,danpelaksanakontrakharusmenyampaikandatahardcopydandatadigitalkepadaauditorindependentersebut;dan2.2.4.biayapemeriksaandapatdibebankansebagaibiayaoperasiberdasarkankks.</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>pedomantatakerjanomorptk-007/skkia0000/2023/s9-suratkeputusankepalaskkmigasnomorkep-0042/skkia0000/2023/s9tahun2023sanksilampiranbabx1.pengawasanterhadapkkkscostrecovery1.2.sanksiataspelanggarandalampengelolaanpengadaanbarang/jasaberdasarkanhasilauditadalahsebagaiberikut:1.2.1.sanksiadministrasiberupasuratperingatankepadapimpinantertinggikkkscostrecovery,jika:1.2.1.1.tidakmelaksanakanprosespengelolaanpengadaanbarang/jasasesuaidenganketentuanpedomanini,petunjukpelaksanaanpengadaanbarang/jasa,dokumentender,dan/ataukontrak;1.2.2.sanksifinansialtidakdapatdibebankansebagaibiayaoperasiberdasarkankkspadaperiodeperhitunganberikutnyaatausetelahwilayahkerjakkkscostrecoverydalamtahapeksplorasidinyatakankomersialuntukdikembangkan,untuk:1.2.2.2.seluruhnilaikontrakyangterealisasi,jika:1.2.2.2.5.pelaksanakontraktidakbersediadilakukanauditkepatuhanterhadapundang-undangtindakpidanakorupsi,foreigncorruptpracticesact(fcpa),dan/atauanti-briberyandcorruption(abc)untukpengadaanbarang/jasadarikontrakdimaksud.babxii3.apabilakkkscostrecoveryterbuktimelakukankelalaian,kesalahan,ataupelanggaranterhadapperaturanperundang-undanganyangberlaku,makakkkscostrecoverybertanggungjawabatassegalaakibathukumyangtimbuldanmelepaskan,membebaskan,danmembelaskkmigasdaridanterhadapsetiapkerugian,tuntutan,dangugatanhukumpihakketigasebagaiakibatdarikelalaian,kesalahan,ataupelanggarankewajibanhukumkkkscostrecoveryterhadapperaturanperundang-undanganyangberlaku.</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>c38307b641c2dac7b217f2111f1bd40651f88dc5a17df151d2db25d4c2f3bb06</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Oil and Gas Procurement&gt;Pengadaan Barang dan Jasa dalam Kegiatan Usaha Hulu Minyak dan Gas Bumi</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Memfasilitasi audit kepatuhan Kontraktor terhadap Undang-Undang Tindak Pidana Korupsi, Foreign Corrupt Practices Act (FCPA), dan Anti-bribery and Corruption (ABC)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Pedoman Tata Kerja Nomor PTK-007/SKKIA0000/2023/S9 - Surat Keputusan Kepala SKKMIGAS Nomor KEP-0042/SKKIA0000/2023/S9 Tahun 2023@lt64364e41f280e
+Kewajiban
+LAMPIRAN
+BAB X
+1. Pengawasan Terhadap KKKS Cost Recovery
+1.1. Pengawasan dilakukan oleh SKK Migas, auditor yang ditunjuk oleh SKK Migas, dan/atau auditor pemerintah secara pre, current, dan post audit terhadap seluruh rangkaian kegiatan pengelolaan Pengadaan Barang/Jasa sebagaimana diatur dalam pedoman ini, termasuk namun tidak terbatas pada kepatuhan terhadap Undang-Undang Tindak Pidana Korupsi, Foreign Corrupt Practices Act (FCPA), dan/atau Anti-Bribery and Corruption (ABC).
+1.2. Sanksi atas pelanggaran dalam pengelolaan Pengadaan Barang/Jasa berdasarkan hasil audit adalah sebagai berikut:
+1.2.2. Sanksi finansial
+Tidak dapat dibebankan sebagai biaya operasi berdasarkan KKS pada periode perhitungan berikutnya atau setelah wilayah kerja KKKS Cost Recovery dalam tahap eksplorasi dinyatakan komersial untuk dikembangkan, untuk:
+1.2.2.2. Seluruh nilai Kontrak yang terealisasi, jika:
+1.2.2.2.3. KKKS Cost Recovery tidak bersedia dilakukan audit kepatuhan terhadap Undang-Undang Tindak Pidana Korupsi, Foreign Corrupt Practices Act (FCPA), dan/atau Anti-Bribery and Corruption (ABC);</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Pedoman Tata Kerja Nomor PTK-007/SKKIA0000/2023/S9 - Surat Keputusan Kepala SKKMIGAS Nomor KEP-0042/SKKIA0000/2023/S9 Tahun 2023@lt64364e41f280e
+Sanksi
+LAMPIRAN
+BAB X
+1. Pengawasan Terhadap KKKS Cost Recovery
+1.1. Pengawasan dilakukan oleh SKK Migas, auditor yang ditunjuk oleh SKK Migas, dan/atau auditor pemerintah secara pre, current, dan post audit terhadap seluruh rangkaian kegiatan pengelolaan Pengadaan Barang/Jasa sebagaimana diatur dalam pedoman ini, termasuk namun tidak terbatas pada kepatuhan terhadap Undang-Undang Tindak Pidana Korupsi, Foreign Corrupt Practices Act (FCPA), dan/atau Anti-Bribery and Corruption (ABC).
+1.2. Sanksi atas pelanggaran dalam pengelolaan Pengadaan Barang/Jasa berdasarkan hasil audit adalah sebagai berikut:
+1.2.2. Sanksi finansial
+Tidak dapat dibebankan sebagai biaya operasi berdasarkan KKS pada periode perhitungan berikutnya atau setelah wilayah kerja KKKS Cost Recovery dalam tahap eksplorasi dinyatakan komersial untuk dikembangkan, untuk:
+1.2.2.2. Seluruh nilai Kontrak yang terealisasi, jika:
+1.2.2.2.3. KKKS Cost Recovery tidak bersedia dilakukan audit kepatuhan terhadap Undang-Undang Tindak Pidana Korupsi, Foreign Corrupt Practices Act (FCPA), dan/atau Anti-Bribery and Corruption (ABC);
+BAB XII
+3. Apabila KKKS Cost Recovery terbukti melakukan kelalaian, kesalahan, atau pelanggaran terhadap Peraturan Perundang-Undangan yang berlaku, maka KKKS Cost Recovery bertanggung jawab atas segala akibat hukum yang timbul dan melepaskan, membebaskan, dan membela SKK Migas dari dan terhadap setiap kerugian, tuntutan, dan gugatan hukum pihak ketiga sebagai akibat dari kelalaian, kesalahan, atau pelanggaran kewajiban hukum KKKS Cost Recovery terhadap Peraturan Perundang-Undangan yang berlaku.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>memfasilitasiauditkepatuhankontraktorterhadapundang-undangtindakpidanakorupsi,foreigncorruptpracticesact(fcpa),dananti-briberyandcorruption(abc)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>continuous</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>administratif</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1.menyusundanmembiayaiprogrampendidikandanpelatihantenagakerjasetempatdan/ataunasional</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>peraturanpemerintahnomor96tahun2021kewajibanpasal161(1)pemegangiupdaniupkwajibmengutamakanpenggunaantenagakerjasetempat.(2)dalamhaltidaktersediatenagakerjasetempatsebagaimanadimaksudpadaayat(1)yangmemilikikompetensidankeahlian,pemegangiupdaniupkdapatmenggunakantenagakerjanasional.(3)dalamhaltidaktersediatenagakerjanasionaisebagainranadimaksudpadaayat(2)yangmemilikikompetensidankeahlian,pemegangiupdaniupkdapatmenggunakantenagakerjaasingsetelahmendapatkanpersetujuandariinstansiyangmenyelenggarakanurusanpemerintahandibidangketenagakerjaan.peraturanmenterienergidansumberdayamineralnomor25tahun2018kewajibanpasal29(1)pemegangiupeksplorasi,iupkeksplorasi,iupoperasiproduksi,iupkoperasiproduksi,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,danizinusahajasapertambanganwajibmengutamakantenagakerjasetempatdan/ataunasional.[...](3)pemegangiupeksplorasi,iupkeksplorasi,iupoperasiproduksi,iupkoperasiproduksi,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,danizinusahajasapertambanganwajibmenyusundanmembiayaiprogrampendidikandanpelatihantenagakerjasetempatdan/ataunasional.peraturanmenterienergidansumberdayamineralnomor39tahun2008kewajibanpasal3dalammelaksanakankegiatanusahapertambanganmineraldanbatubara,pemegangkuasapertambangan,pemegangkontrakkaryadanpemegangperjanjiankaryapengusahaanpertambanganbatubarawajibmempekerjakantenagakerjayangmemilikisertifikatkompetensikerjasesuaiskknisebagaimanadimaksuddalampasal1.</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>peraturanpemerintahnomor96tahun2021sanksipasal185(1)pemegangiup,iupk,ipr,sipb,atauiupuntukpenjualanyangmelakukanpelanggaranterhadapketentuansebagaimanadimaksuddalam[…]pasal161ayat(1)[…]dikenaisanksiadministratif.(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)benrpa:a.peringatantertulis;b.penghentiansernentarasebagianatauseluruhkegiataneksplorasiatauoperasiproduksi;dan/atauc.pencabutaniup,iupk,ipr,sipb,atauiupuntukpenjualan.(3)selainsanksiadministratifsebagaimanadimaksudpadaayat(2),pemegangiup,iupk,ipr,atausipb,yangmelakukanpelanggaranterhadapketentuansebagaimanadimaksuddalampasal51ayat(2)hurufbdanpasal107ayat(2)hurufbdikenaidenda.(4)pengenaandendasebagaimanadimaksudpadaayat(3)dilaksanakansesuaidenganketentuanperaturanperundang-undangandibidangpajakdaerahdanretribusidaerah.pasal186peringatantertulissebagaimanadimaksuddalampasal185ayat(2)hurufadiberikanpalingbanyak3(tiga)kalidenganjangkawaktuperingatanmasing-masing30(tigapuluh)harikalender.peraturanmenterienergidansumberdayamineralnomor7tahun2020sanksipasal95(1)pemegangiup,iupk,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,iujp,daniupoperasiproduksikhususuntukpengangkutandanpenjualan,yangtidakmematuhiataumelanggarketentuansebagaimanadimaksuddalam[...]pasal72hurufaatauhurufm[...].(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)berupa:a.peringatantertulis;b.penghentiansementarasebagianatauseluruhkegiatanusaha;dan/atauc.pencabutanizin.(3)sanksiadministratifsebagaimanadimaksudpadaayat(2)diberikanolehdirekturjenderalatasnamamenteriataugubernursesuaidengankewenangannya.peraturanmenterienergidansumberdayamineralnomor25tahun2018sanksipasal40(1)pemegangiupeksplorasi,iupkeksplorasi,iupoperasiproduksi,iupkoperasiproduksi,iupoperasiproduksikhususuntukpengolahandanataupemurnian,iupoperasiproduksikhususuntukpengangkutandanpenjualan,danizinusahajasapertambanganyangtidakmematuhiataumelanggarketentuansebagaimanadimaksuddalampasal8ayat(1)atausampaidenganayat(3),pasal9ayat(1),pasal10ayat(1),pasal11ayat(1),pasal12ayat(1),pasal13,pasal14ayat(1)atauayat(3),pasal16ayat(1)atauayat(6),pasal17ayat(1),pasal18ayat(1)atausampaidenganayat(6),pasal22,pasal24ayat(1)atauayat(3),pasal25ayat(1),pasal26ayat(1)atauayat(2),pasal27ayat(1),pasal29ayat(1)atauayat(3),pasal30ayat(1)atauayat(4),pasal33ayat(1),pasal38ayat(1),ayat(4),ayat(6),atauayat(7),ataupasal39ayat(1)dikenakansanksiadministratif.(2)sanksiadministratifsebagaimanadimaksudpadaayat(1)berupa:a.peringatantertulis;b.penghentiansementarasebagianatauseluruhkegiatanusaha;dan/atauc.pencabutanizin.(3)sanksiadministratifsebagaimanadimaksudpadaayat(2)diberikanolehdirekturjenderalatasnamamenteriataugubernursesuaidengankewenangannya.pasal41peringatantertulissebagaimanadimaksuddalampasal40ayat(2)hurufadiberikanpalingbanyak3(tiga)kalidenganjangkawaktuperingatanmasing-masingpalinglama30(tigapuluh)harikalender.pasal42(1)dalamhalpemegangiupeksplorasi,iupkeksplorasi,iupoperasiproduksi,iupkoperasiproduksi,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,iupoperasiproduksikhususuntukpengangkutandanpenjualan,atauizinusahajasapertambanganyangmendapatsanksiperingatantertulissetelahberakhirnyajangkawaktuperingatantertulissebagaimanadimaksuddalampasal40ayat(2)hurufabelummelaksanakankewajibannya,dikenakansanksiadministratifberupapenghentiansementarasebagianatauseluruhkegiatanusahasebagaimanadimaksuddalampasal40ayat(2)hurufb.(2)sanksiadministratifberupapenghentiansementarasebagianatauseluruhkegiatanusahasebagaimanadimaksudpadaayat(1)dikenakanpalinglama60(enampuluh)harikalender.pasal43sanksiadministratifberupapencabutanizinsebagaimanadimaksuddalampasal40ayat(2)hurufcdikenakankepadapemegangiupeksplorasi,iupkeksplorasi,iupoperasiproduksi,iupkoperasiproduksi,iupoperasiproduksikhususuntukpengolahandan/ataupemurnian,iupoperasiproduksikhususuntukpengangkutandanpenjualan,atauizinusahajasapertambanganyangtidakmelaksanakankewajibansampaidenganberakhirnyajangkawaktupengenaansanksiberupapenghentiansementarasebagianatauseluruhkegiatanusahasebagaimanadimaksuddalampasal42ayat(2)hurufb.</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>60067fe237909f5498f70c12409e0d2e803f203268213ed2839229c8999e1bf4</t>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>pedomantatakerjanomorptk-007/skkia0000/2023/s9-suratkeputusankepalaskkmigasnomorkep-0042/skkia0000/2023/s9tahun2023kewajibanlampiranbabx1.pengawasanterhadapkkkscostrecovery1.1.pengawasandilakukanolehskkmigas,auditoryangditunjukolehskkmigas,dan/atauauditorpemerintahsecarapre,current,danpostauditterhadapseluruhrangkaiankegiatanpengelolaanpengadaanbarang/jasasebagaimanadiaturdalampedomanini,termasuknamuntidakterbataspadakepatuhanterhadapundang-undangtindakpidanakorupsi,foreigncorruptpracticesact(fcpa),dan/atauanti-briberyandcorruption(abc).1.2.sanksiataspelanggarandalampengelolaanpengadaanbarang/jasaberdasarkanhasilauditadalahsebagaiberikut:1.2.2.sanksifinansialtidakdapatdibebankansebagaibiayaoperasiberdasarkankkspadaperiodeperhitunganberikutnyaatausetelahwilayahkerjakkkscostrecoverydalamtahapeksplorasidinyatakankomersialuntukdikembangkan,untuk:1.2.2.2.seluruhnilaikontrakyangterealisasi,jika:1.2.2.2.3.kkkscostrecoverytidakbersediadilakukanauditkepatuhanterhadapundang-undangtindakpidanakorupsi,foreigncorruptpracticesact(fcpa),dan/atauanti-briberyandcorruption(abc);</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>pedomantatakerjanomorptk-007/skkia0000/2023/s9-suratkeputusankepalaskkmigasnomorkep-0042/skkia0000/2023/s9tahun2023sanksilampiranbabx1.pengawasanterhadapkkkscostrecovery1.1.pengawasandilakukanolehskkmigas,auditoryangditunjukolehskkmigas,dan/atauauditorpemerintahsecarapre,current,danpostauditterhadapseluruhrangkaiankegiatanpengelolaanpengadaanbarang/jasasebagaimanadiaturdalampedomanini,termasuknamuntidakterbataspadakepatuhanterhadapundang-undangtindakpidanakorupsi,foreigncorruptpracticesact(fcpa),dan/atauanti-briberyandcorruption(abc).1.2.sanksiataspelanggarandalampengelolaanpengadaanbarang/jasaberdasarkanhasilauditadalahsebagaiberikut:1.2.2.sanksifinansialtidakdapatdibebankansebagaibiayaoperasiberdasarkankkspadaperiodeperhitunganberikutnyaatausetelahwilayahkerjakkkscostrecoverydalamtahapeksplorasidinyatakankomersialuntukdikembangkan,untuk:1.2.2.2.seluruhnilaikontrakyangterealisasi,jika:1.2.2.2.3.kkkscostrecoverytidakbersediadilakukanauditkepatuhanterhadapundang-undangtindakpidanakorupsi,foreigncorruptpracticesact(fcpa),dan/atauanti-briberyandcorruption(abc);babxii3.apabilakkkscostrecoveryterbuktimelakukankelalaian,kesalahan,ataupelanggaranterhadapperaturanperundang-undanganyangberlaku,makakkkscostrecoverybertanggungjawabatassegalaakibathukumyangtimbuldanmelepaskan,membebaskan,danmembelaskkmigasdaridanterhadapsetiapkerugian,tuntutan,dangugatanhukumpihakketigasebagaiakibatdarikelalaian,kesalahan,ataupelanggarankewajibanhukumkkkscostrecoveryterhadapperaturanperundang-undanganyangberlaku.</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1e3ad0d8179e40d4bd6c008ca1402344f3e761f2d20625f66f58464b4c98626f</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Oil and Gas Procurement&gt;Pengadaan Barang dan Jasa dalam Kegiatan Usaha Hulu Minyak dan Gas Bumi</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Dilarang menandatangani Kontrak baru dengan Penyedia Barang/Jasa yang tidak bersedia untuk dilakukan audit kepatuhan terhadap Undang-Undang Tindak Pidana Korupsi dan telah dikenakan sanksi oleh SKK Migas</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Prohibition</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Pedoman Tata Kerja Nomor PTK-007/SKKIA0000/2023/S9 - Surat Keputusan Kepala SKKMIGAS Nomor KEP-0042/SKKIA0000/2023/S9 Tahun 2023@lt64364e41f280e
+Kewajiban
+LAMPIRAN
+BAB X
+1. Pengawasan Terhadap KKKS Cost Recovery
+1.1. Pengawasan dilakukan oleh SKK Migas, auditor yang ditunjuk oleh SKK Migas, dan/atau auditor pemerintah secara pre, current, dan post audit terhadap seluruh rangkaian kegiatan pengelolaan Pengadaan Barang/Jasa sebagaimana diatur dalam pedoman ini, termasuk namun tidak terbatas pada kepatuhan terhadap Undang-Undang Tindak Pidana Korupsi, Foreign Corrupt Practices Act (FCPA), dan/atau Anti-Bribery and Corruption (ABC).
+1.2. Sanksi atas pelanggaran dalam pengelolaan Pengadaan Barang/Jasa berdasarkan hasil audit adalah sebagai berikut:
+1.2.2. Sanksi finansial
+Tidak dapat dibebankan sebagai biaya operasi berdasarkan KKS pada periode perhitungan berikutnya atau setelah wilayah kerja KKKS Cost Recovery dalam tahap eksplorasi dinyatakan komersial untuk dikembangkan, untuk:
+1.2.2.2. Seluruh nilai Kontrak yang terealisasi, jika:
+1.2.2.2.4. KKKS Cost Recovery menandatangani Kontrak baru dengan Penyedia Barang/Jasa yang tidak bersedia dilakukan audit kepatuhan terhadap Undang-Undang Tipikor setelah penetapan sanksi oleh SKK Migas; atau</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Pedoman Tata Kerja Nomor PTK-007/SKKIA0000/2023/S9 - Surat Keputusan Kepala SKKMIGAS Nomor KEP-0042/SKKIA0000/2023/S9 Tahun 2023@lt64364e41f280e
+Sanksi
+LAMPIRAN
+BAB X
+1. Pengawasan Terhadap KKKS Cost Recovery
+1.2. Sanksi atas pelanggaran dalam pengelolaan Pengadaan Barang/Jasa berdasarkan hasil audit adalah sebagai berikut:
+1.2.1. Sanksi administrasi
+Berupa surat peringatan kepada pimpinan tertinggi KKKS Cost Recovery, jika:
+1.2.1.1. Tidak melaksanakan proses pengelolaan Pengadaan Barang/Jasa sesuai dengan ketentuan pedoman ini, Petunjuk Pelaksanaan Pengadaan Barang/Jasa, Dokumen Tender, dan/atau Kontrak;
+1.2.2. Sanksi finansial
+Tidak dapat dibebankan sebagai biaya operasi berdasarkan KKS pada periode perhitungan berikutnya atau setelah wilayah kerja KKKS Cost Recovery dalam tahap eksplorasi dinyatakan komersial untuk dikembangkan, untuk:
+1.2.2.2. Seluruh nilai Kontrak yang terealisasi, jika:
+1.2.2.2.4. KKKS Cost Recovery menandatangani Kontrak baru dengan Penyedia Barang/Jasa yang tidak bersedia dilakukan audit kepatuhan terhadap Undang-Undang Tipikor setelah penetapan sanksi oleh SKK Migas; atau
+BAB XII
+3. Apabila KKKS Cost Recovery terbukti melakukan kelalaian, kesalahan, atau pelanggaran terhadap Peraturan Perundang-Undangan yang berlaku, maka KKKS Cost Recovery bertanggung jawab atas segala akibat hukum yang timbul dan melepaskan, membebaskan, dan membela SKK Migas dari dan terhadap setiap kerugian, tuntutan, dan gugatan hukum pihak ketiga sebagai akibat dari kelalaian, kesalahan, atau pelanggaran kewajiban hukum KKKS Cost Recovery terhadap Peraturan Perundang-Undangan yang berlaku.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>dilarangmenandatanganikontrakbarudenganpenyediabarang/jasayangtidakbersediauntukdilakukanauditkepatuhanterhadapundang-undangtindakpidanakorupsidantelahdikenakansanksiolehskkmigas</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>prohibition</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>pedomantatakerjanomorptk-007/skkia0000/2023/s9-suratkeputusankepalaskkmigasnomorkep-0042/skkia0000/2023/s9tahun2023kewajibanlampiranbabx1.pengawasanterhadapkkkscostrecovery1.1.pengawasandilakukanolehskkmigas,auditoryangditunjukolehskkmigas,dan/atauauditorpemerintahsecarapre,current,danpostauditterhadapseluruhrangkaiankegiatanpengelolaanpengadaanbarang/jasasebagaimanadiaturdalampedomanini,termasuknamuntidakterbataspadakepatuhanterhadapundang-undangtindakpidanakorupsi,foreigncorruptpracticesact(fcpa),dan/atauanti-briberyandcorruption(abc).1.2.sanksiataspelanggarandalampengelolaanpengadaanbarang/jasaberdasarkanhasilauditadalahsebagaiberikut:1.2.2.sanksifinansialtidakdapatdibebankansebagaibiayaoperasiberdasarkankkspadaperiodeperhitunganberikutnyaatausetelahwilayahkerjakkkscostrecoverydalamtahapeksplorasidinyatakankomersialuntukdikembangkan,untuk:1.2.2.2.seluruhnilaikontrakyangterealisasi,jika:1.2.2.2.4.kkkscostrecoverymenandatanganikontrakbarudenganpenyediabarang/jasayangtidakbersediadilakukanauditkepatuhanterhadapundang-undangtipikorsetelahpenetapansanksiolehskkmigas;atau</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>pedomantatakerjanomorptk-007/skkia0000/2023/s9-suratkeputusankepalaskkmigasnomorkep-0042/skkia0000/2023/s9tahun2023sanksilampiranbabx1.pengawasanterhadapkkkscostrecovery1.2.sanksiataspelanggarandalampengelolaanpengadaanbarang/jasaberdasarkanhasilauditadalahsebagaiberikut:1.2.1.sanksiadministrasiberupasuratperingatankepadapimpinantertinggikkkscostrecovery,jika:1.2.1.1.tidakmelaksanakanprosespengelolaanpengadaanbarang/jasasesuaidenganketentuanpedomanini,petunjukpelaksanaanpengadaanbarang/jasa,dokumentender,dan/ataukontrak;1.2.2.sanksifinansialtidakdapatdibebankansebagaibiayaoperasiberdasarkankkspadaperiodeperhitunganberikutnyaatausetelahwilayahkerjakkkscostrecoverydalamtahapeksplorasidinyatakankomersialuntukdikembangkan,untuk:1.2.2.2.seluruhnilaikontrakyangterealisasi,jika:1.2.2.2.4.kkkscostrecoverymenandatanganikontrakbarudenganpenyediabarang/jasayangtidakbersediadilakukanauditkepatuhanterhadapundang-undangtipikorsetelahpenetapansanksiolehskkmigas;ataubabxii3.apabilakkkscostrecoveryterbuktimelakukankelalaian,kesalahan,ataupelanggaranterhadapperaturanperundang-undanganyangberlaku,makakkkscostrecoverybertanggungjawabatassegalaakibathukumyangtimbuldanmelepaskan,membebaskan,danmembelaskkmigasdaridanterhadapsetiapkerugian,tuntutan,dangugatanhukumpihakketigasebagaiakibatdarikelalaian,kesalahan,ataupelanggarankewajibanhukumkkkscostrecoveryterhadapperaturanperundang-undanganyangberlaku.</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>62a4d66d86b6c5bf5a4d649966ede3a51d86373eda4618b8f7d2f5759584a55b</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Oil and Gas Procurement&gt;Pengadaan Barang dan Jasa dalam Kegiatan Usaha Hulu Minyak dan Gas Bumi</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Menyampaikan Laporan Perubahan Lingkup Kontrak (PLK) per bulan kepada SKK Migas, paling lambat pada tanggal 5 (lima) bulan berikutnya</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Periodic</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1. Menyampaikan melalui Sistem Informasi Pengelolaan Rantai Suplai (SI-PRS) SKK Migas.
+2. Mengacu pada format yang tercantum dalam Lampiran 13 Pedoman Tata Kerja Nomor 007/SKKMA0000/2017/S0 - Surat Keputusan Kepala SKK Migas Nomor KEP-0041/SKKMA0000/2017/S0 Tahun 2017.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Pedoman Tata Kerja Nomor PTK-007/SKKIA0000/2023/S9 - Surat Keputusan Kepala SKKMIGAS Nomor KEP-0042/SKKIA0000/2023/S9 Tahun 2023@lt64364e41f280e</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>menyampaikanlaporanperubahanlingkupkontrak(plk)perbulankepadaskkmigas,palinglambatpadatanggal5(lima)bulanberikutnya</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>periodic</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>1.menyampaikanmelaluisisteminformasipengelolaanrantaisuplai(si-prs)skkmigas.2.mengacupadaformatyangtercantumdalamlampiran13pedomantatakerjanomor007/skkma0000/2017/s0-suratkeputusankepalaskkmigasnomorkep-0041/skkma0000/2017/s0tahun2017.</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>pedomantatakerjanomorptk-007/skkia0000/2023/s9-suratkeputusankepalaskkmigasnomorkep-0042/skkia0000/2023/s9tahun2023</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>37e7f7870117c815ddaa6cba28f1ec8e2d8328d8c51460b991d6f56670a2c875</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Oil and Gas Procurement&gt;Pengadaan Barang dan Jasa dalam Kegiatan Usaha Hulu Minyak dan Gas Bumi</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Menyampaikan Laporan Tahunan kepada SKK Migas, dalam jangka waktu 2 (dua) minggu setelah periode yang akan dilaporkan berakhir</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Periodic</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Menyampaikan melalui Sistem Informasi Pengelolaan Rantai Suplai (SI-PRS) SKK Migas.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Pedoman Tata Kerja Nomor PTK-007/SKKIA0000/2023/S9 - Surat Keputusan Kepala SKKMIGAS Nomor KEP-0042/SKKIA0000/2023/S9 Tahun 2023@lt64364e41f280e</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>menyampaikanlaporantahunankepadaskkmigas,dalamjangkawaktu2(dua)minggusetelahperiodeyangakandilaporkanberakhir</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>periodic</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>menyampaikanmelaluisisteminformasipengelolaanrantaisuplai(si-prs)skkmigas.</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>pedomantatakerjanomorptk-007/skkia0000/2023/s9-suratkeputusankepalaskkmigasnomorkep-0042/skkia0000/2023/s9tahun2023</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>174a99c2ea20707ac0a0599699724e6b892e16fe70780cb2f5c89cda8e6228ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Oil and Gas Procurement&gt;Pengadaan Barang dan Jasa dalam Kegiatan Usaha Hulu Minyak dan Gas Bumi</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Menyampaikan Laporan Penutupan Kontrak dengan nilai lebih dari Rp5.000.000.000,00 (lima miliar rupiah) kepada SKK Migas, dalam jangka waktu 3 (tiga) minggu setelah seluruh hak dan kewajiban para pihak selesai dilaksanakan</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1. Menyampaikan melalui Sistem Informasi Pengelolaan Rantai Suplai (SI-PRS) SKK Migas.
+2. Melaporkan realisasi nilai Kontrak dan realisasi pencapaian Tingkat Komponen Dalam Negeri (TKDN) berdasarkan hasil verifikasi.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Pedoman Tata Kerja Nomor PTK-007/SKKIA0000/2023/S9 - Surat Keputusan Kepala SKKMIGAS Nomor KEP-0042/SKKIA0000/2023/S9 Tahun 2023@lt64364e41f280e</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>menyampaikanlaporanpenutupankontrakdengannilailebihdarirp5.000.000.000,00(limamiliarrupiah)kepadaskkmigas,dalamjangkawaktu3(tiga)minggusetelahseluruhhakdankewajibanparapihakselesaidilaksanakan</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>1.menyampaikanmelaluisisteminformasipengelolaanrantaisuplai(si-prs)skkmigas.2.melaporkanrealisasinilaikontrakdanrealisasipencapaiantingkatkomponendalamnegeri(tkdn)berdasarkanhasilverifikasi.</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>pedomantatakerjanomorptk-007/skkia0000/2023/s9-suratkeputusankepalaskkmigasnomorkep-0042/skkia0000/2023/s9tahun2023</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>8eb7516a4ec7f8a831da61239b26ca42420b3bd07f0e0d78c23e5abc9b5b639a</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Oil and Gas Procurement&gt;Pengadaan Barang dan Jasa dalam Kegiatan Usaha Hulu Minyak dan Gas Bumi</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Menyampaikan Laporan Penunjukan Langsung Penyedia Barang/Jasa Afiliasi Badan Usaha Milik Negara (BUMN) oleh Kontraktor Afiliasi BUMN kepada SKK Migas secara berkala, paling sedikit 1 (satu) kali setahun</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Periodic</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Melaporkan dalam bentuk soft copy dan hard copy: a. realisasi upaya peningkatan efektivitas dan percepatan proses Pengadaan Barang/Jasa yang dilaksanakan; dan b. realisasi komitmen peningkatan kapabilitas, penambahan investasi dalam kepemilikan peralatan/fasilitas kerja, dan/atau penguasaan teknologi oleh Penyedia Barang/Jasa Afiliasi BUMN.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Pedoman Tata Kerja Nomor PTK-007/SKKIA0000/2023/S9 - Surat Keputusan Kepala SKKMIGAS Nomor KEP-0042/SKKIA0000/2023/S9 Tahun 2023@lt64364e41f280e</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>menyampaikanlaporanpenunjukanlangsungpenyediabarang/jasaafiliasibadanusahamiliknegara(bumn)olehkontraktorafiliasibumnkepadaskkmigassecaraberkala,palingsedikit1(satu)kalisetahun</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>periodic</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>melaporkandalambentuksoftcopydanhardcopy:a.realisasiupayapeningkatanefektivitasdanpercepatanprosespengadaanbarang/jasayangdilaksanakan;danb.realisasikomitmenpeningkatankapabilitas,penambahaninvestasidalamkepemilikanperalatan/fasilitaskerja,dan/ataupenguasaanteknologiolehpenyediabarang/jasaafiliasibumn.</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>pedomantatakerjanomorptk-007/skkia0000/2023/s9-suratkeputusankepalaskkmigasnomorkep-0042/skkia0000/2023/s9tahun2023</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>e040eb4e5c26117a6f1b962f6eb8d6de8051d66ea43b5b79eb83875ef1c70d46</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Oil and Gas Procurement&gt;Pengadaan Barang dan Jasa dalam Kegiatan Usaha Hulu Minyak dan Gas Bumi</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Menyampaikan Laporan Tahunan untuk sanggahan banding yang ditembuskan kepada SKK Migas, dalam jangka waktu 2 (dua) minggu setelah periode yang akan dilaporkan berakhir</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Periodic</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Administratif</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Melaporkan dalam bentuk soft copy dan hard copy.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Pedoman Tata Kerja Nomor PTK-007/SKKIA0000/2023/S9 - Surat Keputusan Kepala SKKMIGAS Nomor KEP-0042/SKKIA0000/2023/S9 Tahun 2023@lt64364e41f280e</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>menyampaikanlaporantahunanuntuksanggahanbandingyangditembuskankepadaskkmigas,dalamjangkawaktu2(dua)minggusetelahperiodeyangakandilaporkanberakhir</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>periodic</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>administratif</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>melaporkandalambentuksoftcopydanhardcopy.</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>pedomantatakerjanomorptk-007/skkia0000/2023/s9-suratkeputusankepalaskkmigasnomorkep-0042/skkia0000/2023/s9tahun2023</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>d2a1415f72eaa5e1ccc48dabda9e54f993f5e8d8f1e7e21e31bfc0ecca3431e8</t>
         </is>
       </c>
     </row>
